--- a/backend/copysheet.xlsx
+++ b/backend/copysheet.xlsx
@@ -14,7 +14,7 @@
     <sheet name="University Unions (Unions)" sheetId="5" r:id="rId5"/>
     <sheet name="metadata" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="135">
   <si>
     <t>Candidate Name</t>
   </si>
@@ -89,492 +89,309 @@
     <t>Rohit Mandalapu</t>
   </si>
   <si>
-    <t>Executive Alliance</t>
-  </si>
-  <si>
     <t>Vice President</t>
   </si>
   <si>
     <t>Plan II/Economics</t>
   </si>
   <si>
-    <t>Senior</t>
-  </si>
-  <si>
     <t>Braydon Jones</t>
   </si>
   <si>
-    <t>Executive Alliance</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
     <t>Government/LAH</t>
   </si>
   <si>
-    <t>Senior</t>
-  </si>
-  <si>
     <t>https://twitter.com/braydon_jones</t>
   </si>
   <si>
-    <t>Candidate Name</t>
-  </si>
-  <si>
-    <t>Candidate Name</t>
-  </si>
-  <si>
-    <t>Category Number</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
-    <t>Photo URL</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Photo Credit</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Statement</t>
-  </si>
-  <si>
-    <t>Campaign Platform Points</t>
-  </si>
-  <si>
-    <t>Twitter Feed URL</t>
-  </si>
-  <si>
-    <t>Campaign Website</t>
-  </si>
-  <si>
-    <t>Daily Texan Coverage Titles</t>
-  </si>
-  <si>
-    <t>Daily Texan Coverage URLs</t>
+    <t>Kimia Dargahi</t>
+  </si>
+  <si>
+    <t>International Relations &amp; Global Studies/LAH</t>
+  </si>
+  <si>
+    <t>Kallen Dimitroff</t>
+  </si>
+  <si>
+    <t>University-Wide Representatives</t>
+  </si>
+  <si>
+    <t>University-Wide Representative</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Kevin Helgren</t>
+  </si>
+  <si>
+    <t>Psychology/Neuroscience</t>
+  </si>
+  <si>
+    <t>Conlee Hamlin</t>
+  </si>
+  <si>
+    <t>Nutrition</t>
+  </si>
+  <si>
+    <t>Freshman</t>
+  </si>
+  <si>
+    <t>https://twitter.com/conlee_hamlin</t>
+  </si>
+  <si>
+    <t>Spencer Schredder</t>
+  </si>
+  <si>
+    <t>International Relations &amp; Global Studies</t>
+  </si>
+  <si>
+    <t>John Falke</t>
+  </si>
+  <si>
+    <t>BHP/Finance/Government</t>
+  </si>
+  <si>
+    <t>Sophomore</t>
+  </si>
+  <si>
+    <t>Santiago Rosales</t>
+  </si>
+  <si>
+    <t>Ryan Lim</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/bPntGgD.jpg</t>
+  </si>
+  <si>
+    <t>Courtesy</t>
+  </si>
+  <si>
+    <t>Hi I’m Ryan Lim and I’m here to challenge the perception on campus of what student government means. As the social chair for the Pi Kappa Phi Fraternity, I’ve learned some things. First, THE University of Texas has an astonishing amount of great people with different beliefs and ideas that should be embraced. Second, simply how to have fun. Though we all know that the most important reason to go to college is to get an education, that doesn’t mean college shouldn’t be fun. Though our Student Government has done great work for our university, do you feel that they are representative of you? You may see me in Professor Bonevac’s class or at Gregory, but you can also catch me at Blind Pig or at Roundup. Government should represent you, plain and simple. I believe that I am for the people and soon to be by the people.</t>
+  </si>
+  <si>
+    <t>Represent the UT community at large, with emphasis on those felt disenfranchised by the current system|||Act only on behalf of the Student population|||Oppose any legislation that infringes on the rights of Students|||Endeavor to bring West Campus back to its former Glory|||Maintain the notion that UT is the best place to attend college.</t>
+  </si>
+  <si>
+    <t>Valentina Rodriguez</t>
+  </si>
+  <si>
+    <t>College Representatives</t>
+  </si>
+  <si>
+    <t>Architecture Representative</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Brian Schwall</t>
+  </si>
+  <si>
+    <t>Communication Representatives</t>
+  </si>
+  <si>
+    <t>Communication Representative</t>
+  </si>
+  <si>
+    <t>Corporate Communication Studies</t>
+  </si>
+  <si>
+    <t>https://twitter.com/iceman81894</t>
+  </si>
+  <si>
+    <t>Allison Ainsworth</t>
+  </si>
+  <si>
+    <t>Political communication</t>
+  </si>
+  <si>
+    <t>Bronwyn Baker</t>
+  </si>
+  <si>
+    <t>Education Representative</t>
+  </si>
+  <si>
+    <t>Applied Learning &amp; Development</t>
+  </si>
+  <si>
+    <t>Edward A. Banner</t>
+  </si>
+  <si>
+    <t>Engineering Representatives</t>
+  </si>
+  <si>
+    <t>Engineering Representative</t>
+  </si>
+  <si>
+    <t>Petroleum Engineering</t>
+  </si>
+  <si>
+    <t>Joshua Richardson</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/N7DiqI5.jpg</t>
+  </si>
+  <si>
+    <t>Electrical and Computer Engineering</t>
+  </si>
+  <si>
+    <t>When it comes to visions for the engineering student body, I cannot say that I have some grand overarching scheme that I wish to begin implementing right off the bat. Generally, if engineers have a problem, I think it’s safe to say we just hunker down and push through it, willing to persist through the challenge, be it large or small. That being said, I do have a few ideas involving implementation of better systems to make students more aware of help and resources which often fly under the radar; primarily, however, my goal is to have as tight of a feedback loop with students as possible, bringing their ideas to the table, and even if solutions to them are not possible through means which I have access to, at least bringing plausible issues to light.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/joshua.richardson.1293</t>
+  </si>
+  <si>
+    <t>Lauren Gusman</t>
+  </si>
+  <si>
+    <t>Fine Arts Representative</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/KDvT8n9.jpg</t>
+  </si>
+  <si>
+    <t>Vocal performance/music</t>
+  </si>
+  <si>
+    <t>Hey Fine Arts Longhorns! My name is Lauren Gusman and I am a Vocal Performance major in the Butler School of Music. I am running to be your Fine Arts Representative for the upcoming school year. Although I am a first year, I have found my though some wonderful leadership programs such as the University Leadership Network, Gateway Scholars, The Multicultural Leadership Institute, Phi Beta Chi (A Professional Women’s Business Organization), and I am the Vice President of Music in the Fine Arts Council. Through these programs, I have learned to strive for excellence, exemplify team building, and gain character. I have noticed as I have been here, as far as the Fine Arts college goes, we have fallen behind. We’ve lost some of our best programs from all three of our departments. University wide, this was a loss. While I can’t say I can bring those back, I do plan on having a come back. Given this, it’s time we come together as a college to work together to overcome our losses. As the Student Government Fine Arts Representative, my visions for us is to communicate. Through our commeradery and our basic need of creativity, I plan on building more programs and clubs inside our college based on what our fine arts student body wants as a whole. From academics to performances to art galleries, I care about our image. I don’t just want to be the voice for all of us, I want to be the voice y’all choose to represent who we are and what we can do. Feel free to ask me any questions in person or by email: laurenagusman@utexas.edu.</t>
+  </si>
+  <si>
+    <t>James Che</t>
+  </si>
+  <si>
+    <t>Geosciences Representative</t>
+  </si>
+  <si>
+    <t>Geological Sciences</t>
+  </si>
+  <si>
+    <t>Kevin Toth</t>
+  </si>
+  <si>
+    <t>Kian Maharaj</t>
+  </si>
+  <si>
+    <t>Daniel Hung</t>
+  </si>
+  <si>
+    <t>Law Representative</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/JmnsdZC.jpg</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>First year</t>
+  </si>
+  <si>
+    <t>I am running for SG Representative for the Law School, because I believe in serving others. Having attended UT since 2010 and graduating last year with a B.A. in Plan II Honors, Government Honors, History, and Asian Studies, I have more experience on campus than nearly all the other candidates. In addition, I have previous experience in SG as the Director of Students with Disabilities Agency from 2011-2012 and serving on the Parking &amp; Traffic Appeals Committee from 2013-2014. As SG Rep, I would be representing a population of UT students that haven’t been represented in SG in the last few years and will work towards increasing law students’ involvement with the rest of the campus. In this capacity, I will also be able to address any concerns law students may have through passing resolutions and working with the different university administrations.</t>
+  </si>
+  <si>
+    <t>Advocate for keeping tuition low|||Promote transparency in SG and UT|||Reach out to groups historically neglected by SG|||Connect law students with the rest of the University|||Push for abandoning affirmative action|||Ensure fair and public debates on resolutions|||Educate students on the roles of SG and UT|||Work towards making UT safer|||Make UT a more enjoyable place for everyone|||Foster peaceful and open dialogue on contentious issues</t>
+  </si>
+  <si>
+    <t>Tanner Long</t>
+  </si>
+  <si>
+    <t>Liberal Arts Representatives</t>
+  </si>
+  <si>
+    <t>Liberal Arts Representative</t>
+  </si>
+  <si>
+    <t>My name is Tanner Long and I’m running for reelection to be one of four representatives for the College of Liberal Arts. This past year, I’ve worked on numerous issues ranging from student input regarding the West Campus sound ordinance to more Monday-Wednesday classes to keeping the FAC open 24/7. Although my term is nearing the end, I still have not accomplished all the goals I’ve sought. Another year of being a Liberal Arts Representative will allow me to pursue more issues and provide you all with an experienced voice in the assembly. I will continue to focus on improving student engagement, voicing concerns of students to Austin City Hall, the Texas State Legislature and the U.S. Congress, and adequately represent the opinion of Liberal Arts students.</t>
+  </si>
+  <si>
+    <t>twitter.com/TannerLLong</t>
+  </si>
+  <si>
+    <t>Connor Madden</t>
+  </si>
+  <si>
+    <t>Plan II/Business</t>
+  </si>
+  <si>
+    <t>twitter.com/votemadden</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/connor.madden.73</t>
+  </si>
+  <si>
+    <t>Shawn A. Lopez</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Hello, my name is Shawn Lopez and I’m running for college of liberal arts representative. My campaign will be run on a platform of honest initiative in which I hold the goal of bringing to light all the issues concerning students within the COLA; these issues range from affordability to assessment challenges that I will personally look to improve if elected to a term as your representative. The solutions are clear and can be instituted through my advocacy if elected, but only if you are willing to follow me through and help me accomplish what needs to be done in the process. As I will show in my campaign, I am here as a voice through which yours will be spoken and your grievances brought to light. I am your candidate and hope to be your future voice in student government.</t>
+  </si>
+  <si>
+    <t>College affordability|||Increase in student study resources|||Advocate of Student safety|||Fight for student rights|||Make student government more accessible to the student body</t>
+  </si>
+  <si>
+    <t>James Comer</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Sammy Minkowitz</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sammy.minkowitz</t>
+  </si>
+  <si>
+    <t>Jonathan Dror</t>
+  </si>
+  <si>
+    <t>John-Paul Bach</t>
+  </si>
+  <si>
+    <t>Natural Sciences Representatives</t>
+  </si>
+  <si>
+    <t>Natural Sciences Representative</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Juan Saez</t>
+  </si>
+  <si>
+    <t>Undergraduate Studies Representative</t>
+  </si>
+  <si>
+    <t>Undeclared</t>
+  </si>
+  <si>
+    <t>Establish mentorship programs for new UGS and PACE students (seperate programs).|||Develop a comprehensive and official website for PACE students for them to visit for information.|||Increase student participation in SG elections via incentives in order to guarantee fair representation.|||Improve the connection between SG representatives and the student population through social media and public meetings.|||Raise campus-wide awareness of important global issues.|||Promote UGS student participation in University-run or University-endorsed events and organizations.</t>
   </si>
   <si>
     <t>Brian Wilkey</t>
   </si>
   <si>
-    <t>Category Number</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
-    <t>Photo URL</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Photo Credit</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Statement</t>
-  </si>
-  <si>
-    <t>Campaign Platform Points</t>
-  </si>
-  <si>
-    <t>Twitter Feed URL</t>
-  </si>
-  <si>
-    <t>Campaign Website</t>
-  </si>
-  <si>
-    <t>Daily Texan Coverage Titles</t>
-  </si>
-  <si>
-    <t>Daily Texan Coverage URLs</t>
-  </si>
-  <si>
     <t>Graduate Student Assembly President</t>
   </si>
   <si>
-    <t>Candidate Name</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
-    <t>Category Number</t>
-  </si>
-  <si>
     <t>Human Development &amp; Family Sciences</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
     <t>Vance Roper</t>
   </si>
   <si>
-    <t>Photo URL</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Photo Credit</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
     <t>Graduate Student Assembly Vice President</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Statement</t>
-  </si>
-  <si>
-    <t>Vice President</t>
-  </si>
-  <si>
-    <t>Campaign Platform Points</t>
-  </si>
-  <si>
     <t>Public Affairs/Community and Regional Planning</t>
   </si>
   <si>
-    <t>Twitter Feed URL</t>
-  </si>
-  <si>
-    <t>Campaign Website</t>
-  </si>
-  <si>
-    <t>Daily Texan Coverage Titles</t>
-  </si>
-  <si>
-    <t>Daily Texan Coverage URLs</t>
-  </si>
-  <si>
-    <t>Kimia Dargahi</t>
-  </si>
-  <si>
-    <t>Executive Alliance</t>
-  </si>
-  <si>
-    <t>Vice President</t>
-  </si>
-  <si>
-    <t>International Relations &amp; Global Studies/LAH</t>
-  </si>
-  <si>
-    <t>Senior</t>
-  </si>
-  <si>
-    <t>Kallen Dimitroff</t>
-  </si>
-  <si>
-    <t>University-Wide Representatives</t>
-  </si>
-  <si>
-    <t>University-Wide Representative</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t>Kevin Helgren</t>
-  </si>
-  <si>
-    <t>University-Wide Representatives</t>
-  </si>
-  <si>
-    <t>University-Wide Representative</t>
-  </si>
-  <si>
-    <t>Psychology/Neuroscience</t>
-  </si>
-  <si>
-    <t>Senior</t>
-  </si>
-  <si>
-    <t>Conlee Hamlin</t>
-  </si>
-  <si>
-    <t>University-Wide Representatives</t>
-  </si>
-  <si>
-    <t>University-Wide Representative</t>
-  </si>
-  <si>
-    <t>Nutrition</t>
-  </si>
-  <si>
-    <t>Freshman</t>
-  </si>
-  <si>
-    <t>https://twitter.com/conlee_hamlin</t>
-  </si>
-  <si>
-    <t>Spencer Schredder</t>
-  </si>
-  <si>
-    <t>University-Wide Representatives</t>
-  </si>
-  <si>
-    <t>University-Wide Representative</t>
-  </si>
-  <si>
-    <t>International Relations &amp; Global Studies</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t>John Falke</t>
-  </si>
-  <si>
-    <t>University-Wide Representatives</t>
-  </si>
-  <si>
-    <t>University-Wide Representative</t>
-  </si>
-  <si>
-    <t>BHP/Finance/Government</t>
-  </si>
-  <si>
-    <t>Sophomore</t>
-  </si>
-  <si>
-    <t>Santiago Rosales</t>
-  </si>
-  <si>
-    <t>University-Wide Representatives</t>
-  </si>
-  <si>
-    <t>University-Wide Representative</t>
-  </si>
-  <si>
-    <t>Ryan Lim</t>
-  </si>
-  <si>
-    <t>University-Wide Representatives</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/bPntGgD.jpg</t>
-  </si>
-  <si>
-    <t>University-Wide Representative</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t>Hi I’m Ryan Lim and I’m here to challenge the perception on campus of what student government means. As the social chair for the Pi Kappa Phi Fraternity, I’ve learned some things. First, THE University of Texas has an astonishing amount of great people with different beliefs and ideas that should be embraced. Second, simply how to have fun. Though we all know that the most important reason to go to college is to get an education, that doesn’t mean college shouldn’t be fun. Though our Student Government has done great work for our university, do you feel that they are representative of you? You may see me in Professor Bonevac’s class or at Gregory, but you can also catch me at Blind Pig or at Roundup. Government should represent you, plain and simple. I believe that I am for the people and soon to be by the people.</t>
-  </si>
-  <si>
-    <t>Represent the UT community at large, with emphasis on those felt disenfranchised by the current system|||Act only on behalf of the Student population|||Oppose any legislation that infringes on the rights of Students|||Endeavor to bring West Campus back to its former Glory|||Maintain the notion that UT is the best place to attend college.</t>
-  </si>
-  <si>
-    <t>Valentina Rodriguez</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Architecture Representative</t>
-  </si>
-  <si>
-    <t>Architecture Representative</t>
-  </si>
-  <si>
-    <t>Architecture</t>
-  </si>
-  <si>
-    <t>Sophomore</t>
-  </si>
-  <si>
-    <t>Brian Schwall</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Communication Representatives</t>
-  </si>
-  <si>
-    <t>Communication Representative</t>
-  </si>
-  <si>
-    <t>Corporate Communication Studies</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t>https://twitter.com/iceman81894</t>
-  </si>
-  <si>
-    <t>Candidate Name</t>
-  </si>
-  <si>
-    <t>Category Number</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
-    <t>Photo URL</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Photo Credit</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Statement</t>
-  </si>
-  <si>
-    <t>Campaign Platform Points</t>
-  </si>
-  <si>
-    <t>Twitter Feed URL</t>
-  </si>
-  <si>
-    <t>Campaign Website</t>
-  </si>
-  <si>
-    <t>Allison Ainsworth</t>
-  </si>
-  <si>
-    <t>Daily Texan Coverage Titles</t>
-  </si>
-  <si>
-    <t>Daily Texan Coverage URLs</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Communication Representatives</t>
-  </si>
-  <si>
-    <t>Communication Representative</t>
-  </si>
-  <si>
-    <t>Bronwyn Baker</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Education Representative</t>
-  </si>
-  <si>
-    <t>Education Representative</t>
-  </si>
-  <si>
-    <t>Applied Learning &amp; Development</t>
-  </si>
-  <si>
-    <t>Sophomore</t>
-  </si>
-  <si>
-    <t>Edward A. Banner</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Engineering Representatives</t>
-  </si>
-  <si>
-    <t>Engineering Representative</t>
-  </si>
-  <si>
-    <t>Petroleum Engineering</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t>Joshua Richardson</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Engineering Representatives</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/N7DiqI5.jpg</t>
-  </si>
-  <si>
-    <t>Engineering Representative</t>
-  </si>
-  <si>
-    <t>Electrical and Computer Engineering</t>
-  </si>
-  <si>
-    <t>Sophomore</t>
-  </si>
-  <si>
-    <t>When it comes to visions for the engineering student body, I cannot say that I have some grand overarching scheme that I wish to begin implementing right off the bat. Generally, if engineers have a problem, I think it’s safe to say we just hunker down and push through it, willing to persist through the challenge, be it large or small. That being said, I do have a few ideas involving implementation of better systems to make students more aware of help and resources which often fly under the radar; primarily, however, my goal is to have as tight of a feedback loop with students as possible, bringing their ideas to the table, and even if solutions to them are not possible through means which I have access to, at least bringing plausible issues to light.</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/joshua.richardson.1293</t>
-  </si>
-  <si>
-    <t>Lauren Gusman</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Fine Arts Representative</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/KDvT8n9.jpg</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -584,278 +401,41 @@
     <t>Student Government (SG)</t>
   </si>
   <si>
+    <t>Student Government is the official student voice to the UT administration, the Board of Regents and the Texas Legislature. SG aims to represent students' interests and increase student decision-making power and to improve campus life by creating and continuing effective student services. Members of the organization write resolutions voicing their support or disapproval of certain University, UT System or legislative actions; proposing new ideas; and formally addressing student concerns. Members can also make internal changes to Student Government, including the Election Code, which candidates for the body must follow every year.|||The president and vice president, known as the executive alliance, lead the executive branch of Student Government. The chair of the assembly leads the legislative branch of Student Government, and the chief justice leads the judicial branch of Student Government. These branches include various committees and agencies. The student body elects the president and vice president, who run on one ticket; eight university-wide representatives; and representatives for each of 16 schools and colleges within the University. The Dell Medical School, which will accept its first class in August 2016, and the School of Information do not currently have representative positions in Student Government. The graduate school has four representatives in Student Government.</t>
+  </si>
+  <si>
     <t>Graduate Student Assembly (GSA)</t>
   </si>
   <si>
+    <t>Graduate Student Assembly is the official graduate student voice to the UT administration, the Board of Regents and the Texas Legislature. Members of the organization write resolutions voicing their support or disapproval of certain University, UT System or legislative actions; proposing new ideas; and formally addressing graduate student concerns. The graduate student body elects a president and vice president, who lead the executive committee. The executive committee consists of various directors, who are approved by 2/3 of the Graduate Student Assembly.</t>
+  </si>
+  <si>
     <t>Texas Student Media (TSM)</t>
   </si>
   <si>
+    <t>The Texas Student Media Operating Board of Trustees oversees the University's five official media outlets: KVRX 91.7 FM, the Texas Travesty, Texas Student Television, the Cactus yearbook and The Daily Texan. The student body elects three Moody College of Communication students and three at-large students to the board. The University president appoints two members of the Moody College of Communication faculty, one member of the McCombs School of Business faculty and two media professionals. These members are all voting members. The non-voting members are the TSM director, the student managers of the five TSM entities, the TSM student advertising director, a Dean of Students Office representative and a Student Government representative.|||The organization oversees the TSM budget; appoints the student managers of the TSM entities (except The Daily Texan editor-in-chief, who is elected by the student body); supervises the student managers of the TSM entities. The TSM board reports to the UT System Board of Regents.</t>
+  </si>
+  <si>
     <t>University Co-Op (Co-Op)</t>
   </si>
   <si>
+    <t>The University Co-op Board of Directors directs the University Co-op and oversees scholarships, grants and funding. The board consists of four students, four faculty members, two independent members and a chair. The student body elects two full-time students to serve on the board for two years. Everyone on the board is a voting member.</t>
+  </si>
+  <si>
     <t>University Unions (Unions)</t>
   </si>
   <si>
-    <t>Fine Arts Representative</t>
-  </si>
-  <si>
-    <t>Vocal performance/music</t>
-  </si>
-  <si>
-    <t>Sophomore</t>
-  </si>
-  <si>
-    <t>Hey Fine Arts Longhorns! My name is Lauren Gusman and I am a Vocal Performance major in the Butler School of Music. I am running to be your Fine Arts Representative for the upcoming school year. Although I am a first year, I have found my though some wonderful leadership programs such as the University Leadership Network, Gateway Scholars, The Multicultural Leadership Institute, Phi Beta Chi (A Professional Women’s Business Organization), and I am the Vice President of Music in the Fine Arts Council. Through these programs, I have learned to strive for excellence, exemplify team building, and gain character. I have noticed as I have been here, as far as the Fine Arts college goes, we have fallen behind. We’ve lost some of our best programs from all three of our departments. University wide, this was a loss. While I can’t say I can bring those back, I do plan on having a come back. Given this, it’s time we come together as a college to work together to overcome our losses. As the Student Government Fine Arts Representative, my visions for us is to communicate. Through our commeradery and our basic need of creativity, I plan on building more programs and clubs inside our college based on what our fine arts student body wants as a whole. From academics to performances to art galleries, I care about our image. I don’t just want to be the voice for all of us, I want to be the voice y’all choose to represent who we are and what we can do. Feel free to ask me any questions in person or by email: laurenagusman@utexas.edu.</t>
-  </si>
-  <si>
-    <t>James Che</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Geosciences Representative</t>
-  </si>
-  <si>
-    <t>Geosciences Representative</t>
-  </si>
-  <si>
-    <t>Geological Sciences</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t>Kevin Toth</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Geosciences Representative</t>
-  </si>
-  <si>
-    <t>Geosciences Representative</t>
-  </si>
-  <si>
-    <t>Geological Sciences</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t>Kian Maharaj</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Geosciences Representative</t>
-  </si>
-  <si>
-    <t>Geosciences Representative</t>
-  </si>
-  <si>
-    <t>Geological Sciences</t>
-  </si>
-  <si>
-    <t>Sophomore</t>
-  </si>
-  <si>
-    <t>Daniel Hung</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Law Representative</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/JmnsdZC.jpg</t>
-  </si>
-  <si>
-    <t>Law Representative</t>
-  </si>
-  <si>
-    <t>Law</t>
-  </si>
-  <si>
-    <t>First year</t>
-  </si>
-  <si>
-    <t>I am running for SG Representative for the Law School, because I believe in serving others. Having attended UT since 2010 and graduating last year with a B.A. in Plan II Honors, Government Honors, History, and Asian Studies, I have more experience on campus than nearly all the other candidates. In addition, I have previous experience in SG as the Director of Students with Disabilities Agency from 2011-2012 and serving on the Parking &amp; Traffic Appeals Committee from 2013-2014. As SG Rep, I would be representing a population of UT students that haven’t been represented in SG in the last few years and will work towards increasing law students’ involvement with the rest of the campus. In this capacity, I will also be able to address any concerns law students may have through passing resolutions and working with the different university administrations.</t>
-  </si>
-  <si>
-    <t>Advocate for keeping tuition low|||Promote transparency in SG and UT|||Reach out to groups historically neglected by SG|||Connect law students with the rest of the University|||Push for abandoning affirmative action|||Ensure fair and public debates on resolutions|||Educate students on the roles of SG and UT|||Work towards making UT safer|||Make UT a more enjoyable place for everyone|||Foster peaceful and open dialogue on contentious issues</t>
-  </si>
-  <si>
-    <t>Tanner Long</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representatives</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representative</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t>My name is Tanner Long and I’m running for reelection to be one of four representatives for the College of Liberal Arts. This past year, I’ve worked on numerous issues ranging from student input regarding the West Campus sound ordinance to more Monday-Wednesday classes to keeping the FAC open 24/7. Although my term is nearing the end, I still have not accomplished all the goals I’ve sought. Another year of being a Liberal Arts Representative will allow me to pursue more issues and provide you all with an experienced voice in the assembly. I will continue to focus on improving student engagement, voicing concerns of students to Austin City Hall, the Texas State Legislature and the U.S. Congress, and adequately represent the opinion of Liberal Arts students.</t>
-  </si>
-  <si>
-    <t>twitter.com/TannerLLong</t>
-  </si>
-  <si>
-    <t>Connor Madden</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representatives</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representative</t>
-  </si>
-  <si>
-    <t>Plan II/Business</t>
-  </si>
-  <si>
-    <t>Sophomore</t>
-  </si>
-  <si>
-    <t>Shawn A. Lopez</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representatives</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representative</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t>James Comer</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representatives</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representative</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>Sophomore</t>
-  </si>
-  <si>
-    <t>Sammy Minkowitz</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representatives</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representative</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Freshman</t>
-  </si>
-  <si>
-    <t>Jonathan Dror</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representatives</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representative</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>Sophomore</t>
-  </si>
-  <si>
-    <t>John-Paul Bach</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Natural Sciences Representatives</t>
-  </si>
-  <si>
-    <t>Natural Sciences Representative</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Sophomore</t>
-  </si>
-  <si>
-    <t>Juan Saez</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Undergraduate Studies Representative</t>
-  </si>
-  <si>
-    <t>Undergraduate Studies Representative</t>
-  </si>
-  <si>
-    <t>Undeclared</t>
-  </si>
-  <si>
-    <t>Freshman</t>
-  </si>
-  <si>
-    <t>Test1|||Test2</t>
-  </si>
-  <si>
-    <t>http://www.google.com|||http://www.reddit.com</t>
-  </si>
-  <si>
-    <t>Elly Dearman</t>
-  </si>
-  <si>
-    <t>http://www.TannerLong.com/</t>
+    <t>The University Unions Board of Directors recommend rules and procedures regarding the operation and use of the Unions' facilities, which include the Texas Union, the Student Activity Center and the Hogg Auditorium. The board also oversees Campus Events and Entertainment. The student body elects the Campus Events and Entertainment president and two students to serve on the board. The University president appoints three faculty members to the board. Additionally, the Student Government president and two students appointed by the SG president serve on the board. The board also contains two non-voting members: the representative of the Vice President for Student Affairs and the University Unions Executive Director.</t>
+  </si>
+  <si>
+    <t>http://www.TannerLong.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -875,15 +455,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -899,6 +470,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -940,7 +526,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -948,17 +534,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1294,10 +880,10 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1389,19 +975,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="2"/>
@@ -1412,30 +998,30 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="8" t="s">
-        <v>30</v>
+      <c r="L4" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1443,25 +1029,25 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="2"/>
@@ -1472,25 +1058,25 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="2"/>
@@ -1501,25 +1087,25 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="2"/>
@@ -1530,30 +1116,30 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="8" t="s">
-        <v>104</v>
+      <c r="L8" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1561,25 +1147,25 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1590,25 +1176,25 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="3" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="2"/>
@@ -1619,18 +1205,18 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1644,33 +1230,35 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="8" t="s">
-        <v>120</v>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H12" s="3" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1679,27 +1267,27 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1710,32 +1298,32 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="8" t="s">
-        <v>138</v>
+      <c r="L14" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1743,24 +1331,28 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1770,27 +1362,27 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1801,27 +1393,27 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1832,69 +1424,73 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="B18" s="3">
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>173</v>
+        <v>65</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H18" s="3" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="8" t="s">
-        <v>178</v>
+      <c r="M18" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>182</v>
+        <v>51</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H19" s="1" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>193</v>
+        <v>43</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1904,27 +1500,27 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="3" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1935,27 +1531,27 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3" t="s">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="3" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1966,27 +1562,27 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="3" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="3" t="s">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1997,35 +1593,37 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>215</v>
+        <v>84</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H23" s="3" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -2034,108 +1632,106 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>221</v>
+        <v>90</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>215</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>273</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="3" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>228</v>
+        <v>93</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>272</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="3" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="3" t="s">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="L25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="3" t="s">
-        <v>238</v>
+        <v>92</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2143,27 +1739,27 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>243</v>
+        <v>91</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="3" t="s">
-        <v>245</v>
+        <v>104</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="2"/>
@@ -2174,58 +1770,60 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>247</v>
+        <v>105</v>
       </c>
       <c r="B28" s="3">
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="3" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="3" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="M28" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>253</v>
+        <v>107</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>255</v>
+        <v>91</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="3" t="s">
-        <v>256</v>
+        <v>92</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3" t="s">
-        <v>257</v>
+        <v>104</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2236,30 +1834,30 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="B30" s="3">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="3" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="3" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2267,30 +1865,32 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>265</v>
+        <v>112</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>267</v>
+        <v>113</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="3" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -2307,7 +1907,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -2341,7 +1941,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2902,11 +2502,12 @@
     <hyperlink ref="E19" r:id="rId7"/>
     <hyperlink ref="E23" r:id="rId8"/>
     <hyperlink ref="L24" r:id="rId9"/>
-    <hyperlink ref="M24" r:id="rId10" display="http://www.TannerLong.com//"/>
-    <hyperlink ref="E24" r:id="rId11"/>
+    <hyperlink ref="M24" r:id="rId10"/>
+    <hyperlink ref="L25" r:id="rId11"/>
+    <hyperlink ref="M25" r:id="rId12"/>
+    <hyperlink ref="M28" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2932,84 +2533,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>46</v>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>66</v>
+      <c r="C2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>79</v>
+      <c r="C3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1"/>
@@ -3051,50 +2652,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>61</v>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1"/>
@@ -3138,50 +2739,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>83</v>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1"/>
@@ -3225,50 +2826,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>154</v>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1"/>
@@ -3312,36 +2913,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>184</v>
+      <c r="A1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>185</v>
+      <c r="A2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>186</v>
+      <c r="A3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>187</v>
+      <c r="A4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>188</v>
+      <c r="A5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>189</v>
+      <c r="A6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1"/>

--- a/backend/copysheet.xlsx
+++ b/backend/copysheet.xlsx
@@ -15,8 +15,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="K19" authorId="0">
+      <text>
+        <t xml:space="preserve">Waiting to verify that we can change up the statement like this
+	-Amanda Voeller</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <t xml:space="preserve">Master spreadsheet says place 5?
+	-Amanda Voeller</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="239">
   <si>
     <t>Candidate Name</t>
   </si>
@@ -72,28 +104,40 @@
     <t>President</t>
   </si>
   <si>
-    <t>Plan II/Linguistics</t>
+    <t>Plan II and Linguistics</t>
   </si>
   <si>
     <t>Senior</t>
   </si>
   <si>
+    <t>Here at the 40 acres, which is equal to .162 square kilometers, or 161,874 square meters, or 1,618,740,000 square centimeters, or 1.62 x 10^29 square picometers, we can change the world. Trust us, we did the math. We are Xavier Rotnofsky and Rohit Mandalapu, and we are running for executive alliance—and also at Gregory Gym later, if you want to join. This campaign isn’t just about what we can do to help the university, but also how it can help us buff up our résumés and have something to talk about at interviews.|||Our platform to enlightenment is fivefold. Firstfold, we promise that Bill Powers will no longer be president of the university by the end of the Spring 2015 semester. Secondfoldly, we plan on taking down the Jefferson Davis statue, which the other candidates have yet to make a comment on. Thirdfolded, we promise to increase transparency in student government by mandating everyone in student government wear only cellophane so that they can be perfectly see-through. Fourthfoldered, we plan to reduce the hours that the PCL and FAC are open because less study time means more party time, baby! Fifthfoldedly, we will establish a system to reorient the malls such that west mall would then be south mall, east mall would then be west mall, and the north mall would then be a TGI Friday’s because we are experts in feng shui.|||Campus is home to over 50,000 students and over 100,000 kidneys, all interconnected and waiting to be harvested. As the famous Swedish Europop quartet known as ABBA once said, “Mamma mia, here I go again.”|||Love,|||[redacted]</t>
+  </si>
+  <si>
     <t>http://www.twitter.com/RotMan2015</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=2ABmVQHKRcU</t>
+  </si>
+  <si>
     <t>Rohit Mandalapu</t>
   </si>
   <si>
     <t>Vice President</t>
   </si>
   <si>
-    <t>Plan II/Economics</t>
+    <t>Plan II and Economics</t>
   </si>
   <si>
     <t>Braydon Jones</t>
   </si>
   <si>
-    <t>Government/LAH</t>
+    <t>Government and LAH</t>
+  </si>
+  <si>
+    <t>We are Braydon Jones and Kimia Dargahi, and we are running as the Student President and Vice President Executive Alliance. Braydon is a senior from Texarkana, Texas, and Kimia is a senior from right here in Austin. We believe the University of Texas is a dynamic place, full of individuals with dynamic vision and pride for this institution, who all have their own ideas about how to make it an even better place. Our goal this next year is to listen to you, our fellow UT students, and hear what think about this campus. Where is the University now, but more importantly, where do you see it going? What can we do to help it get there? We know this place is great, but how might we make it even greater? Throughout the next two weeks of campaigning, we will be focused on talking with as many students as possible to further develop our platform and establish what actions we might take as President and Vice President to further the traditions of this University while catering to the wants of the student body. We have a campaign and platform focused on conversation; we want to hear from you and will be giving you ample opportunities to share your opinions and ideas with us!</t>
+  </si>
+  <si>
+    <t>Sexual Assault Awareness|||More lighting in North Campus/Riverside|||President’s Roundtable with Student Orgs|||Establishing a relationship for students with the New President &amp; Chancellor|||Establishing a relationship for students with the New Governor|||Establishing a relationship for students with then New Mayor|||Work toward more Texas Exes—Student involvement and networking|||Continue the fight for student tailgating|||Ring sales promotion – Ring discounts with Exes membership sign up</t>
   </si>
   <si>
     <t>http://www.twitter.com/letstalktexas</t>
@@ -105,13 +149,16 @@
     <t>Kimia Dargahi</t>
   </si>
   <si>
-    <t>International Relations &amp; Global Studies/LAH</t>
+    <t>International Relations &amp; Global Studies and LAH</t>
   </si>
   <si>
     <t>David Maly</t>
   </si>
   <si>
-    <t>Economics/Journalism</t>
+    <t>Economics and Journalism</t>
+  </si>
+  <si>
+    <t>requested</t>
   </si>
   <si>
     <t>Stephen Svatek</t>
@@ -147,15 +194,9 @@
     <t>Sophomore</t>
   </si>
   <si>
-    <t>http://www.facebook.com/johnrossfalke</t>
-  </si>
-  <si>
     <t>Ryan Lim</t>
   </si>
   <si>
-    <t>http://i.imgur.com/bPntGgD.jpg</t>
-  </si>
-  <si>
     <t>Courtesy</t>
   </si>
   <si>
@@ -168,15 +209,57 @@
     <t>Represent the UT community at large, with emphasis on those felt disenfranchised by the current system|||Act only on behalf of the Student population|||Oppose any legislation that infringes on the rights of Students|||Endeavor to bring West Campus back to its former Glory|||Maintain the notion that UT is the best place to attend college.</t>
   </si>
   <si>
+    <t>Hayley Cook</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Kerry Greathouse</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Richard Pearce</t>
+  </si>
+  <si>
+    <t>Sinan Shaibani</t>
+  </si>
+  <si>
+    <t>Middle Eastern Studies</t>
+  </si>
+  <si>
     <t>Kallen Dimitroff</t>
   </si>
   <si>
+    <t>Fellow Longhorns, I would be honored to serve as your University-Wide Representative. I have participated in SG as a First Year Representative, a Liberal Arts Representative and as a member of the City Relations Agency. While serving as Liberal Arts Representative I chaired SG's Academic Affairs Committee. As chair I created a task-force to improve undergraduate research resources, founded the university's first Academic Decathlon and oversaw the revision of legislation such as the proposal for Thanksgiving Break. Outside of Student Government I have sat on my college's CTBAC, co-created an organization dedicated to raising awareness about the national deficit and have had the privilege of being a member of Liberal Arts Council. Should I be elected I would seek to promote a platform of academic integrity, transparency and efficiency. I hope to bring a thoughtful, experienced approach to the new assembly, as well as my commitment to bettering our University.</t>
+  </si>
+  <si>
+    <t>Creation of Academic Honor Committee|||College specific convocations|||A unifying yearly project that all of SG contributes to (agencies, assembly etc..)</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/608431725956845/?pnref=lhc.recent</t>
+  </si>
+  <si>
     <t>Kevin Helgren</t>
   </si>
   <si>
     <t>Psychology/Neuroscience</t>
   </si>
   <si>
+    <t>Hi, Longhorns! My name is Kevin Helgren and I’m a third-year neuroscience and psychology major from Austin, Texas. More importantly, though, I want to help YOU. As a University-Wide Representative, I plan on addressing a few key issues that I consider to be of importance to the Longhorn community. I hope to increase transparency between Student Government and the study body through monthly assemblies and an application for smart phones. I also plan on strengthening the Longhorn community by showcasing the talents and hard work of individuals and organizations across the 40 Acres, be it research in a laboratory or a multi-faceted performance. Lastly, I would like to bridge the gap between our university and the greater Austin area through mentoring programs and service projects. I don’t make empty promises; and that’s a promise. We’re all Longhorns – let’s help change the world together!</t>
+  </si>
+  <si>
+    <t>Increase transparency between Student Government and student body (see statement for specifics)|||Strengthen Longhorn community (see statement for specifics)|||Bridge the gap between the university and our city (see statement for specifics)|||Tend to parking options on campus for commuters in light of recent shortages and construction|||Generate more on-campus printing options for students across colleges and majors|||Improve road conditions in West Campus|||Meal plan for off-campus students</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/kevinforuwide</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KevinHelgren</t>
+  </si>
+  <si>
     <t>Conlee Hamlin</t>
   </si>
   <si>
@@ -186,6 +269,9 @@
     <t>Freshman</t>
   </si>
   <si>
+    <t>Hey Longhorns! My name is Conlee and I am running for University Wide Representative! I have a ton of great ideas to make UT a better campus for everyone such as: more campus branding so visitors know when they have entered Longhorn territory, more police poles in west campus for all those late night walks home from the PCL, and on-campus tailgating so we can enjoy our football games even more than we already do! These are where I would like to start, but there are more plenty more where those came from! I would LOVE to be your U-wide Rep so vote for me and together we can make UT an even better place! Hook’em!</t>
+  </si>
+  <si>
     <t>https://twitter.com/conlee_hamlin</t>
   </si>
   <si>
@@ -195,6 +281,9 @@
     <t>International Relations &amp; Global Studies</t>
   </si>
   <si>
+    <t>The University of Texas Community,|||Every time I step onto the 40 acres, I am filled with an amazing sense of pride, and am reminded about how blessed I am to attend the greatest university in the world. Nonetheless, even the best can get better. My name is Spencer Schredder, and I am running for University Wide Representative.|||I believe there are simple steps that can be taken to greatly improve daily student life. My platform is comprised of common sense reforms and impactful new policy initiatives that will positively impact the entirety of the UT community.|||It would be a great honor to represent my peers in the Student Government, and I look forward to hearing from and meeting more of my fellow longhorns in the coming weeks.|||Hook ‘Em,|||Spencer Schredder</t>
+  </si>
+  <si>
     <t>Identify inefficiently used student funds, and redistribute in a manner that would directly improve daily student life at UT, such as bike lanes on campus and a 24/7 Student Activity Center.|||Reenergize school spirit by overhauling athletic ticketing policies, including section- based seating for football, and an expanded lower bowl student section for basketball.|||Assist students with financial need by making Bevo Bucks more widely accepted across campus, and eliminating “Pay-For-Bandwidth” WIFI by providing data for students through their existing student fees.|||Integrate our student body through cross-cultural events that bring about an understanding of our diverse student groups to create a safe climate for all.|||Lobby the Metro system to provide more consistent and reliable student transportation to and from campus.|||Increase transparency between students and the University’s governing bodies, while implementing new strategies that integrate student opinion as a facet of the decision making process for university policy creation.</t>
   </si>
   <si>
@@ -246,6 +335,18 @@
     <t>Business Representative</t>
   </si>
   <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Ronnie Dasgupta</t>
+  </si>
+  <si>
+    <t>Ben Norton</t>
+  </si>
+  <si>
+    <t>Micky Wolf</t>
+  </si>
+  <si>
     <t>Brian Schwall</t>
   </si>
   <si>
@@ -258,13 +359,10 @@
     <t>Corporate Communication Studies</t>
   </si>
   <si>
-    <t>https://twitter.com/iceman81894</t>
-  </si>
-  <si>
     <t>Allison Ainsworth</t>
   </si>
   <si>
-    <t>Political communication</t>
+    <t>Political Communication</t>
   </si>
   <si>
     <t>Bronwyn Baker</t>
@@ -288,12 +386,15 @@
     <t>Petroleum Engineering</t>
   </si>
   <si>
+    <t>Chandler Brockman</t>
+  </si>
+  <si>
+    <t>Chemical Engineering</t>
+  </si>
+  <si>
     <t>Joshua Richardson</t>
   </si>
   <si>
-    <t>http://i.imgur.com/N7DiqI5.jpg</t>
-  </si>
-  <si>
     <t>Electrical and Computer Engineering</t>
   </si>
   <si>
@@ -315,9 +416,6 @@
     <t>Fine Arts Representative</t>
   </si>
   <si>
-    <t>http://i.imgur.com/KDvT8n9.jpg</t>
-  </si>
-  <si>
     <t>Vocal performance/music</t>
   </si>
   <si>
@@ -333,6 +431,15 @@
     <t>Graduate School Representative</t>
   </si>
   <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Graduate student</t>
+  </si>
+  <si>
+    <t>Eric Enrique Borja</t>
+  </si>
+  <si>
     <t>Ahmed Khawaja</t>
   </si>
   <si>
@@ -360,15 +467,21 @@
     <t>Kian Maharaj</t>
   </si>
   <si>
+    <t>I'm running to facilitate the voicing of student complaints from within the JSG to the broader university; the geosciences school is relatively small and insular. While this makes for a nice community, I think JSG issues sometimes go unnoticed.</t>
+  </si>
+  <si>
+    <t>I'd like to get UTPD's opinion on the way bikes are chained to the railings between JGB and EPS and whether more bike racks are needed on the East Mall.|||Internal major transfers within the JSG are notoriously difficult- as is transferring out past a certain credit hour point, apparently. Amending that would serve everyone well.|||Geology is pretty gneiss.</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/chuchukian</t>
+  </si>
+  <si>
     <t>Daniel Hung</t>
   </si>
   <si>
     <t>Law Representative</t>
   </si>
   <si>
-    <t>http://i.imgur.com/JmnsdZC.jpg</t>
-  </si>
-  <si>
     <t>Law</t>
   </si>
   <si>
@@ -438,9 +551,18 @@
     <t>Carolos Hernán Salamanca</t>
   </si>
   <si>
+    <t>Latin American Studies</t>
+  </si>
+  <si>
     <t>Jenny McGinty</t>
   </si>
   <si>
+    <t>Plan II</t>
+  </si>
+  <si>
+    <t>Jason Carr</t>
+  </si>
+  <si>
     <t>John-Paul Bach</t>
   </si>
   <si>
@@ -450,16 +572,28 @@
     <t>Natural Sciences Representative</t>
   </si>
   <si>
-    <t>Biology</t>
-  </si>
-  <si>
     <t>Alex Pustilnik</t>
   </si>
   <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
     <t>Laura Zhang</t>
   </si>
   <si>
-    <t>Pamela del Valle</t>
+    <t>Pamela Del Valle</t>
+  </si>
+  <si>
+    <t>Cameron Crane</t>
+  </si>
+  <si>
+    <t>Michael Peoples</t>
+  </si>
+  <si>
+    <t>Mukund Rathi</t>
+  </si>
+  <si>
+    <t>Rebecca Sostek</t>
   </si>
   <si>
     <t>Juan Saez</t>
@@ -480,39 +614,54 @@
     <t xml:space="preserve">David Davis Jr. </t>
   </si>
   <si>
-    <t xml:space="preserve">The Daily Texan </t>
+    <t>Graduate Student Assembly President</t>
+  </si>
+  <si>
+    <t>Human Development &amp; Family Sciences</t>
+  </si>
+  <si>
+    <t>Vance Roper</t>
+  </si>
+  <si>
+    <t>Graduate Student Assembly Vice President</t>
+  </si>
+  <si>
+    <t>The Daily Texan</t>
+  </si>
+  <si>
+    <t>Tim Nelson</t>
   </si>
   <si>
     <t>Editor-in-Chief</t>
   </si>
   <si>
+    <t>Public Affairs/Community and Regional Planning</t>
+  </si>
+  <si>
     <t>French and International Relations</t>
   </si>
   <si>
-    <t>Graduate Student Assembly President</t>
+    <t>Board of Directors</t>
+  </si>
+  <si>
+    <t>Board Member</t>
   </si>
   <si>
     <t>http://www.twitter.com/daveedalon</t>
   </si>
   <si>
-    <t>Human Development &amp; Family Sciences</t>
-  </si>
-  <si>
-    <t>Vance Roper</t>
-  </si>
-  <si>
-    <t>Graduate Student Assembly Vice President</t>
-  </si>
-  <si>
-    <t>Public Affairs/Community and Regional Planning</t>
+    <t>Pierre Pfarr</t>
+  </si>
+  <si>
+    <t>Dana Le</t>
+  </si>
+  <si>
+    <t>Cameron Kerl</t>
   </si>
   <si>
     <t>Claire Smith</t>
   </si>
   <si>
-    <t>The Daily Texan</t>
-  </si>
-  <si>
     <t>History and Humanities</t>
   </si>
   <si>
@@ -546,33 +695,15 @@
     <t>Amil Malik</t>
   </si>
   <si>
-    <t>Tim Nelson</t>
-  </si>
-  <si>
     <t>Plan II, Business Honors and Finance</t>
   </si>
   <si>
     <t>McKay Proctor</t>
   </si>
   <si>
-    <t>Board of Directors</t>
-  </si>
-  <si>
-    <t>Board Member</t>
-  </si>
-  <si>
     <t>English and Business Honors</t>
   </si>
   <si>
-    <t>Pierre Pfarr</t>
-  </si>
-  <si>
-    <t>Dana Le</t>
-  </si>
-  <si>
-    <t>Cameron Kerl</t>
-  </si>
-  <si>
     <t>Tylee Milan</t>
   </si>
   <si>
@@ -591,6 +722,15 @@
     <t>http://www.twitter.com/samjgrasso</t>
   </si>
   <si>
+    <t>Diana Padilla</t>
+  </si>
+  <si>
+    <t>E+E President</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
@@ -606,13 +746,13 @@
     <t>Graduate Student Assembly (GSA)</t>
   </si>
   <si>
-    <t>Graduate Student Assembly is the official graduate student voice to the UT administration, the Board of Regents and the Texas Legislature. Members of the organization write resolutions voicing their support or disapproval of certain University, UT System or legislative actions; proposing new ideas; and formally addressing graduate student concerns.</t>
+    <t>Graduate Student Assembly is the official graduate student voice to the UT administration, the Board of Regents and the Texas Legislature. Members of the organization formally address specific graduate student concerns.</t>
   </si>
   <si>
     <t>Texas Student Media (TSM)</t>
   </si>
   <si>
-    <t xml:space="preserve">The Texas Student Media Operating Board of Trustees oversees the University's five official media outlets: KVRX 91.7 FM, the Texas Travesty, Texas Student Television, the Cactus yearbook and The Daily Texan. The student body elects three Moody College of Communication students and three at-large students to the 11-person board. </t>
+    <t>The Texas Student Media Operating Board of Trustees oversees the University's five official media outlets: KVRX 91.7 FM, the Texas Travesty, Texas Student Television, the Cactus yearbook and The Daily Texan.</t>
   </si>
   <si>
     <t>University Co-Op (Co-Op)</t>
@@ -624,14 +764,14 @@
     <t>University Unions (Unions)</t>
   </si>
   <si>
-    <t>The University Unions Board of Directors recommend rules and procedures regarding the operation and use of the Unions' facilities, which include the Texas Union, the Student Activity Center and the Hogg Auditorium. The board also oversees Campus Events and Entertainment.</t>
+    <t>The University Unions Board of Directors recommend rules and procedures for the operation of the Unions' facilities, which include the Texas Union, the Student Activity Center and the Hogg Auditorium. The board also oversees Campus Events and Entertainment.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
@@ -651,6 +791,9 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+    </font>
+    <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
@@ -660,11 +803,6 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -688,8 +826,12 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,6 +842,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -721,7 +887,7 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="38">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2" applyFill="1">
@@ -731,12 +897,46 @@
       <alignment/>
     </xf>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5">
+    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3" applyFill="1">
       <alignment/>
     </xf>
+    <xf fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
+    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3" applyFill="1">
+      <alignment/>
+    </xf>
+    <xf fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3" applyFill="1">
+      <alignment/>
+    </xf>
+    <xf fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
+    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
+      <alignment/>
+    </xf>
+    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment/>
     </xf>
@@ -749,19 +949,17 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0">
       <alignment/>
     </xf>
+    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3" applyFill="1">
+      <alignment/>
+    </xf>
+    <xf fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
+    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
+      <alignment/>
+    </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6">
-      <alignment/>
-    </xf>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2"/>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
-      <alignment/>
-    </xf>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="8">
       <alignment/>
     </xf>
@@ -770,7 +968,14 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="10">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="11">
+    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="10">
+      <alignment/>
+    </xf>
+    <xf fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="10"/>
+    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="11">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="12">
       <alignment/>
     </xf>
   </cellXfs>
@@ -890,18 +1095,22 @@
       <c t="s" s="3" r="I2">
         <v>19</v>
       </c>
-      <c s="4" r="J2"/>
+      <c t="s" s="5" r="J2">
+        <v>20</v>
+      </c>
       <c s="2" r="K2"/>
-      <c t="s" s="5" r="L2">
-        <v>20</v>
-      </c>
-      <c s="4" r="M2"/>
+      <c t="s" s="6" r="L2">
+        <v>21</v>
+      </c>
+      <c t="s" s="6" r="M2">
+        <v>22</v>
+      </c>
       <c s="4" r="N2"/>
       <c s="4" r="O2"/>
     </row>
     <row customHeight="1" r="3" ht="15.75">
       <c t="s" s="2" r="A3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c s="3" r="B3">
         <v>1.0</v>
@@ -912,19 +1121,21 @@
       <c s="4" r="D3"/>
       <c s="4" r="E3"/>
       <c t="s" s="3" r="F3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c s="4" r="G3"/>
       <c t="s" s="3" r="H3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" s="3" r="I3">
         <v>19</v>
       </c>
-      <c s="4" r="J3"/>
+      <c t="s" s="5" r="J3">
+        <v>20</v>
+      </c>
       <c s="2" r="K3"/>
-      <c t="s" s="5" r="L3">
-        <v>20</v>
+      <c t="s" s="6" r="L3">
+        <v>21</v>
       </c>
       <c s="4" r="M3"/>
       <c s="4" r="N3"/>
@@ -932,7 +1143,7 @@
     </row>
     <row customHeight="1" r="4" ht="15.75">
       <c t="s" s="3" r="A4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c s="3" r="B4">
         <v>1.0</v>
@@ -947,25 +1158,29 @@
       </c>
       <c s="4" r="G4"/>
       <c t="s" s="3" r="H4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c t="s" s="3" r="I4">
         <v>19</v>
       </c>
-      <c s="4" r="J4"/>
-      <c s="2" r="K4"/>
-      <c t="s" s="5" r="L4">
-        <v>26</v>
-      </c>
-      <c t="s" s="5" r="M4">
-        <v>27</v>
+      <c t="s" s="3" r="J4">
+        <v>28</v>
+      </c>
+      <c t="s" s="2" r="K4">
+        <v>29</v>
+      </c>
+      <c t="s" s="6" r="L4">
+        <v>30</v>
+      </c>
+      <c t="s" s="6" r="M4">
+        <v>31</v>
       </c>
       <c s="4" r="N4"/>
       <c s="4" r="O4"/>
     </row>
     <row customHeight="1" r="5" ht="15.75">
       <c t="s" s="3" r="A5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c s="3" r="B5">
         <v>1.0</v>
@@ -976,29 +1191,33 @@
       <c s="4" r="D5"/>
       <c s="4" r="E5"/>
       <c t="s" s="3" r="F5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c s="4" r="G5"/>
       <c t="s" s="3" r="H5">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c t="s" s="3" r="I5">
         <v>19</v>
       </c>
-      <c s="4" r="J5"/>
-      <c s="2" r="K5"/>
-      <c t="s" s="5" r="L5">
-        <v>26</v>
-      </c>
-      <c t="s" s="5" r="M5">
-        <v>27</v>
+      <c t="s" s="3" r="J5">
+        <v>28</v>
+      </c>
+      <c t="s" s="2" r="K5">
+        <v>29</v>
+      </c>
+      <c t="s" s="6" r="L5">
+        <v>30</v>
+      </c>
+      <c t="s" s="6" r="M5">
+        <v>31</v>
       </c>
       <c s="4" r="N5"/>
       <c s="4" r="O5"/>
     </row>
     <row customHeight="1" r="6" ht="15.75">
       <c t="s" s="3" r="A6">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c s="3" r="B6">
         <v>1.0</v>
@@ -1013,13 +1232,17 @@
       </c>
       <c s="4" r="G6"/>
       <c t="s" s="3" r="H6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c t="s" s="3" r="I6">
         <v>19</v>
       </c>
-      <c s="4" r="J6"/>
-      <c s="2" r="K6"/>
+      <c t="s" s="3" r="J6">
+        <v>36</v>
+      </c>
+      <c t="s" s="2" r="K6">
+        <v>36</v>
+      </c>
       <c s="4" r="L6"/>
       <c s="4" r="M6"/>
       <c s="4" r="N6"/>
@@ -1027,7 +1250,7 @@
     </row>
     <row customHeight="1" r="7" ht="15.75">
       <c t="s" s="3" r="A7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c s="3" r="B7">
         <v>1.0</v>
@@ -1038,17 +1261,21 @@
       <c s="4" r="D7"/>
       <c s="4" r="E7"/>
       <c t="s" s="3" r="F7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c s="4" r="G7"/>
       <c t="s" s="3" r="H7">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c t="s" s="3" r="I7">
-        <v>34</v>
-      </c>
-      <c s="4" r="J7"/>
-      <c s="2" r="K7"/>
+        <v>39</v>
+      </c>
+      <c t="s" s="3" r="J7">
+        <v>36</v>
+      </c>
+      <c t="s" s="2" r="K7">
+        <v>36</v>
+      </c>
       <c s="4" r="L7"/>
       <c s="4" r="M7"/>
       <c s="4" r="N7"/>
@@ -1056,7 +1283,7 @@
     </row>
     <row customHeight="1" r="8" ht="15.75">
       <c t="s" s="3" r="A8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c s="3" r="B8">
         <v>1.0</v>
@@ -1072,8 +1299,12 @@
       <c s="4" r="G8"/>
       <c s="3" r="H8"/>
       <c s="3" r="I8"/>
-      <c s="4" r="J8"/>
-      <c s="2" r="K8"/>
+      <c t="s" s="3" r="J8">
+        <v>36</v>
+      </c>
+      <c t="s" s="2" r="K8">
+        <v>36</v>
+      </c>
       <c s="4" r="L8"/>
       <c s="4" r="M8"/>
       <c s="4" r="N8"/>
@@ -1081,7 +1312,7 @@
     </row>
     <row customHeight="1" r="9" ht="15.75">
       <c t="s" s="3" r="A9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c s="3" r="B9">
         <v>1.0</v>
@@ -1092,370 +1323,398 @@
       <c s="4" r="D9"/>
       <c s="4" r="E9"/>
       <c t="s" s="3" r="F9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c s="4" r="G9"/>
       <c t="s" s="3" r="H9">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c t="s" s="3" r="I9">
         <v>19</v>
       </c>
-      <c s="4" r="J9"/>
-      <c s="2" r="K9"/>
+      <c t="s" s="3" r="J9">
+        <v>36</v>
+      </c>
+      <c t="s" s="2" r="K9">
+        <v>36</v>
+      </c>
       <c s="4" r="L9"/>
       <c s="4" r="M9"/>
       <c s="4" r="N9"/>
       <c s="4" r="O9"/>
     </row>
     <row customHeight="1" r="10" ht="15.75">
-      <c t="s" s="3" r="A10">
-        <v>38</v>
-      </c>
-      <c s="3" r="B10">
+      <c t="s" s="7" r="A10">
+        <v>43</v>
+      </c>
+      <c s="7" r="B10">
         <v>8.0</v>
       </c>
-      <c t="s" s="3" r="C10">
+      <c t="s" s="7" r="C10">
+        <v>44</v>
+      </c>
+      <c s="8" r="D10"/>
+      <c s="8" r="E10"/>
+      <c t="s" s="7" r="F10">
+        <v>45</v>
+      </c>
+      <c s="8" r="G10"/>
+      <c t="s" s="7" r="H10">
+        <v>46</v>
+      </c>
+      <c t="s" s="7" r="I10">
+        <v>47</v>
+      </c>
+      <c t="s" s="7" r="J10">
+        <v>36</v>
+      </c>
+      <c t="s" s="9" r="K10">
+        <v>36</v>
+      </c>
+      <c s="8" r="L10"/>
+      <c s="10" r="M10"/>
+      <c s="8" r="N10"/>
+      <c s="8" r="O10"/>
+    </row>
+    <row customHeight="1" r="11" ht="15.0">
+      <c t="s" s="7" r="A11">
+        <v>48</v>
+      </c>
+      <c s="7" r="B11">
+        <v>8.0</v>
+      </c>
+      <c t="s" s="7" r="C11">
+        <v>44</v>
+      </c>
+      <c s="8" r="D11"/>
+      <c s="7" r="E11"/>
+      <c t="s" s="7" r="F11">
+        <v>45</v>
+      </c>
+      <c t="s" s="7" r="G11">
+        <v>49</v>
+      </c>
+      <c t="s" s="7" r="H11">
+        <v>50</v>
+      </c>
+      <c t="s" s="7" r="I11">
         <v>39</v>
       </c>
-      <c s="4" r="D10"/>
-      <c s="4" r="E10"/>
-      <c t="s" s="3" r="F10">
-        <v>40</v>
-      </c>
-      <c s="4" r="G10"/>
-      <c t="s" s="3" r="H10">
-        <v>41</v>
-      </c>
-      <c t="s" s="3" r="I10">
-        <v>42</v>
-      </c>
-      <c s="4" r="J10"/>
-      <c s="2" r="K10"/>
-      <c s="4" r="L10"/>
-      <c t="s" s="6" r="M10">
-        <v>43</v>
-      </c>
-      <c s="4" r="N10"/>
-      <c s="4" r="O10"/>
-    </row>
-    <row customHeight="1" r="11" ht="15.75">
-      <c t="s" s="3" r="A11">
+      <c t="s" s="7" r="J11">
+        <v>51</v>
+      </c>
+      <c t="s" s="9" r="K11">
+        <v>52</v>
+      </c>
+      <c s="8" r="L11"/>
+      <c s="8" r="M11"/>
+      <c s="8" r="N11"/>
+      <c s="8" r="O11"/>
+    </row>
+    <row customHeight="1" r="12" ht="15.75">
+      <c t="s" s="11" r="A12">
+        <v>53</v>
+      </c>
+      <c s="11" r="B12">
+        <v>8.0</v>
+      </c>
+      <c t="s" s="11" r="C12">
         <v>44</v>
       </c>
-      <c s="3" r="B11">
+      <c s="12" r="D12"/>
+      <c s="12" r="E12"/>
+      <c t="s" s="11" r="F12">
+        <v>45</v>
+      </c>
+      <c s="12" r="G12"/>
+      <c t="s" s="11" r="H12">
+        <v>54</v>
+      </c>
+      <c t="s" s="11" r="I12">
+        <v>19</v>
+      </c>
+      <c s="12" r="J12"/>
+      <c s="13" r="K12"/>
+      <c s="12" r="L12"/>
+      <c s="11" r="M12"/>
+      <c s="12" r="N12"/>
+      <c s="12" r="O12"/>
+    </row>
+    <row customHeight="1" r="13" ht="15.75">
+      <c t="s" s="11" r="A13">
+        <v>55</v>
+      </c>
+      <c s="11" r="B13">
         <v>8.0</v>
       </c>
-      <c t="s" s="3" r="C11">
+      <c t="s" s="11" r="C13">
+        <v>44</v>
+      </c>
+      <c s="12" r="D13"/>
+      <c s="12" r="E13"/>
+      <c t="s" s="11" r="F13">
+        <v>45</v>
+      </c>
+      <c s="12" r="G13"/>
+      <c t="s" s="11" r="H13">
+        <v>56</v>
+      </c>
+      <c t="s" s="11" r="I13">
         <v>39</v>
       </c>
-      <c s="4" r="D11"/>
-      <c t="s" s="5" r="E11">
+      <c s="12" r="J13"/>
+      <c s="13" r="K13"/>
+      <c s="12" r="L13"/>
+      <c s="11" r="M13"/>
+      <c s="12" r="N13"/>
+      <c s="12" r="O13"/>
+    </row>
+    <row customHeight="1" r="14" ht="15.75">
+      <c t="s" s="7" r="A14">
+        <v>57</v>
+      </c>
+      <c s="7" r="B14">
+        <v>8.0</v>
+      </c>
+      <c t="s" s="7" r="C14">
+        <v>44</v>
+      </c>
+      <c s="8" r="D14"/>
+      <c s="8" r="E14"/>
+      <c t="s" s="7" r="F14">
         <v>45</v>
       </c>
-      <c t="s" s="3" r="F11">
-        <v>40</v>
-      </c>
-      <c t="s" s="3" r="G11">
-        <v>46</v>
-      </c>
-      <c t="s" s="3" r="H11">
-        <v>47</v>
-      </c>
-      <c t="s" s="3" r="I11">
-        <v>34</v>
-      </c>
-      <c t="s" s="3" r="J11">
-        <v>48</v>
-      </c>
-      <c t="s" s="2" r="K11">
-        <v>49</v>
-      </c>
-      <c s="4" r="L11"/>
-      <c s="4" r="M11"/>
-      <c s="4" r="N11"/>
-      <c s="4" r="O11"/>
-    </row>
-    <row customHeight="1" r="12" ht="15.75">
-      <c t="s" s="3" r="A12">
+      <c s="8" r="G14"/>
+      <c s="7" r="H14"/>
+      <c s="7" r="I14"/>
+      <c s="8" r="J14"/>
+      <c s="9" r="K14"/>
+      <c s="8" r="L14"/>
+      <c s="7" r="M14"/>
+      <c s="8" r="N14"/>
+      <c s="8" r="O14"/>
+    </row>
+    <row customHeight="1" r="15" ht="15.75">
+      <c t="s" s="11" r="A15">
+        <v>58</v>
+      </c>
+      <c s="11" r="B15">
+        <v>8.0</v>
+      </c>
+      <c t="s" s="11" r="C15">
+        <v>44</v>
+      </c>
+      <c s="12" r="D15"/>
+      <c s="12" r="E15"/>
+      <c t="s" s="11" r="F15">
+        <v>45</v>
+      </c>
+      <c s="12" r="G15"/>
+      <c t="s" s="11" r="H15">
+        <v>59</v>
+      </c>
+      <c t="s" s="11" r="I15">
+        <v>39</v>
+      </c>
+      <c s="12" r="J15"/>
+      <c s="13" r="K15"/>
+      <c s="12" r="L15"/>
+      <c s="11" r="M15"/>
+      <c s="12" r="N15"/>
+      <c s="12" r="O15"/>
+    </row>
+    <row customHeight="1" r="16" ht="15.75">
+      <c t="s" s="7" r="A16">
+        <v>60</v>
+      </c>
+      <c s="7" r="B16">
+        <v>8.0</v>
+      </c>
+      <c t="s" s="7" r="C16">
+        <v>44</v>
+      </c>
+      <c s="8" r="D16"/>
+      <c s="8" r="E16"/>
+      <c t="s" s="7" r="F16">
+        <v>45</v>
+      </c>
+      <c s="8" r="G16"/>
+      <c t="s" s="7" r="H16">
         <v>50</v>
       </c>
-      <c s="3" r="B12">
+      <c t="s" s="7" r="I16">
+        <v>39</v>
+      </c>
+      <c t="s" s="7" r="J16">
+        <v>61</v>
+      </c>
+      <c t="s" s="9" r="K16">
+        <v>62</v>
+      </c>
+      <c s="8" r="L16"/>
+      <c t="s" s="14" r="M16">
+        <v>63</v>
+      </c>
+      <c s="8" r="N16"/>
+      <c s="8" r="O16"/>
+    </row>
+    <row customHeight="1" r="17" ht="15.75">
+      <c t="s" s="15" r="A17">
+        <v>64</v>
+      </c>
+      <c s="15" r="B17">
         <v>8.0</v>
       </c>
-      <c t="s" s="3" r="C12">
-        <v>39</v>
-      </c>
-      <c s="4" r="D12"/>
-      <c s="4" r="E12"/>
-      <c t="s" s="3" r="F12">
-        <v>40</v>
-      </c>
-      <c s="4" r="G12"/>
-      <c t="s" s="3" r="H12">
-        <v>47</v>
-      </c>
-      <c t="s" s="3" r="I12">
-        <v>34</v>
-      </c>
-      <c s="4" r="J12"/>
-      <c s="2" r="K12"/>
-      <c s="4" r="L12"/>
-      <c s="4" r="M12"/>
-      <c s="4" r="N12"/>
-      <c s="4" r="O12"/>
-    </row>
-    <row customHeight="1" r="13" ht="15.75">
-      <c t="s" s="3" r="A13">
-        <v>51</v>
-      </c>
-      <c s="3" r="B13">
-        <v>8.0</v>
-      </c>
-      <c t="s" s="3" r="C13">
-        <v>39</v>
-      </c>
-      <c s="4" r="D13"/>
-      <c s="4" r="E13"/>
-      <c t="s" s="3" r="F13">
-        <v>40</v>
-      </c>
-      <c s="4" r="G13"/>
-      <c t="s" s="3" r="H13">
-        <v>52</v>
-      </c>
-      <c t="s" s="3" r="I13">
+      <c t="s" s="15" r="C17">
+        <v>44</v>
+      </c>
+      <c s="16" r="D17"/>
+      <c s="16" r="E17"/>
+      <c t="s" s="15" r="F17">
+        <v>45</v>
+      </c>
+      <c s="16" r="G17"/>
+      <c t="s" s="15" r="H17">
+        <v>65</v>
+      </c>
+      <c t="s" s="15" r="I17">
         <v>19</v>
       </c>
-      <c s="4" r="J13"/>
-      <c s="2" r="K13"/>
-      <c s="4" r="L13"/>
-      <c s="4" r="M13"/>
-      <c s="4" r="N13"/>
-      <c s="4" r="O13"/>
-    </row>
-    <row customHeight="1" r="14" ht="15.75">
-      <c t="s" s="3" r="A14">
-        <v>53</v>
-      </c>
-      <c s="3" r="B14">
-        <v>8.0</v>
-      </c>
-      <c t="s" s="3" r="C14">
-        <v>39</v>
-      </c>
-      <c s="4" r="D14"/>
-      <c s="4" r="E14"/>
-      <c t="s" s="3" r="F14">
-        <v>40</v>
-      </c>
-      <c s="4" r="G14"/>
-      <c t="s" s="3" r="H14">
-        <v>54</v>
-      </c>
-      <c t="s" s="3" r="I14">
-        <v>55</v>
-      </c>
-      <c s="4" r="J14"/>
-      <c s="4" r="K14"/>
-      <c t="s" s="5" r="L14">
-        <v>56</v>
-      </c>
-      <c s="4" r="M14"/>
-      <c s="4" r="N14"/>
-      <c s="4" r="O14"/>
-    </row>
-    <row customHeight="1" r="15" ht="15.75">
-      <c t="s" s="3" r="A15">
-        <v>57</v>
-      </c>
-      <c s="3" r="B15">
-        <v>8.0</v>
-      </c>
-      <c t="s" s="3" r="C15">
-        <v>39</v>
-      </c>
-      <c s="4" r="D15"/>
-      <c s="4" r="E15"/>
-      <c t="s" s="3" r="F15">
-        <v>40</v>
-      </c>
-      <c s="4" r="G15"/>
-      <c t="s" s="3" r="H15">
-        <v>58</v>
-      </c>
-      <c t="s" s="3" r="I15">
-        <v>34</v>
-      </c>
-      <c s="4" r="J15"/>
-      <c t="s" s="3" r="K15">
-        <v>59</v>
-      </c>
-      <c s="4" r="L15"/>
-      <c s="4" r="M15"/>
-      <c s="4" r="N15"/>
-      <c s="4" r="O15"/>
-    </row>
-    <row customHeight="1" r="16" ht="15.75">
-      <c t="s" s="3" r="A16">
-        <v>60</v>
-      </c>
-      <c s="3" r="B16">
-        <v>8.0</v>
-      </c>
-      <c t="s" s="3" r="C16">
-        <v>39</v>
-      </c>
-      <c s="4" r="D16"/>
-      <c s="4" r="E16"/>
-      <c t="s" s="3" r="F16">
-        <v>40</v>
-      </c>
-      <c s="4" r="G16"/>
-      <c s="4" r="H16"/>
-      <c s="4" r="I16"/>
-      <c s="4" r="J16"/>
-      <c s="4" r="K16"/>
-      <c s="4" r="L16"/>
-      <c s="4" r="M16"/>
-      <c s="4" r="N16"/>
-      <c s="4" r="O16"/>
-    </row>
-    <row customHeight="1" r="17" ht="15.75">
-      <c t="s" s="3" r="A17">
-        <v>61</v>
-      </c>
-      <c s="3" r="B17">
-        <v>8.0</v>
-      </c>
-      <c t="s" s="3" r="C17">
-        <v>39</v>
-      </c>
-      <c s="3" r="D17"/>
-      <c s="4" r="E17"/>
-      <c t="s" s="3" r="F17">
-        <v>40</v>
-      </c>
-      <c s="4" r="G17"/>
-      <c t="s" s="3" r="H17">
-        <v>62</v>
-      </c>
-      <c t="s" s="3" r="I17">
-        <v>42</v>
-      </c>
-      <c s="4" r="J17"/>
-      <c s="4" r="K17"/>
-      <c s="4" r="L17"/>
-      <c s="4" r="M17"/>
-      <c s="4" r="N17"/>
-      <c s="4" r="O17"/>
+      <c t="s" s="15" r="J17">
+        <v>66</v>
+      </c>
+      <c t="s" s="17" r="K17">
+        <v>67</v>
+      </c>
+      <c t="s" s="18" r="L17">
+        <v>68</v>
+      </c>
+      <c t="s" s="18" r="M17">
+        <v>69</v>
+      </c>
+      <c s="16" r="N17"/>
+      <c s="16" r="O17"/>
     </row>
     <row customHeight="1" r="18" ht="15.75">
       <c t="s" s="7" r="A18">
-        <v>63</v>
-      </c>
-      <c s="8" r="B18">
+        <v>70</v>
+      </c>
+      <c s="7" r="B18">
         <v>8.0</v>
       </c>
       <c t="s" s="7" r="C18">
+        <v>44</v>
+      </c>
+      <c s="8" r="D18"/>
+      <c s="8" r="E18"/>
+      <c t="s" s="7" r="F18">
+        <v>45</v>
+      </c>
+      <c s="8" r="G18"/>
+      <c t="s" s="7" r="H18">
+        <v>71</v>
+      </c>
+      <c t="s" s="7" r="I18">
+        <v>72</v>
+      </c>
+      <c t="s" s="7" r="J18">
+        <v>73</v>
+      </c>
+      <c s="8" r="K18"/>
+      <c t="s" s="14" r="L18">
+        <v>74</v>
+      </c>
+      <c s="8" r="M18"/>
+      <c s="8" r="N18"/>
+      <c s="8" r="O18"/>
+    </row>
+    <row customHeight="1" r="19" ht="15.75">
+      <c t="s" s="7" r="A19">
+        <v>75</v>
+      </c>
+      <c s="7" r="B19">
+        <v>8.0</v>
+      </c>
+      <c t="s" s="7" r="C19">
+        <v>44</v>
+      </c>
+      <c s="8" r="D19"/>
+      <c s="8" r="E19"/>
+      <c t="s" s="7" r="F19">
+        <v>45</v>
+      </c>
+      <c s="8" r="G19"/>
+      <c t="s" s="7" r="H19">
+        <v>76</v>
+      </c>
+      <c t="s" s="7" r="I19">
         <v>39</v>
       </c>
-      <c s="9" r="D18"/>
-      <c s="10" r="E18"/>
-      <c t="s" s="7" r="F18">
-        <v>40</v>
-      </c>
-      <c s="10" r="G18"/>
-      <c t="s" s="9" r="H18">
-        <v>64</v>
-      </c>
-      <c t="s" s="9" r="I18">
-        <v>42</v>
-      </c>
-      <c s="10" r="J18"/>
-      <c s="10" r="K18"/>
-      <c s="10" r="L18"/>
-      <c s="10" r="M18"/>
-      <c s="10" r="N18"/>
-      <c s="10" r="O18"/>
-    </row>
-    <row customHeight="1" r="19" ht="15.75">
-      <c t="s" s="3" r="A19">
-        <v>65</v>
-      </c>
-      <c s="3" r="B19">
+      <c t="s" s="7" r="J19">
+        <v>77</v>
+      </c>
+      <c t="s" s="7" r="K19">
+        <v>78</v>
+      </c>
+      <c s="8" r="L19"/>
+      <c s="8" r="M19"/>
+      <c s="8" r="N19"/>
+      <c s="8" r="O19"/>
+    </row>
+    <row customHeight="1" r="20" ht="15.75">
+      <c t="s" s="19" r="A20">
+        <v>79</v>
+      </c>
+      <c s="19" r="B20">
         <v>8.0</v>
       </c>
-      <c t="s" s="3" r="C19">
-        <v>39</v>
-      </c>
-      <c s="3" r="D19"/>
-      <c s="4" r="E19"/>
-      <c t="s" s="7" r="F19">
-        <v>40</v>
-      </c>
-      <c s="4" r="G19"/>
-      <c s="3" r="H19"/>
-      <c s="3" r="I19"/>
-      <c s="4" r="J19"/>
-      <c s="4" r="K19"/>
-      <c s="4" r="L19"/>
-      <c s="4" r="M19"/>
-      <c s="4" r="N19"/>
-      <c s="4" r="O19"/>
-    </row>
-    <row customHeight="1" r="20" ht="15.75">
-      <c t="s" s="3" r="A20">
-        <v>66</v>
-      </c>
-      <c s="3" r="B20">
-        <v>8.0</v>
-      </c>
-      <c t="s" s="3" r="C20">
-        <v>39</v>
-      </c>
-      <c s="3" r="D20"/>
-      <c s="4" r="E20"/>
-      <c t="s" s="3" r="F20">
-        <v>67</v>
-      </c>
-      <c s="4" r="G20"/>
-      <c t="s" s="3" r="H20">
-        <v>68</v>
-      </c>
-      <c t="s" s="3" r="I20">
-        <v>42</v>
-      </c>
-      <c s="4" r="J20"/>
-      <c s="4" r="K20"/>
-      <c s="4" r="L20"/>
-      <c s="4" r="M20"/>
-      <c s="4" r="N20"/>
-      <c s="4" r="O20"/>
+      <c t="s" s="19" r="C20">
+        <v>44</v>
+      </c>
+      <c s="20" r="D20"/>
+      <c s="20" r="E20"/>
+      <c t="s" s="19" r="F20">
+        <v>45</v>
+      </c>
+      <c s="20" r="G20"/>
+      <c t="s" s="19" r="H20">
+        <v>36</v>
+      </c>
+      <c t="s" s="19" r="I20">
+        <v>36</v>
+      </c>
+      <c t="s" s="19" r="J20">
+        <v>36</v>
+      </c>
+      <c t="s" s="19" r="K20">
+        <v>36</v>
+      </c>
+      <c s="20" r="L20"/>
+      <c s="20" r="M20"/>
+      <c s="20" r="N20"/>
+      <c s="20" r="O20"/>
     </row>
     <row customHeight="1" r="21" ht="15.75">
       <c t="s" s="3" r="A21">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c s="3" r="B21">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="3" r="C21">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D21">
-        <v>71</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c s="3" r="D21"/>
       <c s="4" r="E21"/>
       <c t="s" s="3" r="F21">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c s="4" r="G21"/>
       <c t="s" s="3" r="H21">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c t="s" s="3" r="I21">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c s="4" r="J21"/>
       <c s="4" r="K21"/>
@@ -1465,88 +1724,84 @@
       <c s="4" r="O21"/>
     </row>
     <row customHeight="1" r="22" ht="15.75">
-      <c t="s" s="3" r="A22">
-        <v>73</v>
-      </c>
-      <c s="3" r="B22">
-        <v>3.0</v>
-      </c>
-      <c t="s" s="3" r="C22">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D22">
-        <v>74</v>
-      </c>
-      <c s="4" r="E22"/>
-      <c t="s" s="3" r="F22">
-        <v>75</v>
-      </c>
-      <c s="4" r="G22"/>
-      <c s="3" r="H22"/>
-      <c s="3" r="I22"/>
-      <c s="4" r="J22"/>
-      <c s="4" r="K22"/>
-      <c s="3" r="L22"/>
-      <c s="4" r="M22"/>
-      <c s="4" r="N22"/>
-      <c s="4" r="O22"/>
+      <c t="s" s="21" r="A22">
+        <v>82</v>
+      </c>
+      <c s="22" r="B22">
+        <v>8.0</v>
+      </c>
+      <c t="s" s="21" r="C22">
+        <v>44</v>
+      </c>
+      <c s="23" r="D22"/>
+      <c s="24" r="E22"/>
+      <c t="s" s="21" r="F22">
+        <v>45</v>
+      </c>
+      <c s="24" r="G22"/>
+      <c t="s" s="23" r="H22">
+        <v>83</v>
+      </c>
+      <c t="s" s="23" r="I22">
+        <v>47</v>
+      </c>
+      <c s="24" r="J22"/>
+      <c s="24" r="K22"/>
+      <c s="24" r="L22"/>
+      <c s="24" r="M22"/>
+      <c s="24" r="N22"/>
+      <c s="24" r="O22"/>
     </row>
     <row customHeight="1" r="23" ht="15.75">
-      <c t="s" s="3" r="A23">
-        <v>76</v>
-      </c>
-      <c s="3" r="B23">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="3" r="C23">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D23">
-        <v>77</v>
-      </c>
-      <c s="4" r="E23"/>
-      <c t="s" s="3" r="F23">
-        <v>78</v>
-      </c>
-      <c s="4" r="G23"/>
-      <c t="s" s="3" r="H23">
-        <v>79</v>
-      </c>
-      <c t="s" s="3" r="I23">
-        <v>34</v>
-      </c>
-      <c s="4" r="J23"/>
-      <c s="4" r="K23"/>
-      <c t="s" s="5" r="L23">
-        <v>80</v>
-      </c>
-      <c s="4" r="M23"/>
-      <c s="4" r="N23"/>
-      <c s="4" r="O23"/>
+      <c t="s" s="25" r="A23">
+        <v>84</v>
+      </c>
+      <c s="25" r="B23">
+        <v>8.0</v>
+      </c>
+      <c t="s" s="25" r="C23">
+        <v>44</v>
+      </c>
+      <c s="25" r="D23"/>
+      <c s="26" r="E23"/>
+      <c t="s" s="27" r="F23">
+        <v>45</v>
+      </c>
+      <c s="26" r="G23"/>
+      <c t="s" s="25" r="H23">
+        <v>56</v>
+      </c>
+      <c t="s" s="25" r="I23">
+        <v>39</v>
+      </c>
+      <c s="26" r="J23"/>
+      <c s="26" r="K23"/>
+      <c s="26" r="L23"/>
+      <c s="26" r="M23"/>
+      <c s="26" r="N23"/>
+      <c s="26" r="O23"/>
     </row>
     <row customHeight="1" r="24" ht="15.75">
       <c t="s" s="3" r="A24">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c s="3" r="B24">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="3" r="C24">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D24">
-        <v>77</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c s="3" r="D24"/>
       <c s="4" r="E24"/>
       <c t="s" s="3" r="F24">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c s="4" r="G24"/>
       <c t="s" s="3" r="H24">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c t="s" s="3" r="I24">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c s="4" r="J24"/>
       <c s="4" r="K24"/>
@@ -1557,27 +1812,27 @@
     </row>
     <row customHeight="1" r="25" ht="15.75">
       <c t="s" s="3" r="A25">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c s="3" r="B25">
         <v>1.0</v>
       </c>
       <c t="s" s="3" r="C25">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c t="s" s="3" r="D25">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c s="4" r="E25"/>
       <c t="s" s="3" r="F25">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c s="4" r="G25"/>
       <c t="s" s="3" r="H25">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c t="s" s="3" r="I25">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c s="4" r="J25"/>
       <c s="4" r="K25"/>
@@ -1587,198 +1842,178 @@
       <c s="4" r="O25"/>
     </row>
     <row customHeight="1" r="26" ht="15.75">
-      <c t="s" s="3" r="A26">
-        <v>86</v>
-      </c>
-      <c s="3" r="B26">
+      <c t="s" s="25" r="A26">
+        <v>92</v>
+      </c>
+      <c s="25" r="B26">
         <v>3.0</v>
       </c>
-      <c t="s" s="3" r="C26">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D26">
-        <v>87</v>
-      </c>
-      <c s="4" r="E26"/>
-      <c t="s" s="3" r="F26">
-        <v>88</v>
-      </c>
-      <c s="4" r="G26"/>
-      <c t="s" s="3" r="H26">
+      <c t="s" s="25" r="C26">
         <v>89</v>
       </c>
-      <c t="s" s="3" r="I26">
-        <v>34</v>
-      </c>
-      <c s="4" r="J26"/>
-      <c s="4" r="K26"/>
-      <c s="4" r="L26"/>
-      <c s="4" r="M26"/>
-      <c s="4" r="N26"/>
-      <c s="4" r="O26"/>
+      <c t="s" s="25" r="D26">
+        <v>93</v>
+      </c>
+      <c s="26" r="E26"/>
+      <c t="s" s="25" r="F26">
+        <v>94</v>
+      </c>
+      <c s="26" r="G26"/>
+      <c t="s" s="25" r="H26">
+        <v>95</v>
+      </c>
+      <c t="s" s="25" r="I26">
+        <v>47</v>
+      </c>
+      <c s="26" r="J26"/>
+      <c s="26" r="K26"/>
+      <c s="25" r="L26"/>
+      <c s="26" r="M26"/>
+      <c s="26" r="N26"/>
+      <c s="26" r="O26"/>
     </row>
     <row customHeight="1" r="27" ht="15.75">
-      <c t="s" s="3" r="A27">
-        <v>90</v>
-      </c>
-      <c s="3" r="B27">
+      <c t="s" s="11" r="A27">
+        <v>96</v>
+      </c>
+      <c s="11" r="B27">
         <v>3.0</v>
       </c>
-      <c t="s" s="3" r="C27">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D27">
-        <v>87</v>
-      </c>
-      <c t="s" s="5" r="E27">
-        <v>91</v>
-      </c>
-      <c t="s" s="3" r="F27">
-        <v>88</v>
-      </c>
-      <c t="s" s="3" r="G27">
-        <v>46</v>
-      </c>
-      <c t="s" s="3" r="H27">
-        <v>92</v>
-      </c>
-      <c t="s" s="3" r="I27">
-        <v>42</v>
-      </c>
-      <c t="s" s="3" r="J27">
+      <c t="s" s="11" r="C27">
+        <v>89</v>
+      </c>
+      <c t="s" s="11" r="D27">
         <v>93</v>
       </c>
-      <c s="4" r="K27"/>
-      <c s="4" r="L27"/>
-      <c t="s" s="5" r="M27">
+      <c s="12" r="E27"/>
+      <c t="s" s="11" r="F27">
         <v>94</v>
       </c>
-      <c s="4" r="N27"/>
-      <c s="4" r="O27"/>
+      <c s="12" r="G27"/>
+      <c t="s" s="11" r="H27">
+        <v>95</v>
+      </c>
+      <c t="s" s="11" r="I27">
+        <v>39</v>
+      </c>
+      <c s="12" r="J27"/>
+      <c s="12" r="K27"/>
+      <c s="11" r="L27"/>
+      <c s="12" r="M27"/>
+      <c s="12" r="N27"/>
+      <c s="12" r="O27"/>
     </row>
     <row customHeight="1" r="28" ht="15.75">
-      <c t="s" s="3" r="A28">
-        <v>95</v>
-      </c>
-      <c s="3" r="B28">
+      <c t="s" s="25" r="A28">
+        <v>97</v>
+      </c>
+      <c s="25" r="B28">
         <v>3.0</v>
       </c>
-      <c t="s" s="3" r="C28">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D28">
-        <v>87</v>
-      </c>
-      <c s="3" r="E28"/>
-      <c t="s" s="3" r="F28">
-        <v>88</v>
-      </c>
-      <c s="3" r="G28"/>
-      <c t="s" s="3" r="H28">
-        <v>96</v>
-      </c>
-      <c t="s" s="3" r="I28">
-        <v>42</v>
-      </c>
-      <c s="3" r="J28"/>
-      <c s="4" r="K28"/>
-      <c s="4" r="L28"/>
-      <c s="3" r="M28"/>
-      <c s="4" r="N28"/>
-      <c s="4" r="O28"/>
+      <c t="s" s="25" r="C28">
+        <v>89</v>
+      </c>
+      <c t="s" s="25" r="D28">
+        <v>93</v>
+      </c>
+      <c s="26" r="E28"/>
+      <c t="s" s="25" r="F28">
+        <v>94</v>
+      </c>
+      <c s="26" r="G28"/>
+      <c s="25" r="H28"/>
+      <c s="25" r="I28"/>
+      <c s="26" r="J28"/>
+      <c s="26" r="K28"/>
+      <c s="25" r="L28"/>
+      <c s="26" r="M28"/>
+      <c s="26" r="N28"/>
+      <c s="26" r="O28"/>
     </row>
     <row customHeight="1" r="29" ht="15.75">
-      <c t="s" s="1" r="A29">
-        <v>97</v>
-      </c>
-      <c s="3" r="B29">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="3" r="C29">
-        <v>70</v>
+      <c t="s" s="11" r="A29">
+        <v>98</v>
+      </c>
+      <c s="11" r="B29">
+        <v>3.0</v>
+      </c>
+      <c t="s" s="11" r="C29">
+        <v>89</v>
       </c>
       <c t="s" s="11" r="D29">
-        <v>98</v>
-      </c>
-      <c t="s" s="12" r="E29">
-        <v>99</v>
-      </c>
-      <c t="s" s="1" r="F29">
-        <v>98</v>
-      </c>
-      <c t="s" s="3" r="G29">
-        <v>46</v>
-      </c>
-      <c t="s" s="1" r="H29">
-        <v>100</v>
-      </c>
-      <c t="s" s="1" r="I29">
-        <v>42</v>
-      </c>
-      <c t="s" s="13" r="J29">
-        <v>101</v>
-      </c>
-      <c s="4" r="K29"/>
-      <c s="4" r="L29"/>
-      <c s="4" r="M29"/>
-      <c s="4" r="N29"/>
-      <c s="4" r="O29"/>
+        <v>93</v>
+      </c>
+      <c s="12" r="E29"/>
+      <c t="s" s="11" r="F29">
+        <v>94</v>
+      </c>
+      <c s="12" r="G29"/>
+      <c s="11" r="H29"/>
+      <c s="11" r="I29"/>
+      <c s="12" r="J29"/>
+      <c s="12" r="K29"/>
+      <c s="11" r="L29"/>
+      <c s="12" r="M29"/>
+      <c s="12" r="N29"/>
+      <c s="12" r="O29"/>
     </row>
     <row customHeight="1" r="30" ht="15.75">
       <c t="s" s="3" r="A30">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c s="3" r="B30">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="3" r="C30">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c t="s" s="3" r="D30">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c s="4" r="E30"/>
       <c t="s" s="3" r="F30">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c s="4" r="G30"/>
-      <c s="3" r="H30"/>
-      <c s="3" r="I30"/>
+      <c t="s" s="3" r="H30">
+        <v>102</v>
+      </c>
+      <c t="s" s="3" r="I30">
+        <v>39</v>
+      </c>
       <c s="4" r="J30"/>
       <c s="4" r="K30"/>
-      <c s="4" r="L30"/>
+      <c s="3" r="L30"/>
       <c s="4" r="M30"/>
       <c s="4" r="N30"/>
       <c s="4" r="O30"/>
     </row>
     <row customHeight="1" r="31" ht="15.75">
       <c t="s" s="3" r="A31">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c s="3" r="B31">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="3" r="C31">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c t="s" s="3" r="D31">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c s="4" r="E31"/>
       <c t="s" s="3" r="F31">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c s="4" r="G31"/>
       <c t="s" s="3" r="H31">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" s="3" r="I31">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c s="4" r="J31"/>
-      <c t="s" s="3" r="K31">
-        <v>108</v>
-      </c>
+      <c s="4" r="K31"/>
       <c s="4" r="L31"/>
       <c s="4" r="M31"/>
       <c s="4" r="N31"/>
@@ -1786,27 +2021,27 @@
     </row>
     <row customHeight="1" r="32" ht="15.75">
       <c t="s" s="3" r="A32">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c s="3" r="B32">
         <v>1.0</v>
       </c>
       <c t="s" s="3" r="C32">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c t="s" s="3" r="D32">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c s="4" r="E32"/>
       <c t="s" s="3" r="F32">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c s="4" r="G32"/>
       <c t="s" s="3" r="H32">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c t="s" s="3" r="I32">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c s="4" r="J32"/>
       <c s="4" r="K32"/>
@@ -1817,16 +2052,16 @@
     </row>
     <row customHeight="1" r="33" ht="15.75">
       <c t="s" s="3" r="A33">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c s="3" r="B33">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="3" r="C33">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c t="s" s="3" r="D33">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c s="4" r="E33"/>
       <c t="s" s="3" r="F33">
@@ -1837,7 +2072,7 @@
         <v>111</v>
       </c>
       <c t="s" s="3" r="I33">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c s="4" r="J33"/>
       <c s="4" r="K33"/>
@@ -1847,235 +2082,229 @@
       <c s="4" r="O33"/>
     </row>
     <row customHeight="1" r="34" ht="15.75">
-      <c t="s" s="3" r="A34">
+      <c t="s" s="7" r="A34">
+        <v>112</v>
+      </c>
+      <c s="7" r="B34">
+        <v>3.0</v>
+      </c>
+      <c t="s" s="7" r="C34">
+        <v>89</v>
+      </c>
+      <c t="s" s="7" r="D34">
+        <v>109</v>
+      </c>
+      <c s="7" r="E34"/>
+      <c t="s" s="7" r="F34">
+        <v>110</v>
+      </c>
+      <c s="7" r="G34"/>
+      <c t="s" s="7" r="H34">
         <v>113</v>
       </c>
-      <c s="3" r="B34">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="3" r="C34">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D34">
+      <c t="s" s="7" r="I34">
+        <v>72</v>
+      </c>
+      <c s="7" r="J34"/>
+      <c s="8" r="K34"/>
+      <c s="8" r="L34"/>
+      <c s="7" r="M34"/>
+      <c s="8" r="N34"/>
+      <c s="8" r="O34"/>
+    </row>
+    <row customHeight="1" r="35" ht="15.75">
+      <c t="s" s="7" r="A35">
+        <v>114</v>
+      </c>
+      <c s="7" r="B35">
+        <v>3.0</v>
+      </c>
+      <c t="s" s="7" r="C35">
+        <v>89</v>
+      </c>
+      <c t="s" s="7" r="D35">
+        <v>109</v>
+      </c>
+      <c s="7" r="E35"/>
+      <c t="s" s="7" r="F35">
         <v>110</v>
       </c>
-      <c s="4" r="E34"/>
-      <c t="s" s="3" r="F34">
-        <v>110</v>
-      </c>
-      <c s="4" r="G34"/>
-      <c t="s" s="3" r="H34">
-        <v>111</v>
-      </c>
-      <c t="s" s="3" r="I34">
-        <v>42</v>
-      </c>
-      <c s="4" r="J34"/>
-      <c s="4" r="K34"/>
-      <c s="4" r="L34"/>
-      <c s="4" r="M34"/>
-      <c s="4" r="N34"/>
-      <c s="4" r="O34"/>
-    </row>
-    <row customHeight="1" r="35" ht="15.75">
-      <c t="s" s="3" r="A35">
-        <v>114</v>
-      </c>
-      <c s="3" r="B35">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="3" r="C35">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D35">
+      <c t="s" s="7" r="G35">
+        <v>49</v>
+      </c>
+      <c t="s" s="7" r="H35">
         <v>115</v>
       </c>
-      <c t="s" s="5" r="E35">
+      <c t="s" s="7" r="I35">
+        <v>47</v>
+      </c>
+      <c t="s" s="7" r="J35">
         <v>116</v>
       </c>
-      <c t="s" s="3" r="F35">
-        <v>115</v>
-      </c>
-      <c t="s" s="3" r="G35">
-        <v>46</v>
-      </c>
-      <c t="s" s="3" r="H35">
+      <c s="8" r="K35"/>
+      <c s="8" r="L35"/>
+      <c t="s" s="14" r="M35">
         <v>117</v>
       </c>
-      <c t="s" s="3" r="I35">
-        <v>118</v>
-      </c>
-      <c t="s" s="3" r="J35">
-        <v>119</v>
-      </c>
-      <c t="s" s="2" r="K35">
-        <v>120</v>
-      </c>
-      <c s="4" r="L35"/>
-      <c s="4" r="M35"/>
-      <c s="4" r="N35"/>
-      <c s="4" r="O35"/>
+      <c s="8" r="N35"/>
+      <c s="8" r="O35"/>
     </row>
     <row customHeight="1" r="36" ht="15.75">
       <c t="s" s="3" r="A36">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c s="3" r="B36">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="3" r="C36">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c t="s" s="3" r="D36">
-        <v>115</v>
-      </c>
-      <c s="4" r="E36"/>
+        <v>109</v>
+      </c>
+      <c s="3" r="E36"/>
       <c t="s" s="3" r="F36">
-        <v>115</v>
-      </c>
-      <c s="4" r="G36"/>
-      <c s="3" r="H36"/>
-      <c s="3" r="I36"/>
-      <c s="2" r="J36"/>
+        <v>110</v>
+      </c>
+      <c s="3" r="G36"/>
+      <c t="s" s="3" r="H36">
+        <v>119</v>
+      </c>
+      <c t="s" s="3" r="I36">
+        <v>47</v>
+      </c>
+      <c s="3" r="J36"/>
       <c s="4" r="K36"/>
-      <c s="14" r="L36"/>
-      <c s="14" r="M36"/>
+      <c s="4" r="L36"/>
+      <c s="3" r="M36"/>
       <c s="4" r="N36"/>
       <c s="4" r="O36"/>
     </row>
     <row customHeight="1" r="37" ht="15.75">
-      <c t="s" s="3" r="A37">
+      <c t="s" s="1" r="A37">
+        <v>120</v>
+      </c>
+      <c s="3" r="B37">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="3" r="C37">
+        <v>89</v>
+      </c>
+      <c t="s" s="28" r="D37">
+        <v>121</v>
+      </c>
+      <c s="28" r="E37"/>
+      <c t="s" s="1" r="F37">
+        <v>121</v>
+      </c>
+      <c t="s" s="3" r="G37">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="H37">
         <v>122</v>
       </c>
-      <c s="3" r="B37">
-        <v>4.0</v>
-      </c>
-      <c t="s" s="3" r="C37">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D37">
+      <c t="s" s="1" r="I37">
+        <v>47</v>
+      </c>
+      <c t="s" s="29" r="J37">
         <v>123</v>
       </c>
-      <c s="4" r="E37"/>
-      <c t="s" s="3" r="F37">
-        <v>124</v>
-      </c>
-      <c s="4" r="G37"/>
-      <c t="s" s="3" r="H37">
-        <v>47</v>
-      </c>
-      <c t="s" s="3" r="I37">
-        <v>34</v>
-      </c>
-      <c t="s" s="2" r="J37">
-        <v>125</v>
-      </c>
       <c s="4" r="K37"/>
-      <c t="s" s="15" r="L37">
-        <v>126</v>
-      </c>
-      <c t="s" s="15" r="M37">
-        <v>127</v>
-      </c>
+      <c s="4" r="L37"/>
+      <c s="4" r="M37"/>
       <c s="4" r="N37"/>
       <c s="4" r="O37"/>
     </row>
     <row customHeight="1" r="38" ht="15.75">
       <c t="s" s="3" r="A38">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c s="3" r="B38">
         <v>4.0</v>
       </c>
       <c t="s" s="3" r="C38">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c t="s" s="3" r="D38">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c s="4" r="E38"/>
       <c t="s" s="3" r="F38">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c s="4" r="G38"/>
       <c t="s" s="3" r="H38">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" s="3" r="I38">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c s="4" r="J38"/>
       <c s="4" r="K38"/>
-      <c t="s" s="5" r="L38">
-        <v>130</v>
-      </c>
-      <c t="s" s="5" r="M38">
-        <v>131</v>
-      </c>
+      <c s="4" r="L38"/>
+      <c s="4" r="M38"/>
       <c s="4" r="N38"/>
       <c s="4" r="O38"/>
     </row>
     <row customHeight="1" r="39" ht="15.75">
-      <c t="s" s="3" r="A39">
-        <v>132</v>
-      </c>
-      <c s="3" r="B39">
+      <c t="s" s="11" r="A39">
+        <v>129</v>
+      </c>
+      <c s="11" r="B39">
         <v>4.0</v>
       </c>
-      <c t="s" s="3" r="C39">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D39">
-        <v>123</v>
-      </c>
-      <c s="4" r="E39"/>
-      <c t="s" s="3" r="F39">
-        <v>124</v>
-      </c>
-      <c s="4" r="G39"/>
-      <c t="s" s="3" r="H39">
-        <v>133</v>
-      </c>
-      <c t="s" s="3" r="I39">
-        <v>34</v>
-      </c>
-      <c t="s" s="3" r="J39">
-        <v>134</v>
-      </c>
-      <c t="s" s="3" r="K39">
-        <v>135</v>
-      </c>
-      <c s="4" r="L39"/>
-      <c s="4" r="M39"/>
-      <c s="4" r="N39"/>
-      <c s="4" r="O39"/>
+      <c t="s" s="11" r="C39">
+        <v>89</v>
+      </c>
+      <c t="s" s="11" r="D39">
+        <v>125</v>
+      </c>
+      <c s="12" r="E39"/>
+      <c t="s" s="11" r="F39">
+        <v>126</v>
+      </c>
+      <c s="12" r="G39"/>
+      <c t="s" s="11" r="H39">
+        <v>127</v>
+      </c>
+      <c t="s" s="11" r="I39">
+        <v>128</v>
+      </c>
+      <c s="12" r="J39"/>
+      <c s="11" r="K39"/>
+      <c s="12" r="L39"/>
+      <c s="12" r="M39"/>
+      <c s="12" r="N39"/>
+      <c s="12" r="O39"/>
     </row>
     <row customHeight="1" r="40" ht="15.75">
-      <c t="s" s="2" r="A40">
-        <v>136</v>
+      <c t="s" s="3" r="A40">
+        <v>130</v>
       </c>
       <c s="3" r="B40">
         <v>4.0</v>
       </c>
       <c t="s" s="3" r="C40">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c t="s" s="3" r="D40">
-        <v>123</v>
-      </c>
-      <c s="3" r="E40"/>
+        <v>125</v>
+      </c>
+      <c s="4" r="E40"/>
       <c t="s" s="3" r="F40">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c s="4" r="G40"/>
       <c t="s" s="3" r="H40">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c t="s" s="3" r="I40">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c s="4" r="J40"/>
-      <c s="2" r="K40"/>
+      <c t="s" s="3" r="K40">
+        <v>133</v>
+      </c>
       <c s="4" r="L40"/>
       <c s="4" r="M40"/>
       <c s="4" r="N40"/>
@@ -2083,280 +2312,364 @@
     </row>
     <row customHeight="1" r="41" ht="15.75">
       <c t="s" s="3" r="A41">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c s="3" r="B41">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="3" r="C41">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c t="s" s="3" r="D41">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c s="4" r="E41"/>
       <c t="s" s="3" r="F41">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c s="4" r="G41"/>
       <c t="s" s="3" r="H41">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c t="s" s="3" r="I41">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c s="4" r="J41"/>
-      <c s="3" r="K41"/>
+      <c s="4" r="K41"/>
       <c s="4" r="L41"/>
-      <c t="s" s="16" r="M41">
-        <v>138</v>
-      </c>
+      <c s="4" r="M41"/>
       <c s="4" r="N41"/>
       <c s="4" r="O41"/>
     </row>
     <row customHeight="1" r="42" ht="15.75">
       <c t="s" s="3" r="A42">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c s="3" r="B42">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="3" r="C42">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c t="s" s="3" r="D42">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c s="4" r="E42"/>
       <c t="s" s="3" r="F42">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c s="4" r="G42"/>
-      <c s="3" r="H42"/>
-      <c s="3" r="I42"/>
+      <c t="s" s="3" r="H42">
+        <v>136</v>
+      </c>
+      <c t="s" s="3" r="I42">
+        <v>39</v>
+      </c>
       <c s="4" r="J42"/>
-      <c s="3" r="K42"/>
+      <c s="4" r="K42"/>
       <c s="4" r="L42"/>
       <c s="4" r="M42"/>
       <c s="4" r="N42"/>
       <c s="4" r="O42"/>
     </row>
     <row customHeight="1" r="43" ht="15.75">
-      <c t="s" s="3" r="A43">
+      <c t="s" s="7" r="A43">
+        <v>138</v>
+      </c>
+      <c s="7" r="B43">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="7" r="C43">
+        <v>89</v>
+      </c>
+      <c t="s" s="7" r="D43">
+        <v>135</v>
+      </c>
+      <c s="8" r="E43"/>
+      <c t="s" s="7" r="F43">
+        <v>135</v>
+      </c>
+      <c s="8" r="G43"/>
+      <c t="s" s="7" r="H43">
+        <v>136</v>
+      </c>
+      <c t="s" s="7" r="I43">
+        <v>47</v>
+      </c>
+      <c t="s" s="7" r="J43">
+        <v>139</v>
+      </c>
+      <c t="s" s="7" r="K43">
         <v>140</v>
       </c>
-      <c s="3" r="B43">
-        <v>4.0</v>
-      </c>
-      <c t="s" s="3" r="C43">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D43">
-        <v>123</v>
-      </c>
-      <c s="4" r="E43"/>
-      <c t="s" s="3" r="F43">
-        <v>124</v>
-      </c>
-      <c s="4" r="G43"/>
-      <c s="3" r="H43"/>
-      <c s="3" r="I43"/>
-      <c s="4" r="J43"/>
-      <c s="3" r="K43"/>
-      <c s="4" r="L43"/>
-      <c s="4" r="M43"/>
-      <c s="4" r="N43"/>
-      <c s="4" r="O43"/>
+      <c t="s" s="14" r="L43">
+        <v>141</v>
+      </c>
+      <c s="8" r="M43"/>
+      <c s="8" r="N43"/>
+      <c s="8" r="O43"/>
     </row>
     <row customHeight="1" r="44" ht="15.75">
-      <c t="s" s="3" r="A44">
-        <v>141</v>
-      </c>
-      <c s="3" r="B44">
-        <v>5.0</v>
-      </c>
-      <c t="s" s="3" r="C44">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D44">
+      <c t="s" s="7" r="A44">
         <v>142</v>
       </c>
-      <c s="4" r="E44"/>
-      <c t="s" s="3" r="F44">
+      <c s="7" r="B44">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="7" r="C44">
+        <v>89</v>
+      </c>
+      <c t="s" s="7" r="D44">
         <v>143</v>
       </c>
-      <c s="4" r="G44"/>
-      <c t="s" s="3" r="H44">
+      <c s="7" r="E44"/>
+      <c t="s" s="7" r="F44">
+        <v>143</v>
+      </c>
+      <c t="s" s="7" r="G44">
+        <v>49</v>
+      </c>
+      <c t="s" s="7" r="H44">
         <v>144</v>
       </c>
-      <c t="s" s="3" r="I44">
-        <v>42</v>
-      </c>
-      <c s="4" r="J44"/>
-      <c s="3" r="K44"/>
-      <c s="4" r="L44"/>
-      <c s="4" r="M44"/>
-      <c s="4" r="N44"/>
-      <c s="4" r="O44"/>
+      <c t="s" s="7" r="I44">
+        <v>145</v>
+      </c>
+      <c t="s" s="7" r="J44">
+        <v>146</v>
+      </c>
+      <c t="s" s="9" r="K44">
+        <v>147</v>
+      </c>
+      <c s="8" r="L44"/>
+      <c s="8" r="M44"/>
+      <c s="8" r="N44"/>
+      <c s="8" r="O44"/>
     </row>
     <row customHeight="1" r="45" ht="15.75">
       <c t="s" s="3" r="A45">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c s="3" r="B45">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="3" r="C45">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c t="s" s="3" r="D45">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="4" r="E45"/>
       <c t="s" s="3" r="F45">
         <v>143</v>
       </c>
       <c s="4" r="G45"/>
-      <c s="3" r="H45"/>
+      <c t="s" s="3" r="H45">
+        <v>144</v>
+      </c>
       <c s="3" r="I45"/>
-      <c s="4" r="J45"/>
-      <c s="3" r="K45"/>
-      <c s="4" r="L45"/>
-      <c s="4" r="M45"/>
+      <c s="2" r="J45"/>
+      <c s="4" r="K45"/>
+      <c s="19" r="L45"/>
+      <c s="19" r="M45"/>
       <c s="4" r="N45"/>
       <c s="4" r="O45"/>
     </row>
     <row customHeight="1" r="46" ht="15.75">
-      <c t="s" s="3" r="A46">
-        <v>146</v>
-      </c>
-      <c s="3" r="B46">
-        <v>5.0</v>
-      </c>
-      <c t="s" s="3" r="C46">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D46">
-        <v>142</v>
-      </c>
-      <c s="4" r="E46"/>
-      <c t="s" s="3" r="F46">
-        <v>143</v>
-      </c>
-      <c s="4" r="G46"/>
-      <c s="3" r="H46"/>
-      <c s="3" r="I46"/>
-      <c s="4" r="J46"/>
-      <c s="3" r="K46"/>
-      <c s="4" r="L46"/>
-      <c s="4" r="M46"/>
-      <c s="4" r="N46"/>
-      <c s="4" r="O46"/>
+      <c t="s" s="7" r="A46">
+        <v>149</v>
+      </c>
+      <c s="7" r="B46">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="7" r="C46">
+        <v>89</v>
+      </c>
+      <c t="s" s="7" r="D46">
+        <v>150</v>
+      </c>
+      <c s="8" r="E46"/>
+      <c t="s" s="7" r="F46">
+        <v>151</v>
+      </c>
+      <c s="8" r="G46"/>
+      <c t="s" s="7" r="H46">
+        <v>50</v>
+      </c>
+      <c t="s" s="7" r="I46">
+        <v>39</v>
+      </c>
+      <c t="s" s="9" r="J46">
+        <v>152</v>
+      </c>
+      <c s="8" r="K46"/>
+      <c t="s" s="14" r="L46">
+        <v>153</v>
+      </c>
+      <c t="s" s="14" r="M46">
+        <v>154</v>
+      </c>
+      <c s="8" r="N46"/>
+      <c s="8" r="O46"/>
     </row>
     <row customHeight="1" r="47" ht="15.75">
-      <c t="s" s="3" r="A47">
-        <v>147</v>
-      </c>
-      <c s="3" r="B47">
-        <v>5.0</v>
-      </c>
-      <c t="s" s="3" r="C47">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D47">
-        <v>142</v>
-      </c>
-      <c s="4" r="E47"/>
-      <c t="s" s="3" r="F47">
-        <v>143</v>
-      </c>
-      <c s="4" r="G47"/>
-      <c s="3" r="H47"/>
-      <c s="3" r="I47"/>
-      <c s="4" r="J47"/>
-      <c s="3" r="K47"/>
-      <c s="4" r="L47"/>
-      <c s="4" r="M47"/>
-      <c s="4" r="N47"/>
-      <c s="4" r="O47"/>
+      <c t="s" s="7" r="A47">
+        <v>155</v>
+      </c>
+      <c s="7" r="B47">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="7" r="C47">
+        <v>89</v>
+      </c>
+      <c t="s" s="7" r="D47">
+        <v>150</v>
+      </c>
+      <c s="8" r="E47"/>
+      <c t="s" s="7" r="F47">
+        <v>151</v>
+      </c>
+      <c s="8" r="G47"/>
+      <c t="s" s="7" r="H47">
+        <v>156</v>
+      </c>
+      <c t="s" s="7" r="I47">
+        <v>47</v>
+      </c>
+      <c s="8" r="J47"/>
+      <c s="8" r="K47"/>
+      <c t="s" s="14" r="L47">
+        <v>157</v>
+      </c>
+      <c t="s" s="14" r="M47">
+        <v>158</v>
+      </c>
+      <c s="8" r="N47"/>
+      <c s="8" r="O47"/>
     </row>
     <row customHeight="1" r="48" ht="15.75">
-      <c t="s" s="3" r="A48">
-        <v>148</v>
-      </c>
-      <c s="3" r="B48">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="3" r="C48">
-        <v>70</v>
-      </c>
-      <c t="s" s="3" r="D48">
-        <v>149</v>
-      </c>
-      <c s="4" r="E48"/>
-      <c t="s" s="3" r="F48">
-        <v>149</v>
-      </c>
-      <c s="4" r="G48"/>
-      <c t="s" s="3" r="H48">
+      <c t="s" s="7" r="A48">
+        <v>159</v>
+      </c>
+      <c s="7" r="B48">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="7" r="C48">
+        <v>89</v>
+      </c>
+      <c t="s" s="7" r="D48">
         <v>150</v>
       </c>
-      <c t="s" s="3" r="I48">
-        <v>55</v>
-      </c>
-      <c s="4" r="J48"/>
-      <c t="s" s="3" r="K48">
+      <c s="8" r="E48"/>
+      <c t="s" s="7" r="F48">
         <v>151</v>
       </c>
-      <c s="4" r="L48"/>
-      <c s="4" r="M48"/>
-      <c s="4" r="N48"/>
-      <c s="4" r="O48"/>
+      <c s="8" r="G48"/>
+      <c t="s" s="7" r="H48">
+        <v>160</v>
+      </c>
+      <c t="s" s="7" r="I48">
+        <v>39</v>
+      </c>
+      <c t="s" s="7" r="J48">
+        <v>161</v>
+      </c>
+      <c t="s" s="7" r="K48">
+        <v>162</v>
+      </c>
+      <c s="8" r="L48"/>
+      <c s="8" r="M48"/>
+      <c s="8" r="N48"/>
+      <c s="8" r="O48"/>
     </row>
     <row customHeight="1" r="49" ht="15.75">
-      <c s="3" r="A49"/>
-      <c s="4" r="B49"/>
-      <c s="4" r="C49"/>
-      <c s="4" r="D49"/>
-      <c s="4" r="E49"/>
-      <c s="3" r="F49"/>
-      <c s="4" r="G49"/>
-      <c s="4" r="H49"/>
-      <c s="4" r="I49"/>
-      <c s="4" r="J49"/>
-      <c s="3" r="K49"/>
-      <c s="4" r="L49"/>
-      <c s="4" r="M49"/>
-      <c s="4" r="N49"/>
-      <c s="4" r="O49"/>
+      <c t="s" s="9" r="A49">
+        <v>163</v>
+      </c>
+      <c s="7" r="B49">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="7" r="C49">
+        <v>89</v>
+      </c>
+      <c t="s" s="7" r="D49">
+        <v>150</v>
+      </c>
+      <c s="7" r="E49"/>
+      <c t="s" s="7" r="F49">
+        <v>151</v>
+      </c>
+      <c s="8" r="G49"/>
+      <c t="s" s="7" r="H49">
+        <v>83</v>
+      </c>
+      <c t="s" s="7" r="I49">
+        <v>47</v>
+      </c>
+      <c s="8" r="J49"/>
+      <c s="9" r="K49"/>
+      <c s="8" r="L49"/>
+      <c s="8" r="M49"/>
+      <c s="8" r="N49"/>
+      <c s="8" r="O49"/>
     </row>
     <row customHeight="1" r="50" ht="15.75">
-      <c s="3" r="A50"/>
-      <c s="4" r="B50"/>
-      <c s="4" r="C50"/>
-      <c s="4" r="D50"/>
+      <c t="s" s="3" r="A50">
+        <v>164</v>
+      </c>
+      <c s="3" r="B50">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="3" r="C50">
+        <v>89</v>
+      </c>
+      <c t="s" s="3" r="D50">
+        <v>150</v>
+      </c>
       <c s="4" r="E50"/>
-      <c s="3" r="F50"/>
+      <c t="s" s="3" r="F50">
+        <v>151</v>
+      </c>
       <c s="4" r="G50"/>
-      <c s="4" r="H50"/>
-      <c s="4" r="I50"/>
+      <c t="s" s="3" r="H50">
+        <v>50</v>
+      </c>
+      <c t="s" s="3" r="I50">
+        <v>72</v>
+      </c>
       <c s="4" r="J50"/>
-      <c s="4" r="K50"/>
+      <c s="3" r="K50"/>
       <c s="4" r="L50"/>
-      <c s="4" r="M50"/>
+      <c t="s" s="30" r="M50">
+        <v>165</v>
+      </c>
       <c s="4" r="N50"/>
       <c s="4" r="O50"/>
     </row>
     <row customHeight="1" r="51" ht="15.75">
-      <c s="3" r="A51"/>
-      <c s="4" r="B51"/>
-      <c s="4" r="C51"/>
-      <c s="4" r="D51"/>
+      <c t="s" s="3" r="A51">
+        <v>166</v>
+      </c>
+      <c s="3" r="B51">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="3" r="C51">
+        <v>89</v>
+      </c>
+      <c t="s" s="3" r="D51">
+        <v>150</v>
+      </c>
       <c s="4" r="E51"/>
-      <c s="3" r="F51"/>
+      <c t="s" s="3" r="F51">
+        <v>151</v>
+      </c>
       <c s="4" r="G51"/>
-      <c s="4" r="H51"/>
-      <c s="4" r="I51"/>
+      <c t="s" s="3" r="H51">
+        <v>167</v>
+      </c>
+      <c t="s" s="3" r="I51">
+        <v>47</v>
+      </c>
       <c s="4" r="J51"/>
       <c s="3" r="K51"/>
       <c s="4" r="L51"/>
@@ -2365,191 +2678,321 @@
       <c s="4" r="O51"/>
     </row>
     <row customHeight="1" r="52" ht="15.75">
-      <c s="3" r="A52"/>
-      <c s="4" r="B52"/>
-      <c s="4" r="C52"/>
-      <c s="4" r="D52"/>
+      <c t="s" s="3" r="A52">
+        <v>168</v>
+      </c>
+      <c s="3" r="B52">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="3" r="C52">
+        <v>89</v>
+      </c>
+      <c t="s" s="3" r="D52">
+        <v>150</v>
+      </c>
       <c s="4" r="E52"/>
-      <c s="3" r="F52"/>
+      <c t="s" s="3" r="F52">
+        <v>151</v>
+      </c>
       <c s="4" r="G52"/>
-      <c s="4" r="H52"/>
-      <c s="4" r="I52"/>
+      <c t="s" s="3" r="H52">
+        <v>169</v>
+      </c>
+      <c t="s" s="3" r="I52">
+        <v>72</v>
+      </c>
       <c s="4" r="J52"/>
-      <c s="4" r="K52"/>
+      <c s="3" r="K52"/>
       <c s="4" r="L52"/>
       <c s="4" r="M52"/>
       <c s="4" r="N52"/>
       <c s="4" r="O52"/>
     </row>
     <row customHeight="1" r="53" ht="15.75">
-      <c s="3" r="A53"/>
-      <c s="4" r="B53"/>
-      <c s="4" r="C53"/>
-      <c s="4" r="D53"/>
-      <c s="4" r="E53"/>
-      <c s="3" r="F53"/>
-      <c s="4" r="G53"/>
-      <c s="4" r="H53"/>
-      <c s="4" r="I53"/>
-      <c s="4" r="J53"/>
-      <c s="4" r="K53"/>
-      <c s="4" r="L53"/>
-      <c s="4" r="M53"/>
-      <c s="4" r="N53"/>
-      <c s="4" r="O53"/>
+      <c t="s" s="7" r="A53">
+        <v>170</v>
+      </c>
+      <c s="7" r="B53">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="7" r="C53">
+        <v>89</v>
+      </c>
+      <c t="s" s="7" r="D53">
+        <v>150</v>
+      </c>
+      <c s="8" r="E53"/>
+      <c t="s" s="7" r="F53">
+        <v>151</v>
+      </c>
+      <c s="8" r="G53"/>
+      <c t="s" s="7" r="H53">
+        <v>83</v>
+      </c>
+      <c s="7" r="I53"/>
+      <c s="8" r="J53"/>
+      <c s="7" r="K53"/>
+      <c s="8" r="L53"/>
+      <c s="8" r="M53"/>
+      <c s="8" r="N53"/>
+      <c s="8" r="O53"/>
     </row>
     <row customHeight="1" r="54" ht="15.75">
-      <c s="3" r="A54"/>
-      <c s="4" r="B54"/>
-      <c s="4" r="C54"/>
-      <c s="4" r="D54"/>
+      <c t="s" s="3" r="A54">
+        <v>171</v>
+      </c>
+      <c s="3" r="B54">
+        <v>5.0</v>
+      </c>
+      <c t="s" s="3" r="C54">
+        <v>89</v>
+      </c>
+      <c t="s" s="3" r="D54">
+        <v>172</v>
+      </c>
       <c s="4" r="E54"/>
-      <c s="3" r="F54"/>
+      <c t="s" s="3" r="F54">
+        <v>173</v>
+      </c>
       <c s="4" r="G54"/>
-      <c s="4" r="H54"/>
-      <c s="4" r="I54"/>
+      <c t="s" s="3" r="H54">
+        <v>56</v>
+      </c>
+      <c t="s" s="3" r="I54">
+        <v>47</v>
+      </c>
       <c s="4" r="J54"/>
-      <c s="4" r="K54"/>
+      <c s="3" r="K54"/>
       <c s="4" r="L54"/>
       <c s="4" r="M54"/>
       <c s="4" r="N54"/>
       <c s="4" r="O54"/>
     </row>
     <row customHeight="1" r="55" ht="15.75">
-      <c s="3" r="A55"/>
-      <c s="4" r="B55"/>
-      <c s="4" r="C55"/>
-      <c s="4" r="D55"/>
-      <c s="4" r="E55"/>
-      <c s="3" r="F55"/>
-      <c s="4" r="G55"/>
-      <c s="4" r="H55"/>
-      <c s="4" r="I55"/>
-      <c s="4" r="J55"/>
-      <c s="4" r="K55"/>
-      <c s="4" r="L55"/>
-      <c s="4" r="M55"/>
-      <c s="4" r="N55"/>
-      <c s="4" r="O55"/>
+      <c t="s" s="7" r="A55">
+        <v>174</v>
+      </c>
+      <c s="7" r="B55">
+        <v>5.0</v>
+      </c>
+      <c t="s" s="7" r="C55">
+        <v>89</v>
+      </c>
+      <c t="s" s="7" r="D55">
+        <v>172</v>
+      </c>
+      <c s="8" r="E55"/>
+      <c t="s" s="7" r="F55">
+        <v>173</v>
+      </c>
+      <c s="8" r="G55"/>
+      <c t="s" s="7" r="H55">
+        <v>175</v>
+      </c>
+      <c t="s" s="7" r="I55">
+        <v>72</v>
+      </c>
+      <c s="8" r="J55"/>
+      <c s="7" r="K55"/>
+      <c s="8" r="L55"/>
+      <c s="8" r="M55"/>
+      <c s="8" r="N55"/>
+      <c s="8" r="O55"/>
     </row>
     <row customHeight="1" r="56" ht="15.75">
-      <c s="3" r="A56"/>
-      <c s="4" r="B56"/>
-      <c s="4" r="C56"/>
-      <c s="4" r="D56"/>
-      <c s="4" r="E56"/>
-      <c s="3" r="F56"/>
-      <c s="4" r="G56"/>
-      <c s="4" r="H56"/>
-      <c s="4" r="I56"/>
-      <c s="4" r="J56"/>
-      <c s="4" r="K56"/>
-      <c s="4" r="L56"/>
-      <c s="4" r="M56"/>
-      <c s="4" r="N56"/>
-      <c s="4" r="O56"/>
+      <c t="s" s="25" r="A56">
+        <v>176</v>
+      </c>
+      <c s="25" r="B56">
+        <v>5.0</v>
+      </c>
+      <c t="s" s="25" r="C56">
+        <v>89</v>
+      </c>
+      <c t="s" s="25" r="D56">
+        <v>172</v>
+      </c>
+      <c s="26" r="E56"/>
+      <c t="s" s="25" r="F56">
+        <v>173</v>
+      </c>
+      <c s="26" r="G56"/>
+      <c s="25" r="H56"/>
+      <c s="25" r="I56"/>
+      <c s="26" r="J56"/>
+      <c s="25" r="K56"/>
+      <c s="26" r="L56"/>
+      <c s="26" r="M56"/>
+      <c s="26" r="N56"/>
+      <c s="26" r="O56"/>
     </row>
     <row customHeight="1" r="57" ht="15.75">
-      <c s="3" r="A57"/>
-      <c s="4" r="B57"/>
-      <c s="4" r="C57"/>
-      <c s="4" r="D57"/>
+      <c t="s" s="3" r="A57">
+        <v>177</v>
+      </c>
+      <c s="3" r="B57">
+        <v>5.0</v>
+      </c>
+      <c t="s" s="3" r="C57">
+        <v>89</v>
+      </c>
+      <c t="s" s="3" r="D57">
+        <v>172</v>
+      </c>
       <c s="4" r="E57"/>
-      <c s="3" r="F57"/>
+      <c t="s" s="3" r="F57">
+        <v>173</v>
+      </c>
       <c s="4" r="G57"/>
-      <c s="4" r="H57"/>
-      <c s="4" r="I57"/>
+      <c s="3" r="H57"/>
+      <c s="3" r="I57"/>
       <c s="4" r="J57"/>
-      <c s="4" r="K57"/>
+      <c s="3" r="K57"/>
       <c s="4" r="L57"/>
       <c s="4" r="M57"/>
       <c s="4" r="N57"/>
       <c s="4" r="O57"/>
     </row>
     <row customHeight="1" r="58" ht="15.75">
-      <c s="3" r="A58"/>
-      <c s="4" r="B58"/>
-      <c s="4" r="C58"/>
-      <c s="4" r="D58"/>
-      <c s="4" r="E58"/>
-      <c s="3" r="F58"/>
-      <c s="4" r="G58"/>
-      <c s="4" r="H58"/>
-      <c s="4" r="I58"/>
-      <c s="4" r="J58"/>
-      <c s="4" r="K58"/>
-      <c s="4" r="L58"/>
-      <c s="4" r="M58"/>
-      <c s="4" r="N58"/>
-      <c s="4" r="O58"/>
+      <c t="s" s="11" r="A58">
+        <v>178</v>
+      </c>
+      <c s="11" r="B58">
+        <v>5.0</v>
+      </c>
+      <c t="s" s="11" r="C58">
+        <v>89</v>
+      </c>
+      <c t="s" s="11" r="D58">
+        <v>172</v>
+      </c>
+      <c s="12" r="E58"/>
+      <c t="s" s="11" r="F58">
+        <v>173</v>
+      </c>
+      <c s="12" r="G58"/>
+      <c s="11" r="H58"/>
+      <c s="11" r="I58"/>
+      <c s="12" r="J58"/>
+      <c s="11" r="K58"/>
+      <c s="12" r="L58"/>
+      <c s="12" r="M58"/>
+      <c s="12" r="N58"/>
+      <c s="12" r="O58"/>
     </row>
     <row customHeight="1" r="59" ht="15.75">
-      <c s="3" r="A59"/>
-      <c s="4" r="B59"/>
-      <c s="4" r="C59"/>
-      <c s="4" r="D59"/>
-      <c s="4" r="E59"/>
-      <c s="3" r="F59"/>
-      <c s="4" r="G59"/>
-      <c s="4" r="H59"/>
-      <c s="4" r="I59"/>
-      <c s="4" r="J59"/>
-      <c s="4" r="K59"/>
-      <c s="4" r="L59"/>
-      <c s="4" r="M59"/>
-      <c s="4" r="N59"/>
-      <c s="4" r="O59"/>
+      <c t="s" s="11" r="A59">
+        <v>179</v>
+      </c>
+      <c s="11" r="B59">
+        <v>5.0</v>
+      </c>
+      <c t="s" s="11" r="C59">
+        <v>89</v>
+      </c>
+      <c t="s" s="11" r="D59">
+        <v>172</v>
+      </c>
+      <c s="12" r="E59"/>
+      <c t="s" s="11" r="F59">
+        <v>173</v>
+      </c>
+      <c s="12" r="G59"/>
+      <c s="11" r="H59"/>
+      <c s="11" r="I59"/>
+      <c s="12" r="J59"/>
+      <c s="11" r="K59"/>
+      <c s="12" r="L59"/>
+      <c s="12" r="M59"/>
+      <c s="12" r="N59"/>
+      <c s="12" r="O59"/>
     </row>
     <row customHeight="1" r="60" ht="15.75">
-      <c s="3" r="A60"/>
-      <c s="4" r="B60"/>
-      <c s="4" r="C60"/>
-      <c s="4" r="D60"/>
-      <c s="4" r="E60"/>
-      <c s="3" r="F60"/>
-      <c s="4" r="G60"/>
-      <c s="4" r="H60"/>
-      <c s="4" r="I60"/>
-      <c s="4" r="J60"/>
-      <c s="4" r="K60"/>
-      <c s="4" r="L60"/>
-      <c s="4" r="M60"/>
-      <c s="4" r="N60"/>
-      <c s="4" r="O60"/>
+      <c t="s" s="11" r="A60">
+        <v>180</v>
+      </c>
+      <c s="11" r="B60">
+        <v>5.0</v>
+      </c>
+      <c t="s" s="11" r="C60">
+        <v>89</v>
+      </c>
+      <c t="s" s="11" r="D60">
+        <v>172</v>
+      </c>
+      <c s="12" r="E60"/>
+      <c t="s" s="11" r="F60">
+        <v>173</v>
+      </c>
+      <c s="12" r="G60"/>
+      <c s="11" r="H60"/>
+      <c s="11" r="I60"/>
+      <c s="12" r="J60"/>
+      <c s="11" r="K60"/>
+      <c s="12" r="L60"/>
+      <c s="12" r="M60"/>
+      <c s="12" r="N60"/>
+      <c s="12" r="O60"/>
     </row>
     <row customHeight="1" r="61" ht="15.75">
-      <c s="3" r="A61"/>
-      <c s="4" r="B61"/>
-      <c s="4" r="C61"/>
-      <c s="4" r="D61"/>
-      <c s="4" r="E61"/>
-      <c s="3" r="F61"/>
-      <c s="4" r="G61"/>
-      <c s="4" r="H61"/>
-      <c s="4" r="I61"/>
-      <c s="4" r="J61"/>
-      <c s="4" r="K61"/>
-      <c s="4" r="L61"/>
-      <c s="4" r="M61"/>
-      <c s="4" r="N61"/>
-      <c s="4" r="O61"/>
+      <c t="s" s="11" r="A61">
+        <v>181</v>
+      </c>
+      <c s="11" r="B61">
+        <v>5.0</v>
+      </c>
+      <c t="s" s="11" r="C61">
+        <v>89</v>
+      </c>
+      <c t="s" s="11" r="D61">
+        <v>172</v>
+      </c>
+      <c s="12" r="E61"/>
+      <c t="s" s="11" r="F61">
+        <v>173</v>
+      </c>
+      <c s="12" r="G61"/>
+      <c s="11" r="H61"/>
+      <c s="11" r="I61"/>
+      <c s="12" r="J61"/>
+      <c s="11" r="K61"/>
+      <c s="12" r="L61"/>
+      <c s="12" r="M61"/>
+      <c s="12" r="N61"/>
+      <c s="12" r="O61"/>
     </row>
     <row customHeight="1" r="62" ht="15.75">
-      <c s="3" r="A62"/>
-      <c s="4" r="B62"/>
-      <c s="4" r="C62"/>
-      <c s="4" r="D62"/>
-      <c s="4" r="E62"/>
-      <c s="3" r="F62"/>
-      <c s="4" r="G62"/>
-      <c s="4" r="H62"/>
-      <c s="4" r="I62"/>
-      <c s="4" r="J62"/>
-      <c s="4" r="K62"/>
-      <c s="4" r="L62"/>
-      <c s="4" r="M62"/>
-      <c s="4" r="N62"/>
-      <c s="4" r="O62"/>
+      <c t="s" s="7" r="A62">
+        <v>182</v>
+      </c>
+      <c s="7" r="B62">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="7" r="C62">
+        <v>89</v>
+      </c>
+      <c t="s" s="7" r="D62">
+        <v>183</v>
+      </c>
+      <c s="8" r="E62"/>
+      <c t="s" s="7" r="F62">
+        <v>183</v>
+      </c>
+      <c s="8" r="G62"/>
+      <c t="s" s="7" r="H62">
+        <v>184</v>
+      </c>
+      <c t="s" s="7" r="I62">
+        <v>72</v>
+      </c>
+      <c s="8" r="J62"/>
+      <c t="s" s="7" r="K62">
+        <v>185</v>
+      </c>
+      <c s="8" r="L62"/>
+      <c s="8" r="M62"/>
+      <c s="8" r="N62"/>
+      <c s="8" r="O62"/>
     </row>
     <row customHeight="1" r="63" ht="15.75">
       <c s="3" r="A63"/>
@@ -2562,7 +3005,7 @@
       <c s="4" r="H63"/>
       <c s="4" r="I63"/>
       <c s="4" r="J63"/>
-      <c s="4" r="K63"/>
+      <c s="3" r="K63"/>
       <c s="4" r="L63"/>
       <c s="4" r="M63"/>
       <c s="4" r="N63"/>
@@ -2596,7 +3039,7 @@
       <c s="4" r="H65"/>
       <c s="4" r="I65"/>
       <c s="4" r="J65"/>
-      <c s="4" r="K65"/>
+      <c s="3" r="K65"/>
       <c s="4" r="L65"/>
       <c s="4" r="M65"/>
       <c s="4" r="N65"/>
@@ -2908,29 +3351,267 @@
       <c s="4" r="N83"/>
       <c s="4" r="O83"/>
     </row>
+    <row customHeight="1" r="84" ht="15.75">
+      <c s="3" r="A84"/>
+      <c s="4" r="B84"/>
+      <c s="4" r="C84"/>
+      <c s="4" r="D84"/>
+      <c s="4" r="E84"/>
+      <c s="3" r="F84"/>
+      <c s="4" r="G84"/>
+      <c s="4" r="H84"/>
+      <c s="4" r="I84"/>
+      <c s="4" r="J84"/>
+      <c s="4" r="K84"/>
+      <c s="4" r="L84"/>
+      <c s="4" r="M84"/>
+      <c s="4" r="N84"/>
+      <c s="4" r="O84"/>
+    </row>
+    <row customHeight="1" r="85" ht="15.75">
+      <c s="3" r="A85"/>
+      <c s="4" r="B85"/>
+      <c s="4" r="C85"/>
+      <c s="4" r="D85"/>
+      <c s="4" r="E85"/>
+      <c s="3" r="F85"/>
+      <c s="4" r="G85"/>
+      <c s="4" r="H85"/>
+      <c s="4" r="I85"/>
+      <c s="4" r="J85"/>
+      <c s="4" r="K85"/>
+      <c s="4" r="L85"/>
+      <c s="4" r="M85"/>
+      <c s="4" r="N85"/>
+      <c s="4" r="O85"/>
+    </row>
+    <row customHeight="1" r="86" ht="15.75">
+      <c s="3" r="A86"/>
+      <c s="4" r="B86"/>
+      <c s="4" r="C86"/>
+      <c s="4" r="D86"/>
+      <c s="4" r="E86"/>
+      <c s="3" r="F86"/>
+      <c s="4" r="G86"/>
+      <c s="4" r="H86"/>
+      <c s="4" r="I86"/>
+      <c s="4" r="J86"/>
+      <c s="4" r="K86"/>
+      <c s="4" r="L86"/>
+      <c s="4" r="M86"/>
+      <c s="4" r="N86"/>
+      <c s="4" r="O86"/>
+    </row>
+    <row customHeight="1" r="87" ht="15.75">
+      <c s="3" r="A87"/>
+      <c s="4" r="B87"/>
+      <c s="4" r="C87"/>
+      <c s="4" r="D87"/>
+      <c s="4" r="E87"/>
+      <c s="3" r="F87"/>
+      <c s="4" r="G87"/>
+      <c s="4" r="H87"/>
+      <c s="4" r="I87"/>
+      <c s="4" r="J87"/>
+      <c s="4" r="K87"/>
+      <c s="4" r="L87"/>
+      <c s="4" r="M87"/>
+      <c s="4" r="N87"/>
+      <c s="4" r="O87"/>
+    </row>
+    <row customHeight="1" r="88" ht="15.75">
+      <c s="3" r="A88"/>
+      <c s="4" r="B88"/>
+      <c s="4" r="C88"/>
+      <c s="4" r="D88"/>
+      <c s="4" r="E88"/>
+      <c s="3" r="F88"/>
+      <c s="4" r="G88"/>
+      <c s="4" r="H88"/>
+      <c s="4" r="I88"/>
+      <c s="4" r="J88"/>
+      <c s="4" r="K88"/>
+      <c s="4" r="L88"/>
+      <c s="4" r="M88"/>
+      <c s="4" r="N88"/>
+      <c s="4" r="O88"/>
+    </row>
+    <row customHeight="1" r="89" ht="15.75">
+      <c s="3" r="A89"/>
+      <c s="4" r="B89"/>
+      <c s="4" r="C89"/>
+      <c s="4" r="D89"/>
+      <c s="4" r="E89"/>
+      <c s="3" r="F89"/>
+      <c s="4" r="G89"/>
+      <c s="4" r="H89"/>
+      <c s="4" r="I89"/>
+      <c s="4" r="J89"/>
+      <c s="4" r="K89"/>
+      <c s="4" r="L89"/>
+      <c s="4" r="M89"/>
+      <c s="4" r="N89"/>
+      <c s="4" r="O89"/>
+    </row>
+    <row customHeight="1" r="90" ht="15.75">
+      <c s="3" r="A90"/>
+      <c s="4" r="B90"/>
+      <c s="4" r="C90"/>
+      <c s="4" r="D90"/>
+      <c s="4" r="E90"/>
+      <c s="3" r="F90"/>
+      <c s="4" r="G90"/>
+      <c s="4" r="H90"/>
+      <c s="4" r="I90"/>
+      <c s="4" r="J90"/>
+      <c s="4" r="K90"/>
+      <c s="4" r="L90"/>
+      <c s="4" r="M90"/>
+      <c s="4" r="N90"/>
+      <c s="4" r="O90"/>
+    </row>
+    <row customHeight="1" r="91" ht="15.75">
+      <c s="3" r="A91"/>
+      <c s="4" r="B91"/>
+      <c s="4" r="C91"/>
+      <c s="4" r="D91"/>
+      <c s="4" r="E91"/>
+      <c s="3" r="F91"/>
+      <c s="4" r="G91"/>
+      <c s="4" r="H91"/>
+      <c s="4" r="I91"/>
+      <c s="4" r="J91"/>
+      <c s="4" r="K91"/>
+      <c s="4" r="L91"/>
+      <c s="4" r="M91"/>
+      <c s="4" r="N91"/>
+      <c s="4" r="O91"/>
+    </row>
+    <row customHeight="1" r="92" ht="15.75">
+      <c s="3" r="A92"/>
+      <c s="4" r="B92"/>
+      <c s="4" r="C92"/>
+      <c s="4" r="D92"/>
+      <c s="4" r="E92"/>
+      <c s="3" r="F92"/>
+      <c s="4" r="G92"/>
+      <c s="4" r="H92"/>
+      <c s="4" r="I92"/>
+      <c s="4" r="J92"/>
+      <c s="4" r="K92"/>
+      <c s="4" r="L92"/>
+      <c s="4" r="M92"/>
+      <c s="4" r="N92"/>
+      <c s="4" r="O92"/>
+    </row>
+    <row customHeight="1" r="93" ht="15.75">
+      <c s="3" r="A93"/>
+      <c s="4" r="B93"/>
+      <c s="4" r="C93"/>
+      <c s="4" r="D93"/>
+      <c s="4" r="E93"/>
+      <c s="3" r="F93"/>
+      <c s="4" r="G93"/>
+      <c s="4" r="H93"/>
+      <c s="4" r="I93"/>
+      <c s="4" r="J93"/>
+      <c s="4" r="K93"/>
+      <c s="4" r="L93"/>
+      <c s="4" r="M93"/>
+      <c s="4" r="N93"/>
+      <c s="4" r="O93"/>
+    </row>
+    <row customHeight="1" r="94" ht="15.75">
+      <c s="3" r="A94"/>
+      <c s="4" r="B94"/>
+      <c s="4" r="C94"/>
+      <c s="4" r="D94"/>
+      <c s="4" r="E94"/>
+      <c s="3" r="F94"/>
+      <c s="4" r="G94"/>
+      <c s="4" r="H94"/>
+      <c s="4" r="I94"/>
+      <c s="4" r="J94"/>
+      <c s="4" r="K94"/>
+      <c s="4" r="L94"/>
+      <c s="4" r="M94"/>
+      <c s="4" r="N94"/>
+      <c s="4" r="O94"/>
+    </row>
+    <row customHeight="1" r="95" ht="15.75">
+      <c s="3" r="A95"/>
+      <c s="4" r="B95"/>
+      <c s="4" r="C95"/>
+      <c s="4" r="D95"/>
+      <c s="4" r="E95"/>
+      <c s="3" r="F95"/>
+      <c s="4" r="G95"/>
+      <c s="4" r="H95"/>
+      <c s="4" r="I95"/>
+      <c s="4" r="J95"/>
+      <c s="4" r="K95"/>
+      <c s="4" r="L95"/>
+      <c s="4" r="M95"/>
+      <c s="4" r="N95"/>
+      <c s="4" r="O95"/>
+    </row>
+    <row customHeight="1" r="96" ht="15.75">
+      <c s="3" r="A96"/>
+      <c s="4" r="B96"/>
+      <c s="4" r="C96"/>
+      <c s="4" r="D96"/>
+      <c s="4" r="E96"/>
+      <c s="3" r="F96"/>
+      <c s="4" r="G96"/>
+      <c s="4" r="H96"/>
+      <c s="4" r="I96"/>
+      <c s="4" r="J96"/>
+      <c s="4" r="K96"/>
+      <c s="4" r="L96"/>
+      <c s="4" r="M96"/>
+      <c s="4" r="N96"/>
+      <c s="4" r="O96"/>
+    </row>
+    <row customHeight="1" r="97" ht="15.75">
+      <c s="3" r="A97"/>
+      <c s="4" r="B97"/>
+      <c s="4" r="C97"/>
+      <c s="4" r="D97"/>
+      <c s="4" r="E97"/>
+      <c s="3" r="F97"/>
+      <c s="4" r="G97"/>
+      <c s="4" r="H97"/>
+      <c s="4" r="I97"/>
+      <c s="4" r="J97"/>
+      <c s="4" r="K97"/>
+      <c s="4" r="L97"/>
+      <c s="4" r="M97"/>
+      <c s="4" r="N97"/>
+      <c s="4" r="O97"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
-    <hyperlink ref="L4" r:id="rId3"/>
-    <hyperlink ref="M4" r:id="rId4"/>
-    <hyperlink ref="L5" r:id="rId5"/>
-    <hyperlink ref="M5" r:id="rId6"/>
-    <hyperlink ref="M10" r:id="rId7"/>
-    <hyperlink ref="E11" r:id="rId8"/>
-    <hyperlink ref="L14" r:id="rId9"/>
-    <hyperlink ref="L23" r:id="rId10"/>
-    <hyperlink ref="E27" r:id="rId11"/>
-    <hyperlink ref="M27" r:id="rId12"/>
-    <hyperlink ref="E29" r:id="rId13"/>
-    <hyperlink ref="E35" r:id="rId14"/>
-    <hyperlink ref="L37" r:id="rId15"/>
-    <hyperlink ref="M37" r:id="rId16"/>
-    <hyperlink ref="L38" r:id="rId17"/>
-    <hyperlink ref="M38" r:id="rId18"/>
-    <hyperlink ref="M41" r:id="rId19"/>
+    <hyperlink ref="L2" r:id="rId2"/>
+    <hyperlink ref="M2" r:id="rId3"/>
+    <hyperlink ref="L3" r:id="rId4"/>
+    <hyperlink ref="L4" r:id="rId5"/>
+    <hyperlink ref="M4" r:id="rId6"/>
+    <hyperlink ref="L5" r:id="rId7"/>
+    <hyperlink ref="M5" r:id="rId8"/>
+    <hyperlink ref="M16" r:id="rId9"/>
+    <hyperlink ref="L17" r:id="rId10"/>
+    <hyperlink ref="M17" r:id="rId11"/>
+    <hyperlink ref="L18" r:id="rId12"/>
+    <hyperlink ref="M35" r:id="rId13"/>
+    <hyperlink ref="L43" r:id="rId14"/>
+    <hyperlink ref="L46" r:id="rId15"/>
+    <hyperlink ref="M46" r:id="rId16"/>
+    <hyperlink ref="L47" r:id="rId17"/>
+    <hyperlink ref="M47" r:id="rId18"/>
+    <hyperlink ref="M50" r:id="rId19"/>
   </hyperlinks>
   <drawing r:id="rId20"/>
+  <legacyDrawing r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -2950,85 +3631,95 @@
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="17" r="A1">
+      <c t="s" s="31" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="17" r="B1">
+      <c t="s" s="31" r="B1">
         <v>1</v>
       </c>
-      <c t="s" s="17" r="C1">
+      <c t="s" s="31" r="C1">
         <v>2</v>
       </c>
-      <c t="s" s="17" r="D1">
+      <c t="s" s="31" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="17" r="E1">
+      <c t="s" s="31" r="E1">
         <v>4</v>
       </c>
-      <c t="s" s="17" r="F1">
+      <c t="s" s="31" r="F1">
         <v>5</v>
       </c>
-      <c t="s" s="17" r="G1">
+      <c t="s" s="31" r="G1">
         <v>6</v>
       </c>
-      <c t="s" s="17" r="H1">
+      <c t="s" s="31" r="H1">
         <v>7</v>
       </c>
-      <c t="s" s="17" r="I1">
+      <c t="s" s="31" r="I1">
         <v>8</v>
       </c>
-      <c t="s" s="17" r="J1">
+      <c t="s" s="31" r="J1">
         <v>9</v>
       </c>
-      <c t="s" s="17" r="K1">
+      <c t="s" s="31" r="K1">
         <v>10</v>
       </c>
-      <c t="s" s="17" r="L1">
+      <c t="s" s="31" r="L1">
         <v>11</v>
       </c>
-      <c t="s" s="17" r="M1">
+      <c t="s" s="31" r="M1">
         <v>12</v>
       </c>
-      <c t="s" s="17" r="N1">
+      <c t="s" s="31" r="N1">
         <v>13</v>
       </c>
-      <c t="s" s="17" r="O1">
+      <c t="s" s="31" r="O1">
         <v>14</v>
       </c>
     </row>
     <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="19" r="A2">
-        <v>152</v>
-      </c>
-      <c s="19" r="B2">
+      <c t="s" s="33" r="A2">
+        <v>186</v>
+      </c>
+      <c s="33" r="B2">
         <v>1.0</v>
       </c>
-      <c t="s" s="19" r="C2">
-        <v>157</v>
-      </c>
-      <c t="s" s="19" r="F2">
+      <c t="s" s="33" r="C2">
+        <v>188</v>
+      </c>
+      <c t="s" s="33" r="F2">
         <v>17</v>
       </c>
-      <c t="s" s="19" r="H2">
-        <v>159</v>
+      <c t="s" s="33" r="H2">
+        <v>189</v>
       </c>
     </row>
     <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="19" r="A3">
-        <v>160</v>
-      </c>
-      <c s="19" r="B3">
+      <c t="s" s="34" r="A3">
+        <v>190</v>
+      </c>
+      <c s="34" r="B3">
         <v>1.0</v>
       </c>
-      <c t="s" s="19" r="C3">
-        <v>161</v>
-      </c>
-      <c t="s" s="19" r="F3">
-        <v>22</v>
-      </c>
-      <c t="s" s="19" r="H3">
-        <v>162</v>
-      </c>
+      <c t="s" s="34" r="C3">
+        <v>191</v>
+      </c>
+      <c s="35" r="D3"/>
+      <c s="35" r="E3"/>
+      <c t="s" s="34" r="F3">
+        <v>24</v>
+      </c>
+      <c s="35" r="G3"/>
+      <c t="s" s="34" r="H3">
+        <v>195</v>
+      </c>
+      <c s="35" r="I3"/>
+      <c s="35" r="J3"/>
+      <c s="35" r="K3"/>
+      <c s="35" r="L3"/>
+      <c s="35" r="M3"/>
+      <c s="35" r="N3"/>
+      <c s="35" r="O3"/>
     </row>
     <row customHeight="1" r="4" ht="15.75"/>
     <row customHeight="1" r="5" ht="15.75"/>
@@ -3063,318 +3754,109 @@
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="18" r="A1">
+      <c t="s" s="31" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="18" r="B1">
+      <c t="s" s="31" r="B1">
         <v>1</v>
       </c>
-      <c t="s" s="18" r="C1">
+      <c t="s" s="31" r="C1">
         <v>2</v>
       </c>
-      <c t="s" s="18" r="D1">
+      <c t="s" s="31" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="18" r="E1">
+      <c t="s" s="31" r="E1">
         <v>4</v>
       </c>
-      <c t="s" s="18" r="F1">
+      <c t="s" s="31" r="F1">
         <v>5</v>
       </c>
-      <c t="s" s="18" r="G1">
+      <c t="s" s="31" r="G1">
         <v>6</v>
       </c>
-      <c t="s" s="18" r="H1">
+      <c t="s" s="31" r="H1">
         <v>7</v>
       </c>
-      <c t="s" s="18" r="I1">
+      <c t="s" s="31" r="I1">
         <v>8</v>
       </c>
-      <c t="s" s="18" r="J1">
+      <c t="s" s="31" r="J1">
         <v>9</v>
       </c>
-      <c t="s" s="18" r="K1">
+      <c t="s" s="31" r="K1">
         <v>10</v>
       </c>
-      <c t="s" s="18" r="L1">
+      <c t="s" s="31" r="L1">
         <v>11</v>
       </c>
-      <c t="s" s="18" r="M1">
+      <c t="s" s="31" r="M1">
         <v>12</v>
       </c>
-      <c t="s" s="18" r="N1">
+      <c t="s" s="31" r="N1">
         <v>13</v>
       </c>
-      <c t="s" s="18" r="O1">
+      <c t="s" s="31" r="O1">
         <v>14</v>
       </c>
     </row>
     <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="19" r="A2">
-        <v>153</v>
-      </c>
-      <c s="19" r="B2">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="19" r="C2">
-        <v>154</v>
-      </c>
-      <c t="s" s="19" r="F2">
-        <v>155</v>
-      </c>
-      <c t="s" s="19" r="H2">
-        <v>156</v>
-      </c>
-      <c t="s" s="19" r="I2">
-        <v>19</v>
-      </c>
-      <c t="s" s="20" r="L2">
-        <v>158</v>
-      </c>
+      <c t="s" s="33" r="A2">
+        <v>193</v>
+      </c>
+      <c s="33" r="B2">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="33" r="C2">
+        <v>197</v>
+      </c>
+      <c t="s" s="33" r="F2">
+        <v>198</v>
+      </c>
+      <c s="33" r="H2"/>
+      <c s="33" r="I2"/>
+      <c s="33" r="M2"/>
     </row>
     <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="19" r="A3">
-        <v>163</v>
-      </c>
-      <c s="19" r="B3">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="19" r="C3">
-        <v>164</v>
-      </c>
-      <c t="s" s="19" r="F3">
-        <v>155</v>
-      </c>
-      <c t="s" s="19" r="H3">
-        <v>165</v>
-      </c>
-      <c t="s" s="19" r="I3">
-        <v>34</v>
-      </c>
-      <c t="s" s="20" r="L3">
-        <v>166</v>
+      <c t="s" s="33" r="A3">
+        <v>200</v>
+      </c>
+      <c s="33" r="B3">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="33" r="C3">
+        <v>197</v>
+      </c>
+      <c t="s" s="33" r="F3">
+        <v>198</v>
       </c>
     </row>
     <row customHeight="1" r="4" ht="15.75">
-      <c t="s" s="19" r="A4">
-        <v>167</v>
-      </c>
-      <c s="19" r="B4">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="19" r="C4">
-        <v>168</v>
-      </c>
-      <c t="s" s="19" r="F4">
-        <v>169</v>
-      </c>
-      <c t="s" s="19" r="H4">
-        <v>170</v>
-      </c>
-      <c t="s" s="19" r="I4">
-        <v>34</v>
-      </c>
-      <c t="s" s="20" r="L4">
-        <v>171</v>
+      <c t="s" s="33" r="A4">
+        <v>201</v>
+      </c>
+      <c s="33" r="B4">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="33" r="C4">
+        <v>197</v>
+      </c>
+      <c t="s" s="33" r="F4">
+        <v>198</v>
       </c>
     </row>
     <row customHeight="1" r="5" ht="15.75">
-      <c t="s" s="19" r="A5">
-        <v>172</v>
-      </c>
-      <c s="19" r="B5">
+      <c t="s" s="33" r="A5">
+        <v>202</v>
+      </c>
+      <c s="33" r="B5">
         <v>2.0</v>
       </c>
-      <c t="s" s="19" r="C5">
-        <v>168</v>
-      </c>
-      <c t="s" s="19" r="F5">
-        <v>173</v>
-      </c>
-      <c t="s" s="19" r="H5">
-        <v>174</v>
-      </c>
-      <c t="s" s="19" r="I5">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" r="6" ht="15.75">
-      <c t="s" s="19" r="A6">
-        <v>175</v>
-      </c>
-      <c s="19" r="B6">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="19" r="C6">
-        <v>168</v>
-      </c>
-      <c t="s" s="19" r="F6">
-        <v>173</v>
-      </c>
-      <c t="s" s="19" r="H6">
-        <v>177</v>
-      </c>
-      <c t="s" s="19" r="I6">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" r="7" ht="15.75">
-      <c t="s" s="19" r="A7">
-        <v>178</v>
-      </c>
-      <c s="19" r="B7">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="19" r="C7">
-        <v>168</v>
-      </c>
-      <c t="s" s="19" r="F7">
-        <v>173</v>
-      </c>
-      <c t="s" s="19" r="H7">
-        <v>181</v>
-      </c>
-      <c t="s" s="19" r="I7">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" r="8" ht="15.75"/>
-    <row customHeight="1" r="9" ht="15.75"/>
-    <row customHeight="1" r="10" ht="15.75"/>
-    <row customHeight="1" r="11" ht="15.75"/>
-    <row customHeight="1" r="12" ht="15.75"/>
-    <row customHeight="1" r="13" ht="15.75"/>
-    <row customHeight="1" r="14" ht="15.75"/>
-    <row customHeight="1" r="15" ht="15.75"/>
-    <row customHeight="1" r="16" ht="15.75"/>
-    <row customHeight="1" r="17" ht="15.75"/>
-    <row customHeight="1" r="18" ht="15.75"/>
-    <row customHeight="1" r="19" ht="15.75"/>
-    <row customHeight="1" r="20" ht="15.75"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
-    <hyperlink ref="L4" r:id="rId3"/>
-  </hyperlinks>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" customWidth="1" max="15" width="13.57"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="17" r="A1">
-        <v>0</v>
-      </c>
-      <c t="s" s="17" r="B1">
-        <v>1</v>
-      </c>
-      <c t="s" s="17" r="C1">
-        <v>2</v>
-      </c>
-      <c t="s" s="17" r="D1">
-        <v>3</v>
-      </c>
-      <c t="s" s="17" r="E1">
-        <v>4</v>
-      </c>
-      <c t="s" s="17" r="F1">
-        <v>5</v>
-      </c>
-      <c t="s" s="17" r="G1">
-        <v>6</v>
-      </c>
-      <c t="s" s="17" r="H1">
-        <v>7</v>
-      </c>
-      <c t="s" s="17" r="I1">
-        <v>8</v>
-      </c>
-      <c t="s" s="17" r="J1">
-        <v>9</v>
-      </c>
-      <c t="s" s="17" r="K1">
-        <v>10</v>
-      </c>
-      <c t="s" s="17" r="L1">
-        <v>11</v>
-      </c>
-      <c t="s" s="17" r="M1">
-        <v>12</v>
-      </c>
-      <c t="s" s="17" r="N1">
-        <v>13</v>
-      </c>
-      <c t="s" s="17" r="O1">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="19" r="A2">
-        <v>176</v>
-      </c>
-      <c s="19" r="B2">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="19" r="C2">
-        <v>179</v>
-      </c>
-      <c t="s" s="19" r="F2">
-        <v>180</v>
-      </c>
-      <c s="19" r="H2"/>
-      <c s="19" r="I2"/>
-      <c s="19" r="M2"/>
-    </row>
-    <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="19" r="A3">
-        <v>182</v>
-      </c>
-      <c s="19" r="B3">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="19" r="C3">
-        <v>179</v>
-      </c>
-      <c t="s" s="19" r="F3">
-        <v>180</v>
-      </c>
-    </row>
-    <row customHeight="1" r="4" ht="15.75">
-      <c t="s" s="19" r="A4">
-        <v>183</v>
-      </c>
-      <c s="19" r="B4">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="19" r="C4">
-        <v>179</v>
-      </c>
-      <c t="s" s="19" r="F4">
-        <v>180</v>
-      </c>
-    </row>
-    <row customHeight="1" r="5" ht="15.75">
-      <c t="s" s="19" r="A5">
-        <v>184</v>
-      </c>
-      <c s="19" r="B5">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="19" r="C5">
-        <v>179</v>
-      </c>
-      <c t="s" s="19" r="F5">
-        <v>180</v>
+      <c t="s" s="33" r="C5">
+        <v>197</v>
+      </c>
+      <c t="s" s="33" r="F5">
+        <v>198</v>
       </c>
     </row>
     <row customHeight="1" r="6" ht="15.75"/>
@@ -3397,7 +3879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3408,99 +3890,143 @@
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="17" r="A1">
+      <c t="s" s="31" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="17" r="B1">
+      <c t="s" s="31" r="B1">
         <v>1</v>
       </c>
-      <c t="s" s="17" r="C1">
+      <c t="s" s="31" r="C1">
         <v>2</v>
       </c>
-      <c t="s" s="17" r="D1">
+      <c t="s" s="31" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="17" r="E1">
+      <c t="s" s="31" r="E1">
         <v>4</v>
       </c>
-      <c t="s" s="17" r="F1">
+      <c t="s" s="31" r="F1">
         <v>5</v>
       </c>
-      <c t="s" s="17" r="G1">
+      <c t="s" s="31" r="G1">
         <v>6</v>
       </c>
-      <c t="s" s="17" r="H1">
+      <c t="s" s="31" r="H1">
         <v>7</v>
       </c>
-      <c t="s" s="17" r="I1">
+      <c t="s" s="31" r="I1">
         <v>8</v>
       </c>
-      <c t="s" s="17" r="J1">
+      <c t="s" s="31" r="J1">
         <v>9</v>
       </c>
-      <c t="s" s="17" r="K1">
+      <c t="s" s="31" r="K1">
         <v>10</v>
       </c>
-      <c t="s" s="17" r="L1">
+      <c t="s" s="31" r="L1">
         <v>11</v>
       </c>
-      <c t="s" s="17" r="M1">
+      <c t="s" s="31" r="M1">
         <v>12</v>
       </c>
-      <c t="s" s="17" r="N1">
+      <c t="s" s="31" r="N1">
         <v>13</v>
       </c>
-      <c t="s" s="17" r="O1">
+      <c t="s" s="31" r="O1">
         <v>14</v>
       </c>
     </row>
     <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="19" r="A2">
-        <v>185</v>
-      </c>
-      <c s="19" r="B2">
+      <c t="s" s="34" r="A2">
+        <v>218</v>
+      </c>
+      <c s="34" r="B2">
         <v>2.0</v>
       </c>
-      <c t="s" s="19" r="C2">
-        <v>186</v>
-      </c>
-      <c t="s" s="19" r="F2">
-        <v>179</v>
-      </c>
-      <c t="s" s="19" r="H2">
-        <v>187</v>
-      </c>
-      <c t="s" s="19" r="I2">
+      <c t="s" s="34" r="C2">
+        <v>219</v>
+      </c>
+      <c s="35" r="D2"/>
+      <c s="35" r="E2"/>
+      <c t="s" s="34" r="F2">
+        <v>197</v>
+      </c>
+      <c s="35" r="G2"/>
+      <c t="s" s="34" r="H2">
+        <v>220</v>
+      </c>
+      <c t="s" s="34" r="I2">
         <v>19</v>
       </c>
+      <c s="35" r="J2"/>
+      <c s="35" r="K2"/>
+      <c s="35" r="L2"/>
+      <c s="35" r="M2"/>
+      <c s="35" r="N2"/>
+      <c s="35" r="O2"/>
     </row>
     <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="19" r="A3">
-        <v>188</v>
-      </c>
-      <c s="19" r="B3">
+      <c t="s" s="34" r="A3">
+        <v>221</v>
+      </c>
+      <c s="34" r="B3">
         <v>2.0</v>
       </c>
-      <c t="s" s="19" r="C3">
-        <v>186</v>
-      </c>
-      <c t="s" s="19" r="F3">
-        <v>179</v>
-      </c>
-      <c t="s" s="19" r="H3">
-        <v>170</v>
-      </c>
-      <c t="s" s="19" r="I3">
-        <v>34</v>
-      </c>
-      <c t="s" s="19" r="K3">
-        <v>189</v>
-      </c>
-      <c t="s" s="20" r="L3">
-        <v>190</v>
-      </c>
-    </row>
-    <row customHeight="1" r="4" ht="15.75"/>
+      <c t="s" s="34" r="C3">
+        <v>219</v>
+      </c>
+      <c s="35" r="D3"/>
+      <c s="35" r="E3"/>
+      <c t="s" s="34" r="F3">
+        <v>197</v>
+      </c>
+      <c s="35" r="G3"/>
+      <c t="s" s="34" r="H3">
+        <v>209</v>
+      </c>
+      <c t="s" s="34" r="I3">
+        <v>39</v>
+      </c>
+      <c s="35" r="J3"/>
+      <c t="s" s="34" r="K3">
+        <v>222</v>
+      </c>
+      <c t="s" s="36" r="L3">
+        <v>223</v>
+      </c>
+      <c s="35" r="M3"/>
+      <c s="35" r="N3"/>
+      <c s="35" r="O3"/>
+    </row>
+    <row customHeight="1" r="4" ht="15.75">
+      <c t="s" s="34" r="A4">
+        <v>224</v>
+      </c>
+      <c s="34" r="B4">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="34" r="C4">
+        <v>219</v>
+      </c>
+      <c s="35" r="D4"/>
+      <c s="35" r="E4"/>
+      <c t="s" s="34" r="F4">
+        <v>225</v>
+      </c>
+      <c s="35" r="G4"/>
+      <c t="s" s="34" r="H4">
+        <v>226</v>
+      </c>
+      <c t="s" s="34" r="I4">
+        <v>39</v>
+      </c>
+      <c s="35" r="J4"/>
+      <c s="35" r="K4"/>
+      <c s="35" r="L4"/>
+      <c s="35" r="M4"/>
+      <c s="35" r="N4"/>
+      <c s="35" r="O4"/>
+    </row>
     <row customHeight="1" r="5" ht="15.75"/>
     <row customHeight="1" r="6" ht="15.75"/>
     <row customHeight="1" r="7" ht="15.75"/>
@@ -3525,6 +4051,241 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" customWidth="1" max="15" width="13.57"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" r="1" ht="15.75">
+      <c t="s" s="32" r="A1">
+        <v>0</v>
+      </c>
+      <c t="s" s="32" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="32" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="32" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="32" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="32" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="32" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="32" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="32" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="32" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="32" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="32" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="32" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="32" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="32" r="O1">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" r="2" ht="15.75">
+      <c t="s" s="34" r="A2">
+        <v>187</v>
+      </c>
+      <c s="34" r="B2">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="34" r="C2">
+        <v>192</v>
+      </c>
+      <c s="35" r="D2"/>
+      <c s="35" r="E2"/>
+      <c t="s" s="34" r="F2">
+        <v>194</v>
+      </c>
+      <c s="35" r="G2"/>
+      <c t="s" s="34" r="H2">
+        <v>196</v>
+      </c>
+      <c t="s" s="34" r="I2">
+        <v>19</v>
+      </c>
+      <c s="35" r="J2"/>
+      <c s="35" r="K2"/>
+      <c t="s" s="36" r="L2">
+        <v>199</v>
+      </c>
+      <c s="35" r="M2"/>
+      <c s="35" r="N2"/>
+      <c s="35" r="O2"/>
+    </row>
+    <row customHeight="1" r="3" ht="15.75">
+      <c t="s" s="34" r="A3">
+        <v>203</v>
+      </c>
+      <c s="34" r="B3">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="34" r="C3">
+        <v>192</v>
+      </c>
+      <c s="35" r="D3"/>
+      <c s="35" r="E3"/>
+      <c t="s" s="34" r="F3">
+        <v>194</v>
+      </c>
+      <c s="35" r="G3"/>
+      <c t="s" s="34" r="H3">
+        <v>204</v>
+      </c>
+      <c t="s" s="34" r="I3">
+        <v>39</v>
+      </c>
+      <c s="35" r="J3"/>
+      <c s="35" r="K3"/>
+      <c t="s" s="36" r="L3">
+        <v>205</v>
+      </c>
+      <c s="35" r="M3"/>
+      <c s="35" r="N3"/>
+      <c s="35" r="O3"/>
+    </row>
+    <row customHeight="1" r="4" ht="15.75">
+      <c t="s" s="33" r="A4">
+        <v>206</v>
+      </c>
+      <c s="33" r="B4">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="33" r="C4">
+        <v>207</v>
+      </c>
+      <c t="s" s="33" r="F4">
+        <v>208</v>
+      </c>
+      <c t="s" s="33" r="H4">
+        <v>209</v>
+      </c>
+      <c t="s" s="33" r="I4">
+        <v>39</v>
+      </c>
+      <c t="s" s="37" r="L4">
+        <v>210</v>
+      </c>
+    </row>
+    <row customHeight="1" r="5" ht="15.75">
+      <c t="s" s="33" r="A5">
+        <v>211</v>
+      </c>
+      <c s="33" r="B5">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="33" r="C5">
+        <v>207</v>
+      </c>
+      <c t="s" s="33" r="F5">
+        <v>212</v>
+      </c>
+      <c t="s" s="33" r="H5">
+        <v>213</v>
+      </c>
+      <c t="s" s="33" r="I5">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" r="6" ht="15.75">
+      <c t="s" s="33" r="A6">
+        <v>214</v>
+      </c>
+      <c s="33" r="B6">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="33" r="C6">
+        <v>207</v>
+      </c>
+      <c t="s" s="33" r="F6">
+        <v>212</v>
+      </c>
+      <c t="s" s="33" r="H6">
+        <v>215</v>
+      </c>
+      <c t="s" s="33" r="I6">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" r="7" ht="15.75">
+      <c t="s" s="34" r="A7">
+        <v>216</v>
+      </c>
+      <c s="34" r="B7">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="34" r="C7">
+        <v>207</v>
+      </c>
+      <c s="35" r="D7"/>
+      <c s="35" r="E7"/>
+      <c t="s" s="34" r="F7">
+        <v>212</v>
+      </c>
+      <c s="35" r="G7"/>
+      <c t="s" s="34" r="H7">
+        <v>217</v>
+      </c>
+      <c t="s" s="34" r="I7">
+        <v>19</v>
+      </c>
+      <c s="35" r="J7"/>
+      <c s="35" r="K7"/>
+      <c s="35" r="L7"/>
+      <c s="35" r="M7"/>
+      <c s="35" r="N7"/>
+      <c s="35" r="O7"/>
+    </row>
+    <row customHeight="1" r="8" ht="15.75"/>
+    <row customHeight="1" r="9" ht="15.75"/>
+    <row customHeight="1" r="10" ht="15.75"/>
+    <row customHeight="1" r="11" ht="15.75"/>
+    <row customHeight="1" r="12" ht="15.75"/>
+    <row customHeight="1" r="13" ht="15.75"/>
+    <row customHeight="1" r="14" ht="15.75"/>
+    <row customHeight="1" r="15" ht="15.75"/>
+    <row customHeight="1" r="16" ht="15.75"/>
+    <row customHeight="1" r="17" ht="15.75"/>
+    <row customHeight="1" r="18" ht="15.75"/>
+    <row customHeight="1" r="19" ht="15.75"/>
+    <row customHeight="1" r="20" ht="15.75"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId2"/>
+    <hyperlink ref="L3" r:id="rId3"/>
+    <hyperlink ref="L4" r:id="rId4"/>
+  </hyperlinks>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -3536,51 +4297,51 @@
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="11" r="A1">
-        <v>191</v>
+      <c t="s" s="28" r="A1">
+        <v>227</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
     <row customHeight="1" r="2" ht="15.75">
       <c t="s" s="1" r="A2">
-        <v>193</v>
-      </c>
-      <c t="s" s="19" r="B2">
-        <v>194</v>
+        <v>229</v>
+      </c>
+      <c t="s" s="33" r="B2">
+        <v>230</v>
       </c>
     </row>
     <row customHeight="1" r="3" ht="15.75">
       <c t="s" s="1" r="A3">
-        <v>195</v>
-      </c>
-      <c t="s" s="19" r="B3">
-        <v>196</v>
+        <v>231</v>
+      </c>
+      <c t="s" s="33" r="B3">
+        <v>232</v>
       </c>
     </row>
     <row customHeight="1" r="4" ht="15.75">
       <c t="s" s="1" r="A4">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c t="s" s="3" r="B4">
-        <v>198</v>
+        <v>234</v>
       </c>
     </row>
     <row customHeight="1" r="5" ht="15.75">
       <c t="s" s="1" r="A5">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c t="s" s="3" r="B5">
-        <v>200</v>
+        <v>236</v>
       </c>
     </row>
     <row customHeight="1" r="6" ht="15.75">
       <c t="s" s="1" r="A6">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c t="s" s="3" r="B6">
-        <v>202</v>
+        <v>238</v>
       </c>
     </row>
     <row customHeight="1" r="7" ht="15.75"/>

--- a/backend/copysheet.xlsx
+++ b/backend/copysheet.xlsx
@@ -38,22 +38,10 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E50" authorId="0">
-      <text>
-        <t xml:space="preserve">switch this photo out to the one I just sent Amy
-	-Amanda Voeller</t>
-      </text>
-    </comment>
     <comment ref="E9" authorId="0">
       <text>
         <t xml:space="preserve">need to upload photo with better lighting
 	-amyzhang</t>
-      </text>
-    </comment>
-    <comment ref="A42" authorId="0">
-      <text>
-        <t xml:space="preserve">done besides website/Twitter
-	-Amanda Voeller</t>
       </text>
     </comment>
     <comment ref="A52" authorId="0">
@@ -80,12 +68,6 @@
 	-Amanda Voeller</t>
       </text>
     </comment>
-    <comment ref="A44" authorId="0">
-      <text>
-        <t xml:space="preserve">totally finished
-	-Amanda Voeller</t>
-      </text>
-    </comment>
     <comment ref="A15" authorId="0">
       <text>
         <t xml:space="preserve">totally finished
@@ -107,12 +89,6 @@
     <comment ref="A14" authorId="0">
       <text>
         <t xml:space="preserve">totally finished
-	-Amanda Voeller</t>
-      </text>
-    </comment>
-    <comment ref="A39" authorId="0">
-      <text>
-        <t xml:space="preserve">will send head shot later this week
 	-Amanda Voeller</t>
       </text>
     </comment>
@@ -151,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="462">
   <si>
     <t>Candidate Name</t>
   </si>
@@ -336,94 +312,433 @@
     <t>Jonathan Barak Dror</t>
   </si>
   <si>
+    <t>http://i.imgur.com/Muq9Rd9.jpg</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>HOOK ‘EM!!! Being the first generation in my family to go to college, I truly know how important education is and the daily challenges we students face. Being at one of the best universities, it is only fitting that we have the most PASSIONATE and DEDICATED students representing our fine school!|||Currently serving on the International Education Fee Scholarship Committee, I want to do even MORE for Student Government and our diverse student body!</t>
+  </si>
+  <si>
+    <t>A simpler, easier and more effective class registration process|||Transparency in SG and increase student involvement|||UNITE all types of students by promoting more on-campus tailgates and events|||Lower tuition rates by lobbying the Capital</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/jonathandror</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/pages/Jonathan-Dror/803028563109313</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/hFMZXFr.jpg</t>
+  </si>
+  <si>
+    <t>Hayley Cook</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/rFqkIc8.jpg</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>I’m Hayley Cook and I am a student with interests across our University. I am a third year Advertising major, a participant in the Business Foundations and Undergraduate Real Estate programs, and a second-generation Longhorn. At a critical time for our University, now more than ever our Student Government needs efficiency and transparency. With my leadership and expertise I will work daily to ensure that The University of Texas at Austin remains the finest institution of higher education in Texas. Typically, after election season, the average student hears nothing from the candidates they cast their vote for months earlier. It’s time for change. Through consistent, informative communication our Student Government Representatives can begin to serve the University by ensuring students are adequately informed of issues and concerns. As a Representative, I will ensure that students are kept informed rather than left in the dark.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/870SZDT.jpg</t>
+  </si>
+  <si>
+    <t>Kallen Dimitroff</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/MtPJkUg.jpg</t>
+  </si>
+  <si>
+    <t>History and Government</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Fellow Longhorns, I would be honored to serve as your University-Wide Representative. I have participated in SG as a First Year Representative, a Liberal Arts Representative and as a member of the City Relations Agency. While serving as Liberal Arts Representative I chaired SG's Academic Affairs Committee. As chair I created a task-force to improve undergraduate research resources, founded the university's first Academic Decathlon and oversaw the revision of legislation such as the proposal for Thanksgiving Break. Outside of Student Government I have sat on my college's CTBAC, co-created an organization dedicated to raising awareness about the national deficit and have had the privilege of being a member of Liberal Arts Council. Should I be elected I would seek to promote a platform of academic integrity, transparency and efficiency. I hope to bring a thoughtful, experienced approach to the new assembly, as well as my commitment to bettering our University.</t>
+  </si>
+  <si>
+    <t>Creation of Academic Honor Committee|||College specific convocations|||A unifying yearly project that all of SG contributes to (agencies, assembly etc..)</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/events/608431725956845/?pnref=lhc.recent</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/oZo7Nfp.jpg</t>
+  </si>
+  <si>
+    <t>John Falke</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/K7CLKOU.jpg</t>
+  </si>
+  <si>
+    <t>BHP, Finance and Government</t>
+  </si>
+  <si>
+    <t>Hello! My name is John Falke and I am a BHP, Finance, and Government sophomore running to be one of your eight University Wide Representatives.|||If elected, I will work hard to focus on the most relevant student issues. SG exists to serve students and improve student affairs, and I promise to never lose sight of that. Being involved in SG, Senate, and a college council has given me a broad understanding of legislative student organizations, and I will be fully committed to bridging the gap between SG and Senate because they can accomplish so much more together as one team. In addition, I plan to create more polling opportunities and communication channels so that representatives are held accountable to the student body.|||I look forward to the election and can’t wait to work with the assembly to improve the longhorn experience! Vote John Falke for University Wide Representative!</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/johnrossfalke</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/ZYC5mlu.jpg</t>
+  </si>
+  <si>
+    <t>Kerry Greathouse</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>My name is Kerry Greathouse, and I would be deeply honored if given the opportunity to serve as your University Wide Representative.  On campus I talk to people regularly about issues that affect them directly as a member of Students for Sensible Drug Policy; and as student of Botany I hope to incorporate science, compassion, and common sense into policies passed by this body.  I envision a campus that is safe, sustainable, and beautiful.|||As a cornerstone of my campaign, I hope to expand our University’s medical amnesty policy, so that if you or someone you care about requires medical attention for complications associated with a drug other than alcohol, they need not fear any legal repercussions.  This has had concrete effects at other universities in the form of actual saved lives.  I ask for your vote so that together we can make our campus a better place.</t>
+  </si>
+  <si>
+    <t>Alejandrina Guzman</t>
+  </si>
+  <si>
+    <t>University-Wide Representatie</t>
+  </si>
+  <si>
+    <t>Psychology/LAH</t>
+  </si>
+  <si>
+    <t>My name is Alejandrina Guzman and I am a second year Liberal Arts Honors Psychology major. I am involved in various groups on campus, however, that is not the focus. I am tired of having a majority of Student Government represent a very narrow portion of this campus. I hope to be active in voicing the unheard opinion and be inclusive towards all walks of life. I plan to increase accessibility awareness on campus, take priority on race issues, and make the culture of Student Government more approachable and down to earth in the eyes of the student body. As your University Wide Representative, I would prioritize open dialogue that draws from diverse opinions and foster accessibility for all students on each corner of the Forty Acres, from the entrances of every building to the Student Government assembly room.</t>
+  </si>
+  <si>
+    <t>Conlee Hamlin</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/VknNwVv.jpg</t>
+  </si>
+  <si>
+    <t>Nutrition</t>
+  </si>
+  <si>
+    <t>Freshman</t>
+  </si>
+  <si>
+    <t>Hey Longhorns! My name is Conlee and I am running for University Wide Representative! I have a ton of great ideas to make UT a better campus for everyone such as: more campus branding so visitors know when they have entered Longhorn territory, more police poles in west campus for all those late night walks home from the PCL, and on-campus tailgating so we can enjoy our football games even more than we already do! These are where I would like to start, but there are more plenty more where those came from! I would LOVE to be your U-wide Rep so vote for me and together we can make UT an even better place! Hook’em!</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/yG9YfMp.jpg</t>
+  </si>
+  <si>
+    <t>Kevin Helgren</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/xqJuwgC.jpg</t>
+  </si>
+  <si>
+    <t>Psychology/Neuroscience</t>
+  </si>
+  <si>
+    <t>Hi, Longhorns! My name is Kevin Helgren and I’m a third-year neuroscience and psychology major from Austin, Texas. More importantly, though, I want to help YOU. As a University-Wide Representative, I plan on addressing a few key issues that I consider to be of importance to the Longhorn community. I hope to increase transparency between Student Government and the study body through monthly assemblies and an application for smart phones. I also plan on strengthening the Longhorn community by showcasing the talents and hard work of individuals and organizations across the 40 Acres, be it research in a laboratory or a multi-faceted performance. Lastly, I would like to bridge the gap between our university and the greater Austin area through mentoring programs and service projects. I don’t make empty promises; and that’s a promise. We’re all Longhorns – let’s help change the world together!</t>
+  </si>
+  <si>
+    <t>Increase transparency between Student Government and student body (see statement for specifics)|||Strengthen Longhorn community (see statement for specifics)|||Bridge the gap between the university and our city (see statement for specifics)|||Tend to parking options on campus for commuters in light of recent shortages and construction|||Generate more on-campus printing options for students across colleges and majors|||Improve road conditions in West Campus|||Meal plan for off-campus students</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/KevinHelgren</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/VfI5bt3.jpg</t>
+  </si>
+  <si>
+    <t>Ryan Lim</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/jMur0Lk.jpg</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Hi I’m Ryan Lim and I’m here to challenge the perception on campus of what student government means. As the social chair for the Pi Kappa Phi Fraternity, I’ve learned some things. First, THE University of Texas has an astonishing amount of great people with different beliefs and ideas that should be embraced. Second, simply how to have fun. Though we all know that the most important reason to go to college is to get an education, that doesn’t mean college shouldn’t be fun. Though our Student Government has done great work for our university, do you feel that they are representative of you? You may see me in Professor Bonevac’s class or at Gregory, but you can also catch me at Blind Pig or at Roundup. Government should represent you, plain and simple. I believe that I am for the people and soon to be by the people.</t>
+  </si>
+  <si>
+    <t>Represent the UT community at large, with emphasis on those felt disenfranchised by the current system|||Act only on behalf of the Student population|||Oppose any legislation that infringes on the rights of Students|||Endeavor to bring West Campus back to its former Glory|||Maintain the notion that UT is the best place to attend college.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/10YPSXO.jpg</t>
+  </si>
+  <si>
+    <t>Richard Pearce</t>
+  </si>
+  <si>
+    <t>No statement.</t>
+  </si>
+  <si>
+    <t>Spencer Schredder</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/ERJDIIw.jpg</t>
+  </si>
+  <si>
     <t>Brian Wilkey</t>
   </si>
   <si>
+    <t>International Relations &amp; Global Studies</t>
+  </si>
+  <si>
     <t>Graduate Student Assembly President</t>
   </si>
   <si>
     <t>President</t>
   </si>
   <si>
-    <t>http://i.imgur.com/Muq9Rd9.jpg</t>
+    <t>The University of Texas Community,|||Every time I step onto the 40 acres, I am filled with an amazing sense of pride, and am reminded about how blessed I am to attend the greatest university in the world. Nonetheless, even the best can get better. My name is Spencer Schredder, and I am running for University Wide Representative.|||I believe there are simple steps that can be taken to greatly improve daily student life. My platform is comprised of common sense reforms and impactful new policy initiatives that will positively impact the entirety of the UT community.|||It would be a great honor to represent my peers in the Student Government, and I look forward to hearing from and meeting more of my fellow longhorns in the coming weeks.|||Hook ‘Em,|||Spencer Schredder</t>
   </si>
   <si>
     <t>Human Development &amp; Family Sciences</t>
   </si>
   <si>
+    <t>Identify inefficiently used student funds, and redistribute in a manner that would directly improve daily student life at UT, such as bike lanes on campus and a 24/7 Student Activity Center.|||Reenergize school spirit by overhauling athletic ticketing policies, including section- based seating for football, and an expanded lower bowl student section for basketball.|||Assist students with financial need by making Bevo Bucks more widely accepted across campus, and eliminating “Pay-For-Bandwidth” WIFI by providing data for students through their existing student fees.|||Integrate our student body through cross-cultural events that bring about an understanding of our diverse student groups to create a safe climate for all.|||Lobby the Metro system to provide more consistent and reliable student transportation to and from campus.|||Increase transparency between students and the University’s governing bodies, while implementing new strategies that integrate student opinion as a facet of the decision making process for university policy creation.</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/Schredder4UTSG</t>
+  </si>
+  <si>
     <t>Brian Wilkey is a Doctoral Candidate in the department of Human Development and Family Sciences. He has served as the department representative to the Graduate Student Assembly and as its Vice-President. He currently serves as the President of the GSA. During his term, Brian has overseen the revision of the GSA’s governing documents, the establishment of the Graduate Student Housing Committee, the establishment of the GSA’s agencies, as well as helped to increase the participation of graduate students in university governance. His campaign with Vice-President Roper will build upon this year’s successes to establish more input on graduate student housing, more programs and opportunities for graduate students, and a campaign to redefine the value of graduate and professional education. As President for another term, he hopes to continue to grow interest in shared governance among graduate students as well as establish more successful collaborations with campus units to help graduate students both while they complete their studies and when they head into the workforce. He also intends to make sure UT-Austin’s voice is heard on a state and national level concerning issues of student taxation and indebtedness and research funding. He will continue to fight for more rights for graduate students while making sure the community holds them to the highest standards.</t>
   </si>
   <si>
+    <t>http://www.SpencerSchredder.com</t>
+  </si>
+  <si>
     <t>Vance Roper</t>
   </si>
   <si>
     <t>Graduate Student Assembly Vice President</t>
   </si>
   <si>
+    <t>http://i.imgur.com/YtLktVg.jpg</t>
+  </si>
+  <si>
+    <t>Sinan Shaibani</t>
+  </si>
+  <si>
     <t>http://i.imgur.com/68iP39V.jpg</t>
   </si>
   <si>
+    <t>http://i.imgur.com/BwSzhcB.jpg</t>
+  </si>
+  <si>
+    <t>Middle Eastern Studies</t>
+  </si>
+  <si>
+    <t>There is no reason why the majority of students who pay tuition do not know where that money goes. There is no reason why student housing in west campus should be so expensive. Since my first day at UT, I’ve worked on issues concerning social justice &amp; campus life. I did this in a variety of ways, the only approach left is student government. I am prepared to take on this responsibility to serve a community that’s given me an incredible college experience. Let us work together and make the ideal real. Peace &amp; love!</t>
+  </si>
+  <si>
     <t xml:space="preserve">David Davis Jr. </t>
   </si>
   <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>HOOK ‘EM!!! Being the first generation in my family to go to college, I truly know how important education is and the daily challenges we students face. Being at one of the best universities, it is only fitting that we have the most PASSIONATE and DEDICATED students representing our fine school!|||Currently serving on the International Education Fee Scholarship Committee, I want to do even MORE for Student Government and our diverse student body!</t>
-  </si>
-  <si>
-    <t>A simpler, easier and more effective class registration process|||Transparency in SG and increase student involvement|||UNITE all types of students by promoting more on-campus tailgates and events|||Lower tuition rates by lobbying the Capital</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/jonathandror</t>
-  </si>
-  <si>
-    <t>http://www.facebook.com/pages/Jonathan-Dror/803028563109313</t>
+    <t>Vice President</t>
+  </si>
+  <si>
+    <t>Public Affairs/Community and Regional Planning</t>
+  </si>
+  <si>
+    <t>Vance Roper is a dual degree graduate student at the Lyndon B Johnson School of Public Affairs and the School of Architecture. He has served as the Legislative Affairs Director to the Graduate Student Assembly and as its Vice-President. He currently serves as the Vice-President of the GSA. During his term, Vance has worked on engagement issues for the GSA and its members. He has worked on updating the GSA governing documents, addressed member issues, and has simplified the assembly meeting process making the assembly functions more accessible. His campaign with President Wilkey will build upon the foundation that has been laid during the current term. As Vice-President for another term, he hopes to finish up work on graduate housing issues, further the engagement of graduate students across campus, direct the conversation on what it means to be a graduate student, and to give voice to the issues facing graduate students.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/oRwPNqr.jpg</t>
+  </si>
+  <si>
+    <t>Safer environment that does not tolerate any form of violence whatsoever (sexual violence is a major issue I plan to confront).|||Affordable housing &amp; easier job application process for students.|||More student involvement in SG &amp; financial transparency from UT administration.|||Work towards a welcoming environment to all students regardless of our differences, one that caters to our needs &amp; concerns.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/Zr070yJ.jpg</t>
+  </si>
+  <si>
+    <t>Santiago Rosales</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/RvWcoCc.jpg</t>
+  </si>
+  <si>
+    <t>Finance and Economics</t>
+  </si>
+  <si>
+    <t>Hello, I am Santiago Rosales. Five months ago, I ran for First-Year Representative. Upon election, the freshman class and I commenced a four-year project for more freshman involvement in Student Government, scholarship transparency, and improvements in UT’s notoriety. In five months, I explored the bureaucracy, researched Student Governments across the country, and connected with students and administrators across campus.|||I invite the university to partner with me on this four-year project. Let’s transform the Forty Acres. Vote Santiago Rosales for University-Wide Representative. Thanks and Hook’Em!</t>
+  </si>
+  <si>
+    <t>Creating the Freshman 15, fifteen initiatives to solidify freshmen involvement in Student Government|||Integrating smart-data strategies to connect students, Student Government, and administrators|||Rekindling Student Government with the type of passion that created a 24/5 PCL and the SAC.</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/renesantyago</t>
   </si>
   <si>
     <t>The Daily Texan</t>
   </si>
   <si>
+    <t>http://www.facebook.com/events/1568179153429132/</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/sHtoFNj.jpg</t>
+  </si>
+  <si>
+    <t>Sean Wolff</t>
+  </si>
+  <si>
     <t>http://i.imgur.com/Gxo8TS1.jpg</t>
   </si>
   <si>
-    <t>http://i.imgur.com/hFMZXFr.jpg</t>
+    <t>Valentina Rodriguez</t>
+  </si>
+  <si>
+    <t>College Representatives</t>
+  </si>
+  <si>
+    <t>Architecture Representative - 1 open position</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/qFeakEm.jpg</t>
+  </si>
+  <si>
+    <t>Architecture Representative</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Editor-in-Chief</t>
+  </si>
+  <si>
+    <t>As a candidate for Architecture Representative, I wish to bring attention to increasing recycling within the School of Architecture, and the campus as a whole. Not only will I continue to represent the undergraduate student population, but the female and Hispanic demographics as well, thus manifesting the opinions of prominent minority groups within the Architecture community. I will also focus on increasing school spirit within the School of Architecture, and bring more transparency between Student Government and Architecture students.</t>
+  </si>
+  <si>
+    <t>French and International Relations &amp; Global Studies</t>
+  </si>
+  <si>
+    <t>Continue to bring school-wide awareness to the voice and concerns of architecture students|||Emphasize the importance of recycling trash and the use of sustainable design within campus|||Celebrate the events and accomplishments of the School of Architecture with the rest of the university|||Increase school spirit and school pride through methods of beautifying campus and continuing campus traditions</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/rY0jLnh.jpg</t>
+  </si>
+  <si>
+    <t>The Daily Texan must continue its legacy of greatness, and Longhorns must choose a dynamic leader to carry out this responsibility.|||My name is David Davis, Jr., and I would like to be the next editor-in-chief of your newspaper.|||The most important mission of The Daily Texan editor-in-chief is to acknowledge and represent the voices of all of UT. The next editor will recognize there are:|||- conservative political opinions on our campus|||- black students on our campus|||- more important things than fraternities behaving badly|||-in addition to the voices traditionally represented on the opinion page.|||Along with varied experience at the Texan, success in political and nonprofit fundraising will allow me to confront the Texan’s financial difficulties.|||I love The Daily Texan, and my ultimate goal as editor-in-chief will be to make all Longhorns love the Texan too.</t>
+  </si>
+  <si>
+    <t>Dylan Adkins</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/daveedalon</t>
+  </si>
+  <si>
+    <t>Business Representatives - 3 open positions</t>
+  </si>
+  <si>
+    <t>Business Representative</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/Q0EAhJK.jpg</t>
+  </si>
+  <si>
+    <t>Claire Smith</t>
+  </si>
+  <si>
+    <t>Hello, I am Dylan Adkins, a candidate to be a representative in the Student Government assembly for the McCombs School of Business during the 2015-2016 school year. I am a first-year here at McCombs and I am currently active in various organizations including the Undergraduate Business Council where I serve as the elected voice of the Class of 2018. I also am involved with Student Government as a Longhorn Legislative Aide under the External Financial Director, the Freshman Leadership Organization, the Longhorn Run, and the Center for Sports Leadership and Innovation. I look to push for more interaction among faculty and students, more microwaves in the Atrium, and more resources for Career Services to pursue to help the overall well-being and career search for all McCombs students. I would be honored to serve as the voice of McCombs next year. Thank you for your time and consideration.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/vSkgirU.jpg</t>
+  </si>
+  <si>
+    <t>Ronnie Dasgupta</t>
+  </si>
+  <si>
+    <t>History and Humanities</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/bGRP8wV.jpg</t>
+  </si>
+  <si>
+    <t>My name is Claire Smith, and I am running for Editor-in-Chief of The Daily Texan. The Daily Texan is a one-of-kind workplace and an example of the nation’s finest student journalism. But my interest lies in making it even better. My first goal as Editor-in-Chief would be creating a more inclusive opinion page where all of the diverse voices on campus may be heard. I also would like to make commonsense adjustments to inner office workings by taking a more active role in the paper’s everyday leadership in partnership with the Managing Editor, work with the Design and Copy Editors to make the Opinion page a cohesive part of every day’s issue, and work with the department heads to adjust each departments’ editing schedules to increase overall office efficiency. It would be an honor to serve as the Texan’s next Editor-in-Chief.</t>
+  </si>
+  <si>
+    <t>Hey, Longhorns! I’m Ronnie Dasgupta, a freshman from Austin, Texas running for McCombs representative. Growing up in Austin, I’ve been a Longhorn fan all my life and hold the values this University embodies close to my heart. UT is known for its rich tradition, prestigious academics, and vibrant student life, but there always improvements to be made. As a student in McCombs often times it is difficult to stay connected with everything going on within the business school as well on campus as a whole. My goal as McCombs representative is to bridge the disconnect within the school by acting an effective liaison between Student Government and the business school. Tradition is important to me and I hope to work with organizations like the Business Council to promote events such as Rivals Week. Together we can make McCombs the best that it can be. Hook ‘em!</t>
+  </si>
+  <si>
+    <t>A more inclusive opinion section to better represent the diversity of belief present on campus.|||A greater presence on for The Daily Texan digitally and in-person. A greater digital presence will be achieved through finding fresh ways for the Texan to stay a vital publication online in partnership with the Special Projects Manager and Managing. A greater personal presence on campus will be achieved by taking a more active recruiting role for the whole paper in my capacity as Editor-in-Chief and appealing directly to political, social, and service organizations, as well as the Graduate Students Association, for the opinion section.|||Create more coverage for graduate students.|||Work with the Texas Student Media Board to find appropriate fundraising opportunities to ensure the Texan's long-term financial health despite the changing landscape of print media.|||Increase overall office efficiency by meeting with department heads to discuss adjustments that can be made to each department's editing schedules to get the most use out of all of everyone's time.|||Be a more visible presence in the office by attending the Managing Editor's daily meetings with the department heads and avoiding sending a representative from the Editorial Board in my stead, which I hope will break down the barrier between the opinion section and the rest of the paper.|||Establish set times that opinion columnists will meet with their editors every week for in-person critiques, as opposed to the online-only edits that the section has had in place in the past, to ensure that convenience never trumps quality.</t>
+  </si>
+  <si>
+    <t>Promote UT's strong traditions by advertising events such as Rivals Week|||Bridging the disconnect between McCombs and Student Government by informing business students about legislation.|||Serving as an effective liaison between Student Government and McCombs to get business students issues addressed.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/Ih7cIKs.jpg</t>
+  </si>
+  <si>
+    <t>Ben Norton</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/jIm0cbk.jpg</t>
+  </si>
+  <si>
+    <t>Business Honors</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/claireseysmith</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/0inWeXN.jpg</t>
+  </si>
+  <si>
+    <t>If elected, I will represent the students of McCombs to the best of my ability. I will attend every meeting and work tirelessly to ensure that changes are made on campus that will benefit the students. One issue I am interested in looking into is the concept of free printing at McCombs. I strongly believe that would be very beneficial to McCombs students, especially those who do not have a constant stash of Bevo bucks on hand. I have several other ideas as to how student life for McCombs students can be improved, and if I am elected, I will do whatever it takes to make those changes a reality. I will always be willing to listen to ideas from students as to what they would like to see, and I am eager to have the ability to help them.</t>
+  </si>
+  <si>
+    <t>Jan Ross Piedad</t>
+  </si>
+  <si>
+    <t>Improve McCombs Resources – Bring back personal scanners with McCombs computers|||McCombs Listens – Add a link to the McCombs website where McCombs students can submit ideas on how to improve both McCombs and UT as a whole|||Information Filtering – Create method for students to select the type of information they wish to receive regarding programs, networking events and internships|||McCombs on Your Phone – Begin developing a McCombs app that will give easy access to upcoming McCombs events, recruiting information and more|||Support McCombs Organizations – Work directly with McCombs organizations to ensure that they are provided with the resources they need to achieve their goals</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/0qfMK37.jpg</t>
   </si>
   <si>
     <t>Cameron Kerl</t>
   </si>
   <si>
+    <t>Micky Wolf</t>
+  </si>
+  <si>
     <t>Board of Directors - 2 open positions</t>
   </si>
   <si>
-    <t>Hayley Cook</t>
-  </si>
-  <si>
     <t>http://i.imgur.com/bLH0puJ.jpg</t>
   </si>
   <si>
-    <t>http://i.imgur.com/rFqkIc8.jpg</t>
-  </si>
-  <si>
-    <t>Vice President</t>
-  </si>
-  <si>
-    <t>Public Affairs/Community and Regional Planning</t>
-  </si>
-  <si>
-    <t>Vance Roper is a dual degree graduate student at the Lyndon B Johnson School of Public Affairs and the School of Architecture. He has served as the Legislative Affairs Director to the Graduate Student Assembly and as its Vice-President. He currently serves as the Vice-President of the GSA. During his term, Vance has worked on engagement issues for the GSA and its members. He has worked on updating the GSA governing documents, addressed member issues, and has simplified the assembly meeting process making the assembly functions more accessible. His campaign with President Wilkey will build upon the foundation that has been laid during the current term. As Vice-President for another term, he hopes to finish up work on graduate housing issues, further the engagement of graduate students across campus, direct the conversation on what it means to be a graduate student, and to give voice to the issues facing graduate students.</t>
+    <t>TSM Board College of Communication Representative - 1 open position</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/CRLLnza.jpg</t>
+  </si>
+  <si>
+    <t>Business Honors and Plan II</t>
+  </si>
+  <si>
+    <t>I am Micky Wolf, a San Antonio born Business Honors and Plan II major. I have led student government at every level since elementary school and loved UT for even longer. My past and current leadership experiences will help me best represent your interests and make a difference in SG.|||I will be an accessible representative and can be contacted with any questions, comments or concerns at mickywolf96@gmail.com.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/yZnVINd.jpg</t>
   </si>
   <si>
     <t>Board Member</t>
   </si>
   <si>
-    <t>http://i.imgur.com/oRwPNqr.jpg</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Junior</t>
+    <t>http://www.twitter.com/cameronkerl</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/VoteCameronKerlCOOP?ref=ts&amp;fref=ts</t>
   </si>
   <si>
     <t>http://i.imgur.com/XKFUCGp.jpg</t>
@@ -432,175 +747,367 @@
     <t>Dana Le</t>
   </si>
   <si>
-    <t>Advertising</t>
+    <t>Place 1, Moody College of Communication</t>
   </si>
   <si>
     <t>http://i.imgur.com/xAeWuS7.jpg</t>
   </si>
   <si>
-    <t>Senior</t>
-  </si>
-  <si>
-    <t>Editor-in-Chief</t>
-  </si>
-  <si>
-    <t>French and International Relations &amp; Global Studies</t>
-  </si>
-  <si>
-    <t>I’m Hayley Cook and I am a student with interests across our University. I am a third year Advertising major, a participant in the Business Foundations and Undergraduate Real Estate programs, and a second-generation Longhorn. At a critical time for our University, now more than ever our Student Government needs efficiency and transparency. With my leadership and expertise I will work daily to ensure that The University of Texas at Austin remains the finest institution of higher education in Texas. Typically, after election season, the average student hears nothing from the candidates they cast their vote for months earlier. It’s time for change. Through consistent, informative communication our Student Government Representatives can begin to serve the University by ensuring students are adequately informed of issues and concerns. As a Representative, I will ensure that students are kept informed rather than left in the dark.</t>
-  </si>
-  <si>
-    <t>The Daily Texan must continue its legacy of greatness, and Longhorns must choose a dynamic leader to carry out this responsibility.|||My name is David Davis, Jr., and I would like to be the next editor-in-chief of your newspaper.|||The most important mission of The Daily Texan editor-in-chief is to acknowledge and represent the voices of all of UT. The next editor will recognize there are:|||- conservative political opinions on our campus|||- black students on our campus|||- more important things than fraternities behaving badly|||-in addition to the voices traditionally represented on the opinion page.|||Along with varied experience at the Texan, success in political and nonprofit fundraising will allow me to confront the Texan’s financial difficulties.|||I love The Daily Texan, and my ultimate goal as editor-in-chief will be to make all Longhorns love the Texan too.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/870SZDT.jpg</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/daveedalon</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/Q0EAhJK.jpg</t>
-  </si>
-  <si>
-    <t>Kallen Dimitroff</t>
+    <t>Journalism</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/janjourn</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/CKfHf8T.jpg</t>
+  </si>
+  <si>
+    <t>Pauline Berens</t>
+  </si>
+  <si>
+    <t>TSM Board At-Large - 2 open positions</t>
+  </si>
+  <si>
+    <t>At-Large Seat</t>
+  </si>
+  <si>
+    <t>Plan II and Biomedical Engineering</t>
+  </si>
+  <si>
+    <t>Amil Malik</t>
+  </si>
+  <si>
+    <t>Cross-College Collaboration - Create events and opportunities for McCombs students to collaborate on ideas (startup, extracurricular, and otherwise) with students from across campus.|||Increase Civic Engagement - Support the most impactful, innovative ideas for community service and plan McCombs/Campus-wide service projects.|||Poll the People - Use Google forms and online opens forums to understand the actual opinions of McCombs students on SG issues.|||Spotlight your Organization - Recognize an organization of the month that will receive SG support, my assistance, and positive publicity.|||Make Organization Knowledge more Accessible - Add Hornslink to the UT app and make it easier to find where you want to get involved.|||Increase Voting - Find out why many students don’t vote and create initiatives to get their voices heard.</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/mickywolf9</t>
+  </si>
+  <si>
+    <t>Plan II, Business Honors and Finance</t>
+  </si>
+  <si>
+    <t>McKay Proctor</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/1381579372157547/?ref_newsfeed_story_type=regular</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/LspUJEn.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/dntZcNF.jpg</t>
+  </si>
+  <si>
+    <t>English and Business Honors</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/5HmBDV8.jpg</t>
+  </si>
+  <si>
+    <t>Allison Ainsworth</t>
+  </si>
+  <si>
+    <t>Communication Representatives - 2 open positions</t>
   </si>
   <si>
     <t>http://i.imgur.com/N76KAhO.jpg</t>
   </si>
   <si>
-    <t>Claire Smith</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/MtPJkUg.jpg</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/vSkgirU.jpg</t>
+    <t>http://i.imgur.com/WeG3WMt.jpg</t>
+  </si>
+  <si>
+    <t>Communication Representative</t>
+  </si>
+  <si>
+    <t>Political Communication</t>
   </si>
   <si>
     <t>Tim Nelson</t>
   </si>
   <si>
-    <t>History and Humanities</t>
-  </si>
-  <si>
     <t>http://i.imgur.com/1TYY5QU.jpg</t>
   </si>
   <si>
-    <t>History and Government</t>
-  </si>
-  <si>
-    <t>My name is Claire Smith, and I am running for Editor-in-Chief of The Daily Texan. The Daily Texan is a one-of-kind workplace and an example of the nation’s finest student journalism. But my interest lies in making it even better. My first goal as Editor-in-Chief would be creating a more inclusive opinion page where all of the diverse voices on campus may be heard. I also would like to make commonsense adjustments to inner office workings by taking a more active role in the paper’s everyday leadership in partnership with the Managing Editor, work with the Design and Copy Editors to make the Opinion page a cohesive part of every day’s issue, and work with the department heads to adjust each departments’ editing schedules to increase overall office efficiency. It would be an honor to serve as the Texan’s next Editor-in-Chief.</t>
-  </si>
-  <si>
-    <t>Fellow Longhorns, I would be honored to serve as your University-Wide Representative. I have participated in SG as a First Year Representative, a Liberal Arts Representative and as a member of the City Relations Agency. While serving as Liberal Arts Representative I chaired SG's Academic Affairs Committee. As chair I created a task-force to improve undergraduate research resources, founded the university's first Academic Decathlon and oversaw the revision of legislation such as the proposal for Thanksgiving Break. Outside of Student Government I have sat on my college's CTBAC, co-created an organization dedicated to raising awareness about the national deficit and have had the privilege of being a member of Liberal Arts Council. Should I be elected I would seek to promote a platform of academic integrity, transparency and efficiency. I hope to bring a thoughtful, experienced approach to the new assembly, as well as my commitment to bettering our University.</t>
-  </si>
-  <si>
-    <t>Creation of Academic Honor Committee|||College specific convocations|||A unifying yearly project that all of SG contributes to (agencies, assembly etc..)</t>
-  </si>
-  <si>
-    <t>http://www.facebook.com/events/608431725956845/?pnref=lhc.recent</t>
-  </si>
-  <si>
-    <t>A more inclusive opinion section to better represent the diversity of belief present on campus.|||A greater presence on for The Daily Texan digitally and in-person. A greater digital presence will be achieved through finding fresh ways for the Texan to stay a vital publication online in partnership with the Special Projects Manager and Managing. A greater personal presence on campus will be achieved by taking a more active recruiting role for the whole paper in my capacity as Editor-in-Chief and appealing directly to political, social, and service organizations, as well as the Graduate Students Association, for the opinion section.|||Create more coverage for graduate students.|||Work with the Texas Student Media Board to find appropriate fundraising opportunities to ensure the Texan's long-term financial health despite the changing landscape of print media.|||Increase overall office efficiency by meeting with department heads to discuss adjustments that can be made to each department's editing schedules to get the most use out of all of everyone's time.|||Be a more visible presence in the office by attending the Managing Editor's daily meetings with the department heads and avoiding sending a representative from the Editorial Board in my stead, which I hope will break down the barrier between the opinion section and the rest of the paper.|||Establish set times that opinion columnists will meet with their editors every week for in-person critiques, as opposed to the online-only edits that the section has had in place in the past, to ensure that convenience never trumps quality.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/oZo7Nfp.jpg</t>
-  </si>
-  <si>
-    <t>John Falke</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/K7CLKOU.jpg</t>
+    <t>Fellow communication students,|||As a first year Political Communication major, I am running to be one of two 2015-2016 Moody School of Communication Representatives in the UT Student Government. I am currently very involved in the Student Government as a First Year Representative and have been fortunate to make a lot of contacts to help improve life for UT students.|||If you have any questions or concerns email me at allisonrainsworth@gmail.com. Thanks for your support!</t>
+  </si>
+  <si>
+    <t>To listen to each of your individual concerns/needs and take action at the student government and administration levels to make improvements.|||To inform the rest of the student body of our many accomplishments within Moody, and identify resources to continue to improve our school.|||To work to create scholarships that apply specifically to Communication Students.</t>
   </si>
   <si>
     <t>Marketing</t>
   </si>
   <si>
-    <t>BHP, Finance and Government</t>
+    <t>http://i.imgur.com/HoTZ8nP.jpg</t>
+  </si>
+  <si>
+    <t>Brian Schwall</t>
   </si>
   <si>
     <t>The University of Texas is a place of opportunity and innovation. If elected University Co-op Student Board Member, I will increase the level of opportunity and support of innovation at The University of Texas. Creating and leading a student organization over the past two semesters has increased my management skills, challenged me to communicate efficiently, and grown my overall leadership ability. I will utilize my skill set to represent key interests of student organizations and promote greater educational investment by the Co-op. In addition, I want to diversify marketing strategies at the Co-op in order to reach new target markets. Finally, I would like to thank the University Co-op, UT faculty, and students for their consideration. I am grateful for the opportunity to run for Student Board Member.|||Sincerely,|||Tim Nelson</t>
   </si>
   <si>
-    <t>Hello! My name is John Falke and I am a BHP, Finance, and Government sophomore running to be one of your eight University Wide Representatives.|||If elected, I will work hard to focus on the most relevant student issues. SG exists to serve students and improve student affairs, and I promise to never lose sight of that. Being involved in SG, Senate, and a college council has given me a broad understanding of legislative student organizations, and I will be fully committed to bridging the gap between SG and Senate because they can accomplish so much more together as one team. In addition, I plan to create more polling opportunities and communication channels so that representatives are held accountable to the student body.|||I look forward to the election and can’t wait to work with the assembly to improve the longhorn experience! Vote John Falke for University Wide Representative!</t>
+    <t>http://i.imgur.com/oFrRRdm.jpg</t>
   </si>
   <si>
     <t>Strengthen the University Co-op's relationships with UT alumni and alumnus organizations|||Support student-led/sponsored charities|||Develop foreign target markets|||Create an event where UT Entrepreneurs can connect with investors|||Increase advertisement of funding programs offered by the Co-op to departments and organizations at UT|||Engage the Greek Life community through sponsorship|||Foster growth of UT culture and athletic heritage</t>
   </si>
   <si>
-    <t>http://www.facebook.com/johnrossfalke</t>
-  </si>
-  <si>
     <t>http://www.facebook.com/VoteTimNelson</t>
   </si>
   <si>
-    <t>http://www.twitter.com/claireseysmith</t>
+    <t>Corporate Communication Studies</t>
   </si>
   <si>
     <t>http://i.imgur.com/G079hRA.jpg</t>
   </si>
   <si>
-    <t>http://i.imgur.com/0inWeXN.jpg</t>
+    <t>Hello! My name is Brian Schwall, and I am a corporate communications student, from Plano, TX. Since being on the 40-acres, I have served in several leadership roles. I hope to use the knowledge that I have gained through my various leadership roles, in order to work with other representatives and to improve the daily lives of Moody students.</t>
   </si>
   <si>
     <t>Pierre Pfarr</t>
   </si>
   <si>
-    <t>Jan Ross Piedad</t>
+    <t>Add Water Bottle Filling Stations|||Make “Cappy’s Corner” compatible with Bevo Bucks|||Add more bike racks</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/6B6eLQL.jpg</t>
   </si>
   <si>
     <t>Economics and Chemistry</t>
   </si>
   <si>
-    <t>http://i.imgur.com/ZYC5mlu.jpg</t>
-  </si>
-  <si>
-    <t>Kerry Greathouse</t>
-  </si>
-  <si>
-    <t>My name is Kerry Greathouse, and I would be deeply honored if given the opportunity to serve as your University Wide Representative.  On campus I talk to people regularly about issues that affect them directly as a member of Students for Sensible Drug Policy; and as student of Botany I hope to incorporate science, compassion, and common sense into policies passed by this body.  I envision a campus that is safe, sustainable, and beautiful.|||As a cornerstone of my campaign, I hope to expand our University’s medical amnesty policy, so that if you or someone you care about requires medical attention for complications associated with a drug other than alcohol, they need not fear any legal repercussions.  This has had concrete effects at other universities in the form of actual saved lives.  I ask for your vote so that together we can make our campus a better place.</t>
-  </si>
-  <si>
-    <t>TSM Board College of Communication Representative - 1 open position</t>
-  </si>
-  <si>
-    <t>Alejandrina Guzman</t>
-  </si>
-  <si>
-    <t>University-Wide Representatie</t>
-  </si>
-  <si>
-    <t>Psychology/LAH</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/yZnVINd.jpg</t>
+    <t>Bronwyn Baker</t>
+  </si>
+  <si>
+    <t>Education Representative - 1 open position</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/5Nrrup3.jpg</t>
+  </si>
+  <si>
+    <t>Education Representative</t>
+  </si>
+  <si>
+    <t>Applied Learning &amp; Development</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/DTYMgEs.jpg</t>
+  </si>
+  <si>
+    <t>Edward A. Banner</t>
+  </si>
+  <si>
+    <t>Engineering Representatives - 3 open positions</t>
+  </si>
+  <si>
+    <t>Engineering Representative</t>
+  </si>
+  <si>
+    <t>Petroleum Engineering</t>
+  </si>
+  <si>
+    <t>Fellow Engineers,|||My name is Edward Banner, and I am a junior Petroleum Engineering major currently running for reelection to continue representing you all on the Student Government Assembly.  Over this past year, I have witnessed the power of student voice, and its direct impact on UTSG and, most importantly, our ability as students to influence great change around the Forty Acres. To put it in engineering terms, if something is broken, we come together and fix it. As YOUR Engineering Representative, this is my priority—to continue transforming your ideas, your concerns, and your opinions into reality. Tell me what it is you’re thinking, and I can promise you it will be heard.|||We’re engineers—we don’t recognize gray areas. If something is wrong, IT’S WRONG. My promise to you is that I will make it right.</t>
+  </si>
+  <si>
+    <t>Chandler Brockman</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/VO3E1WD.jpg</t>
+  </si>
+  <si>
+    <t>Chemical Engineering</t>
+  </si>
+  <si>
+    <t>Hey guys! I’m Chandler Brockman, a first year Chemical Engineering major. I am running for Engineering Representative. I was involved in Student Government this past semester through Longhorn Legislative Aides and hoping to represent Cockrell in the assembly this upcoming year. I am really looking to increase campus branding, increasing UT spirit through banners, posters, and decorations so we can all celebrate being Longhorns. I am hoping to work with the engineering school and its students to help achieve their ideas and voice their concerns. I am also looking to improve the lack of communication between the students of the engineering school and Student Government. Many students in the engineering school are not involved in Student Government and I am looking to change that.</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/CBrock14</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/bpH2ssz.jpg</t>
+  </si>
+  <si>
+    <t>Joshua Richardson</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/MpEAEQu.jpg</t>
+  </si>
+  <si>
+    <t>Electrical and Computer Engineering</t>
+  </si>
+  <si>
+    <t>When it comes to visions for the engineering student body, I cannot say that I have some grand overarching scheme that I wish to begin implementing right off the bat. Generally, if engineers have a problem, I think it’s safe to say we just hunker down and push through it, willing to persist through the challenge, be it large or small. That being said, I do have a few ideas involving implementation of better systems to make students more aware of help and resources which often fly under the radar; primarily, however, my goal is to have as tight of a feedback loop with students as possible, bringing their ideas to the table, and even if solutions to them are not possible through means which I have access to, at least bringing plausible issues to light.</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/joshua.richardson.1293</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/oAYEnq5.jpg</t>
+  </si>
+  <si>
+    <t>Gregory Ross</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/qEeljdj.jpg</t>
+  </si>
+  <si>
+    <t>Plan II/Chemical Engineering</t>
+  </si>
+  <si>
+    <t>Hello. I’m Gregory Ross and I am double majoring in Chemical Engineering and Plan II here at the University of Texas. I would be grateful to serve you and the engineering school in its mission to become the universally acclaimed best public engineering school in the country. There are a variety of programs that I have already started to work on as an At-Large Representative for the Senate of College Councils and would continue to implement with the help of Student Government.|||As your engineering representative, my priorities would be to increase undergraduate research opportunities by working to expand FRI to Cockrell, to improve the brand and voice of engineering students within the university, and to increase the ease of access to engineering resources through an improved, homogenous digital calendar for all engineering departments.|||I hope I can count on your votes and help address your concerns, go longhorns!</t>
+  </si>
+  <si>
+    <t>Expand a dedicated engineering undergraduate research program|||Use Student Government to increase momentum and support for SEC and Senate's Policy goals|||Improve engineering student resources (ie. a More Functional Calendar on Cockrell's website)|||Assertively represent the interests of engineers on the Forty Acres|||Work to expand and improve SG Listens|||Implement accountability standards for engineering representatives so you can expect actual policy to be created and carried through</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/kZE5EUz.jpg</t>
+  </si>
+  <si>
+    <t>Lauren Gusman</t>
+  </si>
+  <si>
+    <t>Fine Arts Representative - 1 open position</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/sW7QDHS.jpg</t>
+  </si>
+  <si>
+    <t>Fine Arts Representative</t>
+  </si>
+  <si>
+    <t>Vocal performance/music</t>
+  </si>
+  <si>
+    <t>Hey Fine Arts Longhorns! My name is Lauren Gusman and I am a Vocal Performance major in the Butler School of Music. I am running to be your Fine Arts Representative for the upcoming school year. Although I am a first year, I have found my though some wonderful leadership programs such as the University Leadership Network, Gateway Scholars, The Multicultural Leadership Institute, Phi Beta Chi (A Professional Women’s Business Organization), and I am the Vice President of Music in the Fine Arts Council. Through these programs, I have learned to strive for excellence, exemplify team building, and gain character. I have noticed as I have been here, as far as the Fine Arts college goes, we have fallen behind. We’ve lost some of our best programs from all three of our departments. University wide, this was a loss. While I can’t say I can bring those back, I do plan on having a come back. Given this, it’s time we come together as a college to work together to overcome our losses. As the Student Government Fine Arts Representative, my visions for us is to communicate. Through our commeradery and our basic need of creativity, I plan on building more programs and clubs inside our college based on what our fine arts student body wants as a whole. From academics to performances to art galleries, I care about our image. I don’t just want to be the voice for all of us, I want to be the voice y’all choose to represent who we are and what we can do. Feel free to ask me any questions in person or by email: laurenagusman@utexas.edu.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/jwumTMs.jpg</t>
+  </si>
+  <si>
+    <t>Eric Enrique Borja</t>
+  </si>
+  <si>
+    <t>Graduate School Representatives - 4 open positions</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/bsfZSko.jpg</t>
+  </si>
+  <si>
+    <t>Graduate School Representative</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Graduate student</t>
+  </si>
+  <si>
+    <t>Hello Longhorns! My name is Eric Enrique Borja, and I am a fourth-year graduate student in the Sociology department. As a graduate student representative my goal is to create a more inclusive campus. Specifically, I hope to do this in three particular ways. First, to hold UT-Austin student organizations accountable when they host events found to be alienating and disrespectful to their fellow Longhorns, their culture and/or their life experiences. Second, fighting to maintain in-state tuition for our undocumented students. Finally, by expanding the UT-shuttle system, which in the time I’ve been here, has been reduced and no longer services parts of Austin where housing is cheaper. Furthermore, as a graduate representative I will be sure to work closely with both undergraduate and graduate student organizations to ensure these policies are created and implemented properly.</t>
+  </si>
+  <si>
+    <t>In-state tuition for our undocumented students.|||Expansion of the UT-Shuttle system.|||Every year I have been a student here something blatantly racist has occurred on campus - first was the bleach filled water balloons in West Campus; second was the "Catch an Illegal Alien" game put on by the Young Conservatives; and finally, every year there seems to be some kind of racist themed party put on my student organizations such as the Fraternities and Sororities - and the response by UT administration has essentially been nothing. So a large part of why I decided to be part of Student Government is that I am tired of all of this and I want to hold UT administration accountable.|||To ensure undergraduate students do not have to pay for WiFi or Internet access.|||To expand the bandwidth allotted to undergraduates.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/4P4FF92.jpg</t>
+  </si>
+  <si>
+    <t>Katie Jensen</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/v5zpxJg.jpg</t>
+  </si>
+  <si>
+    <t>My name is Katie Jensen, and this is my fourth year here at UT as a Sociology PhD student. Over the last ten years, I have worked to promote social justice within the university system and beyond. I've done this work in a variety of venues - from student organizations and volunteer work, to lobbying and teaching. Now it's time to spur that change through UT Student Government. I want to participate in making UT the best, most supportive and most welcoming place possible for its student body -- graduate and undergraduate alike.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/NPWQo3A.jpg</t>
+  </si>
+  <si>
+    <t>Ahmed Khawaja</t>
+  </si>
+  <si>
+    <t>Computer Engineering</t>
+  </si>
+  <si>
+    <t>Second Year Graduate Student</t>
+  </si>
+  <si>
+    <t>My name is Ahmed Khawaja and I will be running for one of the graduate seats in student government. I am a second year graduate student hoping to earn my PhD in Computer Architecture. I have quickly come to love the University of Texas at Austin and feel it is my duty to contribute back in any way that I can to my new student community. I want to ensure that our campus values student safety, equality, and provides a welcoming atmosphere for all. With your vote I would like to continue the great traditions of this university while elevating our greatness to the next level. A vote for me is a vote for a better UT!</t>
+  </si>
+  <si>
+    <t>Equality for diverse students across campus|||More Inclusionary atmosphere|||Increase Religious tolerance and cooperation|||Getting students more engaged in student government|||Giving all students a voice on campus, especially those who feel unheard</t>
+  </si>
+  <si>
+    <t>James Che</t>
+  </si>
+  <si>
+    <t>Geosciences Representative - 1 open position</t>
+  </si>
+  <si>
+    <t>Geosciences Representative</t>
+  </si>
+  <si>
+    <t>Geological Sciences</t>
+  </si>
+  <si>
+    <t>Hi, my name is James Che, and I am running to be your next Student Government representative.|||This year I worked as the Philanthropy Chair of the Undergraduate Geological Society in initiatives to clean our campus and environment, promote underrepresented minority involvement in the geosciences, and organize food drives with the Capital Area Food Bank. Throughout the year, I have been learning from the best, our incumbent student government representative Jessica Sherman.|||As your student government representative, I am committed to projecting your voice both within our college and across campus. I promise to prioritize student safety and fiscal responsibility and sustain the wonderful community we have here at the Jackson School.|||At the core, I’m just really down to earth, and I believe that our voices have the potential to be tectonic.</t>
+  </si>
+  <si>
+    <t>Kian Maharaj</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/p48G8er.jpg</t>
+  </si>
+  <si>
+    <t>I'm running to facilitate the voicing of student complaints from within the JSG to the broader university; the geosciences school is relatively small and insular. While this makes for a nice community, I think JSG issues sometimes go unnoticed.</t>
+  </si>
+  <si>
+    <t>I'd like to get UTPD's opinion on the way bikes are chained to the railings between JGB and EPS and whether more bike racks are needed on the East Mall.|||Internal major transfers within the JSG are notoriously difficult- as is transferring out past a certain credit hour point, apparently. Amending that would serve everyone well.|||Geology is pretty gneiss.</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/chuchukian</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/HIzDt5i.jpg</t>
+  </si>
+  <si>
+    <t>Kevin Toth</t>
   </si>
   <si>
     <t>Samantha Grasso</t>
   </si>
   <si>
+    <t>Daniel Hung</t>
+  </si>
+  <si>
+    <t>Law Representative - 1 open position</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/yXmaPgc.jpg</t>
+  </si>
+  <si>
     <t>University Unions Board of Directors - 2 open positions</t>
   </si>
   <si>
-    <t>My name is Alejandrina Guzman and I am a second year Liberal Arts Honors Psychology major. I am involved in various groups on campus, however, that is not the focus. I am tired of having a majority of Student Government represent a very narrow portion of this campus. I hope to be active in voicing the unheard opinion and be inclusive towards all walks of life. I plan to increase accessibility awareness on campus, take priority on race issues, and make the culture of Student Government more approachable and down to earth in the eyes of the student body. As your University Wide Representative, I would prioritize open dialogue that draws from diverse opinions and foster accessibility for all students on each corner of the Forty Acres, from the entrances of every building to the Student Government assembly room.</t>
+    <t>Law Representative</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>First-year</t>
   </si>
   <si>
     <t>http://i.imgur.com/P5ztiyk.jpg</t>
   </si>
   <si>
-    <t>Conlee Hamlin</t>
-  </si>
-  <si>
-    <t>Place 1, Moody College of Communication</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/VknNwVv.jpg</t>
-  </si>
-  <si>
-    <t>Journalism</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/janjourn</t>
+    <t>I am running for SG Representative for the Law School, because I believe in serving others. Having attended UT since 2010 and graduating last year with a B.A. in Plan II Honors, Government Honors, History, and Asian Studies, I have more experience on campus than nearly all the other candidates. In addition, I have previous experience in SG as the Director of Students with Disabilities Agency from 2011-2012 and serving on the Parking &amp; Traffic Appeals Committee from 2013-2014. As SG Rep, I would be representing a population of UT students that haven’t been represented in SG in the last few years and will work towards increasing law students’ involvement with the rest of the campus. In this capacity, I will also be able to address any concerns law students may have through passing resolutions and working with the different university administrations.</t>
+  </si>
+  <si>
+    <t>Advocate for keeping tuition low|||Promote transparency in SG and UT|||Reach out to groups historically neglected by SG|||Connect law students with the rest of the University|||Push for abandoning affirmative action|||Ensure fair and public debates on resolutions|||Educate students on the roles of SG and UT|||Work towards making UT safer|||Make UT a more enjoyable place for everyone|||Foster peaceful and open dialogue on contentious issues</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/lnTnc1R.jpg</t>
   </si>
   <si>
     <t>Help build a stronger and safer University Unions|||Provide more resources for students|||Develop transparency between the Unions and student organizations</t>
@@ -609,190 +1116,148 @@
     <t>http://www.twitter.com/samjgrasso</t>
   </si>
   <si>
-    <t>Nutrition</t>
-  </si>
-  <si>
-    <t>Freshman</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/CKfHf8T.jpg</t>
+    <t>Mohammed Nabulsi</t>
+  </si>
+  <si>
+    <t>http://www.samanthajgrasso.com</t>
+  </si>
+  <si>
+    <t>Hello, Longhorns! My name is Mohammed Nabulsi and I am a first-year law student running for the School of Law representative position. I attended UT Austin for undergrad and have been heavily involved in community and student organizing at UT. My goals as a representative for the School of Law is to ensure that the every day needs of law students as well as students in general are met. I will accomplish these goals by working closely with individual students, student groups, administrators, and staff.|||My ideas include: ensuring the safety of our students on campus and as they leave campus (e.g., better lighting), fixing a number of the structural and building issues on campus (e.g., installment of traction for slippery steps, better bike racks, more comfortable chairs, more charging stations, etc.), and finally more student involvement in curriculum development and class options (e.g., interdisciplinary work with various departments). I am always open to hearing more suggestions from you for how we can improve our law school and our campus in general!|||If you have any questions or concerns, feel free to reach me at m_nabulsi@utexas.edu. I hope to receive your vote on March 4th and 5th. And remember, say “Mo” to the status quo! Thank you!</t>
+  </si>
+  <si>
+    <t>Jason Carr</t>
+  </si>
+  <si>
+    <t>Liberal Arts Representatives - 4 open positions</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/4A5rZxi.jpg</t>
+  </si>
+  <si>
+    <t>Liberal Arts Representative</t>
+  </si>
+  <si>
+    <t>Hello Longhorns, my name is Jason Carr. As a sophomore Liberal Arts Economics Major I want to help lead COLA to new heights as a representative. I value relationships with my peers and will strive to develop good relationships between the students and faculty.|||I want to work with other students to listen and act upon their concerns, so I encourage every student to reach out to me with any questions, comments, or concerns that they may have. My email is jasoncarr96@gmail.com</t>
   </si>
   <si>
     <t>http://i.imgur.com/1xZ7rNq.jpg</t>
   </si>
   <si>
-    <t>Pauline Berens</t>
+    <t>Provide COLA students the opportunity to listen to guest speakers specific to their major|||Improve the student to teacher relationships through surveys and suggestions of both parties|||Increase the overall satisfaction of each students relationships with their Major|||Create rewards financially for Liberal Arts students for their academic achievements</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/nhGON1X.jpg</t>
   </si>
   <si>
     <t>Tylee Milan</t>
   </si>
   <si>
-    <t>TSM Board At-Large - 2 open positions</t>
-  </si>
-  <si>
-    <t>Hey Longhorns! My name is Conlee and I am running for University Wide Representative! I have a ton of great ideas to make UT a better campus for everyone such as: more campus branding so visitors know when they have entered Longhorn territory, more police poles in west campus for all those late night walks home from the PCL, and on-campus tailgating so we can enjoy our football games even more than we already do! These are where I would like to start, but there are more plenty more where those came from! I would LOVE to be your U-wide Rep so vote for me and together we can make UT an even better place! Hook’em!</t>
-  </si>
-  <si>
-    <t>At-Large Seat</t>
+    <t>James Comer</t>
   </si>
   <si>
     <t>http://i.imgur.com/LWqr3LK.jpg</t>
   </si>
   <si>
-    <t>http://i.imgur.com/yG9YfMp.jpg</t>
-  </si>
-  <si>
-    <t>Plan II and Biomedical Engineering</t>
-  </si>
-  <si>
-    <t>Amil Malik</t>
+    <t>http://i.imgur.com/8ulJMSQ.jpg</t>
   </si>
   <si>
     <t>Supply Chain Management</t>
   </si>
   <si>
-    <t>Kevin Helgren</t>
-  </si>
-  <si>
-    <t>Plan II, Business Honors and Finance</t>
+    <t>Hello! My name is James Comer and I’m a sophomore economics major. I am running because I want to make a positive change here at UT, specifically COLA. This is my dream school, and I love it here! I hope I can contribute and give back to this community which has already given me so much!|||I think it’s too cold in most study areas, and I plan on developing an app that lets students vote on the temperature of their building. I plan on working with New Student Services to develop better orientation policy aimed at getting international and transfer students more connected and involved. I also want to unify the COLA community by working with Provost’s office to admit more students who want to stay in their major.</t>
+  </si>
+  <si>
+    <t>Better temperatures in study areas!|||Improving life for international and transfer students|||Building a culture of unity in COLA</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/VoteJamesComerLARep</t>
   </si>
   <si>
     <t>I previously served on the University Unions Board of Directors my sophomore year. Thus, I intend to utilize my prior knowledge of past issues and strengths to continue improving University Unions as a whole.|||I intend to continue working on the re-branding of Campus Events and Entertainment through various platforms that appeal specifically to students.|||I will always keep the student body's interests in high consideration when evaluating the University Union's future developmental opportunities on campus.|||I plan to exhaust all resources to stay informed about relevant student issues and use this knowledge to offer innovative solutions and ideas to the board.</t>
   </si>
   <si>
-    <t>McKay Proctor</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/xqJuwgC.jpg</t>
+    <t>http://i.imgur.com/bL8vKNl.jpg</t>
   </si>
   <si>
     <t>http://www.Facebook.com/tyleem</t>
   </si>
   <si>
-    <t>http://i.imgur.com/LspUJEn.jpg</t>
+    <t>Tanner Long</t>
   </si>
   <si>
     <t>http://i.imgur.com/hJbl9LB.jpg</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/7YEQoSf.jpg</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
     <t>Diana Padilla</t>
   </si>
   <si>
-    <t>Psychology/Neuroscience</t>
-  </si>
-  <si>
-    <t>English and Business Honors</t>
+    <t>Author Page URL</t>
   </si>
   <si>
     <t>Campus Events and Entertainment</t>
   </si>
   <si>
+    <t>Miles Hutson</t>
+  </si>
+  <si>
     <t>Campus Events and Entertainment President</t>
   </si>
   <si>
+    <t>Candidates page design, backend, landing page edits</t>
+  </si>
+  <si>
     <t>Mathematics</t>
   </si>
   <si>
-    <t>http://i.imgur.com/5HmBDV8.jpg</t>
-  </si>
-  <si>
-    <t>Hi, Longhorns! My name is Kevin Helgren and I’m a third-year neuroscience and psychology major from Austin, Texas. More importantly, though, I want to help YOU. As a University-Wide Representative, I plan on addressing a few key issues that I consider to be of importance to the Longhorn community. I hope to increase transparency between Student Government and the study body through monthly assemblies and an application for smart phones. I also plan on strengthening the Longhorn community by showcasing the talents and hard work of individuals and organizations across the 40 Acres, be it research in a laboratory or a multi-faceted performance. Lastly, I would like to bridge the gap between our university and the greater Austin area through mentoring programs and service projects. I don’t make empty promises; and that’s a promise. We’re all Longhorns – let’s help change the world together!</t>
-  </si>
-  <si>
-    <t>Increase transparency between Student Government and student body (see statement for specifics)|||Strengthen Longhorn community (see statement for specifics)|||Bridge the gap between the university and our city (see statement for specifics)|||Tend to parking options on campus for commuters in light of recent shortages and construction|||Generate more on-campus printing options for students across colleges and majors|||Improve road conditions in West Campus|||Meal plan for off-campus students</t>
-  </si>
-  <si>
-    <t>http://www.facebook.com/KevinHelgren</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/VfI5bt3.jpg</t>
-  </si>
-  <si>
-    <t>Ryan Lim</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/jMur0Lk.jpg</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Hi I’m Ryan Lim and I’m here to challenge the perception on campus of what student government means. As the social chair for the Pi Kappa Phi Fraternity, I’ve learned some things. First, THE University of Texas has an astonishing amount of great people with different beliefs and ideas that should be embraced. Second, simply how to have fun. Though we all know that the most important reason to go to college is to get an education, that doesn’t mean college shouldn’t be fun. Though our Student Government has done great work for our university, do you feel that they are representative of you? You may see me in Professor Bonevac’s class or at Gregory, but you can also catch me at Blind Pig or at Roundup. Government should represent you, plain and simple. I believe that I am for the people and soon to be by the people.</t>
-  </si>
-  <si>
-    <t>Represent the UT community at large, with emphasis on those felt disenfranchised by the current system|||Act only on behalf of the Student population|||Oppose any legislation that infringes on the rights of Students|||Endeavor to bring West Campus back to its former Glory|||Maintain the notion that UT is the best place to attend college.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/10YPSXO.jpg</t>
-  </si>
-  <si>
-    <t>Richard Pearce</t>
-  </si>
-  <si>
-    <t>No statement.</t>
-  </si>
-  <si>
-    <t>Spencer Schredder</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/ERJDIIw.jpg</t>
-  </si>
-  <si>
-    <t>International Relations &amp; Global Studies</t>
-  </si>
-  <si>
-    <t>The University of Texas Community,|||Every time I step onto the 40 acres, I am filled with an amazing sense of pride, and am reminded about how blessed I am to attend the greatest university in the world. Nonetheless, even the best can get better. My name is Spencer Schredder, and I am running for University Wide Representative.|||I believe there are simple steps that can be taken to greatly improve daily student life. My platform is comprised of common sense reforms and impactful new policy initiatives that will positively impact the entirety of the UT community.|||It would be a great honor to represent my peers in the Student Government, and I look forward to hearing from and meeting more of my fellow longhorns in the coming weeks.|||Hook ‘Em,|||Spencer Schredder</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Identify inefficiently used student funds, and redistribute in a manner that would directly improve daily student life at UT, such as bike lanes on campus and a 24/7 Student Activity Center.|||Reenergize school spirit by overhauling athletic ticketing policies, including section- based seating for football, and an expanded lower bowl student section for basketball.|||Assist students with financial need by making Bevo Bucks more widely accepted across campus, and eliminating “Pay-For-Bandwidth” WIFI by providing data for students through their existing student fees.|||Integrate our student body through cross-cultural events that bring about an understanding of our diverse student groups to create a safe climate for all.|||Lobby the Metro system to provide more consistent and reliable student transportation to and from campus.|||Increase transparency between students and the University’s governing bodies, while implementing new strategies that integrate student opinion as a facet of the decision making process for university policy creation.</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/Schredder4UTSG</t>
-  </si>
-  <si>
-    <t>Author Page URL</t>
-  </si>
-  <si>
-    <t>Miles Hutson</t>
-  </si>
-  <si>
-    <t>http://www.SpencerSchredder.com</t>
-  </si>
-  <si>
-    <t>Candidates page design, backend, landing page edits</t>
-  </si>
-  <si>
     <t>http://www.dailytexanonline.com/author/miles-hutson</t>
   </si>
   <si>
+    <t>My name is Tanner Long and I’m running for reelection to be one of four representatives for the College of Liberal Arts. This past year, I’ve worked on numerous issues ranging from student input regarding the West Campus sound ordinance to more Monday-Wednesday classes to keeping the FAC open 24/7. Although my term is nearing the end, I still have not accomplished all the goals I’ve sought. Another year of being a Liberal Arts Representative will allow me to pursue more issues and provide you all with an experienced voice in the assembly. I will continue to focus on improving student engagement, voicing concerns of students to Austin City Hall, the Texas State Legislature and the U.S. Congress, and adequately represent the opinion of Liberal Arts students.</t>
+  </si>
+  <si>
+    <t>Digital student IDs for quicker entry into Gregory and sporting events. Also using the digital IDs to pay for meals on campus.|||A visual course registration system that displays a weekly view and the creation of a class shopping cart that allows for easier registration.|||Continuing work for upper-division Monday-Wednesday classes campus-wide.|||Continuing the increase for civic engagement not only with local, state and federal government, but with Student Government also.</t>
+  </si>
+  <si>
     <t>Alan Ma</t>
   </si>
   <si>
+    <t>http://www.twitter.com/TannerLLong</t>
+  </si>
+  <si>
     <t>Landing page</t>
   </si>
   <si>
     <t>http://www.dailytexanonline.com/author/alan-ma</t>
   </si>
   <si>
+    <t>http://www.TannerLong.com</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/6vbnjnM.jpg</t>
+  </si>
+  <si>
     <t>Riley Brands</t>
   </si>
   <si>
-    <t>http://i.imgur.com/YtLktVg.jpg</t>
-  </si>
-  <si>
     <t>Campaign information</t>
   </si>
   <si>
+    <t>Shawn A. Lopez</t>
+  </si>
+  <si>
     <t>http://www.dailytexanonline.com/author/riley-brands</t>
   </si>
   <si>
-    <t>Sinan Shaibani</t>
+    <t>http://i.imgur.com/3W9MWON.jpg</t>
   </si>
   <si>
     <t>Amy Zhang</t>
@@ -801,7 +1266,7 @@
     <t>Photo editing</t>
   </si>
   <si>
-    <t>http://i.imgur.com/BwSzhcB.jpg</t>
+    <t>History</t>
   </si>
   <si>
     <t>http://www.dailytexanonline.com/author/amy-zhang</t>
@@ -810,450 +1275,216 @@
     <t>Lauren Ussery</t>
   </si>
   <si>
-    <t>Middle Eastern Studies</t>
+    <t>Hello, my name is Shawn Lopez and I’m running for college of liberal arts representative. My campaign will be run on a platform of honest initiative in which I hold the goal of bringing to light all the issues concerning students within the COLA; these issues range from affordability to assessment challenges that I will personally look to improve if elected to a term as your representative. The solutions are clear and can be instituted through my advocacy if elected, but only if you are willing to follow me through and help me accomplish what needs to be done in the process. As I will show in my campaign, I am here as a voice through which yours will be spoken and your grievances brought to light. I am your candidate and hope to be your future voice in student government.</t>
+  </si>
+  <si>
+    <t>College affordability|||Increase in student study resources|||Advocate of Student safety|||Fight for student rights|||Make student government more accessible to the student body</t>
   </si>
   <si>
     <t>http://www.dailytexanonline.com/author/lauren-ussery</t>
   </si>
   <si>
-    <t>There is no reason why the majority of students who pay tuition do not know where that money goes. There is no reason why student housing in west campus should be so expensive. Since my first day at UT, I’ve worked on issues concerning social justice &amp; campus life. I did this in a variety of ways, the only approach left is student government. I am prepared to take on this responsibility to serve a community that’s given me an incredible college experience. Let us work together and make the ideal real. Peace &amp; love!</t>
+    <t>http://i.imgur.com/8WSbbzx.jpg</t>
   </si>
   <si>
     <t>Amanda Voeller</t>
   </si>
   <si>
+    <t>Connor Madden</t>
+  </si>
+  <si>
     <t>http://www.dailytexanonline.com/author/amanda-voeller</t>
   </si>
   <si>
-    <t>Safer environment that does not tolerate any form of violence whatsoever (sexual violence is a major issue I plan to confront).|||Affordable housing &amp; easier job application process for students.|||More student involvement in SG &amp; financial transparency from UT administration.|||Work towards a welcoming environment to all students regardless of our differences, one that caters to our needs &amp; concerns.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/Zr070yJ.jpg</t>
-  </si>
-  <si>
-    <t>Santiago Rosales</t>
-  </si>
-  <si>
-    <t>Finance and Economics</t>
-  </si>
-  <si>
-    <t>Hello, I am Santiago Rosales. Five months ago, I ran for First-Year Representative. Upon election, the freshman class and I commenced a four-year project for more freshman involvement in Student Government, scholarship transparency, and improvements in UT’s notoriety. In five months, I explored the bureaucracy, researched Student Governments across the country, and connected with students and administrators across campus.|||I invite the university to partner with me on this four-year project. Let’s transform the Forty Acres. Vote Santiago Rosales for University-Wide Representative. Thanks and Hook’Em!</t>
-  </si>
-  <si>
-    <t>Creating the Freshman 15, fifteen initiatives to solidify freshmen involvement in Student Government|||Integrating smart-data strategies to connect students, Student Government, and administrators|||Rekindling Student Government with the type of passion that created a 24/5 PCL and the SAC.</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/renesantyago</t>
-  </si>
-  <si>
-    <t>http://www.facebook.com/events/1568179153429132/</t>
-  </si>
-  <si>
-    <t>Sean Wolff</t>
-  </si>
-  <si>
-    <t>Valentina Rodriguez</t>
-  </si>
-  <si>
-    <t>College Representatives</t>
-  </si>
-  <si>
-    <t>Architecture Representative - 1 open position</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/qFeakEm.jpg</t>
-  </si>
-  <si>
-    <t>Architecture Representative</t>
-  </si>
-  <si>
-    <t>Architecture</t>
-  </si>
-  <si>
-    <t>As a candidate for Architecture Representative, I wish to bring attention to increasing recycling within the School of Architecture, and the campus as a whole. Not only will I continue to represent the undergraduate student population, but the female and Hispanic demographics as well, thus manifesting the opinions of prominent minority groups within the Architecture community. I will also focus on increasing school spirit within the School of Architecture, and bring more transparency between Student Government and Architecture students.</t>
-  </si>
-  <si>
-    <t>Continue to bring school-wide awareness to the voice and concerns of architecture students|||Emphasize the importance of recycling trash and the use of sustainable design within campus|||Celebrate the events and accomplishments of the School of Architecture with the rest of the university|||Increase school spirit and school pride through methods of beautifying campus and continuing campus traditions</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/rY0jLnh.jpg</t>
-  </si>
-  <si>
-    <t>Dylan Adkins</t>
-  </si>
-  <si>
-    <t>Business Representatives - 3 open positions</t>
-  </si>
-  <si>
-    <t>Business Representative</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Hello, I am Dylan Adkins, a candidate to be a representative in the Student Government assembly for the McCombs School of Business during the 2015-2016 school year. I am a first-year here at McCombs and I am currently active in various organizations including the Undergraduate Business Council where I serve as the elected voice of the Class of 2018. I also am involved with Student Government as a Longhorn Legislative Aide under the External Financial Director, the Freshman Leadership Organization, the Longhorn Run, and the Center for Sports Leadership and Innovation. I look to push for more interaction among faculty and students, more microwaves in the Atrium, and more resources for Career Services to pursue to help the overall well-being and career search for all McCombs students. I would be honored to serve as the voice of McCombs next year. Thank you for your time and consideration.</t>
-  </si>
-  <si>
-    <t>Ronnie Dasgupta</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/bGRP8wV.jpg</t>
-  </si>
-  <si>
-    <t>Hey, Longhorns! I’m Ronnie Dasgupta, a freshman from Austin, Texas running for McCombs representative. Growing up in Austin, I’ve been a Longhorn fan all my life and hold the values this University embodies close to my heart. UT is known for its rich tradition, prestigious academics, and vibrant student life, but there always improvements to be made. As a student in McCombs often times it is difficult to stay connected with everything going on within the business school as well on campus as a whole. My goal as McCombs representative is to bridge the disconnect within the school by acting an effective liaison between Student Government and the business school. Tradition is important to me and I hope to work with organizations like the Business Council to promote events such as Rivals Week. Together we can make McCombs the best that it can be. Hook ‘em!</t>
-  </si>
-  <si>
-    <t>Promote UT's strong traditions by advertising events such as Rivals Week|||Bridging the disconnect between McCombs and Student Government by informing business students about legislation.|||Serving as an effective liaison between Student Government and McCombs to get business students issues addressed.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/Ih7cIKs.jpg</t>
-  </si>
-  <si>
-    <t>Ben Norton</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/jIm0cbk.jpg</t>
-  </si>
-  <si>
-    <t>Business Honors</t>
-  </si>
-  <si>
-    <t>If elected, I will represent the students of McCombs to the best of my ability. I will attend every meeting and work tirelessly to ensure that changes are made on campus that will benefit the students. One issue I am interested in looking into is the concept of free printing at McCombs. I strongly believe that would be very beneficial to McCombs students, especially those who do not have a constant stash of Bevo bucks on hand. I have several other ideas as to how student life for McCombs students can be improved, and if I am elected, I will do whatever it takes to make those changes a reality. I will always be willing to listen to ideas from students as to what they would like to see, and I am eager to have the ability to help them.</t>
-  </si>
-  <si>
-    <t>Improve McCombs Resources – Bring back personal scanners with McCombs computers|||McCombs Listens – Add a link to the McCombs website where McCombs students can submit ideas on how to improve both McCombs and UT as a whole|||Information Filtering – Create method for students to select the type of information they wish to receive regarding programs, networking events and internships|||McCombs on Your Phone – Begin developing a McCombs app that will give easy access to upcoming McCombs events, recruiting information and more|||Support McCombs Organizations – Work directly with McCombs organizations to ensure that they are provided with the resources they need to achieve their goals</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/0qfMK37.jpg</t>
-  </si>
-  <si>
-    <t>Micky Wolf</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/CRLLnza.jpg</t>
-  </si>
-  <si>
-    <t>Business Honors and Plan II</t>
-  </si>
-  <si>
-    <t>I am Micky Wolf, a San Antonio born Business Honors and Plan II major. I have led student government at every level since elementary school and loved UT for even longer. My past and current leadership experiences will help me best represent your interests and make a difference in SG.|||I will be an accessible representative and can be contacted with any questions, comments or concerns at mickywolf96@gmail.com.</t>
-  </si>
-  <si>
-    <t>Cross-College Collaboration - Create events and opportunities for McCombs students to collaborate on ideas (startup, extracurricular, and otherwise) with students from across campus.|||Increase Civic Engagement - Support the most impactful, innovative ideas for community service and plan McCombs/Campus-wide service projects.|||Poll the People - Use Google forms and online opens forums to understand the actual opinions of McCombs students on SG issues.|||Spotlight your Organization - Recognize an organization of the month that will receive SG support, my assistance, and positive publicity.|||Make Organization Knowledge more Accessible - Add Hornslink to the UT app and make it easier to find where you want to get involved.|||Increase Voting - Find out why many students don’t vote and create initiatives to get their voices heard.</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/mickywolf9</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/dntZcNF.jpg</t>
-  </si>
-  <si>
-    <t>Allison Ainsworth</t>
-  </si>
-  <si>
-    <t>Communication Representatives - 2 open positions</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/WeG3WMt.jpg</t>
-  </si>
-  <si>
-    <t>Communication Representative</t>
-  </si>
-  <si>
-    <t>Political Communication</t>
-  </si>
-  <si>
-    <t>Fellow communication students,|||As a first year Political Communication major, I am running to be one of two 2015-2016 Moody School of Communication Representatives in the UT Student Government. I am currently very involved in the Student Government as a First Year Representative and have been fortunate to make a lot of contacts to help improve life for UT students.|||If you have any questions or concerns email me at allisonrainsworth@gmail.com. Thanks for your support!</t>
-  </si>
-  <si>
-    <t>To listen to each of your individual concerns/needs and take action at the student government and administration levels to make improvements.|||To inform the rest of the student body of our many accomplishments within Moody, and identify resources to continue to improve our school.|||To work to create scholarships that apply specifically to Communication Students.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/HoTZ8nP.jpg</t>
-  </si>
-  <si>
-    <t>Brian Schwall</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/oFrRRdm.jpg</t>
-  </si>
-  <si>
-    <t>Corporate Communication Studies</t>
-  </si>
-  <si>
-    <t>Hello! My name is Brian Schwall, and I am a corporate communications student, from Plano, TX. Since being on the 40-acres, I have served in several leadership roles. I hope to use the knowledge that I have gained through my various leadership roles, in order to work with other representatives and to improve the daily lives of Moody students.</t>
-  </si>
-  <si>
-    <t>Add Water Bottle Filling Stations|||Make “Cappy’s Corner” compatible with Bevo Bucks|||Add more bike racks</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/6B6eLQL.jpg</t>
-  </si>
-  <si>
-    <t>Bronwyn Baker</t>
-  </si>
-  <si>
-    <t>Education Representative - 1 open position</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/5Nrrup3.jpg</t>
-  </si>
-  <si>
-    <t>Education Representative</t>
-  </si>
-  <si>
-    <t>Applied Learning &amp; Development</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/DTYMgEs.jpg</t>
-  </si>
-  <si>
-    <t>Edward A. Banner</t>
-  </si>
-  <si>
-    <t>Engineering Representatives - 3 open positions</t>
-  </si>
-  <si>
-    <t>Engineering Representative</t>
-  </si>
-  <si>
-    <t>Petroleum Engineering</t>
-  </si>
-  <si>
-    <t>Fellow Engineers,|||My name is Edward Banner, and I am a junior Petroleum Engineering major currently running for reelection to continue representing you all on the Student Government Assembly.  Over this past year, I have witnessed the power of student voice, and its direct impact on UTSG and, most importantly, our ability as students to influence great change around the Forty Acres. To put it in engineering terms, if something is broken, we come together and fix it. As YOUR Engineering Representative, this is my priority—to continue transforming your ideas, your concerns, and your opinions into reality. Tell me what it is you’re thinking, and I can promise you it will be heard.|||We’re engineers—we don’t recognize gray areas. If something is wrong, IT’S WRONG. My promise to you is that I will make it right.</t>
-  </si>
-  <si>
-    <t>Chandler Brockman</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/VO3E1WD.jpg</t>
-  </si>
-  <si>
-    <t>Chemical Engineering</t>
-  </si>
-  <si>
-    <t>Hey guys! I’m Chandler Brockman, a first year Chemical Engineering major. I am running for Engineering Representative. I was involved in Student Government this past semester through Longhorn Legislative Aides and hoping to represent Cockrell in the assembly this upcoming year. I am really looking to increase campus branding, increasing UT spirit through banners, posters, and decorations so we can all celebrate being Longhorns. I am hoping to work with the engineering school and its students to help achieve their ideas and voice their concerns. I am also looking to improve the lack of communication between the students of the engineering school and Student Government. Many students in the engineering school are not involved in Student Government and I am looking to change that.</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/CBrock14</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/bpH2ssz.jpg</t>
-  </si>
-  <si>
-    <t>Joshua Richardson</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/MpEAEQu.jpg</t>
-  </si>
-  <si>
-    <t>Electrical and Computer Engineering</t>
-  </si>
-  <si>
-    <t>When it comes to visions for the engineering student body, I cannot say that I have some grand overarching scheme that I wish to begin implementing right off the bat. Generally, if engineers have a problem, I think it’s safe to say we just hunker down and push through it, willing to persist through the challenge, be it large or small. That being said, I do have a few ideas involving implementation of better systems to make students more aware of help and resources which often fly under the radar; primarily, however, my goal is to have as tight of a feedback loop with students as possible, bringing their ideas to the table, and even if solutions to them are not possible through means which I have access to, at least bringing plausible issues to light.</t>
-  </si>
-  <si>
-    <t>http://www.facebook.com/joshua.richardson.1293</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/oAYEnq5.jpg</t>
-  </si>
-  <si>
-    <t>Gregory Ross</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/qEeljdj.jpg</t>
-  </si>
-  <si>
-    <t>Plan II/Chemical Engineering</t>
-  </si>
-  <si>
-    <t>Hello. I’m Gregory Ross and I am double majoring in Chemical Engineering and Plan II here at the University of Texas. I would be grateful to serve you and the engineering school in its mission to become the universally acclaimed best public engineering school in the country. There are a variety of programs that I have already started to work on as an At-Large Representative for the Senate of College Councils and would continue to implement with the help of Student Government.|||As your engineering representative, my priorities would be to increase undergraduate research opportunities by working to expand FRI to Cockrell, to improve the brand and voice of engineering students within the university, and to increase the ease of access to engineering resources through an improved, homogenous digital calendar for all engineering departments.|||I hope I can count on your votes and help address your concerns, go longhorns!</t>
-  </si>
-  <si>
-    <t>Expand a dedicated engineering undergraduate research program|||Use Student Government to increase momentum and support for SEC and Senate's Policy goals|||Improve engineering student resources (ie. a More Functional Calendar on Cockrell's website)|||Assertively represent the interests of engineers on the Forty Acres|||Work to expand and improve SG Listens|||Implement accountability standards for engineering representatives so you can expect actual policy to be created and carried through</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/kZE5EUz.jpg</t>
-  </si>
-  <si>
-    <t>Lauren Gusman</t>
-  </si>
-  <si>
-    <t>Fine Arts Representative - 1 open position</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/sW7QDHS.jpg</t>
-  </si>
-  <si>
-    <t>Fine Arts Representative</t>
-  </si>
-  <si>
-    <t>Vocal performance/music</t>
-  </si>
-  <si>
-    <t>Hey Fine Arts Longhorns! My name is Lauren Gusman and I am a Vocal Performance major in the Butler School of Music. I am running to be your Fine Arts Representative for the upcoming school year. Although I am a first year, I have found my though some wonderful leadership programs such as the University Leadership Network, Gateway Scholars, The Multicultural Leadership Institute, Phi Beta Chi (A Professional Women’s Business Organization), and I am the Vice President of Music in the Fine Arts Council. Through these programs, I have learned to strive for excellence, exemplify team building, and gain character. I have noticed as I have been here, as far as the Fine Arts college goes, we have fallen behind. We’ve lost some of our best programs from all three of our departments. University wide, this was a loss. While I can’t say I can bring those back, I do plan on having a come back. Given this, it’s time we come together as a college to work together to overcome our losses. As the Student Government Fine Arts Representative, my visions for us is to communicate. Through our commeradery and our basic need of creativity, I plan on building more programs and clubs inside our college based on what our fine arts student body wants as a whole. From academics to performances to art galleries, I care about our image. I don’t just want to be the voice for all of us, I want to be the voice y’all choose to represent who we are and what we can do. Feel free to ask me any questions in person or by email: laurenagusman@utexas.edu.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/jwumTMs.jpg</t>
-  </si>
-  <si>
-    <t>Eric Enrique Borja</t>
-  </si>
-  <si>
-    <t>Graduate School Representatives - 4 open positions</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/bsfZSko.jpg</t>
-  </si>
-  <si>
-    <t>Graduate School Representative</t>
-  </si>
-  <si>
-    <t>Sociology</t>
-  </si>
-  <si>
-    <t>Graduate student</t>
-  </si>
-  <si>
-    <t>Hello Longhorns! My name is Eric Enrique Borja, and I am a fourth-year graduate student in the Sociology department. As a graduate student representative my goal is to create a more inclusive campus. Specifically, I hope to do this in three particular ways. First, to hold UT-Austin student organizations accountable when they host events found to be alienating and disrespectful to their fellow Longhorns, their culture and/or their life experiences. Second, fighting to maintain in-state tuition for our undocumented students. Finally, by expanding the UT-shuttle system, which in the time I’ve been here, has been reduced and no longer services parts of Austin where housing is cheaper. Furthermore, as a graduate representative I will be sure to work closely with both undergraduate and graduate student organizations to ensure these policies are created and implemented properly.</t>
-  </si>
-  <si>
-    <t>In-state tuition for our undocumented students.|||Expansion of the UT-Shuttle system.|||Every year I have been a student here something blatantly racist has occurred on campus - first was the bleach filled water balloons in West Campus; second was the "Catch an Illegal Alien" game put on by the Young Conservatives; and finally, every year there seems to be some kind of racist themed party put on my student organizations such as the Fraternities and Sororities - and the response by UT administration has essentially been nothing. So a large part of why I decided to be part of Student Government is that I am tired of all of this and I want to hold UT administration accountable.|||To ensure undergraduate students do not have to pay for WiFi or Internet access.|||To expand the bandwidth allotted to undergraduates.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/4P4FF92.jpg</t>
-  </si>
-  <si>
-    <t>Katie Jensen</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/v5zpxJg.jpg</t>
-  </si>
-  <si>
-    <t>My name is Katie Jensen, and this is my fourth year here at UT as a Sociology PhD student. Over the last ten years, I have worked to promote social justice within the university system and beyond. I've done this work in a variety of venues - from student organizations and volunteer work, to lobbying and teaching. Now it's time to spur that change through UT Student Government. I want to participate in making UT the best, most supportive and most welcoming place possible for its student body -- graduate and undergraduate alike.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/NPWQo3A.jpg</t>
-  </si>
-  <si>
-    <t>Ahmed Khawaja</t>
-  </si>
-  <si>
-    <t>Computer Engineering</t>
-  </si>
-  <si>
-    <t>Second Year Graduate Student</t>
-  </si>
-  <si>
-    <t>My name is Ahmed Khawaja and I will be running for one of the graduate seats in student government. I am a second year graduate student hoping to earn my PhD in Computer Architecture. I have quickly come to love the University of Texas at Austin and feel it is my duty to contribute back in any way that I can to my new student community. I want to ensure that our campus values student safety, equality, and provides a welcoming atmosphere for all. With your vote I would like to continue the great traditions of this university while elevating our greatness to the next level. A vote for me is a vote for a better UT!</t>
-  </si>
-  <si>
-    <t>Equality for diverse students across campus|||More Inclusionary atmosphere|||Increase Religious tolerance and cooperation|||Getting students more engaged in student government|||Giving all students a voice on campus, especially those who feel unheard</t>
-  </si>
-  <si>
-    <t>James Che</t>
-  </si>
-  <si>
-    <t>Geosciences Representative - 1 open position</t>
-  </si>
-  <si>
-    <t>Geosciences Representative</t>
-  </si>
-  <si>
-    <t>Geological Sciences</t>
-  </si>
-  <si>
-    <t>Hi, my name is James Che, and I am running to be your next Student Government representative.|||This year I worked as the Philanthropy Chair of the Undergraduate Geological Society in initiatives to clean our campus and environment, promote underrepresented minority involvement in the geosciences, and organize food drives with the Capital Area Food Bank. Throughout the year, I have been learning from the best, our incumbent student government representative Jessica Sherman.|||As your student government representative, I am committed to projecting your voice both within our college and across campus. I promise to prioritize student safety and fiscal responsibility and sustain the wonderful community we have here at the Jackson School.|||At the core, I’m just really down to earth, and I believe that our voices have the potential to be tectonic.</t>
-  </si>
-  <si>
-    <t>Kian Maharaj</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/p48G8er.jpg</t>
-  </si>
-  <si>
-    <t>I'm running to facilitate the voicing of student complaints from within the JSG to the broader university; the geosciences school is relatively small and insular. While this makes for a nice community, I think JSG issues sometimes go unnoticed.</t>
-  </si>
-  <si>
-    <t>I'd like to get UTPD's opinion on the way bikes are chained to the railings between JGB and EPS and whether more bike racks are needed on the East Mall.|||Internal major transfers within the JSG are notoriously difficult- as is transferring out past a certain credit hour point, apparently. Amending that would serve everyone well.|||Geology is pretty gneiss.</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/chuchukian</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/HIzDt5i.jpg</t>
-  </si>
-  <si>
-    <t>Kevin Toth</t>
-  </si>
-  <si>
-    <t>Daniel Hung</t>
-  </si>
-  <si>
-    <t>Law Representative - 1 open position</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/yXmaPgc.jpg</t>
-  </si>
-  <si>
-    <t>Law Representative</t>
-  </si>
-  <si>
-    <t>Law</t>
-  </si>
-  <si>
-    <t>First-year</t>
-  </si>
-  <si>
-    <t>I am running for SG Representative for the Law School, because I believe in serving others. Having attended UT since 2010 and graduating last year with a B.A. in Plan II Honors, Government Honors, History, and Asian Studies, I have more experience on campus than nearly all the other candidates. In addition, I have previous experience in SG as the Director of Students with Disabilities Agency from 2011-2012 and serving on the Parking &amp; Traffic Appeals Committee from 2013-2014. As SG Rep, I would be representing a population of UT students that haven’t been represented in SG in the last few years and will work towards increasing law students’ involvement with the rest of the campus. In this capacity, I will also be able to address any concerns law students may have through passing resolutions and working with the different university administrations.</t>
-  </si>
-  <si>
-    <t>Advocate for keeping tuition low|||Promote transparency in SG and UT|||Reach out to groups historically neglected by SG|||Connect law students with the rest of the University|||Push for abandoning affirmative action|||Ensure fair and public debates on resolutions|||Educate students on the roles of SG and UT|||Work towards making UT safer|||Make UT a more enjoyable place for everyone|||Foster peaceful and open dialogue on contentious issues</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/lnTnc1R.jpg</t>
-  </si>
-  <si>
-    <t>Mohammed Nabulsi</t>
-  </si>
-  <si>
-    <t>Hello, Longhorns! My name is Mohammed Nabulsi and I am a first-year law student running for the School of Law representative position. I attended UT Austin for undergrad and have been heavily involved in community and student organizing at UT. My goals as a representative for the School of Law is to ensure that the every day needs of law students as well as students in general are met. I will accomplish these goals by working closely with individual students, student groups, administrators, and staff.|||My ideas include: ensuring the safety of our students on campus and as they leave campus (e.g., better lighting), fixing a number of the structural and building issues on campus (e.g., installment of traction for slippery steps, better bike racks, more comfortable chairs, more charging stations, etc.), and finally more student involvement in curriculum development and class options (e.g., interdisciplinary work with various departments). I am always open to hearing more suggestions from you for how we can improve our law school and our campus in general!|||If you have any questions or concerns, feel free to reach me at m_nabulsi@utexas.edu. I hope to receive your vote on March 4th and 5th. And remember, say “Mo” to the status quo! Thank you!</t>
-  </si>
-  <si>
-    <t>Jason Carr</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representatives - 4 open positions</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/4A5rZxi.jpg</t>
-  </si>
-  <si>
-    <t>Liberal Arts Representative</t>
+    <t>http://i.imgur.com/djXmdkW.jpg</t>
+  </si>
+  <si>
+    <t>Plan II and Business</t>
+  </si>
+  <si>
+    <t>My name is Connor Madden. As your CLA Representative I would focus on:|||CIVIC ENGAGEMENT- providing students the opportunity to register to vote at orientation. During orientation or in the weeks following move-in, giving students opportunities to learn about issues relevant to them.|||ORIENTATION/PRE-CAMPUS EXPERIENCE- incorporating campus traditions and spirit events into the existing academic orientation curriculum.|||EVENT ENGAGEMENT AND STUDENT GROUPS- Supporting and offering resources to the ongoing effort to establish a University-Wide Tailgate prior to home football games.|||I love this university and would cherish the opportunity to serve my fellow students in this capacity. Thank you for voting and Hook ‘Em Horns!</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/votemadden</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/connor.madden.73</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/ThhoMaY.jpg</t>
+  </si>
+  <si>
+    <t>Jenny McGinty</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/cvOsqmm.jpg</t>
+  </si>
+  <si>
+    <t>Plan II</t>
+  </si>
+  <si>
+    <t>Hey COLA! My name is Jenny McGinty, and I’m running to be your representative in Student Government. I’m a freshman double major in Plan II Honors and International Relations &amp; Global Studies. As a first-year student at UT, I’ve been able to enjoy a fresh new perspective on the numerous opportunities that are presented to students.</t>
+  </si>
+  <si>
+    <t>Create a liberal arts identity among students to better relay interests and create pride within our college.|||Help create a better mentorship between academic-advisors and students to better inform them of internships, continuing scholarships, and organizations on campus that correlate with their interests.|||Work to break down campus into a smaller community for students to be aware of opportunities relevant to them, in order to have a thriving social and academic life.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/pAxdA7g.jpg</t>
+  </si>
+  <si>
+    <t>Sammy Minkowitz</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/yRRVCBJ.jpg</t>
+  </si>
+  <si>
+    <t>Hi! I’m Sammy Minkowitz and running to be a Liberal Arts representative with three main goals:|||1. To make school more fun. I plan to bring moon bounces to campus a couple times a year, open a campus pinkberry, host more puppies on campus, and call Tiff’s to bring cookies.|||2. I want everything to be made easier. We need to improve the UT app, strengthen campus wifi, encourage the SAC to be open 24/7, and get extra computer charges for students to use in popular study areas.|||3. The classroom technology needs to be simpler. All professors should use canvas, no more blackboard. We should not have to keep track of clickers, tophat, quest, sapling, and other programs that our classes require. They should all use the same system.|||I hope to carry out my ambitious ideas as your Student Government Liberal Arts Representative.|||Thanks! Sammy</t>
+  </si>
+  <si>
+    <t>Bring Pinkberry to the SAC.|||Create a senior/freshmen mentorship program.|||Get computer chargers for students to check out, for free, from the library and other popular study areas.|||Create a student life website where there is a calendar of all events that can be sorted by category, a page for clubs to post their information, information on workout facilities and intramural sports, a detailed list of which restaurants can be found at specific locations on campus, and other information that pertains directly to student life, which is hard to find information on otherwise.|||Host events for students in the College of Liberal Arts to get to know each other as a college.|||Create a “professor appreciation day.”|||Strengthen campus wifi.|||Host a College of Liberal Arts formal.|||Bring moon-bounces to campus.</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/sammy.minkowitz</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/lJMPLwM.jpg</t>
+  </si>
+  <si>
+    <t>John-Paul Bach</t>
+  </si>
+  <si>
+    <t>Natural Sciences Representatives - 5 open positions</t>
+  </si>
+  <si>
+    <t>Natural Sciences Representative</t>
+  </si>
+  <si>
+    <t>Cameron Crane</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/tZDI7N3.jpg</t>
+  </si>
+  <si>
+    <t>I am Cameron Crane and I am running for Natural Sciences Representative in Student Government.  I am an Outreach Ambassador for the College, a former peer mentor in the FRI program and CNS 101, and an active volunteer throughout the community.  My goals for the College include expanding upper division class offerings to include a Monday/Wednesday sequence instead of solely MWF and TTH sequences. I want to partner with McCombs’ Alumni Relations to increase CNS Alumni gifts to improve our facilities, provide scholarships, and increase the number of classes that are video recorded. With the establishment of the Dell Medical School, I intend to seize this historic opportunity to create a liaison program with them and our pre-health students, explore dual enrollment possibilities for CNS students and establish joint research opportunities. I intend to be a loud voice for CNS and to represent the interests of all students at this great University.  Hook ‘em!</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/CraneCameron</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/CameronCraneSG</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/2bWM3HG.jpg</t>
+  </si>
+  <si>
+    <t>Pamela Del Valle</t>
+  </si>
+  <si>
+    <t>Neuroscience</t>
+  </si>
+  <si>
+    <t>My name is Pamela Del Valle and I’m running for College Representative for the College of Natural Sciences. Should I be chosen for this position, I plan to focus my efforts on improving cultural accommodation and outreach among the student population, enhancing student safety in West Campus, particularly for the queer community and people of color, and bolstering the availability of healthy foods in campus buildings. Specifically, I will work with vendors to procure more local produce and vegetarian and vegan friendly meal options. With regard to the issues that specifically affect natural science students, I will push for more paid lab positions so that lower income students can gain more hands-on experience without having to choose between a paying job and a research position. I am committed to working with students of all backgrounds and interests, and can be contacted via email at pdelvalle7@live.com. Thank you for your support!</t>
+  </si>
+  <si>
+    <t>Micah Peoples</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Here is my candidate statement: What sets me apart is my connection to those around me on an individual level. I empathize with people, and I feel this is a quality our leadership is too often lacking. I am committed to improving the quality of life for everyone here at UT no matter their race, class, sex, gender, or orientation. I want to assist in the effort of ensuring we are only being charged what is absolutely necessary to have a fulfilling university experience. I am not afraid to be the only one on the opposing side. I have had the privilege of being exposed to lots of diversity growing up, and not everyone has had that opportunity. I hope to use the overarching, interpersonal perspective my experiences have given me to work with our leadership on really serving our community.</t>
+  </si>
+  <si>
+    <t>Alex Pustilnik</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/S1CfMhk.jpg</t>
+  </si>
+  <si>
+    <t>Hi, I’m Alex Pustilnik and I am running to represent the College of Natural Sciences in the UT Student Government. Here’s a little bit about me: I’m a freshman Computer Science major from Southlake, TX and a very proud Longhorn. Two words that are often used to describe me are a listener and loyal person. In major leadership challenges such as my Eagle Project, I applied the ideas and input from my volunteers into the project and produced something much greater than I could have done alone. As CNS representative, my ears will always be open to suggestions. Loyalty is also highly important to me. Loyalty means seeing the ideas that will make a positive impact to the university turn into reality. I ask you to help me help you make your opinions heard by supporting me for CNS representative. Thank you and Hook ‘em Horns!</t>
+  </si>
+  <si>
+    <t>One College, One Mission||| |||Increasing interaction between departments in CNS by promoting and planning social events.|||Promote creation and growth of CNS student organizations.|||Increase visibility by hosting events to showcase CNS students and their work to prospective students, companies and the community.|||Serve the community by designating a CNS service day to build a relationship with the community and give back.||| |||Working Together||| |||Create easier ways for students to provide feedback to CNS representatives and staff.|||Facilitate change by engaging the CNS student body in order to change concerns into solutions.|||Create a database of student suggestions where all CNS students can voice their opinions on what they would like to see implemented.||| |||Voice Your Opinion||| |||Ask yourself: If there was one thing I could change about my experience in CNS, what would it be?|||Send your name and response to alex4cns@gmail.com.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/9diMvpH.jpg</t>
+  </si>
+  <si>
+    <t>Mukund Rathi</t>
+  </si>
+  <si>
+    <t>Hey Longhorns, my name is Mukund Rathi - I’m a junior, running for Natural Sciences representative. I’ve been actively working to improve student life since I came to the university, and hope to continue doing so as your representative. As a tutor, I have been helping students in our college for almost three years now, and work with their professors to create better curriculum and teaching strategies. Please approach me with any academic concerns you may have: increasing your selection of classes, making registration easier, and anything else. I’m also involved in a variety of human rights and social justice organizations, and hope to bring some of this to the table. Student Government needs to maintain a safe and respectful climate both on- and off-campus, especially for minorities and women. Get in touch with me at mukund.rathi@utexas.edu, and make sure to vote on March 4th and 5th!</t>
+  </si>
+  <si>
+    <t>Rebecca Sostek</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/TSAH0NO.jpg</t>
+  </si>
+  <si>
+    <t>Human Development and Family Sciences</t>
+  </si>
+  <si>
+    <t>Hi y’all! I’m so excited to run for a position as a Natural Sciences Representative. I’m double majoring in Neuroscience in Dean’s Scholars and Psychology in Liberal Arts Honors with a Business Foundations certificate. Next to academics, I love running through Austin and then counteracting it with any type of food. I’m dynamic with an unyielding desire to learn about the world through my peers. At my small private school in Dallas, I learned that improvement comes in many different forms, but it rarely comes alone. I care an immense amount about the sciences. However, in this sea of burnt orange, I believe that my personability and desire to learn about what makes and what will make UT and CNS so special to you is what made me run for this position with confidence in my ability to represent our college as a group, and find improvement in any capacity.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/KtxekeY.jpg</t>
+  </si>
+  <si>
+    <t>Laura Zhang</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/IsUWviS.jpg</t>
+  </si>
+  <si>
+    <t>Neuroscience and Plan II</t>
+  </si>
+  <si>
+    <t>Hi, my name is Laura Zhang, and I am running for your next Student Government Representative for the College of Natural Sciences.|||I have been an officer in committees in Lions Club and Texas THON, an active member in Longhorn Pets Alive and University Orchestra, and a fervent volunteer at Austin Pets Alive! (huge dog person here). As a first-year majoring in neuroscience, I have loved exploring the sciences at UT, and as a representative, I would like to promote more funding for technology and lab equipment, more scholarships for underrepresented minorities (as well as all students), and, because I ardently invest in the butterfly effect of volunteering, more opportunities to utilize our passions to inspire students—especially female students—around Austin to get involved in STEM.|||Combining my spunk and dedication with your valuable input and support, together we can catalyze the trail towards mind-blowing innovation. Thank you!</t>
+  </si>
+  <si>
+    <t>To provide more opportunities for CNS students to connect to mentors and professionals for guidance in pre-med, pre-grad, pre-law, or even pre-I-have-no-idea|||To increase diversity of companies and desired majors at career fairs|||To advocate increased funding and focus on lab equipment and technology|||To support both merit and need-based scholarships for underrepresented minorities (and all students) in STEM|||To facilitate collaborative interdisciplinary efforts and projects between all majors|||To instill a greater sense of community in the large CNS population through volunteering and outreach programs to primary/secondary students (especially minorities and young women) in the Austin area|||To be your trusted friend and representative who immediately address your concerns and opinions about what could be better in CNS and UT as a whole|||Let me hear your voice! laurazh3@yahoo.com</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/lzeeee126</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/1415163602113376/?notif_t=plan_user_joined</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/gVKhoFh.jpg</t>
+  </si>
+  <si>
+    <t>Juan Saez</t>
+  </si>
+  <si>
+    <t>Undergraduate Studies Representative - 1 open position</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/b3yJR5i.jpg</t>
+  </si>
+  <si>
+    <t>Undergraduate Studies Representative</t>
+  </si>
+  <si>
+    <t>Undeclared</t>
+  </si>
+  <si>
+    <t>I have experienced many of the advantages and disadvantages of being an undeclared student at the University of Texas. As your representative, I plan to better voice the opinions of UGS and PACE students, and to address many of the issues which we have encountered in our first year at the university. For example, I plan to set about to develop a comprehensive website for PACE students which will be constantly updated with information about the transition into full-time student status, and on which the students will be able to post questions and receive answers from advisors and fellow PACE students. Moreover, I plan to develop a mentorship program between former UGS students and new ones to help the new students better decide what career they’d like to pursue. My main concern overall, however, is what my constituents are concerned with. Through various means, I will incentivize communication between representatives and the students to improve the representation in Student Government.</t>
+  </si>
+  <si>
+    <t>Establish mentorship programs for new UGS and PACE students (seperate programs).|||Develop a comprehensive and official website for PACE students for them to visit for information.|||Increase student participation in SG elections via incentives in order to guarantee fair representation.|||Improve the connection between SG representatives and the student population through social media and public meetings.|||Raise campus-wide awareness of important global issues.|||Promote UGS student participation in University-run or University-endorsed events and organizations.</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/WUrxhvm.jpg</t>
   </si>
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>Hello Longhorns, my name is Jason Carr. As a sophomore Liberal Arts Economics Major I want to help lead COLA to new heights as a representative. I value relationships with my peers and will strive to develop good relationships between the students and faculty.|||I want to work with other students to listen and act upon their concerns, so I encourage every student to reach out to me with any questions, comments, or concerns that they may have. My email is jasoncarr96@gmail.com</t>
-  </si>
-  <si>
-    <t>Provide COLA students the opportunity to listen to guest speakers specific to their major|||Improve the student to teacher relationships through surveys and suggestions of both parties|||Increase the overall satisfaction of each students relationships with their Major|||Create rewards financially for Liberal Arts students for their academic achievements</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/nhGON1X.jpg</t>
-  </si>
-  <si>
     <t>purpose</t>
   </si>
   <si>
-    <t>James Comer</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/8ulJMSQ.jpg</t>
-  </si>
-  <si>
     <t>Student Government (SG)</t>
   </si>
   <si>
@@ -1269,24 +1500,9 @@
     <t>Texas Student Media (TSM)</t>
   </si>
   <si>
-    <t>Hello! My name is James Comer and I’m a sophomore economics major. I am running because I want to make a positive change here at UT, specifically COLA. This is my dream school, and I love it here! I hope I can contribute and give back to this community which has already given me so much!|||I think it’s too cold in most study areas, and I plan on developing an app that lets students vote on the temperature of their building. I plan on working with New Student Services to develop better orientation policy aimed at getting international and transfer students more connected and involved. I also want to unify the COLA community by working with Provost’s office to admit more students who want to stay in their major.</t>
-  </si>
-  <si>
     <t>The Texas Student Media Board of Operating Trustees oversees the University's five official media outlets: KVRX 91.7 FM, the Texas Travesty, Texas Student Television, the Cactus yearbook and The Daily Texan.</t>
   </si>
   <si>
-    <t>Better temperatures in study areas!|||Improving life for international and transfer students|||Building a culture of unity in COLA</t>
-  </si>
-  <si>
-    <t>http://www.facebook.com/VoteJamesComerLARep</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/bL8vKNl.jpg</t>
-  </si>
-  <si>
-    <t>Tanner Long</t>
-  </si>
-  <si>
     <t>University Co-op (Co-op)</t>
   </si>
   <si>
@@ -1296,233 +1512,14 @@
     <t>University Unions (Unions)</t>
   </si>
   <si>
-    <t>http://i.imgur.com/7YEQoSf.jpg</t>
-  </si>
-  <si>
     <t>The University Unions Board of Directors recommends rules and procedures for the operation of the Unions' facilities, which include the Texas Union, the Student Activity Center and the Hogg Auditorium. The board also oversees Campus Events and Entertainment.</t>
-  </si>
-  <si>
-    <t>My name is Tanner Long and I’m running for reelection to be one of four representatives for the College of Liberal Arts. This past year, I’ve worked on numerous issues ranging from student input regarding the West Campus sound ordinance to more Monday-Wednesday classes to keeping the FAC open 24/7. Although my term is nearing the end, I still have not accomplished all the goals I’ve sought. Another year of being a Liberal Arts Representative will allow me to pursue more issues and provide you all with an experienced voice in the assembly. I will continue to focus on improving student engagement, voicing concerns of students to Austin City Hall, the Texas State Legislature and the U.S. Congress, and adequately represent the opinion of Liberal Arts students.</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/TannerLLong</t>
-  </si>
-  <si>
-    <t>http://www.TannerLong.com</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/6vbnjnM.jpg</t>
-  </si>
-  <si>
-    <t>Shawn A. Lopez</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/3W9MWON.jpg</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Hello, my name is Shawn Lopez and I’m running for college of liberal arts representative. My campaign will be run on a platform of honest initiative in which I hold the goal of bringing to light all the issues concerning students within the COLA; these issues range from affordability to assessment challenges that I will personally look to improve if elected to a term as your representative. The solutions are clear and can be instituted through my advocacy if elected, but only if you are willing to follow me through and help me accomplish what needs to be done in the process. As I will show in my campaign, I am here as a voice through which yours will be spoken and your grievances brought to light. I am your candidate and hope to be your future voice in student government.</t>
-  </si>
-  <si>
-    <t>College affordability|||Increase in student study resources|||Advocate of Student safety|||Fight for student rights|||Make student government more accessible to the student body</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/8WSbbzx.jpg</t>
-  </si>
-  <si>
-    <t>Connor Madden</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/djXmdkW.jpg</t>
-  </si>
-  <si>
-    <t>Plan II and Business</t>
-  </si>
-  <si>
-    <t>My name is Connor Madden. As your CLA Representative I would focus on:|||CIVIC ENGAGEMENT- providing students the opportunity to register to vote at orientation. During orientation or in the weeks following move-in, giving students opportunities to learn about issues relevant to them.|||ORIENTATION/PRE-CAMPUS EXPERIENCE- incorporating campus traditions and spirit events into the existing academic orientation curriculum.|||EVENT ENGAGEMENT AND STUDENT GROUPS- Supporting and offering resources to the ongoing effort to establish a University-Wide Tailgate prior to home football games.|||I love this university and would cherish the opportunity to serve my fellow students in this capacity. Thank you for voting and Hook ‘Em Horns!</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/votemadden</t>
-  </si>
-  <si>
-    <t>http://www.facebook.com/connor.madden.73</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/ThhoMaY.jpg</t>
-  </si>
-  <si>
-    <t>Jenny McGinty</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/cvOsqmm.jpg</t>
-  </si>
-  <si>
-    <t>Plan II</t>
-  </si>
-  <si>
-    <t>Hey COLA! My name is Jenny McGinty, and I’m running to be your representative in Student Government. I’m a freshman double major in Plan II Honors and International Relations &amp; Global Studies. As a first-year student at UT, I’ve been able to enjoy a fresh new perspective on the numerous opportunities that are presented to students.</t>
-  </si>
-  <si>
-    <t>Create a liberal arts identity among students to better relay interests and create pride within our college.|||Help create a better mentorship between academic-advisors and students to better inform them of internships, continuing scholarships, and organizations on campus that correlate with their interests.|||Work to break down campus into a smaller community for students to be aware of opportunities relevant to them, in order to have a thriving social and academic life.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/pAxdA7g.jpg</t>
-  </si>
-  <si>
-    <t>Sammy Minkowitz</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/yRRVCBJ.jpg</t>
-  </si>
-  <si>
-    <t>Hi! I’m Sammy Minkowitz and running to be a Liberal Arts representative with three main goals:|||1. To make school more fun. I plan to bring moon bounces to campus a couple times a year, open a campus pinkberry, host more puppies on campus, and call Tiff’s to bring cookies.|||2. I want everything to be made easier. We need to improve the UT app, strengthen campus wifi, encourage the SAC to be open 24/7, and get extra computer charges for students to use in popular study areas.|||3. The classroom technology needs to be simpler. All professors should use canvas, no more blackboard. We should not have to keep track of clickers, tophat, quest, sapling, and other programs that our classes require. They should all use the same system.|||I hope to carry out my ambitious ideas as your Student Government Liberal Arts Representative.|||Thanks! Sammy</t>
-  </si>
-  <si>
-    <t>Bring Pinkberry to the SAC.|||Create a senior/freshmen mentorship program.|||Get computer chargers for students to check out, for free, from the library and other popular study areas.|||Create a student life website where there is a calendar of all events that can be sorted by category, a page for clubs to post their information, information on workout facilities and intramural sports, a detailed list of which restaurants can be found at specific locations on campus, and other information that pertains directly to student life, which is hard to find information on otherwise.|||Host events for students in the College of Liberal Arts to get to know each other as a college.|||Create a “professor appreciation day.”|||Strengthen campus wifi.|||Host a College of Liberal Arts formal.|||Bring moon-bounces to campus.</t>
-  </si>
-  <si>
-    <t>http://www.facebook.com/sammy.minkowitz</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/lJMPLwM.jpg</t>
-  </si>
-  <si>
-    <t>John-Paul Bach</t>
-  </si>
-  <si>
-    <t>Natural Sciences Representatives - 5 open positions</t>
-  </si>
-  <si>
-    <t>Natural Sciences Representative</t>
-  </si>
-  <si>
-    <t>Cameron Crane</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/tZDI7N3.jpg</t>
-  </si>
-  <si>
-    <t>I am Cameron Crane and I am running for Natural Sciences Representative in Student Government.  I am an Outreach Ambassador for the College, a former peer mentor in the FRI program and CNS 101, and an active volunteer throughout the community.  My goals for the College include expanding upper division class offerings to include a Monday/Wednesday sequence instead of solely MWF and TTH sequences. I want to partner with McCombs’ Alumni Relations to increase CNS Alumni gifts to improve our facilities, provide scholarships, and increase the number of classes that are video recorded. With the establishment of the Dell Medical School, I intend to seize this historic opportunity to create a liaison program with them and our pre-health students, explore dual enrollment possibilities for CNS students and establish joint research opportunities. I intend to be a loud voice for CNS and to represent the interests of all students at this great University.  Hook ‘em!</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/CraneCameron</t>
-  </si>
-  <si>
-    <t>http://www.facebook.com/CameronCraneSG</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/2bWM3HG.jpg</t>
-  </si>
-  <si>
-    <t>Pamela Del Valle</t>
-  </si>
-  <si>
-    <t>Neuroscience</t>
-  </si>
-  <si>
-    <t>My name is Pamela Del Valle and I’m running for College Representative for the College of Natural Sciences. Should I be chosen for this position, I plan to focus my efforts on improving cultural accommodation and outreach among the student population, enhancing student safety in West Campus, particularly for the queer community and people of color, and bolstering the availability of healthy foods in campus buildings. Specifically, I will work with vendors to procure more local produce and vegetarian and vegan friendly meal options. With regard to the issues that specifically affect natural science students, I will push for more paid lab positions so that lower income students can gain more hands-on experience without having to choose between a paying job and a research position. I am committed to working with students of all backgrounds and interests, and can be contacted via email at pdelvalle7@live.com. Thank you for your support!</t>
-  </si>
-  <si>
-    <t>Micah Peoples</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t>Here is my candidate statement: What sets me apart is my connection to those around me on an individual level. I empathize with people, and I feel this is a quality our leadership is too often lacking. I am committed to improving the quality of life for everyone here at UT no matter their race, class, sex, gender, or orientation. I want to assist in the effort of ensuring we are only being charged what is absolutely necessary to have a fulfilling university experience. I am not afraid to be the only one on the opposing side. I have had the privilege of being exposed to lots of diversity growing up, and not everyone has had that opportunity. I hope to use the overarching, interpersonal perspective my experiences have given me to work with our leadership on really serving our community.</t>
-  </si>
-  <si>
-    <t>Alex Pustilnik</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/S1CfMhk.jpg</t>
-  </si>
-  <si>
-    <t>Hi, I’m Alex Pustilnik and I am running to represent the College of Natural Sciences in the UT Student Government. Here’s a little bit about me: I’m a freshman Computer Science major from Southlake, TX and a very proud Longhorn. Two words that are often used to describe me are a listener and loyal person. In major leadership challenges such as my Eagle Project, I applied the ideas and input from my volunteers into the project and produced something much greater than I could have done alone. As CNS representative, my ears will always be open to suggestions. Loyalty is also highly important to me. Loyalty means seeing the ideas that will make a positive impact to the university turn into reality. I ask you to help me help you make your opinions heard by supporting me for CNS representative. Thank you and Hook ‘em Horns!</t>
-  </si>
-  <si>
-    <t>One College, One Mission||| |||Increasing interaction between departments in CNS by promoting and planning social events.|||Promote creation and growth of CNS student organizations.|||Increase visibility by hosting events to showcase CNS students and their work to prospective students, companies and the community.|||Serve the community by designating a CNS service day to build a relationship with the community and give back.||| |||Working Together||| |||Create easier ways for students to provide feedback to CNS representatives and staff.|||Facilitate change by engaging the CNS student body in order to change concerns into solutions.|||Create a database of student suggestions where all CNS students can voice their opinions on what they would like to see implemented.||| |||Voice Your Opinion||| |||Ask yourself: If there was one thing I could change about my experience in CNS, what would it be?|||Send your name and response to alex4cns@gmail.com.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/9diMvpH.jpg</t>
-  </si>
-  <si>
-    <t>Mukund Rathi</t>
-  </si>
-  <si>
-    <t>Hey Longhorns, my name is Mukund Rathi - I’m a junior, running for Natural Sciences representative. I’ve been actively working to improve student life since I came to the university, and hope to continue doing so as your representative. As a tutor, I have been helping students in our college for almost three years now, and work with their professors to create better curriculum and teaching strategies. Please approach me with any academic concerns you may have: increasing your selection of classes, making registration easier, and anything else. I’m also involved in a variety of human rights and social justice organizations, and hope to bring some of this to the table. Student Government needs to maintain a safe and respectful climate both on- and off-campus, especially for minorities and women. Get in touch with me at mukund.rathi@utexas.edu, and make sure to vote on March 4th and 5th!</t>
-  </si>
-  <si>
-    <t>Rebecca Sostek</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/TSAH0NO.jpg</t>
-  </si>
-  <si>
-    <t>Human Development and Family Sciences</t>
-  </si>
-  <si>
-    <t>Hi y’all! I’m so excited to run for a position as a Natural Sciences Representative. I’m double majoring in Neuroscience in Dean’s Scholars and Psychology in Liberal Arts Honors with a Business Foundations certificate. Next to academics, I love running through Austin and then counteracting it with any type of food. I’m dynamic with an unyielding desire to learn about the world through my peers. At my small private school in Dallas, I learned that improvement comes in many different forms, but it rarely comes alone. I care an immense amount about the sciences. However, in this sea of burnt orange, I believe that my personability and desire to learn about what makes and what will make UT and CNS so special to you is what made me run for this position with confidence in my ability to represent our college as a group, and find improvement in any capacity.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/KtxekeY.jpg</t>
-  </si>
-  <si>
-    <t>Laura Zhang</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/IsUWviS.jpg</t>
-  </si>
-  <si>
-    <t>Neuroscience and Plan II</t>
-  </si>
-  <si>
-    <t>Hi, my name is Laura Zhang, and I am running for your next Student Government Representative for the College of Natural Sciences.|||I have been an officer in committees in Lions Club and Texas THON, an active member in Longhorn Pets Alive and University Orchestra, and a fervent volunteer at Austin Pets Alive! (huge dog person here). As a first-year majoring in neuroscience, I have loved exploring the sciences at UT, and as a representative, I would like to promote more funding for technology and lab equipment, more scholarships for underrepresented minorities (as well as all students), and, because I ardently invest in the butterfly effect of volunteering, more opportunities to utilize our passions to inspire students—especially female students—around Austin to get involved in STEM.|||Combining my spunk and dedication with your valuable input and support, together we can catalyze the trail towards mind-blowing innovation. Thank you!</t>
-  </si>
-  <si>
-    <t>To provide more opportunities for CNS students to connect to mentors and professionals for guidance in pre-med, pre-grad, pre-law, or even pre-I-have-no-idea|||To increase diversity of companies and desired majors at career fairs|||To advocate increased funding and focus on lab equipment and technology|||To support both merit and need-based scholarships for underrepresented minorities (and all students) in STEM|||To facilitate collaborative interdisciplinary efforts and projects between all majors|||To instill a greater sense of community in the large CNS population through volunteering and outreach programs to primary/secondary students (especially minorities and young women) in the Austin area|||To be your trusted friend and representative who immediately address your concerns and opinions about what could be better in CNS and UT as a whole|||Let me hear your voice! laurazh3@yahoo.com</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/lzeeee126</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/events/1415163602113376/?notif_t=plan_user_joined</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/gVKhoFh.jpg</t>
-  </si>
-  <si>
-    <t>Juan Saez</t>
-  </si>
-  <si>
-    <t>Undergraduate Studies Representative - 1 open position</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/b3yJR5i.jpg</t>
-  </si>
-  <si>
-    <t>Undergraduate Studies Representative</t>
-  </si>
-  <si>
-    <t>Undeclared</t>
-  </si>
-  <si>
-    <t>I have experienced many of the advantages and disadvantages of being an undeclared student at the University of Texas. As your representative, I plan to better voice the opinions of UGS and PACE students, and to address many of the issues which we have encountered in our first year at the university. For example, I plan to set about to develop a comprehensive website for PACE students which will be constantly updated with information about the transition into full-time student status, and on which the students will be able to post questions and receive answers from advisors and fellow PACE students. Moreover, I plan to develop a mentorship program between former UGS students and new ones to help the new students better decide what career they’d like to pursue. My main concern overall, however, is what my constituents are concerned with. Through various means, I will incentivize communication between representatives and the students to improve the representation in Student Government.</t>
-  </si>
-  <si>
-    <t>Establish mentorship programs for new UGS and PACE students (seperate programs).|||Develop a comprehensive and official website for PACE students for them to visit for information.|||Increase student participation in SG elections via incentives in order to guarantee fair representation.|||Improve the connection between SG representatives and the student population through social media and public meetings.|||Raise campus-wide awareness of important global issues.|||Promote UGS student participation in University-run or University-endorsed events and organizations.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/WUrxhvm.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
@@ -1574,11 +1571,6 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF0000FF"/>
@@ -1591,44 +1583,21 @@
     </font>
     <font>
       <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF222222"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF222222"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF222222"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
@@ -1637,9 +1606,42 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF222222"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF222222"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF222222"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF222222"/>
     </font>
     <font>
       <u/>
@@ -1691,7 +1693,7 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1"/>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
@@ -1744,90 +1746,93 @@
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment/>
     </xf>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="12"/>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="12">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="13">
       <alignment/>
     </xf>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="14">
+      <alignment/>
+    </xf>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="15"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6">
+      <alignment/>
+    </xf>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6">
       <alignment/>
     </xf>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="16">
+      <alignment horizontal="left"/>
+    </xf>
     <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="12"/>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0">
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="15"/>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="17">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="18">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6" applyFill="1">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="14">
-      <alignment/>
-    </xf>
     <xf fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6"/>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="15">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="16">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="17">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="18">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2" applyFill="1">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="19">
+    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="19">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="20">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="21">
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="21" applyFill="1">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="22">
+    <xf fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="21"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="22">
       <alignment/>
     </xf>
-    <xf fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="22"/>
     <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="23">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="24">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="25">
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="18">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="24">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="24">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="25">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="26">
       <alignment/>
     </xf>
     <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5"/>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="27">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="28">
+      <alignment horizontal="left"/>
+    </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="27">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1882,109 +1887,109 @@
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="20" r="A1">
+      <c t="s" s="27" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="20" r="B1">
+      <c t="s" s="27" r="B1">
         <v>1</v>
       </c>
-      <c t="s" s="20" r="C1">
+      <c t="s" s="27" r="C1">
         <v>2</v>
       </c>
-      <c t="s" s="20" r="D1">
+      <c t="s" s="27" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="20" r="E1">
+      <c t="s" s="27" r="E1">
         <v>4</v>
       </c>
-      <c t="s" s="20" r="F1">
+      <c t="s" s="27" r="F1">
         <v>5</v>
       </c>
-      <c t="s" s="20" r="G1">
+      <c t="s" s="27" r="G1">
         <v>6</v>
       </c>
-      <c t="s" s="20" r="H1">
+      <c t="s" s="27" r="H1">
         <v>7</v>
       </c>
-      <c t="s" s="20" r="I1">
+      <c t="s" s="27" r="I1">
         <v>8</v>
       </c>
-      <c t="s" s="20" r="J1">
+      <c t="s" s="27" r="J1">
         <v>9</v>
       </c>
-      <c t="s" s="20" r="K1">
+      <c t="s" s="27" r="K1">
         <v>10</v>
       </c>
-      <c t="s" s="20" r="L1">
+      <c t="s" s="27" r="L1">
         <v>11</v>
       </c>
-      <c t="s" s="20" r="M1">
+      <c t="s" s="27" r="M1">
         <v>12</v>
       </c>
-      <c t="s" s="20" r="N1">
+      <c t="s" s="27" r="N1">
         <v>13</v>
       </c>
-      <c t="s" s="20" r="O1">
+      <c t="s" s="27" r="O1">
         <v>14</v>
       </c>
-      <c t="s" s="22" r="P1">
+      <c t="s" s="28" r="P1">
         <v>15</v>
       </c>
     </row>
     <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="22" r="A2">
-        <v>61</v>
-      </c>
-      <c s="22" r="B2">
+      <c t="s" s="28" r="A2">
+        <v>118</v>
+      </c>
+      <c s="28" r="B2">
         <v>1.0</v>
       </c>
-      <c t="s" s="22" r="C2">
-        <v>62</v>
-      </c>
-      <c t="s" s="22" r="F2">
-        <v>63</v>
-      </c>
-      <c t="s" s="22" r="H2">
-        <v>65</v>
+      <c t="s" s="28" r="C2">
+        <v>120</v>
+      </c>
+      <c t="s" s="28" r="F2">
+        <v>121</v>
+      </c>
+      <c t="s" s="28" r="H2">
+        <v>123</v>
       </c>
       <c t="s" s="18" r="J2">
-        <v>66</v>
+        <v>126</v>
       </c>
     </row>
     <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="25" r="A3">
-        <v>67</v>
-      </c>
-      <c s="25" r="B3">
+      <c t="s" s="29" r="A3">
+        <v>128</v>
+      </c>
+      <c s="29" r="B3">
         <v>1.0</v>
       </c>
-      <c t="s" s="25" r="C3">
-        <v>68</v>
-      </c>
-      <c s="26" r="D3"/>
+      <c t="s" s="29" r="C3">
+        <v>129</v>
+      </c>
+      <c s="31" r="D3"/>
       <c t="s" s="33" r="E3">
-        <v>69</v>
-      </c>
-      <c t="s" s="25" r="F3">
-        <v>84</v>
+        <v>132</v>
+      </c>
+      <c t="s" s="29" r="F3">
+        <v>137</v>
       </c>
       <c t="s" s="3" r="G3">
         <v>55</v>
       </c>
-      <c t="s" s="25" r="H3">
-        <v>85</v>
-      </c>
-      <c s="26" r="I3"/>
+      <c t="s" s="29" r="H3">
+        <v>138</v>
+      </c>
+      <c s="31" r="I3"/>
       <c t="s" s="18" r="J3">
-        <v>86</v>
-      </c>
-      <c s="26" r="K3"/>
-      <c s="26" r="L3"/>
-      <c s="26" r="M3"/>
-      <c s="26" r="N3"/>
-      <c s="26" r="O3"/>
+        <v>139</v>
+      </c>
+      <c s="31" r="K3"/>
+      <c s="31" r="L3"/>
+      <c s="31" r="M3"/>
+      <c s="31" r="N3"/>
+      <c s="31" r="O3"/>
       <c t="s" s="33" r="P3">
-        <v>88</v>
+        <v>140</v>
       </c>
     </row>
     <row customHeight="1" r="4" ht="15.75"/>
@@ -2024,367 +2029,173 @@
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="20" r="A1">
+      <c t="s" s="27" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="20" r="B1">
+      <c t="s" s="27" r="B1">
         <v>1</v>
       </c>
-      <c t="s" s="20" r="C1">
+      <c t="s" s="27" r="C1">
         <v>2</v>
       </c>
-      <c t="s" s="20" r="D1">
+      <c t="s" s="27" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="20" r="E1">
+      <c t="s" s="27" r="E1">
         <v>4</v>
       </c>
-      <c t="s" s="20" r="F1">
+      <c t="s" s="27" r="F1">
         <v>5</v>
       </c>
-      <c t="s" s="20" r="G1">
+      <c t="s" s="27" r="G1">
         <v>6</v>
       </c>
-      <c t="s" s="20" r="H1">
+      <c t="s" s="27" r="H1">
         <v>7</v>
       </c>
-      <c t="s" s="20" r="I1">
+      <c t="s" s="27" r="I1">
         <v>8</v>
       </c>
-      <c t="s" s="20" r="J1">
+      <c t="s" s="27" r="J1">
         <v>9</v>
       </c>
-      <c t="s" s="20" r="K1">
+      <c t="s" s="27" r="K1">
         <v>10</v>
       </c>
-      <c t="s" s="20" r="L1">
+      <c t="s" s="27" r="L1">
         <v>11</v>
       </c>
-      <c t="s" s="20" r="M1">
+      <c t="s" s="27" r="M1">
         <v>12</v>
       </c>
-      <c t="s" s="20" r="N1">
+      <c t="s" s="27" r="N1">
         <v>13</v>
       </c>
-      <c t="s" s="20" r="O1">
+      <c t="s" s="27" r="O1">
         <v>14</v>
       </c>
-      <c t="s" s="22" r="P1">
+      <c t="s" s="28" r="P1">
         <v>15</v>
       </c>
     </row>
     <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="22" r="A2">
-        <v>79</v>
-      </c>
-      <c s="22" r="B2">
+      <c t="s" s="28" r="A2">
+        <v>192</v>
+      </c>
+      <c s="28" r="B2">
         <v>2.0</v>
       </c>
-      <c t="s" s="22" r="C2">
-        <v>80</v>
-      </c>
-      <c t="s" s="34" r="E2">
-        <v>82</v>
-      </c>
-      <c t="s" s="22" r="F2">
-        <v>87</v>
-      </c>
-      <c t="s" s="22" r="G2">
+      <c t="s" s="28" r="C2">
+        <v>194</v>
+      </c>
+      <c t="s" s="41" r="E2">
+        <v>195</v>
+      </c>
+      <c t="s" s="28" r="F2">
+        <v>201</v>
+      </c>
+      <c t="s" s="28" r="G2">
         <v>55</v>
       </c>
-      <c t="s" s="22" r="H2">
+      <c t="s" s="28" r="H2">
         <v>89</v>
       </c>
-      <c t="s" s="22" r="I2">
-        <v>90</v>
-      </c>
-      <c t="s" s="34" r="P2">
-        <v>91</v>
+      <c t="s" s="28" r="I2">
+        <v>57</v>
+      </c>
+      <c t="s" s="41" r="L2">
+        <v>202</v>
+      </c>
+      <c t="s" s="41" r="M2">
+        <v>203</v>
+      </c>
+      <c t="s" s="41" r="P2">
+        <v>204</v>
       </c>
     </row>
     <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="22" r="A3">
-        <v>92</v>
-      </c>
-      <c s="22" r="B3">
+      <c t="s" s="28" r="A3">
+        <v>205</v>
+      </c>
+      <c s="28" r="B3">
         <v>2.0</v>
       </c>
-      <c t="s" s="22" r="C3">
-        <v>80</v>
-      </c>
-      <c t="s" s="34" r="E3">
-        <v>94</v>
-      </c>
-      <c t="s" s="22" r="F3">
-        <v>87</v>
-      </c>
-      <c t="s" s="22" r="G3">
+      <c t="s" s="28" r="C3">
+        <v>194</v>
+      </c>
+      <c t="s" s="41" r="E3">
+        <v>207</v>
+      </c>
+      <c t="s" s="28" r="F3">
+        <v>201</v>
+      </c>
+      <c t="s" s="28" r="G3">
         <v>55</v>
       </c>
-      <c s="36" r="J3"/>
-      <c t="s" s="34" r="P3">
-        <v>104</v>
+      <c s="45" r="J3"/>
+      <c t="s" s="41" r="P3">
+        <v>227</v>
       </c>
     </row>
     <row customHeight="1" r="4" ht="15.75">
-      <c t="s" s="22" r="A4">
-        <v>108</v>
-      </c>
-      <c s="22" r="B4">
+      <c t="s" s="28" r="A4">
+        <v>231</v>
+      </c>
+      <c s="28" r="B4">
         <v>2.0</v>
       </c>
-      <c t="s" s="22" r="C4">
-        <v>80</v>
-      </c>
-      <c t="s" s="34" r="E4">
-        <v>110</v>
-      </c>
-      <c t="s" s="22" r="F4">
-        <v>87</v>
-      </c>
-      <c t="s" s="37" r="G4">
+      <c t="s" s="28" r="C4">
+        <v>194</v>
+      </c>
+      <c t="s" s="41" r="E4">
+        <v>232</v>
+      </c>
+      <c t="s" s="28" r="F4">
+        <v>201</v>
+      </c>
+      <c t="s" s="43" r="G4">
         <v>55</v>
       </c>
-      <c t="s" s="22" r="H4">
-        <v>120</v>
-      </c>
-      <c t="s" s="22" r="I4">
-        <v>90</v>
-      </c>
-      <c t="s" s="36" r="J4">
-        <v>122</v>
-      </c>
-      <c t="s" s="22" r="K4">
-        <v>124</v>
-      </c>
-      <c t="s" s="30" r="M4">
-        <v>126</v>
-      </c>
-      <c t="s" s="34" r="P4">
-        <v>128</v>
+      <c t="s" s="28" r="H4">
+        <v>235</v>
+      </c>
+      <c t="s" s="28" r="I4">
+        <v>77</v>
+      </c>
+      <c t="s" s="45" r="J4">
+        <v>238</v>
+      </c>
+      <c t="s" s="28" r="K4">
+        <v>240</v>
+      </c>
+      <c t="s" s="24" r="M4">
+        <v>241</v>
+      </c>
+      <c t="s" s="41" r="P4">
+        <v>243</v>
       </c>
     </row>
     <row customHeight="1" r="5" ht="15.75">
-      <c t="s" s="22" r="A5">
-        <v>130</v>
-      </c>
-      <c s="22" r="B5">
+      <c t="s" s="28" r="A5">
+        <v>245</v>
+      </c>
+      <c s="28" r="B5">
         <v>2.0</v>
       </c>
-      <c t="s" s="22" r="C5">
-        <v>80</v>
-      </c>
-      <c t="s" s="22" r="F5">
-        <v>87</v>
-      </c>
-      <c t="s" s="22" r="H5">
-        <v>132</v>
-      </c>
-      <c t="s" s="22" r="I5">
+      <c t="s" s="28" r="C5">
+        <v>194</v>
+      </c>
+      <c t="s" s="28" r="F5">
+        <v>201</v>
+      </c>
+      <c t="s" s="28" r="H5">
+        <v>248</v>
+      </c>
+      <c t="s" s="28" r="I5">
         <v>57</v>
       </c>
-      <c s="40" r="J5"/>
-    </row>
-    <row customHeight="1" r="6" ht="15.75"/>
-    <row customHeight="1" r="7" ht="15.75"/>
-    <row customHeight="1" r="8" ht="15.75"/>
-    <row customHeight="1" r="9" ht="15.75"/>
-    <row customHeight="1" r="10" ht="15.75"/>
-    <row customHeight="1" r="11" ht="15.75"/>
-    <row customHeight="1" r="12" ht="15.75"/>
-    <row customHeight="1" r="13" ht="15.75"/>
-    <row customHeight="1" r="14" ht="15.75"/>
-    <row customHeight="1" r="15" ht="15.75"/>
-    <row customHeight="1" r="16" ht="15.75"/>
-    <row customHeight="1" r="17" ht="15.75"/>
-    <row customHeight="1" r="18" ht="15.75"/>
-    <row customHeight="1" r="19" ht="15.75"/>
-    <row customHeight="1" r="20" ht="15.75"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="P2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="P3" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="M4" r:id="rId6"/>
-    <hyperlink ref="P4" r:id="rId7"/>
-  </hyperlinks>
-  <drawing r:id="rId8"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" customWidth="1" max="16" width="13.57"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="20" r="A1">
-        <v>0</v>
-      </c>
-      <c t="s" s="20" r="B1">
-        <v>1</v>
-      </c>
-      <c t="s" s="20" r="C1">
-        <v>2</v>
-      </c>
-      <c t="s" s="20" r="D1">
-        <v>3</v>
-      </c>
-      <c t="s" s="20" r="E1">
-        <v>4</v>
-      </c>
-      <c t="s" s="20" r="F1">
-        <v>5</v>
-      </c>
-      <c t="s" s="20" r="G1">
-        <v>6</v>
-      </c>
-      <c t="s" s="20" r="H1">
-        <v>7</v>
-      </c>
-      <c t="s" s="20" r="I1">
-        <v>8</v>
-      </c>
-      <c t="s" s="20" r="J1">
-        <v>9</v>
-      </c>
-      <c t="s" s="20" r="K1">
-        <v>10</v>
-      </c>
-      <c t="s" s="20" r="L1">
-        <v>11</v>
-      </c>
-      <c t="s" s="20" r="M1">
-        <v>12</v>
-      </c>
-      <c t="s" s="20" r="N1">
-        <v>13</v>
-      </c>
-      <c t="s" s="20" r="O1">
-        <v>14</v>
-      </c>
-      <c t="s" s="22" r="P1">
-        <v>15</v>
-      </c>
-    </row>
-    <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="25" r="A2">
-        <v>141</v>
-      </c>
-      <c s="25" r="B2">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="25" r="C2">
-        <v>142</v>
-      </c>
-      <c s="26" r="D2"/>
-      <c t="s" s="33" r="E2">
-        <v>144</v>
-      </c>
-      <c t="s" s="25" r="F2">
-        <v>87</v>
-      </c>
-      <c t="s" s="25" r="G2">
-        <v>55</v>
-      </c>
-      <c t="s" s="25" r="H2">
-        <v>148</v>
-      </c>
-      <c t="s" s="25" r="I2">
-        <v>90</v>
-      </c>
-      <c s="26" r="J2"/>
-      <c t="s" s="25" r="K2">
-        <v>150</v>
-      </c>
-      <c t="s" s="33" r="L2">
-        <v>151</v>
-      </c>
-      <c s="26" r="M2"/>
-      <c s="26" r="N2"/>
-      <c s="26" r="O2"/>
-      <c t="s" s="33" r="P2">
-        <v>155</v>
-      </c>
-    </row>
-    <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="25" r="A3">
-        <v>157</v>
-      </c>
-      <c s="25" r="B3">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="25" r="C3">
-        <v>142</v>
-      </c>
-      <c s="26" r="D3"/>
-      <c t="s" s="33" r="E3">
-        <v>161</v>
-      </c>
-      <c t="s" s="25" r="F3">
-        <v>87</v>
-      </c>
-      <c t="s" s="25" r="G3">
-        <v>55</v>
-      </c>
-      <c t="s" s="25" r="H3">
-        <v>165</v>
-      </c>
-      <c t="s" s="25" r="I3">
-        <v>90</v>
-      </c>
-      <c s="26" r="J3"/>
-      <c t="s" s="25" r="K3">
-        <v>168</v>
-      </c>
-      <c s="26" r="L3"/>
-      <c t="s" s="33" r="M3">
-        <v>171</v>
-      </c>
-      <c s="26" r="N3"/>
-      <c s="26" r="O3"/>
-      <c t="s" s="33" r="P3">
-        <v>173</v>
-      </c>
-    </row>
-    <row customHeight="1" r="4" ht="15.75">
-      <c t="s" s="25" r="A4">
-        <v>174</v>
-      </c>
-      <c s="25" r="B4">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="25" r="C4">
-        <v>177</v>
-      </c>
-      <c s="26" r="D4"/>
-      <c s="26" r="E4"/>
-      <c t="s" s="25" r="F4">
-        <v>178</v>
-      </c>
-      <c s="26" r="G4"/>
-      <c t="s" s="25" r="H4">
-        <v>179</v>
-      </c>
-      <c t="s" s="25" r="I4">
-        <v>90</v>
-      </c>
-      <c s="26" r="J4"/>
-      <c s="26" r="K4"/>
-      <c s="26" r="L4"/>
-      <c s="26" r="M4"/>
-      <c s="26" r="N4"/>
-      <c s="26" r="O4"/>
-      <c s="26" r="P4"/>
-    </row>
-    <row customHeight="1" r="5" ht="15.75"/>
+      <c s="46" r="J5"/>
+    </row>
     <row customHeight="1" r="6" ht="15.75"/>
     <row customHeight="1" r="7" ht="15.75"/>
     <row customHeight="1" r="8" ht="15.75"/>
@@ -2404,16 +2215,19 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="L2" r:id="rId2"/>
-    <hyperlink ref="P2" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="M3" r:id="rId5"/>
+    <hyperlink ref="M2" r:id="rId3"/>
+    <hyperlink ref="P2" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
     <hyperlink ref="P3" r:id="rId6"/>
+    <hyperlink ref="E4" r:id="rId7"/>
+    <hyperlink ref="M4" r:id="rId8"/>
+    <hyperlink ref="P4" r:id="rId9"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2424,248 +2238,248 @@
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="27" r="A1">
+      <c t="s" s="32" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="27" r="B1">
+      <c t="s" s="32" r="B1">
         <v>1</v>
       </c>
-      <c t="s" s="27" r="C1">
+      <c t="s" s="32" r="C1">
         <v>2</v>
       </c>
-      <c t="s" s="27" r="D1">
+      <c t="s" s="32" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="27" r="E1">
+      <c t="s" s="32" r="E1">
         <v>4</v>
       </c>
-      <c t="s" s="27" r="F1">
+      <c t="s" s="32" r="F1">
         <v>5</v>
       </c>
-      <c t="s" s="27" r="G1">
+      <c t="s" s="32" r="G1">
         <v>6</v>
       </c>
-      <c t="s" s="27" r="H1">
+      <c t="s" s="32" r="H1">
         <v>7</v>
       </c>
-      <c t="s" s="27" r="I1">
+      <c t="s" s="32" r="I1">
         <v>8</v>
       </c>
-      <c t="s" s="27" r="J1">
+      <c t="s" s="32" r="J1">
         <v>9</v>
       </c>
-      <c t="s" s="27" r="K1">
+      <c t="s" s="32" r="K1">
         <v>10</v>
       </c>
-      <c t="s" s="27" r="L1">
+      <c t="s" s="32" r="L1">
         <v>11</v>
       </c>
-      <c t="s" s="27" r="M1">
+      <c t="s" s="32" r="M1">
         <v>12</v>
       </c>
-      <c t="s" s="27" r="N1">
+      <c t="s" s="32" r="N1">
         <v>13</v>
       </c>
-      <c t="s" s="27" r="O1">
+      <c t="s" s="32" r="O1">
         <v>14</v>
       </c>
-      <c t="s" s="22" r="P1">
+      <c t="s" s="28" r="P1">
         <v>15</v>
       </c>
     </row>
     <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="29" r="A2">
-        <v>70</v>
-      </c>
-      <c s="29" r="B2">
+      <c t="s" s="35" r="A2">
+        <v>136</v>
+      </c>
+      <c s="35" r="B2">
         <v>1.0</v>
       </c>
-      <c t="s" s="29" r="C2">
-        <v>76</v>
-      </c>
-      <c s="31" r="D2"/>
-      <c t="s" s="35" r="E2">
+      <c t="s" s="35" r="C2">
+        <v>149</v>
+      </c>
+      <c s="36" r="D2"/>
+      <c t="s" s="37" r="E2">
+        <v>153</v>
+      </c>
+      <c t="s" s="35" r="F2">
+        <v>160</v>
+      </c>
+      <c t="s" s="35" r="G2">
+        <v>55</v>
+      </c>
+      <c t="s" s="35" r="H2">
+        <v>162</v>
+      </c>
+      <c t="s" s="35" r="I2">
+        <v>71</v>
+      </c>
+      <c t="s" s="18" r="J2">
+        <v>165</v>
+      </c>
+      <c s="36" r="K2"/>
+      <c t="s" s="37" r="L2">
+        <v>167</v>
+      </c>
+      <c s="36" r="M2"/>
+      <c s="36" r="N2"/>
+      <c s="36" r="O2"/>
+      <c t="s" s="37" r="P2">
+        <v>171</v>
+      </c>
+    </row>
+    <row customHeight="1" r="3" ht="15.75">
+      <c t="s" s="35" r="A3">
+        <v>172</v>
+      </c>
+      <c s="35" r="B3">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="35" r="C3">
+        <v>149</v>
+      </c>
+      <c s="36" r="D3"/>
+      <c t="s" s="37" r="E3">
+        <v>174</v>
+      </c>
+      <c t="s" s="35" r="F3">
+        <v>160</v>
+      </c>
+      <c t="s" s="35" r="G3">
+        <v>55</v>
+      </c>
+      <c t="s" s="35" r="H3">
+        <v>176</v>
+      </c>
+      <c t="s" s="35" r="I3">
         <v>77</v>
       </c>
-      <c t="s" s="29" r="F2">
-        <v>96</v>
-      </c>
-      <c t="s" s="29" r="G2">
+      <c t="s" s="18" r="J3">
+        <v>178</v>
+      </c>
+      <c t="s" s="38" r="K3">
+        <v>180</v>
+      </c>
+      <c t="s" s="37" r="L3">
+        <v>186</v>
+      </c>
+      <c s="36" r="M3"/>
+      <c s="36" r="N3"/>
+      <c s="36" r="O3"/>
+      <c t="s" s="37" r="P3">
+        <v>187</v>
+      </c>
+    </row>
+    <row customHeight="1" r="4" ht="15.75">
+      <c t="s" s="39" r="A4">
+        <v>189</v>
+      </c>
+      <c s="39" r="B4">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="39" r="C4">
+        <v>196</v>
+      </c>
+      <c s="40" r="D4"/>
+      <c t="s" s="42" r="E4">
+        <v>200</v>
+      </c>
+      <c t="s" s="39" r="F4">
+        <v>206</v>
+      </c>
+      <c t="s" s="43" r="G4">
         <v>55</v>
       </c>
-      <c t="s" s="29" r="H2">
-        <v>97</v>
-      </c>
-      <c t="s" s="29" r="I2">
-        <v>95</v>
-      </c>
-      <c t="s" s="18" r="J2">
-        <v>99</v>
-      </c>
-      <c s="31" r="K2"/>
-      <c t="s" s="35" r="L2">
-        <v>101</v>
-      </c>
-      <c s="31" r="M2"/>
-      <c s="31" r="N2"/>
-      <c s="31" r="O2"/>
-      <c t="s" s="35" r="P2">
-        <v>102</v>
-      </c>
-    </row>
-    <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="29" r="A3">
-        <v>105</v>
-      </c>
-      <c s="29" r="B3">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="29" r="C3">
-        <v>76</v>
-      </c>
-      <c s="31" r="D3"/>
-      <c t="s" s="35" r="E3">
-        <v>107</v>
-      </c>
-      <c t="s" s="29" r="F3">
-        <v>96</v>
-      </c>
-      <c t="s" s="29" r="G3">
+      <c t="s" s="39" r="H4">
+        <v>208</v>
+      </c>
+      <c t="s" s="39" r="I4">
+        <v>77</v>
+      </c>
+      <c s="40" r="J4"/>
+      <c t="s" s="42" r="L4">
+        <v>209</v>
+      </c>
+      <c s="40" r="M4"/>
+      <c s="40" r="N4"/>
+      <c s="40" r="O4"/>
+      <c t="s" s="42" r="P4">
+        <v>210</v>
+      </c>
+    </row>
+    <row customHeight="1" r="5" ht="15.75">
+      <c t="s" s="28" r="A5">
+        <v>211</v>
+      </c>
+      <c s="28" r="B5">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="28" r="C5">
+        <v>212</v>
+      </c>
+      <c t="s" s="28" r="F5">
+        <v>213</v>
+      </c>
+      <c t="s" s="28" r="H5">
+        <v>214</v>
+      </c>
+      <c t="s" s="28" r="I5">
+        <v>71</v>
+      </c>
+    </row>
+    <row customHeight="1" r="6" ht="15.75">
+      <c t="s" s="28" r="A6">
+        <v>215</v>
+      </c>
+      <c s="28" r="B6">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="28" r="C6">
+        <v>212</v>
+      </c>
+      <c t="s" s="28" r="F6">
+        <v>213</v>
+      </c>
+      <c t="s" s="28" r="H6">
+        <v>218</v>
+      </c>
+      <c t="s" s="28" r="I6">
+        <v>71</v>
+      </c>
+    </row>
+    <row customHeight="1" r="7" ht="15.75">
+      <c t="s" s="35" r="A7">
+        <v>219</v>
+      </c>
+      <c s="35" r="B7">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="28" r="C7">
+        <v>212</v>
+      </c>
+      <c s="36" r="D7"/>
+      <c t="s" s="37" r="E7">
+        <v>221</v>
+      </c>
+      <c t="s" s="35" r="F7">
+        <v>213</v>
+      </c>
+      <c t="s" s="35" r="G7">
         <v>55</v>
       </c>
-      <c t="s" s="29" r="H3">
-        <v>109</v>
-      </c>
-      <c t="s" s="29" r="I3">
-        <v>90</v>
-      </c>
-      <c t="s" s="18" r="J3">
-        <v>112</v>
-      </c>
-      <c t="s" s="38" r="K3">
-        <v>116</v>
-      </c>
-      <c t="s" s="35" r="L3">
-        <v>127</v>
-      </c>
-      <c s="31" r="M3"/>
-      <c s="31" r="N3"/>
-      <c s="31" r="O3"/>
-      <c t="s" s="35" r="P3">
-        <v>129</v>
-      </c>
-    </row>
-    <row customHeight="1" r="4" ht="15.75">
-      <c t="s" s="41" r="A4">
-        <v>131</v>
-      </c>
-      <c s="41" r="B4">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="41" r="C4">
-        <v>136</v>
-      </c>
-      <c s="42" r="D4"/>
-      <c t="s" s="43" r="E4">
-        <v>140</v>
-      </c>
-      <c t="s" s="41" r="F4">
-        <v>146</v>
-      </c>
-      <c t="s" s="37" r="G4">
-        <v>55</v>
-      </c>
-      <c t="s" s="41" r="H4">
-        <v>148</v>
-      </c>
-      <c t="s" s="41" r="I4">
-        <v>90</v>
-      </c>
-      <c s="42" r="J4"/>
-      <c t="s" s="43" r="L4">
-        <v>149</v>
-      </c>
-      <c s="42" r="M4"/>
-      <c s="42" r="N4"/>
-      <c s="42" r="O4"/>
-      <c t="s" s="43" r="P4">
-        <v>154</v>
-      </c>
-    </row>
-    <row customHeight="1" r="5" ht="15.75">
-      <c t="s" s="22" r="A5">
-        <v>156</v>
-      </c>
-      <c s="22" r="B5">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="22" r="C5">
-        <v>158</v>
-      </c>
-      <c t="s" s="22" r="F5">
-        <v>160</v>
-      </c>
-      <c t="s" s="22" r="H5">
-        <v>163</v>
-      </c>
-      <c t="s" s="22" r="I5">
-        <v>95</v>
-      </c>
-    </row>
-    <row customHeight="1" r="6" ht="15.75">
-      <c t="s" s="22" r="A6">
-        <v>164</v>
-      </c>
-      <c s="22" r="B6">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="22" r="C6">
-        <v>158</v>
-      </c>
-      <c t="s" s="22" r="F6">
-        <v>160</v>
-      </c>
-      <c t="s" s="22" r="H6">
-        <v>167</v>
-      </c>
-      <c t="s" s="22" r="I6">
-        <v>95</v>
-      </c>
-    </row>
-    <row customHeight="1" r="7" ht="15.75">
-      <c t="s" s="29" r="A7">
-        <v>169</v>
-      </c>
-      <c s="29" r="B7">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="22" r="C7">
-        <v>158</v>
-      </c>
-      <c s="31" r="D7"/>
-      <c t="s" s="35" r="E7">
-        <v>172</v>
-      </c>
-      <c t="s" s="29" r="F7">
-        <v>160</v>
-      </c>
-      <c t="s" s="29" r="G7">
-        <v>55</v>
-      </c>
-      <c t="s" s="29" r="H7">
-        <v>176</v>
-      </c>
-      <c t="s" s="29" r="I7">
-        <v>95</v>
-      </c>
-      <c s="31" r="J7"/>
-      <c s="31" r="K7"/>
-      <c s="31" r="L7"/>
-      <c s="31" r="M7"/>
-      <c s="31" r="N7"/>
-      <c s="31" r="O7"/>
-      <c t="s" s="35" r="P7">
-        <v>180</v>
+      <c t="s" s="35" r="H7">
+        <v>223</v>
+      </c>
+      <c t="s" s="35" r="I7">
+        <v>71</v>
+      </c>
+      <c s="36" r="J7"/>
+      <c s="36" r="K7"/>
+      <c s="36" r="L7"/>
+      <c s="36" r="M7"/>
+      <c s="36" r="N7"/>
+      <c s="36" r="O7"/>
+      <c t="s" s="37" r="P7">
+        <v>224</v>
       </c>
     </row>
     <row customHeight="1" r="8" ht="15.75"/>
@@ -2700,7 +2514,306 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" customWidth="1" max="16" width="13.57"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" r="1" ht="15.75">
+      <c t="s" s="27" r="A1">
+        <v>0</v>
+      </c>
+      <c t="s" s="27" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="27" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="27" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="27" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="27" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="27" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="27" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="27" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="27" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="27" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="27" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="27" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="27" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="27" r="O1">
+        <v>14</v>
+      </c>
+      <c t="s" s="28" r="P1">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" r="2" ht="15.75">
+      <c t="s" s="29" r="A2">
+        <v>315</v>
+      </c>
+      <c s="29" r="B2">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="29" r="C2">
+        <v>319</v>
+      </c>
+      <c s="31" r="D2"/>
+      <c t="s" s="33" r="E2">
+        <v>323</v>
+      </c>
+      <c t="s" s="29" r="F2">
+        <v>201</v>
+      </c>
+      <c t="s" s="29" r="G2">
+        <v>55</v>
+      </c>
+      <c t="s" s="29" r="H2">
+        <v>208</v>
+      </c>
+      <c t="s" s="29" r="I2">
+        <v>77</v>
+      </c>
+      <c s="31" r="J2"/>
+      <c t="s" s="29" r="K2">
+        <v>327</v>
+      </c>
+      <c t="s" s="33" r="L2">
+        <v>328</v>
+      </c>
+      <c t="s" s="49" r="M2">
+        <v>330</v>
+      </c>
+      <c s="31" r="N2"/>
+      <c s="31" r="O2"/>
+      <c t="s" s="33" r="P2">
+        <v>337</v>
+      </c>
+    </row>
+    <row customHeight="1" r="3" ht="15.75">
+      <c t="s" s="29" r="A3">
+        <v>340</v>
+      </c>
+      <c s="29" r="B3">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="29" r="C3">
+        <v>319</v>
+      </c>
+      <c s="31" r="D3"/>
+      <c t="s" s="33" r="E3">
+        <v>342</v>
+      </c>
+      <c t="s" s="29" r="F3">
+        <v>201</v>
+      </c>
+      <c t="s" s="29" r="G3">
+        <v>55</v>
+      </c>
+      <c t="s" s="29" r="H3">
+        <v>344</v>
+      </c>
+      <c t="s" s="29" r="I3">
+        <v>77</v>
+      </c>
+      <c s="31" r="J3"/>
+      <c t="s" s="29" r="K3">
+        <v>348</v>
+      </c>
+      <c s="31" r="L3"/>
+      <c t="s" s="33" r="M3">
+        <v>350</v>
+      </c>
+      <c s="31" r="N3"/>
+      <c s="31" r="O3"/>
+      <c t="s" s="33" r="P3">
+        <v>352</v>
+      </c>
+    </row>
+    <row customHeight="1" r="4" ht="15.75">
+      <c t="s" s="29" r="A4">
+        <v>356</v>
+      </c>
+      <c s="29" r="B4">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="29" r="C4">
+        <v>358</v>
+      </c>
+      <c s="31" r="D4"/>
+      <c s="31" r="E4"/>
+      <c t="s" s="29" r="F4">
+        <v>360</v>
+      </c>
+      <c s="31" r="G4"/>
+      <c t="s" s="29" r="H4">
+        <v>362</v>
+      </c>
+      <c t="s" s="29" r="I4">
+        <v>77</v>
+      </c>
+      <c s="31" r="J4"/>
+      <c s="31" r="K4"/>
+      <c s="31" r="L4"/>
+      <c s="31" r="M4"/>
+      <c s="31" r="N4"/>
+      <c s="31" r="O4"/>
+      <c s="31" r="P4"/>
+    </row>
+    <row customHeight="1" r="5" ht="15.75"/>
+    <row customHeight="1" r="6" ht="15.75"/>
+    <row customHeight="1" r="7" ht="15.75"/>
+    <row customHeight="1" r="8" ht="15.75"/>
+    <row customHeight="1" r="9" ht="15.75"/>
+    <row customHeight="1" r="10" ht="15.75"/>
+    <row customHeight="1" r="11" ht="15.75"/>
+    <row customHeight="1" r="12" ht="15.75"/>
+    <row customHeight="1" r="13" ht="15.75"/>
+    <row customHeight="1" r="14" ht="15.75"/>
+    <row customHeight="1" r="15" ht="15.75"/>
+    <row customHeight="1" r="16" ht="15.75"/>
+    <row customHeight="1" r="17" ht="15.75"/>
+    <row customHeight="1" r="18" ht="15.75"/>
+    <row customHeight="1" r="19" ht="15.75"/>
+    <row customHeight="1" r="20" ht="15.75"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId2"/>
+    <hyperlink ref="M2" r:id="rId3"/>
+    <hyperlink ref="P2" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="M3" r:id="rId6"/>
+    <hyperlink ref="P3" r:id="rId7"/>
+  </hyperlinks>
+  <drawing r:id="rId8"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="28" r="A1">
+        <v>353</v>
+      </c>
+      <c t="s" s="28" r="B1">
+        <v>355</v>
+      </c>
+      <c t="s" s="28" r="C1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="28" r="A2">
+        <v>359</v>
+      </c>
+      <c t="s" s="28" r="B2">
+        <v>361</v>
+      </c>
+      <c t="s" s="41" r="C2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="28" r="A3">
+        <v>366</v>
+      </c>
+      <c t="s" s="28" r="B3">
+        <v>368</v>
+      </c>
+      <c t="s" s="41" r="C3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="28" r="A4">
+        <v>372</v>
+      </c>
+      <c t="s" s="28" r="B4">
+        <v>373</v>
+      </c>
+      <c t="s" s="41" r="C4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="28" r="A5">
+        <v>377</v>
+      </c>
+      <c t="s" s="28" r="B5">
+        <v>378</v>
+      </c>
+      <c t="s" s="41" r="C5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="28" r="A6">
+        <v>381</v>
+      </c>
+      <c t="s" s="28" r="B6">
+        <v>378</v>
+      </c>
+      <c t="s" s="41" r="C6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="28" r="A7">
+        <v>386</v>
+      </c>
+      <c t="s" s="28" r="B7">
+        <v>373</v>
+      </c>
+      <c t="s" s="41" r="C7">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+  </hyperlinks>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2711,51 +2824,51 @@
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="49" r="A1">
-        <v>360</v>
-      </c>
-      <c t="s" s="50" r="B1">
-        <v>364</v>
+      <c t="s" s="51" r="A1">
+        <v>450</v>
+      </c>
+      <c t="s" s="52" r="B1">
+        <v>451</v>
       </c>
     </row>
     <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="50" r="A2">
-        <v>367</v>
-      </c>
-      <c t="s" s="22" r="B2">
-        <v>368</v>
+      <c t="s" s="52" r="A2">
+        <v>452</v>
+      </c>
+      <c t="s" s="28" r="B2">
+        <v>453</v>
       </c>
     </row>
     <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="50" r="A3">
-        <v>369</v>
-      </c>
-      <c t="s" s="22" r="B3">
-        <v>370</v>
+      <c t="s" s="52" r="A3">
+        <v>454</v>
+      </c>
+      <c t="s" s="28" r="B3">
+        <v>455</v>
       </c>
     </row>
     <row customHeight="1" r="4" ht="15.75">
-      <c t="s" s="50" r="A4">
-        <v>371</v>
-      </c>
-      <c t="s" s="51" r="B4">
-        <v>373</v>
+      <c t="s" s="52" r="A4">
+        <v>456</v>
+      </c>
+      <c t="s" s="53" r="B4">
+        <v>457</v>
       </c>
     </row>
     <row customHeight="1" r="5" ht="15.75">
-      <c t="s" s="49" r="A5">
-        <v>378</v>
-      </c>
-      <c t="s" s="51" r="B5">
-        <v>379</v>
+      <c t="s" s="51" r="A5">
+        <v>458</v>
+      </c>
+      <c t="s" s="53" r="B5">
+        <v>459</v>
       </c>
     </row>
     <row customHeight="1" r="6" ht="15.75">
-      <c t="s" s="50" r="A6">
-        <v>380</v>
-      </c>
-      <c t="s" s="51" r="B6">
-        <v>382</v>
+      <c t="s" s="52" r="A6">
+        <v>460</v>
+      </c>
+      <c t="s" s="53" r="B6">
+        <v>461</v>
       </c>
     </row>
     <row customHeight="1" r="7" ht="15.75"/>
@@ -2774,103 +2887,6 @@
     <row customHeight="1" r="20" ht="15.75"/>
   </sheetData>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c t="s" s="22" r="A1">
-        <v>197</v>
-      </c>
-      <c t="s" s="22" r="B1">
-        <v>199</v>
-      </c>
-      <c t="s" s="22" r="C1">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2">
-      <c t="s" s="22" r="A2">
-        <v>202</v>
-      </c>
-      <c t="s" s="22" r="B2">
-        <v>204</v>
-      </c>
-      <c t="s" s="34" r="C2">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="22" r="A3">
-        <v>206</v>
-      </c>
-      <c t="s" s="22" r="B3">
-        <v>207</v>
-      </c>
-      <c t="s" s="34" r="C3">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="22" r="A4">
-        <v>209</v>
-      </c>
-      <c t="s" s="22" r="B4">
-        <v>211</v>
-      </c>
-      <c t="s" s="34" r="C4">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="22" r="A5">
-        <v>214</v>
-      </c>
-      <c t="s" s="22" r="B5">
-        <v>215</v>
-      </c>
-      <c t="s" s="34" r="C5">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="22" r="A6">
-        <v>218</v>
-      </c>
-      <c t="s" s="22" r="B6">
-        <v>215</v>
-      </c>
-      <c t="s" s="34" r="C6">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="22" r="A7">
-        <v>222</v>
-      </c>
-      <c t="s" s="22" r="B7">
-        <v>211</v>
-      </c>
-      <c t="s" s="34" r="C7">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-  </hyperlinks>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3224,59 +3240,59 @@
       <c t="s" s="19" r="A7">
         <v>60</v>
       </c>
-      <c s="21" r="B7">
+      <c s="20" r="B7">
         <v>8.0</v>
       </c>
       <c t="s" s="3" r="C7">
         <v>52</v>
       </c>
-      <c s="23" r="D7"/>
-      <c t="s" s="24" r="E7">
-        <v>64</v>
+      <c s="21" r="D7"/>
+      <c t="s" s="22" r="E7">
+        <v>61</v>
       </c>
       <c t="s" s="19" r="F7">
         <v>54</v>
       </c>
-      <c t="s" s="28" r="G7">
+      <c t="s" s="23" r="G7">
         <v>55</v>
       </c>
-      <c t="s" s="23" r="H7">
-        <v>71</v>
-      </c>
-      <c t="s" s="23" r="I7">
+      <c t="s" s="21" r="H7">
+        <v>62</v>
+      </c>
+      <c t="s" s="21" r="I7">
         <v>57</v>
       </c>
-      <c t="s" s="28" r="J7">
-        <v>72</v>
-      </c>
-      <c t="s" s="28" r="K7">
-        <v>73</v>
-      </c>
-      <c t="s" s="24" r="L7">
-        <v>74</v>
-      </c>
-      <c t="s" s="30" r="M7">
-        <v>75</v>
-      </c>
-      <c s="32" r="N7"/>
-      <c s="32" r="O7"/>
-      <c t="s" s="24" r="P7">
-        <v>78</v>
-      </c>
-      <c s="32" r="Q7"/>
-      <c s="32" r="R7"/>
-      <c s="32" r="S7"/>
-      <c s="32" r="T7"/>
-      <c s="32" r="U7"/>
-      <c s="32" r="V7"/>
-      <c s="32" r="W7"/>
-      <c s="32" r="X7"/>
-      <c s="32" r="Y7"/>
-      <c s="32" r="Z7"/>
+      <c t="s" s="23" r="J7">
+        <v>63</v>
+      </c>
+      <c t="s" s="23" r="K7">
+        <v>64</v>
+      </c>
+      <c t="s" s="22" r="L7">
+        <v>65</v>
+      </c>
+      <c t="s" s="24" r="M7">
+        <v>66</v>
+      </c>
+      <c s="25" r="N7"/>
+      <c s="25" r="O7"/>
+      <c t="s" s="22" r="P7">
+        <v>67</v>
+      </c>
+      <c s="25" r="Q7"/>
+      <c s="25" r="R7"/>
+      <c s="25" r="S7"/>
+      <c s="25" r="T7"/>
+      <c s="25" r="U7"/>
+      <c s="25" r="V7"/>
+      <c s="25" r="W7"/>
+      <c s="25" r="X7"/>
+      <c s="25" r="Y7"/>
+      <c s="25" r="Z7"/>
     </row>
     <row customHeight="1" r="8" ht="15.75">
       <c t="s" s="3" r="A8">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c s="3" r="B8">
         <v>8.0</v>
@@ -3286,7 +3302,7 @@
       </c>
       <c s="5" r="D8"/>
       <c t="s" s="6" r="E8">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c t="s" s="3" r="F8">
         <v>54</v>
@@ -3295,13 +3311,13 @@
         <v>55</v>
       </c>
       <c t="s" s="3" r="H8">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c t="s" s="3" r="I8">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c t="s" s="18" r="J8">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c s="7" r="K8"/>
       <c s="5" r="L8"/>
@@ -3309,7 +3325,7 @@
       <c s="5" r="N8"/>
       <c s="5" r="O8"/>
       <c t="s" s="6" r="P8">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c s="5" r="Q8"/>
       <c s="5" r="R8"/>
@@ -3324,7 +3340,7 @@
     </row>
     <row customHeight="1" r="9" ht="15.75">
       <c t="s" s="3" r="A9">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c s="3" r="B9">
         <v>8.0</v>
@@ -3334,7 +3350,7 @@
       </c>
       <c s="5" r="D9"/>
       <c t="s" s="6" r="E9">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c t="s" s="3" r="F9">
         <v>54</v>
@@ -3343,25 +3359,25 @@
         <v>55</v>
       </c>
       <c t="s" s="3" r="H9">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c t="s" s="3" r="I9">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c t="s" s="3" r="J9">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c t="s" s="7" r="K9">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c s="5" r="L9"/>
       <c t="s" s="6" r="M9">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c s="5" r="N9"/>
       <c s="5" r="O9"/>
       <c t="s" s="6" r="P9">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c s="5" r="Q9"/>
       <c s="5" r="R9"/>
@@ -3376,7 +3392,7 @@
     </row>
     <row customHeight="1" r="10" ht="15.75">
       <c t="s" s="3" r="A10">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c s="3" r="B10">
         <v>8.0</v>
@@ -3386,7 +3402,7 @@
       </c>
       <c s="5" r="D10"/>
       <c t="s" s="6" r="E10">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c t="s" s="3" r="F10">
         <v>54</v>
@@ -3395,23 +3411,23 @@
         <v>55</v>
       </c>
       <c t="s" s="3" r="H10">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c t="s" s="3" r="I10">
         <v>57</v>
       </c>
       <c t="s" s="3" r="J10">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c s="7" r="K10"/>
       <c s="5" r="L10"/>
-      <c t="s" s="39" r="M10">
-        <v>125</v>
+      <c t="s" s="26" r="M10">
+        <v>86</v>
       </c>
       <c s="5" r="N10"/>
       <c s="5" r="O10"/>
       <c t="s" s="6" r="P10">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c s="5" r="Q10"/>
       <c s="5" r="R10"/>
@@ -3426,7 +3442,7 @@
     </row>
     <row customHeight="1" r="11" ht="15.75">
       <c t="s" s="3" r="A11">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c s="3" r="B11">
         <v>8.0</v>
@@ -3444,10 +3460,10 @@
         <v>89</v>
       </c>
       <c t="s" s="3" r="I11">
+        <v>77</v>
+      </c>
+      <c t="s" s="3" r="J11">
         <v>90</v>
-      </c>
-      <c t="s" s="3" r="J11">
-        <v>135</v>
       </c>
       <c s="7" r="K11"/>
       <c s="5" r="L11"/>
@@ -3468,7 +3484,7 @@
     </row>
     <row customHeight="1" r="12" ht="15.75">
       <c t="s" s="3" r="A12">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c s="3" r="B12">
         <v>8.0</v>
@@ -3479,17 +3495,17 @@
       <c s="3" r="D12"/>
       <c s="5" r="E12"/>
       <c t="s" s="3" r="F12">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c s="5" r="G12"/>
       <c t="s" s="3" r="H12">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c t="s" s="3" r="I12">
         <v>57</v>
       </c>
       <c t="s" s="18" r="J12">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c s="5" r="K12"/>
       <c s="5" r="L12"/>
@@ -3510,7 +3526,7 @@
     </row>
     <row customHeight="1" r="13" ht="15.75">
       <c t="s" s="3" r="A13">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c s="3" r="B13">
         <v>8.0</v>
@@ -3520,7 +3536,7 @@
       </c>
       <c s="5" r="D13"/>
       <c t="s" s="6" r="E13">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c t="s" s="3" r="F13">
         <v>54</v>
@@ -3529,13 +3545,13 @@
         <v>55</v>
       </c>
       <c t="s" s="3" r="H13">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c t="s" s="3" r="I13">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c t="s" s="3" r="J13">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c s="5" r="K13"/>
       <c s="3" r="L13"/>
@@ -3543,7 +3559,7 @@
       <c s="5" r="N13"/>
       <c s="5" r="O13"/>
       <c t="s" s="6" r="P13">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c s="5" r="Q13"/>
       <c s="5" r="R13"/>
@@ -3558,7 +3574,7 @@
     </row>
     <row customHeight="1" r="14" ht="15.75">
       <c t="s" s="3" r="A14">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c s="3" r="B14">
         <v>8.0</v>
@@ -3568,7 +3584,7 @@
       </c>
       <c s="5" r="D14"/>
       <c t="s" s="6" r="E14">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c t="s" s="3" r="F14">
         <v>54</v>
@@ -3577,25 +3593,25 @@
         <v>55</v>
       </c>
       <c t="s" s="3" r="H14">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c t="s" s="3" r="I14">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c t="s" s="3" r="J14">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c t="s" s="7" r="K14">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c s="3" r="L14"/>
       <c t="s" s="6" r="M14">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c s="5" r="N14"/>
       <c s="5" r="O14"/>
       <c t="s" s="6" r="P14">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c s="5" r="Q14"/>
       <c s="5" r="R14"/>
@@ -3610,7 +3626,7 @@
     </row>
     <row customHeight="1" r="15" ht="15.0">
       <c t="s" s="3" r="A15">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c s="3" r="B15">
         <v>8.0</v>
@@ -3620,7 +3636,7 @@
       </c>
       <c s="5" r="D15"/>
       <c t="s" s="6" r="E15">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c t="s" s="3" r="F15">
         <v>54</v>
@@ -3629,23 +3645,23 @@
         <v>55</v>
       </c>
       <c t="s" s="3" r="H15">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c t="s" s="3" r="I15">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c t="s" s="3" r="J15">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c t="s" s="7" r="K15">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c s="5" r="L15"/>
       <c s="5" r="M15"/>
       <c s="5" r="N15"/>
       <c s="5" r="O15"/>
       <c t="s" s="6" r="P15">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c s="5" r="Q15"/>
       <c s="5" r="R15"/>
@@ -3660,7 +3676,7 @@
     </row>
     <row customHeight="1" r="16" ht="15.75">
       <c t="s" s="3" r="A16">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c s="3" r="B16">
         <v>8.0</v>
@@ -3677,7 +3693,7 @@
       <c s="3" r="H16"/>
       <c s="3" r="I16"/>
       <c t="s" s="3" r="J16">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c s="7" r="K16"/>
       <c s="5" r="L16"/>
@@ -3698,7 +3714,7 @@
     </row>
     <row customHeight="1" r="17" ht="15.75">
       <c t="s" s="3" r="A17">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c s="3" r="B17">
         <v>8.0</v>
@@ -3708,7 +3724,7 @@
       </c>
       <c s="5" r="D17"/>
       <c t="s" s="6" r="E17">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c t="s" s="3" r="F17">
         <v>54</v>
@@ -3717,27 +3733,27 @@
         <v>55</v>
       </c>
       <c t="s" s="3" r="H17">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c t="s" s="3" r="I17">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c t="s" s="3" r="J17">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c t="s" s="3" r="K17">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c t="s" s="6" r="L17">
-        <v>200</v>
-      </c>
-      <c t="s" s="44" r="M17">
-        <v>203</v>
+        <v>125</v>
+      </c>
+      <c t="s" s="30" r="M17">
+        <v>127</v>
       </c>
       <c s="5" r="N17"/>
       <c s="5" r="O17"/>
       <c t="s" s="6" r="P17">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c s="5" r="Q17"/>
       <c s="5" r="R17"/>
@@ -3752,7 +3768,7 @@
     </row>
     <row customHeight="1" r="18" ht="15.75">
       <c t="s" s="3" r="A18">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c s="3" r="B18">
         <v>8.0</v>
@@ -3762,7 +3778,7 @@
       </c>
       <c s="5" r="D18"/>
       <c t="s" s="6" r="E18">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c t="s" s="3" r="F18">
         <v>54</v>
@@ -3771,23 +3787,23 @@
         <v>55</v>
       </c>
       <c t="s" s="3" r="H18">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c t="s" s="3" r="I18">
-        <v>90</v>
-      </c>
-      <c t="s" s="45" r="J18">
-        <v>221</v>
+        <v>77</v>
+      </c>
+      <c t="s" s="34" r="J18">
+        <v>135</v>
       </c>
       <c t="s" s="7" r="K18">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c s="5" r="L18"/>
       <c s="3" r="M18"/>
       <c s="5" r="N18"/>
       <c s="5" r="O18"/>
       <c t="s" s="6" r="P18">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c s="5" r="Q18"/>
       <c s="5" r="R18"/>
@@ -3802,7 +3818,7 @@
     </row>
     <row customHeight="1" r="19" ht="15.75">
       <c t="s" s="3" r="A19">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c s="3" r="B19">
         <v>8.0</v>
@@ -3811,32 +3827,38 @@
         <v>52</v>
       </c>
       <c s="5" r="D19"/>
-      <c s="5" r="E19"/>
+      <c t="s" s="6" r="E19">
+        <v>144</v>
+      </c>
       <c t="s" s="3" r="F19">
         <v>54</v>
       </c>
-      <c s="5" r="G19"/>
+      <c t="s" s="3" r="G19">
+        <v>55</v>
+      </c>
       <c t="s" s="3" r="H19">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c t="s" s="3" r="I19">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c t="s" s="3" r="J19">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c t="s" s="3" r="K19">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c t="s" s="6" r="L19">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c t="s" s="6" r="M19">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c s="5" r="N19"/>
       <c s="5" r="O19"/>
-      <c s="5" r="P19"/>
+      <c t="s" s="6" r="P19">
+        <v>151</v>
+      </c>
       <c s="5" r="Q19"/>
       <c s="5" r="R19"/>
       <c s="5" r="S19"/>
@@ -3850,7 +3872,7 @@
     </row>
     <row customHeight="1" r="20" ht="15.75">
       <c t="s" s="3" r="A20">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c s="3" r="B20">
         <v>8.0</v>
@@ -3868,10 +3890,10 @@
         <v>89</v>
       </c>
       <c t="s" s="3" r="I20">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c t="s" s="3" r="J20">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c s="5" r="K20"/>
       <c s="5" r="L20"/>
@@ -3892,44 +3914,44 @@
     </row>
     <row customHeight="1" r="21" ht="15.75">
       <c t="s" s="3" r="A21">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c s="3" r="B21">
         <v>1.0</v>
       </c>
       <c t="s" s="3" r="C21">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D21">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c t="s" s="6" r="E21">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c t="s" s="3" r="F21">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c t="s" s="3" r="G21">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H21">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c t="s" s="3" r="I21">
         <v>57</v>
       </c>
       <c t="s" s="3" r="J21">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c t="s" s="3" r="K21">
-        <v>240</v>
+        <v>163</v>
       </c>
       <c s="5" r="L21"/>
       <c s="5" r="M21"/>
       <c s="5" r="N21"/>
       <c s="5" r="O21"/>
       <c t="s" s="6" r="P21">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c s="5" r="Q21"/>
       <c s="5" r="R21"/>
@@ -3944,30 +3966,30 @@
     </row>
     <row customHeight="1" r="22" ht="15.75">
       <c t="s" s="3" r="A22">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c s="3" r="B22">
         <v>3.0</v>
       </c>
       <c t="s" s="3" r="C22">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D22">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c s="5" r="E22"/>
       <c t="s" s="3" r="F22">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c s="5" r="G22"/>
       <c t="s" s="3" r="H22">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c t="s" s="3" r="I22">
         <v>57</v>
       </c>
       <c t="s" s="18" r="J22">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c s="5" r="K22"/>
       <c s="3" r="L22"/>
@@ -3988,44 +4010,44 @@
     </row>
     <row customHeight="1" r="23" ht="15.75">
       <c t="s" s="3" r="A23">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c s="3" r="B23">
         <v>3.0</v>
       </c>
       <c t="s" s="3" r="C23">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D23">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c t="s" s="6" r="E23">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c t="s" s="3" r="F23">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c t="s" s="3" r="G23">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H23">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c t="s" s="3" r="I23">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c t="s" s="3" r="J23">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c t="s" s="3" r="K23">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c s="3" r="L23"/>
       <c s="5" r="M23"/>
       <c s="5" r="N23"/>
       <c s="5" r="O23"/>
       <c t="s" s="6" r="P23">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c s="5" r="Q23"/>
       <c s="5" r="R23"/>
@@ -4040,44 +4062,44 @@
     </row>
     <row customHeight="1" r="24" ht="15.75">
       <c t="s" s="3" r="A24">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c s="3" r="B24">
         <v>3.0</v>
       </c>
       <c t="s" s="3" r="C24">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D24">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c t="s" s="6" r="E24">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c t="s" s="3" r="F24">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c t="s" s="3" r="G24">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H24">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c t="s" s="3" r="I24">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c t="s" s="18" r="J24">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c t="s" s="3" r="K24">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c s="3" r="L24"/>
       <c s="5" r="M24"/>
       <c s="5" r="N24"/>
       <c s="5" r="O24"/>
       <c t="s" s="6" r="P24">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c s="5" r="Q24"/>
       <c s="5" r="R24"/>
@@ -4092,46 +4114,48 @@
     </row>
     <row customHeight="1" r="25" ht="15.75">
       <c t="s" s="3" r="A25">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c s="3" r="B25">
         <v>3.0</v>
       </c>
       <c t="s" s="3" r="C25">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D25">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c t="s" s="6" r="E25">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c t="s" s="3" r="F25">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c t="s" s="3" r="G25">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H25">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c t="s" s="3" r="I25">
-        <v>153</v>
-      </c>
-      <c t="s" s="46" r="J25">
-        <v>261</v>
+        <v>98</v>
+      </c>
+      <c t="s" s="44" r="J25">
+        <v>199</v>
       </c>
       <c t="s" s="3" r="K25">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c t="s" s="6" r="L25">
-        <v>263</v>
-      </c>
-      <c s="5" r="M25"/>
+        <v>217</v>
+      </c>
+      <c t="s" s="6" r="M25">
+        <v>220</v>
+      </c>
       <c s="5" r="N25"/>
       <c s="5" r="O25"/>
       <c t="s" s="6" r="P25">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c s="5" r="Q25"/>
       <c s="5" r="R25"/>
@@ -4146,44 +4170,44 @@
     </row>
     <row customHeight="1" r="26" ht="15.75">
       <c t="s" s="3" r="A26">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c s="3" r="B26">
         <v>2.0</v>
       </c>
       <c t="s" s="3" r="C26">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D26">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c t="s" s="6" r="E26">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c t="s" s="3" r="F26">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c t="s" s="3" r="G26">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H26">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c t="s" s="3" r="I26">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c t="s" s="3" r="J26">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c t="s" s="3" r="K26">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c s="5" r="L26"/>
       <c s="5" r="M26"/>
       <c s="5" r="N26"/>
       <c s="5" r="O26"/>
       <c t="s" s="6" r="P26">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c s="5" r="Q26"/>
       <c s="5" r="R26"/>
@@ -4198,44 +4222,44 @@
     </row>
     <row customHeight="1" r="27" ht="15.75">
       <c t="s" s="3" r="A27">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c s="3" r="B27">
         <v>2.0</v>
       </c>
       <c t="s" s="3" r="C27">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D27">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c t="s" s="6" r="E27">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c t="s" s="3" r="F27">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c t="s" s="3" r="G27">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H27">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c t="s" s="3" r="I27">
-        <v>90</v>
-      </c>
-      <c t="s" s="25" r="J27">
-        <v>276</v>
+        <v>77</v>
+      </c>
+      <c t="s" s="29" r="J27">
+        <v>244</v>
       </c>
       <c t="s" s="3" r="K27">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c s="3" r="L27"/>
       <c s="5" r="M27"/>
       <c s="5" r="N27"/>
       <c s="5" r="O27"/>
       <c t="s" s="6" r="P27">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c s="5" r="Q27"/>
       <c s="5" r="R27"/>
@@ -4250,34 +4274,34 @@
     </row>
     <row customHeight="1" r="28" ht="15.75">
       <c t="s" s="3" r="A28">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c s="3" r="B28">
         <v>1.0</v>
       </c>
       <c t="s" s="3" r="C28">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D28">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c t="s" s="6" r="E28">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c t="s" s="3" r="F28">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c t="s" s="3" r="G28">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H28">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c t="s" s="3" r="I28">
         <v>57</v>
       </c>
       <c t="s" s="3" r="J28">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c s="5" r="K28"/>
       <c s="5" r="L28"/>
@@ -4285,7 +4309,7 @@
       <c s="5" r="N28"/>
       <c s="5" r="O28"/>
       <c t="s" s="6" r="P28">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c s="5" r="Q28"/>
       <c s="5" r="R28"/>
@@ -4300,30 +4324,30 @@
     </row>
     <row customHeight="1" r="29" ht="15.75">
       <c t="s" s="3" r="A29">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c s="3" r="B29">
         <v>3.0</v>
       </c>
       <c t="s" s="3" r="C29">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D29">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c s="5" r="E29"/>
       <c t="s" s="3" r="F29">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c s="5" r="G29"/>
       <c t="s" s="3" r="H29">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c t="s" s="3" r="I29">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c t="s" s="3" r="J29">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c s="5" r="K29"/>
       <c s="5" r="L29"/>
@@ -4344,44 +4368,44 @@
     </row>
     <row customHeight="1" r="30" ht="15.75">
       <c t="s" s="3" r="A30">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c s="3" r="B30">
         <v>3.0</v>
       </c>
       <c t="s" s="3" r="C30">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D30">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c t="s" s="6" r="E30">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c t="s" s="3" r="F30">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c t="s" s="3" r="G30">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H30">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c t="s" s="3" r="I30">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c t="s" s="3" r="J30">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c s="5" r="K30"/>
       <c t="s" s="6" r="L30">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c s="3" r="M30"/>
       <c s="5" r="N30"/>
       <c s="5" r="O30"/>
       <c t="s" s="6" r="P30">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c s="5" r="Q30"/>
       <c s="5" r="R30"/>
@@ -4396,44 +4420,44 @@
     </row>
     <row customHeight="1" r="31" ht="15.75">
       <c t="s" s="3" r="A31">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c s="3" r="B31">
         <v>3.0</v>
       </c>
       <c t="s" s="3" r="C31">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D31">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c t="s" s="6" r="E31">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c t="s" s="3" r="F31">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c t="s" s="3" r="G31">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H31">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c t="s" s="3" r="I31">
         <v>57</v>
       </c>
       <c t="s" s="3" r="J31">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c s="5" r="K31"/>
       <c s="5" r="L31"/>
       <c t="s" s="6" r="M31">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c s="5" r="N31"/>
       <c s="5" r="O31"/>
       <c t="s" s="6" r="P31">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c s="5" r="Q31"/>
       <c s="5" r="R31"/>
@@ -4448,44 +4472,44 @@
     </row>
     <row customHeight="1" r="32" ht="15.75">
       <c t="s" s="3" r="A32">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c s="3" r="B32">
         <v>3.0</v>
       </c>
       <c t="s" s="3" r="C32">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D32">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c t="s" s="6" r="E32">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c t="s" s="3" r="F32">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c t="s" s="3" r="G32">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H32">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c t="s" s="3" r="I32">
         <v>57</v>
       </c>
       <c t="s" s="3" r="J32">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c t="s" s="3" r="K32">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c s="3" r="L32"/>
       <c s="3" r="M32"/>
       <c s="5" r="N32"/>
       <c s="5" r="O32"/>
       <c t="s" s="6" r="P32">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c s="5" r="Q32"/>
       <c s="5" r="R32"/>
@@ -4500,34 +4524,34 @@
     </row>
     <row customHeight="1" r="33" ht="15.75">
       <c t="s" s="1" r="A33">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c s="3" r="B33">
         <v>1.0</v>
       </c>
       <c t="s" s="3" r="C33">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="2" r="D33">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c t="s" s="47" r="E33">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c t="s" s="1" r="F33">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c t="s" s="3" r="G33">
         <v>55</v>
       </c>
       <c t="s" s="1" r="H33">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c t="s" s="1" r="I33">
         <v>57</v>
       </c>
       <c t="s" s="48" r="J33">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c s="5" r="K33"/>
       <c s="5" r="L33"/>
@@ -4535,7 +4559,7 @@
       <c s="5" r="N33"/>
       <c s="5" r="O33"/>
       <c t="s" s="6" r="P33">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c s="5" r="Q33"/>
       <c s="5" r="R33"/>
@@ -4550,44 +4574,44 @@
     </row>
     <row customHeight="1" r="34" ht="15.75">
       <c t="s" s="3" r="A34">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c s="3" r="B34">
         <v>4.0</v>
       </c>
       <c t="s" s="3" r="C34">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D34">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c t="s" s="6" r="E34">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c t="s" s="3" r="F34">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c t="s" s="3" r="G34">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H34">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c t="s" s="3" r="I34">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c t="s" s="3" r="J34">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c t="s" s="3" r="K34">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c s="5" r="L34"/>
       <c s="5" r="M34"/>
       <c s="5" r="N34"/>
       <c s="5" r="O34"/>
       <c t="s" s="6" r="P34">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c s="5" r="Q34"/>
       <c s="5" r="R34"/>
@@ -4602,34 +4626,34 @@
     </row>
     <row customHeight="1" r="35" ht="15.75">
       <c t="s" s="3" r="A35">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c s="3" r="B35">
         <v>4.0</v>
       </c>
       <c t="s" s="3" r="C35">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D35">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c t="s" s="6" r="E35">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c t="s" s="3" r="F35">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c t="s" s="3" r="G35">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H35">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c t="s" s="3" r="I35">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c t="s" s="3" r="J35">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c s="5" r="K35"/>
       <c s="5" r="L35"/>
@@ -4637,7 +4661,7 @@
       <c s="5" r="N35"/>
       <c s="5" r="O35"/>
       <c t="s" s="6" r="P35">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c s="5" r="Q35"/>
       <c s="5" r="R35"/>
@@ -4652,33 +4676,33 @@
     </row>
     <row customHeight="1" r="36" ht="15.75">
       <c t="s" s="3" r="A36">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c s="3" r="B36">
         <v>4.0</v>
       </c>
       <c t="s" s="3" r="C36">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D36">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c s="5" r="E36"/>
       <c t="s" s="3" r="F36">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c s="5" r="G36"/>
       <c t="s" s="3" r="H36">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c t="s" s="3" r="I36">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c t="s" s="3" r="J36">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c t="s" s="3" r="K36">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c s="5" r="L36"/>
       <c s="5" r="M36"/>
@@ -4698,30 +4722,30 @@
     </row>
     <row customHeight="1" r="37" ht="15.75">
       <c t="s" s="3" r="A37">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c s="3" r="B37">
         <v>1.0</v>
       </c>
       <c t="s" s="3" r="C37">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D37">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c s="5" r="E37"/>
       <c t="s" s="3" r="F37">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c s="5" r="G37"/>
       <c t="s" s="3" r="H37">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c t="s" s="3" r="I37">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c t="s" s="3" r="J37">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c s="5" r="K37"/>
       <c s="5" r="L37"/>
@@ -4742,46 +4766,46 @@
     </row>
     <row customHeight="1" r="38" ht="15.75">
       <c t="s" s="3" r="A38">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c s="3" r="B38">
         <v>1.0</v>
       </c>
       <c t="s" s="3" r="C38">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D38">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c t="s" s="6" r="E38">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c t="s" s="3" r="F38">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c t="s" s="3" r="G38">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H38">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c t="s" s="3" r="I38">
         <v>57</v>
       </c>
       <c t="s" s="3" r="J38">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c t="s" s="3" r="K38">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c t="s" s="6" r="L38">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c s="5" r="M38"/>
       <c s="5" r="N38"/>
       <c s="5" r="O38"/>
       <c t="s" s="6" r="P38">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c s="5" r="Q38"/>
       <c s="5" r="R38"/>
@@ -4796,30 +4820,30 @@
     </row>
     <row customHeight="1" r="39" ht="15.75">
       <c t="s" s="3" r="A39">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c s="3" r="B39">
         <v>1.0</v>
       </c>
       <c t="s" s="3" r="C39">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D39">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c s="5" r="E39"/>
       <c t="s" s="3" r="F39">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c s="5" r="G39"/>
       <c t="s" s="3" r="H39">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c t="s" s="3" r="I39">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c t="s" s="3" r="J39">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c s="5" r="K39"/>
       <c s="5" r="L39"/>
@@ -4840,44 +4864,44 @@
     </row>
     <row customHeight="1" r="40" ht="15.75">
       <c t="s" s="3" r="A40">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c s="3" r="B40">
         <v>1.0</v>
       </c>
       <c t="s" s="3" r="C40">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D40">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c t="s" s="6" r="E40">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c t="s" s="3" r="F40">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c t="s" s="3" r="G40">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H40">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c t="s" s="3" r="I40">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c t="s" s="3" r="J40">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c t="s" s="7" r="K40">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c s="5" r="L40"/>
       <c s="5" r="M40"/>
       <c s="5" r="N40"/>
       <c s="5" r="O40"/>
       <c t="s" s="6" r="P40">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c s="5" r="Q40"/>
       <c s="5" r="R40"/>
@@ -4892,30 +4916,30 @@
     </row>
     <row customHeight="1" r="41" ht="15.75">
       <c t="s" s="3" r="A41">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c s="3" r="B41">
         <v>1.0</v>
       </c>
       <c t="s" s="3" r="C41">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D41">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c s="5" r="E41"/>
       <c t="s" s="3" r="F41">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c s="5" r="G41"/>
       <c t="s" s="3" r="H41">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c t="s" s="3" r="I41">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c t="s" s="7" r="J41">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c s="5" r="K41"/>
       <c s="3" r="L41"/>
@@ -4936,44 +4960,44 @@
     </row>
     <row customHeight="1" r="42" ht="15.75">
       <c t="s" s="3" r="A42">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c s="3" r="B42">
         <v>4.0</v>
       </c>
       <c t="s" s="3" r="C42">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D42">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c t="s" s="6" r="E42">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c t="s" s="3" r="F42">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c t="s" s="3" r="G42">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H42">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c t="s" s="3" r="I42">
         <v>57</v>
       </c>
       <c t="s" s="3" r="J42">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c t="s" s="3" r="K42">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c s="5" r="L42"/>
       <c s="5" r="M42"/>
       <c s="5" r="N42"/>
       <c s="5" r="O42"/>
       <c t="s" s="6" r="P42">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c s="5" r="Q42"/>
       <c s="5" r="R42"/>
@@ -4988,46 +5012,46 @@
     </row>
     <row customHeight="1" r="43" ht="15.75">
       <c t="s" s="7" r="A43">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c s="3" r="B43">
         <v>4.0</v>
       </c>
       <c t="s" s="3" r="C43">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D43">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c t="s" s="6" r="E43">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c t="s" s="3" r="F43">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c t="s" s="3" r="G43">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H43">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c t="s" s="3" r="I43">
         <v>57</v>
       </c>
       <c t="s" s="3" r="J43">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c t="s" s="7" r="K43">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c s="5" r="L43"/>
-      <c t="s" s="30" r="M43">
-        <v>375</v>
+      <c t="s" s="24" r="M43">
+        <v>347</v>
       </c>
       <c s="5" r="N43"/>
       <c s="5" r="O43"/>
       <c t="s" s="6" r="P43">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c s="5" r="Q43"/>
       <c s="5" r="R43"/>
@@ -5042,46 +5066,48 @@
     </row>
     <row customHeight="1" r="44" ht="15.75">
       <c t="s" s="3" r="A44">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c s="3" r="B44">
         <v>4.0</v>
       </c>
       <c t="s" s="3" r="C44">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D44">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c t="s" s="6" r="E44">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c t="s" s="3" r="F44">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c t="s" s="3" r="G44">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H44">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c t="s" s="3" r="I44">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c t="s" s="7" r="J44">
-        <v>383</v>
-      </c>
-      <c s="5" r="K44"/>
+        <v>364</v>
+      </c>
+      <c t="s" s="3" r="K44">
+        <v>365</v>
+      </c>
       <c t="s" s="6" r="L44">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c t="s" s="6" r="M44">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c s="5" r="N44"/>
       <c s="5" r="O44"/>
       <c t="s" s="6" r="P44">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c s="5" r="Q44"/>
       <c s="5" r="R44"/>
@@ -5096,44 +5122,44 @@
     </row>
     <row customHeight="1" r="45" ht="15.75">
       <c t="s" s="3" r="A45">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c s="3" r="B45">
         <v>4.0</v>
       </c>
       <c t="s" s="3" r="C45">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D45">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c t="s" s="6" r="E45">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c t="s" s="3" r="F45">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c t="s" s="3" r="G45">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H45">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c t="s" s="3" r="I45">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c t="s" s="3" r="J45">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c t="s" s="3" r="K45">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c s="5" r="L45"/>
       <c s="5" r="M45"/>
       <c s="5" r="N45"/>
       <c s="5" r="O45"/>
       <c t="s" s="6" r="P45">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c s="5" r="Q45"/>
       <c s="5" r="R45"/>
@@ -5148,46 +5174,46 @@
     </row>
     <row customHeight="1" r="46" ht="15.75">
       <c t="s" s="3" r="A46">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c s="3" r="B46">
         <v>4.0</v>
       </c>
       <c t="s" s="3" r="C46">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D46">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c t="s" s="6" r="E46">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c t="s" s="3" r="F46">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c t="s" s="3" r="G46">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H46">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c t="s" s="3" r="I46">
         <v>57</v>
       </c>
       <c t="s" s="18" r="J46">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c s="3" r="K46"/>
       <c t="s" s="6" r="L46">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c t="s" s="6" r="M46">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c s="5" r="N46"/>
       <c s="5" r="O46"/>
       <c t="s" s="6" r="P46">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c s="5" r="Q46"/>
       <c s="5" r="R46"/>
@@ -5202,44 +5228,44 @@
     </row>
     <row customHeight="1" r="47" ht="15.75">
       <c t="s" s="3" r="A47">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c s="3" r="B47">
         <v>4.0</v>
       </c>
       <c t="s" s="3" r="C47">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D47">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c t="s" s="6" r="E47">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c t="s" s="3" r="F47">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c t="s" s="3" r="G47">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H47">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c t="s" s="3" r="I47">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c t="s" s="3" r="J47">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c t="s" s="3" r="K47">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c s="5" r="L47"/>
       <c s="5" r="M47"/>
       <c s="5" r="N47"/>
       <c s="5" r="O47"/>
       <c t="s" s="6" r="P47">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c s="5" r="Q47"/>
       <c s="5" r="R47"/>
@@ -5254,46 +5280,46 @@
     </row>
     <row customHeight="1" r="48" ht="15.75">
       <c t="s" s="3" r="A48">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c s="3" r="B48">
         <v>4.0</v>
       </c>
       <c t="s" s="3" r="C48">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D48">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c t="s" s="6" r="E48">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c t="s" s="3" r="F48">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c t="s" s="3" r="G48">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H48">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c t="s" s="3" r="I48">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c t="s" s="3" r="J48">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c t="s" s="3" r="K48">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c s="5" r="L48"/>
-      <c t="s" s="30" r="M48">
-        <v>410</v>
+      <c t="s" s="24" r="M48">
+        <v>405</v>
       </c>
       <c s="5" r="N48"/>
       <c s="5" r="O48"/>
       <c t="s" s="6" r="P48">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c s="5" r="Q48"/>
       <c s="5" r="R48"/>
@@ -5308,20 +5334,20 @@
     </row>
     <row customHeight="1" r="49" ht="15.75">
       <c t="s" s="3" r="A49">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c s="3" r="B49">
         <v>5.0</v>
       </c>
       <c t="s" s="3" r="C49">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D49">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c s="5" r="E49"/>
       <c t="s" s="3" r="F49">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c s="5" r="G49"/>
       <c t="s" s="3" r="H49">
@@ -5331,7 +5357,7 @@
         <v>57</v>
       </c>
       <c t="s" s="3" r="J49">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c s="3" r="K49"/>
       <c s="5" r="L49"/>
@@ -5352,22 +5378,22 @@
     </row>
     <row customHeight="1" r="50" ht="15.75">
       <c t="s" s="3" r="A50">
-        <v>415</v>
-      </c>
-      <c s="25" r="B50">
+        <v>410</v>
+      </c>
+      <c s="29" r="B50">
         <v>5.0</v>
       </c>
       <c t="s" s="3" r="C50">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D50">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c t="s" s="6" r="E50">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c t="s" s="3" r="F50">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c t="s" s="3" r="G50">
         <v>55</v>
@@ -5376,22 +5402,22 @@
         <v>89</v>
       </c>
       <c t="s" s="3" r="I50">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c t="s" s="3" r="J50">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c s="3" r="K50"/>
       <c t="s" s="6" r="L50">
-        <v>418</v>
-      </c>
-      <c t="s" s="30" r="M50">
-        <v>419</v>
+        <v>413</v>
+      </c>
+      <c t="s" s="24" r="M50">
+        <v>414</v>
       </c>
       <c s="5" r="N50"/>
       <c s="5" r="O50"/>
       <c t="s" s="6" r="P50">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c s="5" r="Q50"/>
       <c s="5" r="R50"/>
@@ -5406,30 +5432,30 @@
     </row>
     <row customHeight="1" r="51" ht="15.75">
       <c t="s" s="3" r="A51">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c s="3" r="B51">
         <v>5.0</v>
       </c>
       <c t="s" s="3" r="C51">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D51">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c s="5" r="E51"/>
       <c t="s" s="3" r="F51">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c s="5" r="G51"/>
       <c t="s" s="3" r="H51">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c t="s" s="3" r="I51">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c t="s" s="3" r="J51">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c s="3" r="K51"/>
       <c s="5" r="L51"/>
@@ -5450,30 +5476,30 @@
     </row>
     <row customHeight="1" r="52" ht="15.75">
       <c t="s" s="3" r="A52">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c s="3" r="B52">
         <v>5.0</v>
       </c>
       <c t="s" s="3" r="C52">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D52">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c s="5" r="E52"/>
       <c t="s" s="3" r="F52">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c s="5" r="G52"/>
       <c t="s" s="3" r="H52">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c t="s" s="3" r="I52">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c t="s" s="3" r="J52">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c s="3" r="K52"/>
       <c s="5" r="L52"/>
@@ -5494,44 +5520,44 @@
     </row>
     <row customHeight="1" r="53" ht="15.75">
       <c t="s" s="3" r="A53">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c s="3" r="B53">
         <v>5.0</v>
       </c>
       <c t="s" s="3" r="C53">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D53">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c t="s" s="6" r="E53">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c t="s" s="3" r="F53">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c t="s" s="3" r="G53">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H53">
+        <v>420</v>
+      </c>
+      <c t="s" s="3" r="I53">
+        <v>98</v>
+      </c>
+      <c t="s" s="3" r="J53">
+        <v>424</v>
+      </c>
+      <c t="s" s="3" r="K53">
         <v>425</v>
-      </c>
-      <c t="s" s="3" r="I53">
-        <v>153</v>
-      </c>
-      <c t="s" s="3" r="J53">
-        <v>429</v>
-      </c>
-      <c t="s" s="3" r="K53">
-        <v>430</v>
       </c>
       <c s="5" r="L53"/>
       <c s="5" r="M53"/>
       <c s="5" r="N53"/>
       <c s="5" r="O53"/>
       <c t="s" s="6" r="P53">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c s="5" r="Q53"/>
       <c s="5" r="R53"/>
@@ -5546,30 +5572,30 @@
     </row>
     <row customHeight="1" r="54" ht="15.75">
       <c t="s" s="3" r="A54">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c s="3" r="B54">
         <v>5.0</v>
       </c>
       <c t="s" s="3" r="C54">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D54">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c s="5" r="E54"/>
       <c t="s" s="3" r="F54">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c s="5" r="G54"/>
       <c t="s" s="3" r="H54">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c t="s" s="3" r="I54">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c t="s" s="3" r="J54">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c s="3" r="K54"/>
       <c s="5" r="L54"/>
@@ -5590,34 +5616,34 @@
     </row>
     <row customHeight="1" r="55" ht="15.75">
       <c t="s" s="3" r="A55">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c s="3" r="B55">
         <v>5.0</v>
       </c>
       <c t="s" s="3" r="C55">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D55">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c t="s" s="6" r="E55">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c t="s" s="3" r="F55">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c t="s" s="3" r="G55">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H55">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c t="s" s="3" r="I55">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c t="s" s="18" r="J55">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c s="3" r="K55"/>
       <c s="5" r="L55"/>
@@ -5625,7 +5651,7 @@
       <c s="5" r="N55"/>
       <c s="5" r="O55"/>
       <c t="s" s="6" r="P55">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c s="5" r="Q55"/>
       <c s="5" r="R55"/>
@@ -5640,48 +5666,48 @@
     </row>
     <row customHeight="1" r="56" ht="15.75">
       <c t="s" s="3" r="A56">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c s="3" r="B56">
         <v>5.0</v>
       </c>
       <c t="s" s="3" r="C56">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D56">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c t="s" s="6" r="E56">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c t="s" s="3" r="F56">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c t="s" s="3" r="G56">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H56">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c t="s" s="3" r="I56">
         <v>57</v>
       </c>
       <c t="s" s="3" r="J56">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c t="s" s="3" r="K56">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c t="s" s="6" r="L56">
-        <v>444</v>
-      </c>
-      <c t="s" s="52" r="M56">
-        <v>445</v>
+        <v>439</v>
+      </c>
+      <c t="s" s="50" r="M56">
+        <v>440</v>
       </c>
       <c s="5" r="N56"/>
       <c s="5" r="O56"/>
       <c t="s" s="6" r="P56">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c s="5" r="Q56"/>
       <c s="5" r="R56"/>
@@ -5696,44 +5722,44 @@
     </row>
     <row customHeight="1" r="57" ht="15.75">
       <c t="s" s="3" r="A57">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c s="3" r="B57">
         <v>1.0</v>
       </c>
       <c t="s" s="3" r="C57">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" s="3" r="D57">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c t="s" s="6" r="E57">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c t="s" s="3" r="F57">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c t="s" s="3" r="G57">
         <v>55</v>
       </c>
       <c t="s" s="3" r="H57">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c t="s" s="3" r="I57">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c t="s" s="3" r="J57">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c t="s" s="3" r="K57">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c s="5" r="L57"/>
       <c s="5" r="M57"/>
       <c s="5" r="N57"/>
       <c s="5" r="O57"/>
       <c t="s" s="6" r="P57">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c s="5" r="Q57"/>
       <c s="5" r="R57"/>
@@ -6771,78 +6797,81 @@
     <hyperlink ref="P17" r:id="rId42"/>
     <hyperlink ref="E18" r:id="rId43"/>
     <hyperlink ref="P18" r:id="rId44"/>
-    <hyperlink ref="L19" r:id="rId45"/>
-    <hyperlink ref="M19" r:id="rId46"/>
-    <hyperlink ref="E21" r:id="rId47"/>
-    <hyperlink ref="P21" r:id="rId48"/>
-    <hyperlink ref="E23" r:id="rId49"/>
-    <hyperlink ref="P23" r:id="rId50"/>
-    <hyperlink ref="E24" r:id="rId51"/>
-    <hyperlink ref="P24" r:id="rId52"/>
-    <hyperlink ref="E25" r:id="rId53"/>
-    <hyperlink ref="L25" r:id="rId54"/>
-    <hyperlink ref="P25" r:id="rId55"/>
-    <hyperlink ref="E26" r:id="rId56"/>
-    <hyperlink ref="P26" r:id="rId57"/>
-    <hyperlink ref="E27" r:id="rId58"/>
-    <hyperlink ref="P27" r:id="rId59"/>
-    <hyperlink ref="E28" r:id="rId60"/>
-    <hyperlink ref="P28" r:id="rId61"/>
-    <hyperlink ref="E30" r:id="rId62"/>
-    <hyperlink ref="L30" r:id="rId63"/>
-    <hyperlink ref="P30" r:id="rId64"/>
-    <hyperlink ref="E31" r:id="rId65"/>
-    <hyperlink ref="M31" r:id="rId66"/>
-    <hyperlink ref="P31" r:id="rId67"/>
-    <hyperlink ref="E32" r:id="rId68"/>
-    <hyperlink ref="P32" r:id="rId69"/>
-    <hyperlink ref="E33" r:id="rId70"/>
-    <hyperlink ref="P33" r:id="rId71"/>
-    <hyperlink ref="E34" r:id="rId72"/>
-    <hyperlink ref="P34" r:id="rId73"/>
-    <hyperlink ref="E35" r:id="rId74"/>
-    <hyperlink ref="P35" r:id="rId75"/>
-    <hyperlink ref="E38" r:id="rId76"/>
-    <hyperlink ref="L38" r:id="rId77"/>
-    <hyperlink ref="P38" r:id="rId78"/>
-    <hyperlink ref="E40" r:id="rId79"/>
-    <hyperlink ref="P40" r:id="rId80"/>
-    <hyperlink ref="E42" r:id="rId81"/>
-    <hyperlink ref="P42" r:id="rId82"/>
-    <hyperlink ref="E43" r:id="rId83"/>
-    <hyperlink ref="M43" r:id="rId84"/>
-    <hyperlink ref="P43" r:id="rId85"/>
-    <hyperlink ref="E44" r:id="rId86"/>
-    <hyperlink ref="L44" r:id="rId87"/>
-    <hyperlink ref="M44" r:id="rId88"/>
-    <hyperlink ref="P44" r:id="rId89"/>
-    <hyperlink ref="E45" r:id="rId90"/>
-    <hyperlink ref="P45" r:id="rId91"/>
-    <hyperlink ref="E46" r:id="rId92"/>
-    <hyperlink ref="L46" r:id="rId93"/>
-    <hyperlink ref="M46" r:id="rId94"/>
-    <hyperlink ref="P46" r:id="rId95"/>
-    <hyperlink ref="E47" r:id="rId96"/>
-    <hyperlink ref="P47" r:id="rId97"/>
-    <hyperlink ref="E48" r:id="rId98"/>
-    <hyperlink ref="M48" r:id="rId99"/>
-    <hyperlink ref="P48" r:id="rId100"/>
-    <hyperlink ref="E50" r:id="rId101"/>
-    <hyperlink ref="L50" r:id="rId102"/>
-    <hyperlink ref="M50" r:id="rId103"/>
-    <hyperlink ref="P50" r:id="rId104"/>
-    <hyperlink ref="E53" r:id="rId105"/>
-    <hyperlink ref="P53" r:id="rId106"/>
-    <hyperlink ref="E55" r:id="rId107"/>
-    <hyperlink ref="P55" r:id="rId108"/>
-    <hyperlink ref="E56" r:id="rId109"/>
-    <hyperlink ref="L56" r:id="rId110"/>
-    <hyperlink ref="M56" r:id="rId111"/>
-    <hyperlink ref="P56" r:id="rId112"/>
-    <hyperlink ref="E57" r:id="rId113"/>
-    <hyperlink ref="P57" r:id="rId114"/>
+    <hyperlink ref="E19" r:id="rId45"/>
+    <hyperlink ref="L19" r:id="rId46"/>
+    <hyperlink ref="M19" r:id="rId47"/>
+    <hyperlink ref="P19" r:id="rId48"/>
+    <hyperlink ref="E21" r:id="rId49"/>
+    <hyperlink ref="P21" r:id="rId50"/>
+    <hyperlink ref="E23" r:id="rId51"/>
+    <hyperlink ref="P23" r:id="rId52"/>
+    <hyperlink ref="E24" r:id="rId53"/>
+    <hyperlink ref="P24" r:id="rId54"/>
+    <hyperlink ref="E25" r:id="rId55"/>
+    <hyperlink ref="L25" r:id="rId56"/>
+    <hyperlink ref="M25" r:id="rId57"/>
+    <hyperlink ref="P25" r:id="rId58"/>
+    <hyperlink ref="E26" r:id="rId59"/>
+    <hyperlink ref="P26" r:id="rId60"/>
+    <hyperlink ref="E27" r:id="rId61"/>
+    <hyperlink ref="P27" r:id="rId62"/>
+    <hyperlink ref="E28" r:id="rId63"/>
+    <hyperlink ref="P28" r:id="rId64"/>
+    <hyperlink ref="E30" r:id="rId65"/>
+    <hyperlink ref="L30" r:id="rId66"/>
+    <hyperlink ref="P30" r:id="rId67"/>
+    <hyperlink ref="E31" r:id="rId68"/>
+    <hyperlink ref="M31" r:id="rId69"/>
+    <hyperlink ref="P31" r:id="rId70"/>
+    <hyperlink ref="E32" r:id="rId71"/>
+    <hyperlink ref="P32" r:id="rId72"/>
+    <hyperlink ref="E33" r:id="rId73"/>
+    <hyperlink ref="P33" r:id="rId74"/>
+    <hyperlink ref="E34" r:id="rId75"/>
+    <hyperlink ref="P34" r:id="rId76"/>
+    <hyperlink ref="E35" r:id="rId77"/>
+    <hyperlink ref="P35" r:id="rId78"/>
+    <hyperlink ref="E38" r:id="rId79"/>
+    <hyperlink ref="L38" r:id="rId80"/>
+    <hyperlink ref="P38" r:id="rId81"/>
+    <hyperlink ref="E40" r:id="rId82"/>
+    <hyperlink ref="P40" r:id="rId83"/>
+    <hyperlink ref="E42" r:id="rId84"/>
+    <hyperlink ref="P42" r:id="rId85"/>
+    <hyperlink ref="E43" r:id="rId86"/>
+    <hyperlink ref="M43" r:id="rId87"/>
+    <hyperlink ref="P43" r:id="rId88"/>
+    <hyperlink ref="E44" r:id="rId89"/>
+    <hyperlink ref="L44" r:id="rId90"/>
+    <hyperlink ref="M44" r:id="rId91"/>
+    <hyperlink ref="P44" r:id="rId92"/>
+    <hyperlink ref="E45" r:id="rId93"/>
+    <hyperlink ref="P45" r:id="rId94"/>
+    <hyperlink ref="E46" r:id="rId95"/>
+    <hyperlink ref="L46" r:id="rId96"/>
+    <hyperlink ref="M46" r:id="rId97"/>
+    <hyperlink ref="P46" r:id="rId98"/>
+    <hyperlink ref="E47" r:id="rId99"/>
+    <hyperlink ref="P47" r:id="rId100"/>
+    <hyperlink ref="E48" r:id="rId101"/>
+    <hyperlink ref="M48" r:id="rId102"/>
+    <hyperlink ref="P48" r:id="rId103"/>
+    <hyperlink ref="E50" r:id="rId104"/>
+    <hyperlink ref="L50" r:id="rId105"/>
+    <hyperlink ref="M50" r:id="rId106"/>
+    <hyperlink ref="P50" r:id="rId107"/>
+    <hyperlink ref="E53" r:id="rId108"/>
+    <hyperlink ref="P53" r:id="rId109"/>
+    <hyperlink ref="E55" r:id="rId110"/>
+    <hyperlink ref="P55" r:id="rId111"/>
+    <hyperlink ref="E56" r:id="rId112"/>
+    <hyperlink ref="L56" r:id="rId113"/>
+    <hyperlink ref="M56" r:id="rId114"/>
+    <hyperlink ref="P56" r:id="rId115"/>
+    <hyperlink ref="E57" r:id="rId116"/>
+    <hyperlink ref="P57" r:id="rId117"/>
   </hyperlinks>
-  <drawing r:id="rId115"/>
-  <legacyDrawing r:id="rId116"/>
+  <drawing r:id="rId118"/>
+  <legacyDrawing r:id="rId119"/>
 </worksheet>
 </file>
--- a/backend/copysheet.xlsx
+++ b/backend/copysheet.xlsx
@@ -74,165 +74,336 @@
     <t>Candidate Name</t>
   </si>
   <si>
+    <t>Category Number</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Photo URL</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Photo Credit</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>Campaign Platform Points</t>
+  </si>
+  <si>
+    <t>Twitter Feed URL</t>
+  </si>
+  <si>
+    <t>Campaign Website</t>
+  </si>
+  <si>
+    <t>Daily Texan Coverage Titles</t>
+  </si>
+  <si>
+    <t>Daily Texan Coverage URLs</t>
+  </si>
+  <si>
+    <t>Thumbnail URL</t>
+  </si>
+  <si>
+    <t>(1) QUESTION!!!: Why are you running for Student Government?</t>
+  </si>
+  <si>
+    <t>(2) QUESTION!!!: Explain, in no more than three sentences, what SG does.</t>
+  </si>
+  <si>
+    <t>(3) QUESTION!!!: What qualities do you have that make you a good leader?</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Brian Wilkey</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
-    <t>Category Number</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>Graduate Student Assembly President</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>Human Development &amp; Family Sciences</t>
+  </si>
+  <si>
+    <t>Cameron Kerl</t>
+  </si>
+  <si>
+    <t>Board of Directors - 2 open positions</t>
+  </si>
+  <si>
+    <t>Samantha Grasso</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/bLH0puJ.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Davis Jr. </t>
+  </si>
+  <si>
+    <t>University Unions Board of Directors - 2 open positions</t>
+  </si>
+  <si>
+    <t>The Daily Texan</t>
+  </si>
+  <si>
+    <t>Brian Wilkey is a Doctoral Candidate in the department of Human Development and Family Sciences. He has served as the department representative to the Graduate Student Assembly and as its Vice-President. He currently serves as the President of the GSA. During his term, Brian has overseen the revision of the GSA’s governing documents, the establishment of the Graduate Student Housing Committee, the establishment of the GSA’s agencies, as well as helped to increase the participation of graduate students in university governance. His campaign with Vice-President Roper will build upon this year’s successes to establish more input on graduate student housing, more programs and opportunities for graduate students, and a campaign to redefine the value of graduate and professional education. As President for another term, he hopes to continue to grow interest in shared governance among graduate students as well as establish more successful collaborations with campus units to help graduate students both while they complete their studies and when they head into the workforce. He also intends to make sure UT-Austin’s voice is heard on a state and national level concerning issues of student taxation and indebtedness and research funding. He will continue to fight for more rights for graduate students while making sure the community holds them to the highest standards.</t>
+  </si>
+  <si>
+    <t>(4) QUESTION!!!: What specific problems do you see in your college (if you're running for a college seat)? How could you fix these?</t>
+  </si>
+  <si>
+    <t>(5) QUESTION!!!: If you are running for a University-wide position, what are the biggest problems you see at the University level? How could you fix these?</t>
+  </si>
+  <si>
+    <t>(6) QUESTION!!!: List some of the challenges SG has faced internally this year and how you would work to fix them.</t>
+  </si>
+  <si>
+    <t>(7) QUESTION!!!: List some of the challenges SG has faced externally (that is with its perception by the UT student body) this year and how you would work to fix them.</t>
+  </si>
+  <si>
+    <t>(8) QUESTION!!!: Assuming no obstacles, what would be your first three pieces of legislation if elected?</t>
+  </si>
+  <si>
+    <t>Braydon Jones and Kimia Dargahi</t>
+  </si>
+  <si>
+    <t>Vance Roper</t>
+  </si>
+  <si>
+    <t>Graduate Student Assembly Vice President</t>
+  </si>
+  <si>
+    <t>Executive Alliance - 1 open position</t>
+  </si>
+  <si>
+    <t>Board Member</t>
+  </si>
+  <si>
+    <t>Courtesy</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Sophomore</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/cameronkerl</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/VoteCameronKerlCOOP?ref=ts&amp;fref=ts</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/XKFUCGp.jpg</t>
+  </si>
+  <si>
+    <t>Dana Le</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/xAeWuS7.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/zR5HFsT.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/N76KAhO.jpg</t>
+  </si>
+  <si>
+    <t>Tim Nelson</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/1TYY5QU.jpg</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>The University of Texas is a place of opportunity and innovation. If elected University Co-op Student Board Member, I will increase the level of opportunity and support of innovation at The University of Texas. Creating and leading a student organization over the past two semesters has increased my management skills, challenged me to communicate efficiently, and grown my overall leadership ability. I will utilize my skill set to represent key interests of student organizations and promote greater educational investment by the Co-op. In addition, I want to diversify marketing strategies at the Co-op in order to reach new target markets. Finally, I would like to thank the University Co-op, UT faculty, and students for their consideration. I am grateful for the opportunity to run for Student Board Member.|||Sincerely,|||Tim Nelson</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/P5ztiyk.jpg</t>
+  </si>
+  <si>
+    <t>Strengthen the University Co-op's relationships with UT alumni and alumnus organizations|||Support student-led/sponsored charities|||Develop foreign target markets|||Create an event where UT Entrepreneurs can connect with investors|||Increase advertisement of funding programs offered by the Co-op to departments and organizations at UT|||Engage the Greek Life community through sponsorship|||Foster growth of UT culture and athletic heritage</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/VoteTimNelson</t>
+  </si>
+  <si>
+    <t>Journalism</t>
+  </si>
+  <si>
+    <t>Help build a stronger and safer University Unions|||Provide more resources for students|||Develop transparency between the Unions and student organizations</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/samjgrasso</t>
+  </si>
+  <si>
+    <t>http://www.samanthajgrasso.com</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/G079hRA.jpg</t>
+  </si>
+  <si>
+    <t>Pierre Pfarr</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/UhciK4N.jpg</t>
+  </si>
+  <si>
+    <t>Economics and Chemistry</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/1xZ7rNq.jpg</t>
+  </si>
+  <si>
+    <t>Tylee Milan</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/LWqr3LK.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/VBrtC7s.jpg</t>
+  </si>
+  <si>
+    <t>Supply Chain Management</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/Gxo8TS1.jpg</t>
+  </si>
+  <si>
+    <t>I previously served on the University Unions Board of Directors my sophomore year. Thus, I intend to utilize my prior knowledge of past issues and strengths to continue improving University Unions as a whole.|||I intend to continue working on the re-branding of Campus Events and Entertainment through various platforms that appeal specifically to students.|||I will always keep the student body's interests in high consideration when evaluating the University Union's future developmental opportunities on campus.|||I plan to exhaust all resources to stay informed about relevant student issues and use this knowledge to offer innovative solutions and ideas to the board.</t>
+  </si>
+  <si>
+    <t>http://www.Facebook.com/tyleem</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/hJbl9LB.jpg</t>
+  </si>
+  <si>
+    <t>Editor-in-Chief</t>
+  </si>
+  <si>
+    <t>Diana Padilla</t>
+  </si>
+  <si>
+    <t>Campus Events and Entertainment</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/aV9IFGG.jpg</t>
+  </si>
+  <si>
+    <t>Campus Events and Entertainment President</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>French and International Relations &amp; Global Studies</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>Increase brand awareness for E+E across the University|||Create new partnerships between E+E and other UT student organizations and departments|||Strengthen collaborations between E+E committees|||Increase attendance to all E+E events</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/hQ5W8JB.jpg</t>
   </si>
   <si>
     <t>purpose</t>
   </si>
   <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
-    <t>Photo URL</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Photo Credit</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Statement</t>
-  </si>
-  <si>
-    <t>Campaign Platform Points</t>
-  </si>
-  <si>
-    <t>Twitter Feed URL</t>
-  </si>
-  <si>
-    <t>Campaign Website</t>
-  </si>
-  <si>
-    <t>Daily Texan Coverage Titles</t>
-  </si>
-  <si>
-    <t>Daily Texan Coverage URLs</t>
-  </si>
-  <si>
-    <t>Thumbnail URL</t>
-  </si>
-  <si>
-    <t>Samantha Grasso</t>
-  </si>
-  <si>
-    <t>Cameron Kerl</t>
-  </si>
-  <si>
-    <t>Board of Directors - 2 open positions</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/bLH0puJ.jpg</t>
-  </si>
-  <si>
-    <t>University Unions Board of Directors - 2 open positions</t>
-  </si>
-  <si>
-    <t>(1) QUESTION!!!: Why are you running for Student Government?</t>
-  </si>
-  <si>
-    <t>Brian Wilkey</t>
-  </si>
-  <si>
-    <t>Graduate Student Assembly President</t>
-  </si>
-  <si>
-    <t>Board Member</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
-    <t>Courtesy</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Human Development &amp; Family Sciences</t>
-  </si>
-  <si>
-    <t>Sophomore</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/cameronkerl</t>
-  </si>
-  <si>
-    <t>(2) QUESTION!!!: Explain, in no more than three sentences, what SG does.</t>
-  </si>
-  <si>
-    <t>(3) QUESTION!!!: What qualities do you have that make you a good leader?</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/VoteCameronKerlCOOP?ref=ts&amp;fref=ts</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/XKFUCGp.jpg</t>
-  </si>
-  <si>
-    <t>Dana Le</t>
-  </si>
-  <si>
-    <t>Brian Wilkey is a Doctoral Candidate in the department of Human Development and Family Sciences. He has served as the department representative to the Graduate Student Assembly and as its Vice-President. He currently serves as the President of the GSA. During his term, Brian has overseen the revision of the GSA’s governing documents, the establishment of the Graduate Student Housing Committee, the establishment of the GSA’s agencies, as well as helped to increase the participation of graduate students in university governance. His campaign with Vice-President Roper will build upon this year’s successes to establish more input on graduate student housing, more programs and opportunities for graduate students, and a campaign to redefine the value of graduate and professional education. As President for another term, he hopes to continue to grow interest in shared governance among graduate students as well as establish more successful collaborations with campus units to help graduate students both while they complete their studies and when they head into the workforce. He also intends to make sure UT-Austin’s voice is heard on a state and national level concerning issues of student taxation and indebtedness and research funding. He will continue to fight for more rights for graduate students while making sure the community holds them to the highest standards.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/xAeWuS7.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Davis Jr. </t>
-  </si>
-  <si>
-    <t>The Daily Texan</t>
+    <t>The Daily Texan must continue its legacy of greatness, and Longhorns must choose a dynamic leader to carry out this responsibility.|||My name is David Davis, Jr., and I would like to be the next editor-in-chief of your newspaper.|||The most important mission of The Daily Texan editor-in-chief is to acknowledge and represent the voices of all of UT. The next editor will recognize there are:|||- conservative political opinions on our campus|||- black students on our campus|||- more important things than fraternities behaving badly|||-in addition to the voices traditionally represented on the opinion page.|||Along with varied experience at the Texan, success in political and nonprofit fundraising will allow me to confront the Texan’s financial difficulties.|||I love The Daily Texan, and my ultimate goal as editor-in-chief will be to make all Longhorns love the Texan too.</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/daveedalon</t>
+  </si>
+  <si>
+    <t>Editor-in-Chief candidate believes fundraising is vital to the Texan's future</t>
+  </si>
+  <si>
+    <t>Student Government (SG)</t>
+  </si>
+  <si>
+    <t>Student Government is the official student voice to the UT administration, the Board of Regents and the Texas Legislature. SG aims to represent students' interests, increase student decision-making power and improve campus life by creating effective student services.</t>
+  </si>
+  <si>
+    <t>Graduate Student Assembly (GSA)</t>
+  </si>
+  <si>
+    <t>Graduate Student Assembly is the official graduate student voice to the UT administration, the Board of Regents and the Texas Legislature. Members of the organization formally address specific graduate student concerns.</t>
+  </si>
+  <si>
+    <t>Texas Student Media (TSM)</t>
+  </si>
+  <si>
+    <t>The Texas Student Media Board of Operating Trustees oversees the University's five official media outlets: KVRX 91.7 FM, the Texas Travesty, Texas Student Television, the Cactus yearbook and The Daily Texan.</t>
+  </si>
+  <si>
+    <t>http://www.dailytexanonline.com/2015/02/22/editor-in-chief-candidate-believes-fundraising-is-vital-to-the-texans-future</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/Q0EAhJK.jpg</t>
+  </si>
+  <si>
+    <t>Claire Smith</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/vSkgirU.jpg</t>
+  </si>
+  <si>
+    <t>University Co-op (Co-op)</t>
+  </si>
+  <si>
+    <t>The University Co-op Board of Directors directs the University Co-op and oversees scholarships, grants and funding. The student body elects two full-time students to serve on the board for two years.</t>
   </si>
   <si>
     <t>Role</t>
   </si>
   <si>
-    <t>Vance Roper</t>
+    <t>University Unions (Unions)</t>
   </si>
   <si>
     <t>Author Page URL</t>
   </si>
   <si>
-    <t>Graduate Student Assembly Vice President</t>
-  </si>
-  <si>
     <t>Miles Hutson</t>
   </si>
   <si>
+    <t>The University Unions Board of Directors recommends rules and procedures for the operation of the Unions' facilities, which include the Texas Union, the Student Activity Center and the Hogg Auditorium. The board also oversees Campus Events and Entertainment.</t>
+  </si>
+  <si>
     <t>Candidates page design, backend, landing page edits</t>
   </si>
   <si>
-    <t>http://i.imgur.com/N76KAhO.jpg</t>
-  </si>
-  <si>
     <t>http://www.dailytexanonline.com/author/miles-hutson</t>
   </si>
   <si>
-    <t>http://i.imgur.com/Gxo8TS1.jpg</t>
-  </si>
-  <si>
-    <t>Tim Nelson</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/1TYY5QU.jpg</t>
-  </si>
-  <si>
     <t>Alan Ma</t>
   </si>
   <si>
@@ -242,313 +413,160 @@
     <t>http://www.dailytexanonline.com/author/alan-ma</t>
   </si>
   <si>
-    <t>Student Government (SG)</t>
-  </si>
-  <si>
-    <t>Student Government is the official student voice to the UT administration, the Board of Regents and the Texas Legislature. SG aims to represent students' interests, increase student decision-making power and improve campus life by creating effective student services.</t>
-  </si>
-  <si>
-    <t>Graduate Student Assembly (GSA)</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Graduate Student Assembly is the official graduate student voice to the UT administration, the Board of Regents and the Texas Legislature. Members of the organization formally address specific graduate student concerns.</t>
-  </si>
-  <si>
-    <t>Junior</t>
+    <t>History and Humanities</t>
   </si>
   <si>
     <t>Riley Brands</t>
   </si>
   <si>
-    <t>Texas Student Media (TSM)</t>
-  </si>
-  <si>
-    <t>The University of Texas is a place of opportunity and innovation. If elected University Co-op Student Board Member, I will increase the level of opportunity and support of innovation at The University of Texas. Creating and leading a student organization over the past two semesters has increased my management skills, challenged me to communicate efficiently, and grown my overall leadership ability. I will utilize my skill set to represent key interests of student organizations and promote greater educational investment by the Co-op. In addition, I want to diversify marketing strategies at the Co-op in order to reach new target markets. Finally, I would like to thank the University Co-op, UT faculty, and students for their consideration. I am grateful for the opportunity to run for Student Board Member.|||Sincerely,|||Tim Nelson</t>
-  </si>
-  <si>
-    <t>The Texas Student Media Board of Operating Trustees oversees the University's five official media outlets: KVRX 91.7 FM, the Texas Travesty, Texas Student Television, the Cactus yearbook and The Daily Texan.</t>
-  </si>
-  <si>
     <t>Campaign information</t>
   </si>
   <si>
-    <t>Strengthen the University Co-op's relationships with UT alumni and alumnus organizations|||Support student-led/sponsored charities|||Develop foreign target markets|||Create an event where UT Entrepreneurs can connect with investors|||Increase advertisement of funding programs offered by the Co-op to departments and organizations at UT|||Engage the Greek Life community through sponsorship|||Foster growth of UT culture and athletic heritage</t>
-  </si>
-  <si>
     <t>http://www.dailytexanonline.com/author/riley-brands</t>
   </si>
   <si>
-    <t>http://www.facebook.com/VoteTimNelson</t>
-  </si>
-  <si>
-    <t>Editor-in-Chief</t>
-  </si>
-  <si>
-    <t>French and International Relations &amp; Global Studies</t>
-  </si>
-  <si>
-    <t>Senior</t>
+    <t>My name is Claire Smith, and I am running for Editor-in-Chief of The Daily Texan. The Daily Texan is a one-of-kind workplace and an example of the nation’s finest student journalism. But my interest lies in making it even better. My first goal as Editor-in-Chief would be creating a more inclusive opinion page where all of the diverse voices on campus may be heard. I also would like to make commonsense adjustments to inner office workings by taking a more active role in the paper’s everyday leadership in partnership with the Managing Editor, work with the Design and Copy Editors to make the Opinion page a cohesive part of every day’s issue, and work with the department heads to adjust each departments’ editing schedules to increase overall office efficiency. It would be an honor to serve as the Texan’s next Editor-in-Chief.</t>
   </si>
   <si>
     <t>Amy Zhang</t>
   </si>
   <si>
-    <t>University Co-op (Co-op)</t>
-  </si>
-  <si>
     <t>Photo editing</t>
   </si>
   <si>
-    <t>The Daily Texan must continue its legacy of greatness, and Longhorns must choose a dynamic leader to carry out this responsibility.|||My name is David Davis, Jr., and I would like to be the next editor-in-chief of your newspaper.|||The most important mission of The Daily Texan editor-in-chief is to acknowledge and represent the voices of all of UT. The next editor will recognize there are:|||- conservative political opinions on our campus|||- black students on our campus|||- more important things than fraternities behaving badly|||-in addition to the voices traditionally represented on the opinion page.|||Along with varied experience at the Texan, success in political and nonprofit fundraising will allow me to confront the Texan’s financial difficulties.|||I love The Daily Texan, and my ultimate goal as editor-in-chief will be to make all Longhorns love the Texan too.</t>
-  </si>
-  <si>
-    <t>The University Co-op Board of Directors directs the University Co-op and oversees scholarships, grants and funding. The student body elects two full-time students to serve on the board for two years.</t>
-  </si>
-  <si>
     <t>http://www.dailytexanonline.com/author/amy-zhang</t>
   </si>
   <si>
-    <t>http://www.twitter.com/daveedalon</t>
-  </si>
-  <si>
-    <t>University Unions (Unions)</t>
-  </si>
-  <si>
-    <t>The University Unions Board of Directors recommends rules and procedures for the operation of the Unions' facilities, which include the Texas Union, the Student Activity Center and the Hogg Auditorium. The board also oversees Campus Events and Entertainment.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/G079hRA.jpg</t>
-  </si>
-  <si>
-    <t>Editor-in-Chief candidate believes fundraising is vital to the Texan's future</t>
+    <t>Lauren Ussery</t>
+  </si>
+  <si>
+    <t>President/Vice President</t>
+  </si>
+  <si>
+    <t>Marshall Tidrick</t>
+  </si>
+  <si>
+    <t>http://www.dailytexanonline.com/author/lauren-ussery</t>
+  </si>
+  <si>
+    <t>Government and LAH/International Relations &amp; Global Studies and LAH</t>
+  </si>
+  <si>
+    <t>Senior/Senior</t>
+  </si>
+  <si>
+    <t>Amanda Voeller</t>
+  </si>
+  <si>
+    <t>http://www.dailytexanonline.com/author/amanda-voeller</t>
+  </si>
+  <si>
+    <t>A more inclusive opinion section to better represent the diversity of belief present on campus.|||A greater presence on for The Daily Texan digitally and in-person. A greater digital presence will be achieved through finding fresh ways for the Texan to stay a vital publication online in partnership with the Special Projects Manager and Managing. A greater personal presence on campus will be achieved by taking a more active recruiting role for the whole paper in my capacity as Editor-in-Chief and appealing directly to political, social, and service organizations, as well as the Graduate Students Association, for the opinion section.|||Create more coverage for graduate students.|||Work with the Texas Student Media Board to find appropriate fundraising opportunities to ensure the Texan's long-term financial health despite the changing landscape of print media.|||Increase overall office efficiency by meeting with department heads to discuss adjustments that can be made to each department's editing schedules to get the most use out of all of everyone's time.|||Be a more visible presence in the office by attending the Managing Editor's daily meetings with the department heads and avoiding sending a representative from the Editorial Board in my stead, which I hope will break down the barrier between the opinion section and the rest of the paper.|||Establish set times that opinion columnists will meet with their editors every week for in-person critiques, as opposed to the online-only edits that the section has had in place in the past, to ensure that convenience never trumps quality.</t>
   </si>
   <si>
     <t>http://i.imgur.com/68iP39V.jpg</t>
   </si>
   <si>
-    <t>Lauren Ussery</t>
-  </si>
-  <si>
-    <t>Pierre Pfarr</t>
-  </si>
-  <si>
-    <t>http://www.dailytexanonline.com/author/lauren-ussery</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/UhciK4N.jpg</t>
+    <t>We are Braydon Jones and Kimia Dargahi, and we are running as the Student President and Vice President Executive Alliance. Braydon is a senior from Texarkana, Texas, and Kimia is a senior from right here in Austin. We believe the University of Texas is a dynamic place, full of individuals with dynamic vision and pride for this institution, who all have their own ideas about how to make it an even better place. Our goal this next year is to listen to you, our fellow UT students, and hear what you think about this campus. Where is the University now, but more importantly, where do you see it going? What can we do to help it get there? We know this place is great, but how might we make it even greater? Throughout the next two weeks of campaigning, we will be focused on talking with as many students as possible to further develop our platform and establish what actions we might take as President and Vice President to further the traditions of this University while catering to the wants of the student body. We have a campaign and platform focused on conversation; we want to hear from you and will be giving you ample opportunities to share your opinions and ideas with us!</t>
+  </si>
+  <si>
+    <t>Sexual Assault Awareness|||More lighting in North Campus/Riverside|||President’s Roundtable with Student Orgs|||Establishing a relationship for students with the New President &amp; Chancellor|||Establishing a relationship for students with the New Governor|||Establishing a relationship for students with then New Mayor|||Work toward more Texas Exes—Student involvement and networking|||Continue the fight for student tailgating|||Ring sales promotion – Ring discounts with Exes membership sign up</t>
   </si>
   <si>
     <t>Vice President</t>
   </si>
   <si>
-    <t>http://www.dailytexanonline.com/2015/02/22/editor-in-chief-candidate-believes-fundraising-is-vital-to-the-texans-future</t>
+    <t>http://www.twitter.com/letstalktexas</t>
   </si>
   <si>
     <t>Public Affairs/Community and Regional Planning</t>
   </si>
   <si>
-    <t>http://i.imgur.com/Q0EAhJK.jpg</t>
-  </si>
-  <si>
-    <t>Amanda Voeller</t>
+    <t>http://www.letstalktexas.org</t>
   </si>
   <si>
     <t>Vance Roper is a dual degree graduate student at the Lyndon B Johnson School of Public Affairs and the School of Architecture. He has served as the Legislative Affairs Director to the Graduate Student Assembly and as its Vice-President. He currently serves as the Vice-President of the GSA. During his term, Vance has worked on engagement issues for the GSA and its members. He has worked on updating the GSA governing documents, addressed member issues, and has simplified the assembly meeting process making the assembly functions more accessible. His campaign with President Wilkey will build upon the foundation that has been laid during the current term. As Vice-President for another term, he hopes to finish up work on graduate housing issues, further the engagement of graduate students across campus, direct the conversation on what it means to be a graduate student, and to give voice to the issues facing graduate students.</t>
   </si>
   <si>
-    <t>Economics and Chemistry</t>
-  </si>
-  <si>
-    <t>http://www.dailytexanonline.com/author/amanda-voeller</t>
+    <t>http://www.twitter.com/claireseysmith</t>
+  </si>
+  <si>
+    <t>Executive Alliance candidates present platforms</t>
   </si>
   <si>
     <t>http://i.imgur.com/oRwPNqr.jpg</t>
   </si>
   <si>
-    <t>(4) QUESTION!!!: What specific problems do you see in your college (if you're running for a college seat)? How could you fix these?</t>
-  </si>
-  <si>
-    <t>Claire Smith</t>
-  </si>
-  <si>
-    <t>(5) QUESTION!!!: If you are running for a University-wide position, what are the biggest problems you see at the University level? How could you fix these?</t>
-  </si>
-  <si>
-    <t>(6) QUESTION!!!: List some of the challenges SG has faced internally this year and how you would work to fix them.</t>
-  </si>
-  <si>
-    <t>(7) QUESTION!!!: List some of the challenges SG has faced externally (that is with its perception by the UT student body) this year and how you would work to fix them.</t>
-  </si>
-  <si>
-    <t>(8) QUESTION!!!: Assuming no obstacles, what would be your first three pieces of legislation if elected?</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/vSkgirU.jpg</t>
-  </si>
-  <si>
-    <t>Braydon Jones and Kimia Dargahi</t>
-  </si>
-  <si>
-    <t>Executive Alliance - 1 open position</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/VBrtC7s.jpg</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/P5ztiyk.jpg</t>
-  </si>
-  <si>
-    <t>History and Humanities</t>
-  </si>
-  <si>
-    <t>My name is Claire Smith, and I am running for Editor-in-Chief of The Daily Texan. The Daily Texan is a one-of-kind workplace and an example of the nation’s finest student journalism. But my interest lies in making it even better. My first goal as Editor-in-Chief would be creating a more inclusive opinion page where all of the diverse voices on campus may be heard. I also would like to make commonsense adjustments to inner office workings by taking a more active role in the paper’s everyday leadership in partnership with the Managing Editor, work with the Design and Copy Editors to make the Opinion page a cohesive part of every day’s issue, and work with the department heads to adjust each departments’ editing schedules to increase overall office efficiency. It would be an honor to serve as the Texan’s next Editor-in-Chief.</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/zR5HFsT.jpg</t>
-  </si>
-  <si>
-    <t>Journalism</t>
-  </si>
-  <si>
-    <t>Help build a stronger and safer University Unions|||Provide more resources for students|||Develop transparency between the Unions and student organizations</t>
-  </si>
-  <si>
-    <t>A more inclusive opinion section to better represent the diversity of belief present on campus.|||A greater presence on for The Daily Texan digitally and in-person. A greater digital presence will be achieved through finding fresh ways for the Texan to stay a vital publication online in partnership with the Special Projects Manager and Managing. A greater personal presence on campus will be achieved by taking a more active recruiting role for the whole paper in my capacity as Editor-in-Chief and appealing directly to political, social, and service organizations, as well as the Graduate Students Association, for the opinion section.|||Create more coverage for graduate students.|||Work with the Texas Student Media Board to find appropriate fundraising opportunities to ensure the Texan's long-term financial health despite the changing landscape of print media.|||Increase overall office efficiency by meeting with department heads to discuss adjustments that can be made to each department's editing schedules to get the most use out of all of everyone's time.|||Be a more visible presence in the office by attending the Managing Editor's daily meetings with the department heads and avoiding sending a representative from the Editorial Board in my stead, which I hope will break down the barrier between the opinion section and the rest of the paper.|||Establish set times that opinion columnists will meet with their editors every week for in-person critiques, as opposed to the online-only edits that the section has had in place in the past, to ensure that convenience never trumps quality.</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/claireseysmith</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/samjgrasso</t>
-  </si>
-  <si>
     <t>Editor-in-Chief candidate says fundraising is risky, but necessary for the Texan</t>
   </si>
   <si>
     <t>http://www.dailytexanonline.com/2015/02/22/editor-in-chief-candidate-says-fundraising-is-risky-but-necessary-for-the-texan</t>
   </si>
   <si>
-    <t>President/Vice President</t>
-  </si>
-  <si>
-    <t>Marshall Tidrick</t>
-  </si>
-  <si>
-    <t>http://www.samanthajgrasso.com</t>
-  </si>
-  <si>
-    <t>Government and LAH/International Relations &amp; Global Studies and LAH</t>
-  </si>
-  <si>
-    <t>Senior/Senior</t>
-  </si>
-  <si>
     <t>http://i.imgur.com/0inWeXN.jpg</t>
   </si>
   <si>
-    <t>We are Braydon Jones and Kimia Dargahi, and we are running as the Student President and Vice President Executive Alliance. Braydon is a senior from Texarkana, Texas, and Kimia is a senior from right here in Austin. We believe the University of Texas is a dynamic place, full of individuals with dynamic vision and pride for this institution, who all have their own ideas about how to make it an even better place. Our goal this next year is to listen to you, our fellow UT students, and hear what you think about this campus. Where is the University now, but more importantly, where do you see it going? What can we do to help it get there? We know this place is great, but how might we make it even greater? Throughout the next two weeks of campaigning, we will be focused on talking with as many students as possible to further develop our platform and establish what actions we might take as President and Vice President to further the traditions of this University while catering to the wants of the student body. We have a campaign and platform focused on conversation; we want to hear from you and will be giving you ample opportunities to share your opinions and ideas with us!</t>
+    <t>http://www.dailytexanonline.com/2015/02/19/executive-alliance-candidates-present-platforms</t>
   </si>
   <si>
     <t>Jan Ross Piedad</t>
   </si>
   <si>
-    <t>Sexual Assault Awareness|||More lighting in North Campus/Riverside|||President’s Roundtable with Student Orgs|||Establishing a relationship for students with the New President &amp; Chancellor|||Establishing a relationship for students with the New Governor|||Establishing a relationship for students with then New Mayor|||Work toward more Texas Exes—Student involvement and networking|||Continue the fight for student tailgating|||Ring sales promotion – Ring discounts with Exes membership sign up</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/1xZ7rNq.jpg</t>
-  </si>
-  <si>
-    <t>http://www.twitter.com/letstalktexas</t>
-  </si>
-  <si>
-    <t>Tylee Milan</t>
-  </si>
-  <si>
-    <t>http://www.letstalktexas.org</t>
+    <t>http://i.imgur.com/LcZ1xNB.jpg</t>
+  </si>
+  <si>
+    <t>David Maly and Stephen Svatek</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/dXdlasP.jpg</t>
   </si>
   <si>
     <t>TSM Board College of Communication Representative - 1 open position</t>
   </si>
   <si>
-    <t>http://i.imgur.com/LWqr3LK.jpg</t>
-  </si>
-  <si>
-    <t>Executive Alliance candidates present platforms</t>
+    <t>Economics and Journalism/Civil Engineering</t>
+  </si>
+  <si>
+    <t>Senior/Junior</t>
   </si>
   <si>
     <t>http://i.imgur.com/yZnVINd.jpg</t>
   </si>
   <si>
-    <t>Supply Chain Management</t>
-  </si>
-  <si>
-    <t>http://www.dailytexanonline.com/2015/02/19/executive-alliance-candidates-present-platforms</t>
-  </si>
-  <si>
-    <t>I previously served on the University Unions Board of Directors my sophomore year. Thus, I intend to utilize my prior knowledge of past issues and strengths to continue improving University Unions as a whole.|||I intend to continue working on the re-branding of Campus Events and Entertainment through various platforms that appeal specifically to students.|||I will always keep the student body's interests in high consideration when evaluating the University Union's future developmental opportunities on campus.|||I plan to exhaust all resources to stay informed about relevant student issues and use this knowledge to offer innovative solutions and ideas to the board.</t>
-  </si>
-  <si>
-    <t>http://www.Facebook.com/tyleem</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/LcZ1xNB.jpg</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/hJbl9LB.jpg</t>
+    <t>Our focus as candidates is to make Student Government an entity which is more transparent, ethical,open to student concerns and focused on doing work that will address the biggest issues facing this campus. David has worked diligently during his three years at UT in journalism, reporting on all aspects of campus and exposing some of the biggest issues facing SG and other parts of the UT community. Stephen has been immersed in UT’s rich traditions as a member of the Longhorn Band, working long hours to support our university.|||We want to provide easy means of communication that ALL students can use to communicate with SG regarding issues that affect them. That will mean having information on the SG website explaining exactly how SG works, having an open submissions system that students can use to confidentially bring forth issues, providing credible contact information on the website for all members of SG and keeping the website up-to-date with record of all SG work, so that students can keep up with what SG is doing for them and more easily take part in its efforts.|||We want a 24/7/365 adequate study facility on campus, so that Longhorns always have a place to further their pursuits. We want to advocate for students on meaningful issues like voter ID, lack of administrative efforts to address campus wrongdoing, inadequate transportation to campus from the Riverside area, the rising cost of tuition and the drop in student enthusiasm at athletic events. We express full support for all Longhorns, including DREAMers, minority students and members of the LGBT community. We’ll do all we can to fight for each member of the UT community and their concerns because they should all have a voice in Student Government. Thank you, and Hook ‘em Horns! \m/</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/eayCBzT.jpg</t>
   </si>
   <si>
     <t>Place 1, Moody College of Communication</t>
   </si>
   <si>
-    <t>Diana Padilla</t>
+    <t>Baylor Morrison and Matt Normyle</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/rEv365C.jpg</t>
   </si>
   <si>
     <t>http://www.twitter.com/janjourn</t>
   </si>
   <si>
-    <t>Campus Events and Entertainment</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/aV9IFGG.jpg</t>
-  </si>
-  <si>
-    <t>David Maly and Stephen Svatek</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/dXdlasP.jpg</t>
-  </si>
-  <si>
-    <t>Campus Events and Entertainment President</t>
-  </si>
-  <si>
-    <t>Mathematics</t>
+    <t>Economics Junior/Electrical Engineering</t>
+  </si>
+  <si>
+    <t>Junior/Senior</t>
   </si>
   <si>
     <t>http://i.imgur.com/CKfHf8T.jpg</t>
   </si>
   <si>
-    <t>Increase brand awareness for E+E across the University|||Create new partnerships between E+E and other UT student organizations and departments|||Strengthen collaborations between E+E committees|||Increase attendance to all E+E events</t>
-  </si>
-  <si>
-    <t>Economics and Journalism/Civil Engineering</t>
-  </si>
-  <si>
-    <t>Senior/Junior</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/hQ5W8JB.jpg</t>
-  </si>
-  <si>
     <t>Pauline Berens</t>
   </si>
   <si>
     <t>TSM Board At-Large - 2 open positions</t>
   </si>
   <si>
-    <t>Our focus as candidates is to make Student Government an entity which is more transparent, ethical,open to student concerns and focused on doing work that will address the biggest issues facing this campus. David has worked diligently during his three years at UT in journalism, reporting on all aspects of campus and exposing some of the biggest issues facing SG and other parts of the UT community. Stephen has been immersed in UT’s rich traditions as a member of the Longhorn Band, working long hours to support our university.|||We want to provide easy means of communication that ALL students can use to communicate with SG regarding issues that affect them. That will mean having information on the SG website explaining exactly how SG works, having an open submissions system that students can use to confidentially bring forth issues, providing credible contact information on the website for all members of SG and keeping the website up-to-date with record of all SG work, so that students can keep up with what SG is doing for them and more easily take part in its efforts.|||We want a 24/7/365 adequate study facility on campus, so that Longhorns always have a place to further their pursuits. We want to advocate for students on meaningful issues like voter ID, lack of administrative efforts to address campus wrongdoing, inadequate transportation to campus from the Riverside area, the rising cost of tuition and the drop in student enthusiasm at athletic events. We express full support for all Longhorns, including DREAMers, minority students and members of the LGBT community. We’ll do all we can to fight for each member of the UT community and their concerns because they should all have a voice in Student Government. Thank you, and Hook ‘em Horns! \m/</t>
+    <t>Baylor Morrison. Matthew Normyle. Two of the most trusted and least well-known names in the student body. Together they make Baylor-Matthew 2015. Between the two of them is over 10 semesters of attending this University and 0 semesters of student government. However, Maylor (Batthew) offer a fresh, outsider’s perspective to important campus issues and have built a platform based on Longhorn values like Discovery, Responsibility, Long, and Horns.|||These are just some of the objectives of Baylor-Matthew 2015, written by us and inspired by you our fellow students. The final say in Student Government comes from the student body, which is why the final statement on this campaign is up to you:|||I _____(your name) am going to ________ (verb, present tense) for Baylor-Matthew _____ (year) because I believe in Longhorn values like ______ (abstract concept), Discovery, ______ (abstract concept), and Resposibility with all my ______ (body part). Also because I want 24/7 access to therapy ______ (cute animal, plural).</t>
   </si>
   <si>
     <t>http://i.imgur.com/2Oda3Ze.jpg</t>
@@ -557,40 +575,28 @@
     <t>At-Large Seat</t>
   </si>
   <si>
-    <t>http://i.imgur.com/eayCBzT.jpg</t>
+    <t>Speeding the transition from Blackboard to Canvas|||24/7 access to therapy puppies|||A louder student voice on administrative issues|||Increasing the amount of swearing in the student section during football games|||Improved resources for upperclassmen with no career prospects|||Research breakthroughs that fill you with strange existential terror and blur the line between science / science fiction|||Using your UT ID as a ticket to athletic events|||Thicker toilet paper on campus|||Thicker toilet paper on campus|||And thicker toilet paper on campus</t>
   </si>
   <si>
     <t>Plan II and Biomedical Engineering</t>
   </si>
   <si>
+    <t>http://www.baylormatthew.com/</t>
+  </si>
+  <si>
     <t>http://i.imgur.com/a97QP8O.jpg</t>
   </si>
   <si>
-    <t>Baylor Morrison and Matt Normyle</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/rEv365C.jpg</t>
-  </si>
-  <si>
     <t>Amil Malik</t>
   </si>
   <si>
+    <t>http://i.imgur.com/JGZAeDw.jpg</t>
+  </si>
+  <si>
     <t>http://i.imgur.com/asBWNpP.jpg</t>
   </si>
   <si>
-    <t>Economics Junior/Electrical Engineering</t>
-  </si>
-  <si>
-    <t>Junior/Senior</t>
-  </si>
-  <si>
-    <t>Baylor Morrison. Matthew Normyle. Two of the most trusted and least well-known names in the student body. Together they make Baylor-Matthew 2015. Between the two of them is over 10 semesters of attending this University and 0 semesters of student government. However, Maylor (Batthew) offer a fresh, outsider’s perspective to important campus issues and have built a platform based on Longhorn values like Discovery, Responsibility, Long, and Horns.|||These are just some of the objectives of Baylor-Matthew 2015, written by us and inspired by you our fellow students. The final say in Student Government comes from the student body, which is why the final statement on this campaign is up to you:|||I _____(your name) am going to ________ (verb, present tense) for Baylor-Matthew _____ (year) because I believe in Longhorn values like ______ (abstract concept), Discovery, ______ (abstract concept), and Resposibility with all my ______ (body part). Also because I want 24/7 access to therapy ______ (cute animal, plural).</t>
-  </si>
-  <si>
-    <t>Speeding the transition from Blackboard to Canvas|||24/7 access to therapy puppies|||A louder student voice on administrative issues|||Increasing the amount of swearing in the student section during football games|||Improved resources for upperclassmen with no career prospects|||Research breakthroughs that fill you with strange existential terror and blur the line between science / science fiction|||Using your UT ID as a ticket to athletic events|||Thicker toilet paper on campus|||Thicker toilet paper on campus|||And thicker toilet paper on campus</t>
-  </si>
-  <si>
-    <t>http://www.baylormatthew.com/</t>
+    <t>Xavier Rotnofsky and Rohit Mandalapu</t>
   </si>
   <si>
     <t>Plan II, Business Honors and Finance</t>
@@ -602,18 +608,12 @@
     <t>http://www.dailytexanonline.com/2015/02/22/tsm-board-candidate-says-experience-at-the-texan-will-help-in-board-position</t>
   </si>
   <si>
-    <t>http://i.imgur.com/JGZAeDw.jpg</t>
-  </si>
-  <si>
     <t>http://i.imgur.com/elatjRo.jpg</t>
   </si>
   <si>
     <t>McKay Proctor</t>
   </si>
   <si>
-    <t>Xavier Rotnofsky and Rohit Mandalapu</t>
-  </si>
-  <si>
     <t>http://i.imgur.com/LspUJEn.jpg</t>
   </si>
   <si>
@@ -626,12 +626,12 @@
     <t>http://www.dailytexanonline.com/2015/02/22/tsm-board-candidate-hopes-to-defend-student-media</t>
   </si>
   <si>
+    <t>http://i.imgur.com/5HmBDV8.jpg</t>
+  </si>
+  <si>
     <t>http://i.imgur.com/L5WgC5y.jpg</t>
   </si>
   <si>
-    <t>http://i.imgur.com/5HmBDV8.jpg</t>
-  </si>
-  <si>
     <t>Plan II and Linguistics/Plan II and Economics</t>
   </si>
   <si>
@@ -938,10 +938,10 @@
     <t>Psychology/Neuroscience</t>
   </si>
   <si>
-    <t>Hi, Longhorns! My name is Kevin Helgren and I’m a third-year neuroscience and psychology major from Austin, Texas. More importantly, though, I want to help YOU. As a University-Wide Representative, I plan on addressing a few key issues that I consider to be of importance to the Longhorn community. (See below.)If you have any questions regarding my platform, or if you have an issue in mind that you feel should be brought to the attention of Student Government, please don't hesitate to reach out to me -- I'd be happy to meet up and have a conversation!|||I don't make empty promises; that's a promise. We're all part of the Longhorn community -- let's help change the world!|||Kevin Helgren|||kevinforuwide@gmail.com|||(512) 507-0622</t>
-  </si>
-  <si>
-    <t>Increase transparency between Student Government and student body (see statement for specifics)|||Strengthen Longhorn community (see statement for specifics)|||Bridge the gap between the university and our city (see statement for specifics)|||Tend to parking options on campus for commuters in light of recent shortages and construction|||Generate more on-campus printing options for students across colleges and majors|||Improve road conditions in West Campus|||Meal plan for off-campus students||| More water bottle refill stations (especially in older buildings)||| Revamp transition for transfer students — offer FIGs, separate registration times, welcome ceremony similar to Gone to Texas, etc.</t>
+    <t>Hi, Longhorns! My name is Kevin Helgren and I’m a third-year neuroscience and psychology major from Austin, Texas. More importantly, though, I want to help YOU. My platform is built on three overarching principles: transparency, community, and reciprocity. As a University-Wide Representative, I promise to enhance transparency between Student Government and the study body, to strengthen the Longhorn community, and to bridge the gap between the University of Texas and the greater Austin area. My passion for our university is unparalleled. My respect for our university is unwavering. My commitment to the promotion of our university as the best in the world is uncompromising. I don't make empty promises; and that's a promise. We're all part of the Longhorn community – let's help change the world!|||If you have any questions regarding my platform – or if you have an issue in mind that you feel should be brought to the attention of Student Government – please don't hesitate to reach out to me. I want to hear from YOU.</t>
+  </si>
+  <si>
+    <t>Increase transparency between Student Government and the student body – monthly Town Halls and an application for smart phones that would allow students to send us feedback from the palms of their hands.|||Strengthen the Longhorn community – showcase the hard work put forth by students and organizations on the Jumbotron during football games.|||Bridge the gap between UT Austin and the greater Austin area – implement a tutoring/mentoring program through Student Government and initiate campus-wide service projects.|||Revamp transition for transfer students – offer FIGs, separate registration times, welcome ceremony similar to Gone to Texas, etc.|||Create more parking options on campus for commuters and permit holders.|||Generate more FREE on-campus printing options for students across colleges and majors.|||More water bottle refill stations (especially in older buildings).|||Offer a meal plan for students who live off campus.|||Improve road conditions in West Campus.</t>
   </si>
   <si>
     <t>https://www.facebook.com/pages/Kevin-Helgren-for-U-Wide-Rep/1610514612514009</t>
@@ -2320,30 +2320,33 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color rgb="FF222222"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -2355,9 +2358,9 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <u/>
+      <sz val="10.0"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -2365,11 +2368,9 @@
       <color rgb="FF222222"/>
     </font>
     <font>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
+      <sz val="11.0"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -2378,8 +2379,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10.0"/>
+      <sz val="9.0"/>
       <color rgb="FF222222"/>
     </font>
     <font>
@@ -2487,61 +2487,61 @@
   </cellStyleXfs>
   <cellXfs count="55">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
+      <alignment/>
+    </xf>
+    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="2">
+      <alignment/>
+    </xf>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
+    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2" applyFill="1">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment/>
     </xf>
-    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2"/>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
-      <alignment/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="3">
-      <alignment/>
-    </xf>
-    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6">
       <alignment/>
     </xf>
-    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2"/>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="8">
+    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="8">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
-      <alignment/>
-    </xf>
+    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2"/>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="9">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="10">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="11">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="11">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="12">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="12">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
-    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="13">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="14">
@@ -2550,33 +2550,33 @@
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="15">
       <alignment/>
     </xf>
+    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2"/>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="16">
       <alignment/>
     </xf>
     <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="16"/>
-    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="17">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="18">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="12">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="12">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="19">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="12">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="20">
@@ -2588,19 +2588,19 @@
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="22">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="12">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
       <alignment/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="12">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="7">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="23">
@@ -2621,13 +2621,13 @@
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="26">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="8">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="27">
       <alignment/>
     </xf>
-    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="10"/>
+    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="13"/>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="28">
       <alignment horizontal="left"/>
     </xf>
@@ -2675,408 +2675,184 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" customWidth="1" max="6" width="13.57"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="2" r="A1">
-        <v>1</v>
-      </c>
-      <c t="s" s="13" r="B1">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="13" r="A2">
-        <v>57</v>
-      </c>
-      <c t="s" s="4" r="B2">
-        <v>58</v>
-      </c>
-    </row>
-    <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="13" r="A3">
-        <v>59</v>
-      </c>
-      <c t="s" s="4" r="B3">
-        <v>61</v>
-      </c>
-    </row>
-    <row customHeight="1" r="4" ht="15.75">
-      <c t="s" s="13" r="A4">
-        <v>64</v>
-      </c>
-      <c t="s" s="16" r="B4">
-        <v>66</v>
-      </c>
-    </row>
-    <row customHeight="1" r="5" ht="15.75">
-      <c t="s" s="2" r="A5">
-        <v>75</v>
-      </c>
-      <c t="s" s="16" r="B5">
-        <v>78</v>
-      </c>
-    </row>
-    <row customHeight="1" r="6" ht="15.75">
-      <c t="s" s="13" r="A6">
-        <v>81</v>
-      </c>
-      <c t="s" s="16" r="B6">
-        <v>82</v>
-      </c>
-    </row>
-    <row customHeight="1" r="7" ht="15.75"/>
-    <row customHeight="1" r="8" ht="15.75"/>
-    <row customHeight="1" r="9" ht="15.75"/>
-    <row customHeight="1" r="10" ht="15.75"/>
-    <row customHeight="1" r="11" ht="15.75"/>
-    <row customHeight="1" r="12" ht="15.75"/>
-    <row customHeight="1" r="13" ht="15.75"/>
-    <row customHeight="1" r="14" ht="15.75"/>
-    <row customHeight="1" r="15" ht="15.75"/>
-    <row customHeight="1" r="16" ht="15.75"/>
-    <row customHeight="1" r="17" ht="15.75"/>
-    <row customHeight="1" r="18" ht="15.75"/>
-    <row customHeight="1" r="19" ht="15.75"/>
-    <row customHeight="1" r="20" ht="15.75"/>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane topLeftCell="B2" ySplit="1.0" xSplit="1.0" activePane="bottomRight" state="frozen"/>
-      <selection sqref="B1" activeCell="B1" pane="topRight"/>
-      <selection sqref="A2" activeCell="A2" pane="bottomLeft"/>
-      <selection sqref="B2" activeCell="B2" pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
-  <cols>
     <col min="1" customWidth="1" max="16" width="13.57"/>
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="1" r="A1">
+      <c t="s" s="4" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c t="s" s="4" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="4" r="C1">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c t="s" s="4" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c t="s" s="4" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="4" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="4" r="G1">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c t="s" s="4" r="H1">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="F1">
+      <c t="s" s="4" r="I1">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="G1">
+      <c t="s" s="4" r="J1">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="H1">
+      <c t="s" s="4" r="K1">
         <v>10</v>
       </c>
-      <c t="s" s="1" r="I1">
+      <c t="s" s="4" r="L1">
         <v>11</v>
       </c>
-      <c t="s" s="1" r="J1">
+      <c t="s" s="4" r="M1">
         <v>12</v>
       </c>
-      <c t="s" s="1" r="K1">
+      <c t="s" s="4" r="N1">
         <v>13</v>
       </c>
-      <c t="s" s="1" r="L1">
+      <c t="s" s="4" r="O1">
         <v>14</v>
       </c>
-      <c t="s" s="1" r="M1">
+      <c t="s" s="6" r="P1">
         <v>15</v>
       </c>
-      <c t="s" s="1" r="N1">
-        <v>16</v>
-      </c>
-      <c t="s" s="1" r="O1">
-        <v>17</v>
-      </c>
-      <c t="s" s="4" r="P1">
-        <v>18</v>
-      </c>
     </row>
     <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="4" r="A2">
+      <c t="s" s="6" r="A2">
         <v>25</v>
       </c>
-      <c s="4" r="B2">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="4" r="C2">
+      <c s="6" r="B2">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="6" r="C2">
         <v>26</v>
       </c>
-      <c t="s" s="4" r="F2">
+      <c t="s" s="11" r="E2">
         <v>28</v>
       </c>
-      <c t="s" s="4" r="H2">
-        <v>31</v>
-      </c>
-      <c t="s" s="10" r="J2">
-        <v>39</v>
+      <c t="s" s="6" r="F2">
+        <v>42</v>
+      </c>
+      <c t="s" s="6" r="G2">
+        <v>43</v>
+      </c>
+      <c t="s" s="6" r="H2">
+        <v>44</v>
+      </c>
+      <c t="s" s="6" r="I2">
+        <v>45</v>
+      </c>
+      <c t="s" s="11" r="L2">
+        <v>46</v>
+      </c>
+      <c t="s" s="11" r="M2">
+        <v>47</v>
+      </c>
+      <c t="s" s="11" r="P2">
+        <v>48</v>
       </c>
     </row>
     <row customHeight="1" r="3" ht="15.75">
       <c t="s" s="6" r="A3">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c s="6" r="B3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="6" r="C3">
-        <v>46</v>
-      </c>
-      <c s="12" r="D3"/>
-      <c t="s" s="15" r="E3">
-        <v>85</v>
+        <v>26</v>
+      </c>
+      <c t="s" s="11" r="E3">
+        <v>50</v>
       </c>
       <c t="s" s="6" r="F3">
-        <v>90</v>
-      </c>
-      <c t="s" s="14" r="G3">
-        <v>29</v>
-      </c>
-      <c t="s" s="6" r="H3">
-        <v>92</v>
-      </c>
-      <c s="12" r="I3"/>
-      <c t="s" s="10" r="J3">
-        <v>95</v>
-      </c>
-      <c s="12" r="K3"/>
-      <c s="12" r="L3"/>
-      <c s="12" r="M3"/>
-      <c s="12" r="N3"/>
-      <c s="12" r="O3"/>
-      <c t="s" s="15" r="P3">
-        <v>98</v>
-      </c>
-    </row>
-    <row customHeight="1" r="4" ht="15.75"/>
-    <row customHeight="1" r="5" ht="15.75"/>
-    <row customHeight="1" r="6" ht="15.75"/>
-    <row customHeight="1" r="7" ht="15.75"/>
-    <row customHeight="1" r="8" ht="15.75"/>
-    <row customHeight="1" r="9" ht="15.75"/>
-    <row customHeight="1" r="10" ht="15.75"/>
-    <row customHeight="1" r="11" ht="15.75"/>
-    <row customHeight="1" r="12" ht="15.75"/>
-    <row customHeight="1" r="13" ht="15.75"/>
-    <row customHeight="1" r="14" ht="15.75"/>
-    <row customHeight="1" r="15" ht="15.75"/>
-    <row customHeight="1" r="16" ht="15.75"/>
-    <row customHeight="1" r="17" ht="15.75"/>
-    <row customHeight="1" r="18" ht="15.75"/>
-    <row customHeight="1" r="19" ht="15.75"/>
-    <row customHeight="1" r="20" ht="15.75"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="P3" r:id="rId2"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" customWidth="1" max="16" width="13.57"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="1" r="A1">
-        <v>0</v>
-      </c>
-      <c t="s" s="1" r="B1">
-        <v>2</v>
-      </c>
-      <c t="s" s="1" r="C1">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D1">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="E1">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="F1">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="G1">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="H1">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="I1">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="J1">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="K1">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="L1">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="M1">
-        <v>15</v>
-      </c>
-      <c t="s" s="1" r="N1">
-        <v>16</v>
-      </c>
-      <c t="s" s="1" r="O1">
-        <v>17</v>
-      </c>
-      <c t="s" s="4" r="P1">
-        <v>18</v>
-      </c>
-    </row>
-    <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="4" r="A2">
-        <v>20</v>
-      </c>
-      <c s="4" r="B2">
+        <v>42</v>
+      </c>
+      <c t="s" s="6" r="G3">
+        <v>43</v>
+      </c>
+      <c s="14" r="J3"/>
+      <c t="s" s="11" r="P3">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" r="4" ht="15.75">
+      <c t="s" s="6" r="A4">
+        <v>53</v>
+      </c>
+      <c s="6" r="B4">
         <v>2.0</v>
       </c>
-      <c t="s" s="4" r="C2">
-        <v>21</v>
-      </c>
-      <c t="s" s="7" r="E2">
-        <v>22</v>
-      </c>
-      <c t="s" s="4" r="F2">
-        <v>27</v>
-      </c>
-      <c t="s" s="4" r="G2">
-        <v>29</v>
-      </c>
-      <c t="s" s="4" r="H2">
-        <v>30</v>
-      </c>
-      <c t="s" s="4" r="I2">
-        <v>32</v>
-      </c>
-      <c t="s" s="7" r="L2">
-        <v>33</v>
-      </c>
-      <c t="s" s="7" r="M2">
-        <v>36</v>
-      </c>
-      <c t="s" s="7" r="P2">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="4" r="A3">
-        <v>38</v>
-      </c>
-      <c s="4" r="B3">
+      <c t="s" s="6" r="C4">
+        <v>26</v>
+      </c>
+      <c t="s" s="11" r="E4">
+        <v>54</v>
+      </c>
+      <c t="s" s="6" r="F4">
+        <v>42</v>
+      </c>
+      <c t="s" s="10" r="G4">
+        <v>43</v>
+      </c>
+      <c t="s" s="6" r="H4">
+        <v>55</v>
+      </c>
+      <c t="s" s="6" r="I4">
+        <v>56</v>
+      </c>
+      <c t="s" s="14" r="J4">
+        <v>57</v>
+      </c>
+      <c t="s" s="6" r="K4">
+        <v>59</v>
+      </c>
+      <c t="s" s="17" r="M4">
+        <v>60</v>
+      </c>
+      <c t="s" s="11" r="P4">
+        <v>65</v>
+      </c>
+    </row>
+    <row customHeight="1" r="5" ht="15.75">
+      <c t="s" s="6" r="A5">
+        <v>66</v>
+      </c>
+      <c s="6" r="B5">
         <v>2.0</v>
       </c>
-      <c t="s" s="4" r="C3">
-        <v>21</v>
-      </c>
-      <c t="s" s="7" r="E3">
-        <v>40</v>
-      </c>
-      <c t="s" s="4" r="F3">
-        <v>27</v>
-      </c>
-      <c t="s" s="4" r="G3">
-        <v>29</v>
-      </c>
-      <c s="11" r="J3"/>
-      <c t="s" s="7" r="P3">
-        <v>49</v>
-      </c>
-    </row>
-    <row customHeight="1" r="4" ht="15.75">
-      <c t="s" s="4" r="A4">
-        <v>52</v>
-      </c>
-      <c s="4" r="B4">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="4" r="C4">
-        <v>21</v>
-      </c>
-      <c t="s" s="7" r="E4">
-        <v>53</v>
-      </c>
-      <c t="s" s="4" r="F4">
-        <v>27</v>
-      </c>
-      <c t="s" s="14" r="G4">
-        <v>29</v>
-      </c>
-      <c t="s" s="4" r="H4">
-        <v>60</v>
-      </c>
-      <c t="s" s="4" r="I4">
-        <v>62</v>
-      </c>
-      <c t="s" s="11" r="J4">
-        <v>65</v>
-      </c>
-      <c t="s" s="4" r="K4">
+      <c t="s" s="6" r="C5">
+        <v>26</v>
+      </c>
+      <c t="s" s="11" r="E5">
+        <v>67</v>
+      </c>
+      <c t="s" s="6" r="F5">
+        <v>42</v>
+      </c>
+      <c t="s" s="6" r="G5">
+        <v>43</v>
+      </c>
+      <c t="s" s="6" r="H5">
         <v>68</v>
       </c>
-      <c t="s" s="17" r="M4">
-        <v>70</v>
-      </c>
-      <c t="s" s="7" r="P4">
-        <v>83</v>
-      </c>
-    </row>
-    <row customHeight="1" r="5" ht="15.75">
-      <c t="s" s="4" r="A5">
-        <v>87</v>
-      </c>
-      <c s="4" r="B5">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="4" r="C5">
-        <v>21</v>
-      </c>
-      <c t="s" s="7" r="E5">
-        <v>89</v>
-      </c>
-      <c t="s" s="4" r="F5">
-        <v>27</v>
-      </c>
-      <c t="s" s="4" r="G5">
-        <v>29</v>
-      </c>
-      <c t="s" s="4" r="H5">
-        <v>96</v>
-      </c>
-      <c t="s" s="4" r="I5">
-        <v>32</v>
-      </c>
-      <c s="20" r="J5"/>
-      <c t="s" s="7" r="P5">
-        <v>108</v>
+      <c t="s" s="6" r="I5">
+        <v>45</v>
+      </c>
+      <c s="19" r="J5"/>
+      <c t="s" s="11" r="P5">
+        <v>72</v>
       </c>
     </row>
     <row customHeight="1" r="6" ht="15.75"/>
@@ -3112,7 +2888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3123,173 +2899,173 @@
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="1" r="A1">
+      <c t="s" s="4" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c t="s" s="4" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="4" r="C1">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c t="s" s="4" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c t="s" s="4" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="4" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="4" r="G1">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c t="s" s="4" r="H1">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="F1">
+      <c t="s" s="4" r="I1">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="G1">
+      <c t="s" s="4" r="J1">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="H1">
+      <c t="s" s="4" r="K1">
         <v>10</v>
       </c>
-      <c t="s" s="1" r="I1">
+      <c t="s" s="4" r="L1">
         <v>11</v>
       </c>
-      <c t="s" s="1" r="J1">
+      <c t="s" s="4" r="M1">
         <v>12</v>
       </c>
-      <c t="s" s="1" r="K1">
+      <c t="s" s="4" r="N1">
         <v>13</v>
       </c>
-      <c t="s" s="1" r="L1">
+      <c t="s" s="4" r="O1">
         <v>14</v>
       </c>
-      <c t="s" s="1" r="M1">
+      <c t="s" s="6" r="P1">
         <v>15</v>
       </c>
-      <c t="s" s="1" r="N1">
-        <v>16</v>
-      </c>
-      <c t="s" s="1" r="O1">
-        <v>17</v>
-      </c>
-      <c t="s" s="4" r="P1">
-        <v>18</v>
-      </c>
     </row>
     <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="6" r="A2">
-        <v>19</v>
-      </c>
-      <c s="6" r="B2">
+      <c t="s" s="7" r="A2">
+        <v>27</v>
+      </c>
+      <c s="7" r="B2">
         <v>2.0</v>
       </c>
-      <c t="s" s="6" r="C2">
-        <v>23</v>
-      </c>
-      <c s="12" r="D2"/>
-      <c t="s" s="15" r="E2">
-        <v>109</v>
-      </c>
-      <c t="s" s="6" r="F2">
-        <v>27</v>
-      </c>
-      <c t="s" s="6" r="G2">
-        <v>29</v>
-      </c>
-      <c t="s" s="6" r="H2">
-        <v>113</v>
-      </c>
-      <c t="s" s="6" r="I2">
+      <c t="s" s="7" r="C2">
+        <v>30</v>
+      </c>
+      <c s="15" r="D2"/>
+      <c t="s" s="16" r="E2">
+        <v>58</v>
+      </c>
+      <c t="s" s="7" r="F2">
+        <v>42</v>
+      </c>
+      <c t="s" s="7" r="G2">
+        <v>43</v>
+      </c>
+      <c t="s" s="7" r="H2">
+        <v>61</v>
+      </c>
+      <c t="s" s="7" r="I2">
+        <v>56</v>
+      </c>
+      <c s="15" r="J2"/>
+      <c t="s" s="7" r="K2">
         <v>62</v>
       </c>
-      <c s="12" r="J2"/>
-      <c t="s" s="6" r="K2">
-        <v>114</v>
-      </c>
-      <c t="s" s="15" r="L2">
-        <v>117</v>
-      </c>
-      <c t="s" s="25" r="M2">
-        <v>122</v>
-      </c>
-      <c s="12" r="N2"/>
-      <c s="12" r="O2"/>
-      <c t="s" s="15" r="P2">
-        <v>129</v>
+      <c t="s" s="16" r="L2">
+        <v>63</v>
+      </c>
+      <c t="s" s="18" r="M2">
+        <v>64</v>
+      </c>
+      <c s="15" r="N2"/>
+      <c s="15" r="O2"/>
+      <c t="s" s="16" r="P2">
+        <v>69</v>
       </c>
     </row>
     <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="6" r="A3">
-        <v>131</v>
-      </c>
-      <c s="6" r="B3">
+      <c t="s" s="7" r="A3">
+        <v>70</v>
+      </c>
+      <c s="7" r="B3">
         <v>2.0</v>
       </c>
-      <c t="s" s="6" r="C3">
-        <v>23</v>
-      </c>
-      <c s="12" r="D3"/>
-      <c t="s" s="15" r="E3">
-        <v>134</v>
-      </c>
-      <c t="s" s="6" r="F3">
-        <v>27</v>
-      </c>
-      <c t="s" s="6" r="G3">
-        <v>29</v>
-      </c>
-      <c t="s" s="6" r="H3">
-        <v>137</v>
-      </c>
-      <c t="s" s="6" r="I3">
-        <v>62</v>
-      </c>
-      <c s="12" r="J3"/>
-      <c t="s" s="6" r="K3">
-        <v>139</v>
-      </c>
-      <c s="12" r="L3"/>
-      <c t="s" s="15" r="M3">
-        <v>140</v>
-      </c>
-      <c s="12" r="N3"/>
-      <c s="12" r="O3"/>
-      <c t="s" s="15" r="P3">
-        <v>142</v>
+      <c t="s" s="7" r="C3">
+        <v>30</v>
+      </c>
+      <c s="15" r="D3"/>
+      <c t="s" s="16" r="E3">
+        <v>71</v>
+      </c>
+      <c t="s" s="7" r="F3">
+        <v>42</v>
+      </c>
+      <c t="s" s="7" r="G3">
+        <v>43</v>
+      </c>
+      <c t="s" s="7" r="H3">
+        <v>73</v>
+      </c>
+      <c t="s" s="7" r="I3">
+        <v>56</v>
+      </c>
+      <c s="15" r="J3"/>
+      <c t="s" s="7" r="K3">
+        <v>75</v>
+      </c>
+      <c s="15" r="L3"/>
+      <c t="s" s="16" r="M3">
+        <v>76</v>
+      </c>
+      <c s="15" r="N3"/>
+      <c s="15" r="O3"/>
+      <c t="s" s="16" r="P3">
+        <v>77</v>
       </c>
     </row>
     <row customHeight="1" r="4" ht="15.75">
-      <c t="s" s="6" r="A4">
-        <v>144</v>
-      </c>
-      <c s="6" r="B4">
+      <c t="s" s="7" r="A4">
+        <v>79</v>
+      </c>
+      <c s="7" r="B4">
         <v>1.0</v>
       </c>
-      <c t="s" s="6" r="C4">
-        <v>146</v>
-      </c>
-      <c s="12" r="D4"/>
-      <c t="s" s="15" r="E4">
-        <v>147</v>
-      </c>
-      <c t="s" s="6" r="F4">
-        <v>150</v>
-      </c>
-      <c t="s" s="6" r="G4">
-        <v>29</v>
-      </c>
-      <c t="s" s="6" r="H4">
-        <v>151</v>
-      </c>
-      <c t="s" s="6" r="I4">
-        <v>62</v>
-      </c>
-      <c s="12" r="J4"/>
-      <c t="s" s="6" r="K4">
-        <v>153</v>
-      </c>
-      <c s="12" r="L4"/>
-      <c s="12" r="M4"/>
-      <c s="12" r="N4"/>
-      <c s="12" r="O4"/>
-      <c t="s" s="15" r="P4">
-        <v>156</v>
+      <c t="s" s="7" r="C4">
+        <v>80</v>
+      </c>
+      <c s="15" r="D4"/>
+      <c t="s" s="16" r="E4">
+        <v>81</v>
+      </c>
+      <c t="s" s="7" r="F4">
+        <v>82</v>
+      </c>
+      <c t="s" s="7" r="G4">
+        <v>43</v>
+      </c>
+      <c t="s" s="7" r="H4">
+        <v>83</v>
+      </c>
+      <c t="s" s="7" r="I4">
+        <v>56</v>
+      </c>
+      <c s="15" r="J4"/>
+      <c t="s" s="7" r="K4">
+        <v>86</v>
+      </c>
+      <c s="15" r="L4"/>
+      <c s="15" r="M4"/>
+      <c s="15" r="N4"/>
+      <c s="15" r="O4"/>
+      <c t="s" s="16" r="P4">
+        <v>87</v>
       </c>
     </row>
     <row customHeight="1" r="5" ht="15.75"/>
@@ -3324,6 +3100,230 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" customWidth="1" max="6" width="13.57"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" r="1" ht="15.75">
+      <c t="s" s="20" r="A1">
+        <v>21</v>
+      </c>
+      <c t="s" s="21" r="B1">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" r="2" ht="15.75">
+      <c t="s" s="21" r="A2">
+        <v>92</v>
+      </c>
+      <c t="s" s="6" r="B2">
+        <v>93</v>
+      </c>
+    </row>
+    <row customHeight="1" r="3" ht="15.75">
+      <c t="s" s="21" r="A3">
+        <v>94</v>
+      </c>
+      <c t="s" s="6" r="B3">
+        <v>95</v>
+      </c>
+    </row>
+    <row customHeight="1" r="4" ht="15.75">
+      <c t="s" s="21" r="A4">
+        <v>96</v>
+      </c>
+      <c t="s" s="23" r="B4">
+        <v>97</v>
+      </c>
+    </row>
+    <row customHeight="1" r="5" ht="15.75">
+      <c t="s" s="20" r="A5">
+        <v>102</v>
+      </c>
+      <c t="s" s="23" r="B5">
+        <v>103</v>
+      </c>
+    </row>
+    <row customHeight="1" r="6" ht="15.75">
+      <c t="s" s="21" r="A6">
+        <v>105</v>
+      </c>
+      <c t="s" s="23" r="B6">
+        <v>108</v>
+      </c>
+    </row>
+    <row customHeight="1" r="7" ht="15.75"/>
+    <row customHeight="1" r="8" ht="15.75"/>
+    <row customHeight="1" r="9" ht="15.75"/>
+    <row customHeight="1" r="10" ht="15.75"/>
+    <row customHeight="1" r="11" ht="15.75"/>
+    <row customHeight="1" r="12" ht="15.75"/>
+    <row customHeight="1" r="13" ht="15.75"/>
+    <row customHeight="1" r="14" ht="15.75"/>
+    <row customHeight="1" r="15" ht="15.75"/>
+    <row customHeight="1" r="16" ht="15.75"/>
+    <row customHeight="1" r="17" ht="15.75"/>
+    <row customHeight="1" r="18" ht="15.75"/>
+    <row customHeight="1" r="19" ht="15.75"/>
+    <row customHeight="1" r="20" ht="15.75"/>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane topLeftCell="B2" ySplit="1.0" xSplit="1.0" activePane="bottomRight" state="frozen"/>
+      <selection sqref="B1" activeCell="B1" pane="topRight"/>
+      <selection sqref="A2" activeCell="A2" pane="bottomLeft"/>
+      <selection sqref="B2" activeCell="B2" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" customWidth="1" max="16" width="13.57"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" r="1" ht="15.75">
+      <c t="s" s="4" r="A1">
+        <v>0</v>
+      </c>
+      <c t="s" s="4" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="4" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="4" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="4" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="4" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="4" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="4" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="4" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="4" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="4" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="4" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="4" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="4" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="4" r="O1">
+        <v>14</v>
+      </c>
+      <c t="s" s="6" r="P1">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" r="2" ht="15.75">
+      <c t="s" s="6" r="A2">
+        <v>20</v>
+      </c>
+      <c s="6" r="B2">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="6" r="C2">
+        <v>22</v>
+      </c>
+      <c t="s" s="6" r="F2">
+        <v>23</v>
+      </c>
+      <c t="s" s="6" r="H2">
+        <v>24</v>
+      </c>
+      <c t="s" s="9" r="J2">
+        <v>32</v>
+      </c>
+    </row>
+    <row customHeight="1" r="3" ht="15.75">
+      <c t="s" s="7" r="A3">
+        <v>39</v>
+      </c>
+      <c s="7" r="B3">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="7" r="C3">
+        <v>40</v>
+      </c>
+      <c s="15" r="D3"/>
+      <c t="s" s="16" r="E3">
+        <v>131</v>
+      </c>
+      <c t="s" s="7" r="F3">
+        <v>134</v>
+      </c>
+      <c t="s" s="10" r="G3">
+        <v>43</v>
+      </c>
+      <c t="s" s="7" r="H3">
+        <v>136</v>
+      </c>
+      <c s="15" r="I3"/>
+      <c t="s" s="9" r="J3">
+        <v>138</v>
+      </c>
+      <c s="15" r="K3"/>
+      <c s="15" r="L3"/>
+      <c s="15" r="M3"/>
+      <c s="15" r="N3"/>
+      <c s="15" r="O3"/>
+      <c t="s" s="16" r="P3">
+        <v>141</v>
+      </c>
+    </row>
+    <row customHeight="1" r="4" ht="15.75"/>
+    <row customHeight="1" r="5" ht="15.75"/>
+    <row customHeight="1" r="6" ht="15.75"/>
+    <row customHeight="1" r="7" ht="15.75"/>
+    <row customHeight="1" r="8" ht="15.75"/>
+    <row customHeight="1" r="9" ht="15.75"/>
+    <row customHeight="1" r="10" ht="15.75"/>
+    <row customHeight="1" r="11" ht="15.75"/>
+    <row customHeight="1" r="12" ht="15.75"/>
+    <row customHeight="1" r="13" ht="15.75"/>
+    <row customHeight="1" r="14" ht="15.75"/>
+    <row customHeight="1" r="15" ht="15.75"/>
+    <row customHeight="1" r="16" ht="15.75"/>
+    <row customHeight="1" r="17" ht="15.75"/>
+    <row customHeight="1" r="18" ht="15.75"/>
+    <row customHeight="1" r="19" ht="15.75"/>
+    <row customHeight="1" r="20" ht="15.75"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="P3" r:id="rId2"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -3335,532 +3335,532 @@
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="9" r="A1">
+      <c t="s" s="5" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="9" r="B1">
+      <c t="s" s="5" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="5" r="C1">
         <v>2</v>
       </c>
-      <c t="s" s="9" r="C1">
+      <c t="s" s="5" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="9" r="D1">
+      <c t="s" s="5" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="5" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="5" r="G1">
         <v>6</v>
       </c>
-      <c t="s" s="9" r="E1">
+      <c t="s" s="5" r="H1">
         <v>7</v>
       </c>
-      <c t="s" s="9" r="F1">
+      <c t="s" s="5" r="I1">
         <v>8</v>
       </c>
-      <c t="s" s="9" r="G1">
+      <c t="s" s="5" r="J1">
         <v>9</v>
       </c>
-      <c t="s" s="9" r="H1">
+      <c t="s" s="5" r="K1">
         <v>10</v>
       </c>
-      <c t="s" s="9" r="I1">
+      <c t="s" s="5" r="L1">
         <v>11</v>
       </c>
-      <c t="s" s="9" r="J1">
+      <c t="s" s="5" r="M1">
         <v>12</v>
       </c>
-      <c t="s" s="9" r="K1">
+      <c t="s" s="5" r="N1">
         <v>13</v>
       </c>
-      <c t="s" s="9" r="L1">
+      <c t="s" s="5" r="O1">
         <v>14</v>
       </c>
-      <c t="s" s="9" r="M1">
+      <c t="s" s="7" r="P1">
         <v>15</v>
       </c>
-      <c t="s" s="9" r="N1">
-        <v>16</v>
-      </c>
-      <c t="s" s="9" r="O1">
-        <v>17</v>
-      </c>
-      <c t="s" s="6" r="P1">
-        <v>18</v>
-      </c>
     </row>
     <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="6" r="A2">
-        <v>41</v>
-      </c>
-      <c s="6" r="B2">
+      <c t="s" s="7" r="A2">
+        <v>29</v>
+      </c>
+      <c s="7" r="B2">
         <v>1.0</v>
       </c>
-      <c t="s" s="6" r="C2">
-        <v>42</v>
-      </c>
-      <c s="12" r="D2"/>
-      <c t="s" s="15" r="E2">
-        <v>51</v>
-      </c>
-      <c t="s" s="6" r="F2">
-        <v>71</v>
-      </c>
-      <c t="s" s="6" r="G2">
-        <v>29</v>
-      </c>
-      <c t="s" s="6" r="H2">
-        <v>72</v>
-      </c>
-      <c t="s" s="6" r="I2">
-        <v>73</v>
-      </c>
-      <c t="s" s="10" r="J2">
-        <v>77</v>
-      </c>
-      <c s="12" r="K2"/>
-      <c t="s" s="15" r="L2">
-        <v>80</v>
-      </c>
-      <c s="12" r="M2"/>
-      <c t="s" s="18" r="N2">
+      <c t="s" s="7" r="C2">
+        <v>31</v>
+      </c>
+      <c s="15" r="D2"/>
+      <c t="s" s="16" r="E2">
+        <v>74</v>
+      </c>
+      <c t="s" s="7" r="F2">
+        <v>78</v>
+      </c>
+      <c t="s" s="7" r="G2">
+        <v>43</v>
+      </c>
+      <c t="s" s="7" r="H2">
         <v>84</v>
       </c>
-      <c t="s" s="15" r="O2">
+      <c t="s" s="7" r="I2">
+        <v>85</v>
+      </c>
+      <c t="s" s="9" r="J2">
+        <v>89</v>
+      </c>
+      <c s="15" r="K2"/>
+      <c t="s" s="16" r="L2">
+        <v>90</v>
+      </c>
+      <c s="15" r="M2"/>
+      <c t="s" s="22" r="N2">
         <v>91</v>
       </c>
-      <c t="s" s="15" r="P2">
-        <v>93</v>
+      <c t="s" s="16" r="O2">
+        <v>98</v>
+      </c>
+      <c t="s" s="16" r="P2">
+        <v>99</v>
       </c>
     </row>
     <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="6" r="A3">
+      <c t="s" s="7" r="A3">
         <v>100</v>
       </c>
-      <c s="6" r="B3">
+      <c s="7" r="B3">
         <v>1.0</v>
       </c>
-      <c t="s" s="6" r="C3">
-        <v>42</v>
-      </c>
-      <c s="12" r="D3"/>
-      <c t="s" s="15" r="E3">
-        <v>105</v>
-      </c>
-      <c t="s" s="6" r="F3">
-        <v>71</v>
-      </c>
-      <c t="s" s="6" r="G3">
-        <v>29</v>
-      </c>
-      <c t="s" s="6" r="H3">
-        <v>110</v>
-      </c>
-      <c t="s" s="6" r="I3">
-        <v>62</v>
-      </c>
-      <c t="s" s="10" r="J3">
-        <v>111</v>
-      </c>
-      <c t="s" s="23" r="K3">
-        <v>115</v>
-      </c>
-      <c t="s" s="15" r="L3">
-        <v>116</v>
-      </c>
-      <c s="12" r="M3"/>
-      <c t="s" s="6" r="N3">
+      <c t="s" s="7" r="C3">
+        <v>31</v>
+      </c>
+      <c s="15" r="D3"/>
+      <c t="s" s="16" r="E3">
+        <v>101</v>
+      </c>
+      <c t="s" s="7" r="F3">
+        <v>78</v>
+      </c>
+      <c t="s" s="7" r="G3">
+        <v>43</v>
+      </c>
+      <c t="s" s="7" r="H3">
+        <v>114</v>
+      </c>
+      <c t="s" s="7" r="I3">
+        <v>56</v>
+      </c>
+      <c t="s" s="9" r="J3">
         <v>118</v>
       </c>
-      <c t="s" s="15" r="O3">
-        <v>119</v>
-      </c>
-      <c t="s" s="15" r="P3">
-        <v>125</v>
+      <c t="s" s="25" r="K3">
+        <v>130</v>
+      </c>
+      <c t="s" s="16" r="L3">
+        <v>139</v>
+      </c>
+      <c s="15" r="M3"/>
+      <c t="s" s="7" r="N3">
+        <v>142</v>
+      </c>
+      <c t="s" s="16" r="O3">
+        <v>143</v>
+      </c>
+      <c t="s" s="16" r="P3">
+        <v>144</v>
       </c>
     </row>
     <row customHeight="1" r="4" ht="15.75">
-      <c t="s" s="26" r="A4">
-        <v>127</v>
-      </c>
-      <c s="26" r="B4">
+      <c t="s" s="27" r="A4">
+        <v>146</v>
+      </c>
+      <c s="27" r="B4">
         <v>1.0</v>
       </c>
-      <c t="s" s="26" r="C4">
-        <v>133</v>
-      </c>
-      <c s="27" r="D4"/>
+      <c t="s" s="27" r="C4">
+        <v>150</v>
+      </c>
+      <c s="28" r="D4"/>
       <c t="s" s="29" r="E4">
-        <v>136</v>
-      </c>
-      <c t="s" s="26" r="F4">
-        <v>143</v>
-      </c>
-      <c t="s" s="14" r="G4">
-        <v>29</v>
-      </c>
-      <c t="s" s="26" r="H4">
-        <v>113</v>
-      </c>
-      <c t="s" s="26" r="I4">
-        <v>62</v>
-      </c>
-      <c s="27" r="J4"/>
-      <c s="12" r="K4"/>
+        <v>153</v>
+      </c>
+      <c t="s" s="27" r="F4">
+        <v>156</v>
+      </c>
+      <c t="s" s="10" r="G4">
+        <v>43</v>
+      </c>
+      <c t="s" s="27" r="H4">
+        <v>61</v>
+      </c>
+      <c t="s" s="27" r="I4">
+        <v>56</v>
+      </c>
+      <c s="28" r="J4"/>
+      <c s="15" r="K4"/>
       <c t="s" s="29" r="L4">
-        <v>145</v>
-      </c>
-      <c s="27" r="M4"/>
-      <c s="27" r="N4"/>
-      <c s="27" r="O4"/>
+        <v>159</v>
+      </c>
+      <c s="28" r="M4"/>
+      <c s="28" r="N4"/>
+      <c s="28" r="O4"/>
       <c t="s" s="29" r="P4">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row customHeight="1" r="5" ht="15.75">
-      <c t="s" s="6" r="A5">
-        <v>157</v>
-      </c>
-      <c s="6" r="B5">
+      <c t="s" s="7" r="A5">
+        <v>163</v>
+      </c>
+      <c s="7" r="B5">
         <v>2.0</v>
       </c>
-      <c t="s" s="6" r="C5">
-        <v>158</v>
-      </c>
-      <c s="12" r="D5"/>
-      <c t="s" s="15" r="E5">
-        <v>160</v>
-      </c>
-      <c t="s" s="6" r="F5">
-        <v>161</v>
-      </c>
-      <c t="s" s="6" r="G5">
-        <v>29</v>
-      </c>
-      <c t="s" s="6" r="H5">
-        <v>163</v>
-      </c>
-      <c t="s" s="6" r="I5">
-        <v>73</v>
-      </c>
-      <c s="12" r="J5"/>
-      <c s="12" r="K5"/>
-      <c s="12" r="L5"/>
-      <c s="12" r="M5"/>
-      <c s="12" r="N5"/>
-      <c s="12" r="O5"/>
-      <c t="s" s="15" r="P5">
+      <c t="s" s="7" r="C5">
         <v>164</v>
       </c>
+      <c s="15" r="D5"/>
+      <c t="s" s="16" r="E5">
+        <v>166</v>
+      </c>
+      <c t="s" s="7" r="F5">
+        <v>167</v>
+      </c>
+      <c t="s" s="7" r="G5">
+        <v>43</v>
+      </c>
+      <c t="s" s="7" r="H5">
+        <v>169</v>
+      </c>
+      <c t="s" s="7" r="I5">
+        <v>85</v>
+      </c>
+      <c s="15" r="J5"/>
+      <c s="15" r="K5"/>
+      <c s="15" r="L5"/>
+      <c s="15" r="M5"/>
+      <c s="15" r="N5"/>
+      <c s="15" r="O5"/>
+      <c t="s" s="16" r="P5">
+        <v>171</v>
+      </c>
     </row>
     <row customHeight="1" r="6" ht="15.75">
-      <c t="s" s="6" r="A6">
+      <c t="s" s="7" r="A6">
+        <v>172</v>
+      </c>
+      <c s="7" r="B6">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="7" r="C6">
+        <v>164</v>
+      </c>
+      <c s="15" r="D6"/>
+      <c t="s" s="16" r="E6">
+        <v>174</v>
+      </c>
+      <c t="s" s="7" r="F6">
         <v>167</v>
       </c>
-      <c s="6" r="B6">
+      <c t="s" s="7" r="G6">
+        <v>43</v>
+      </c>
+      <c t="s" s="7" r="H6">
+        <v>176</v>
+      </c>
+      <c t="s" s="7" r="I6">
+        <v>85</v>
+      </c>
+      <c s="15" r="J6"/>
+      <c s="15" r="K6"/>
+      <c s="15" r="L6"/>
+      <c s="15" r="M6"/>
+      <c t="s" s="22" r="N6">
+        <v>177</v>
+      </c>
+      <c t="s" s="16" r="O6">
+        <v>178</v>
+      </c>
+      <c t="s" s="16" r="P6">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" r="7" ht="15.75">
+      <c t="s" s="7" r="A7">
+        <v>180</v>
+      </c>
+      <c s="7" r="B7">
         <v>2.0</v>
       </c>
-      <c t="s" s="6" r="C6">
-        <v>158</v>
-      </c>
-      <c s="12" r="D6"/>
-      <c t="s" s="15" r="E6">
-        <v>168</v>
-      </c>
-      <c t="s" s="6" r="F6">
-        <v>161</v>
-      </c>
-      <c t="s" s="6" r="G6">
-        <v>29</v>
-      </c>
-      <c t="s" s="6" r="H6">
-        <v>174</v>
-      </c>
-      <c t="s" s="6" r="I6">
-        <v>73</v>
-      </c>
-      <c s="12" r="J6"/>
-      <c s="12" r="K6"/>
-      <c s="12" r="L6"/>
-      <c s="12" r="M6"/>
-      <c t="s" s="18" r="N6">
-        <v>175</v>
-      </c>
-      <c t="s" s="15" r="O6">
-        <v>176</v>
-      </c>
-      <c t="s" s="15" r="P6">
-        <v>178</v>
-      </c>
-    </row>
-    <row customHeight="1" r="7" ht="15.75">
-      <c t="s" s="6" r="A7">
-        <v>179</v>
-      </c>
-      <c s="6" r="B7">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="6" r="C7">
-        <v>158</v>
-      </c>
-      <c s="12" r="D7"/>
-      <c t="s" s="15" r="E7">
+      <c t="s" s="7" r="C7">
+        <v>164</v>
+      </c>
+      <c s="15" r="D7"/>
+      <c t="s" s="16" r="E7">
         <v>181</v>
       </c>
-      <c t="s" s="6" r="F7">
-        <v>161</v>
-      </c>
-      <c t="s" s="6" r="G7">
-        <v>29</v>
-      </c>
-      <c t="s" s="6" r="H7">
+      <c t="s" s="7" r="F7">
+        <v>167</v>
+      </c>
+      <c t="s" s="7" r="G7">
+        <v>43</v>
+      </c>
+      <c t="s" s="7" r="H7">
         <v>182</v>
       </c>
-      <c t="s" s="6" r="I7">
-        <v>73</v>
-      </c>
-      <c s="12" r="J7"/>
-      <c s="12" r="K7"/>
-      <c s="12" r="L7"/>
-      <c s="12" r="M7"/>
-      <c t="s" s="18" r="N7">
+      <c t="s" s="7" r="I7">
+        <v>85</v>
+      </c>
+      <c s="15" r="J7"/>
+      <c s="15" r="K7"/>
+      <c s="15" r="L7"/>
+      <c s="15" r="M7"/>
+      <c t="s" s="22" r="N7">
         <v>183</v>
       </c>
-      <c t="s" s="15" r="O7">
+      <c t="s" s="16" r="O7">
         <v>184</v>
       </c>
-      <c t="s" s="15" r="P7">
-        <v>186</v>
+      <c t="s" s="16" r="P7">
+        <v>185</v>
       </c>
     </row>
     <row customHeight="1" r="8" ht="15.75">
-      <c s="12" r="A8"/>
-      <c s="12" r="B8"/>
-      <c s="12" r="C8"/>
-      <c s="12" r="D8"/>
-      <c s="12" r="E8"/>
-      <c s="12" r="F8"/>
-      <c s="12" r="G8"/>
-      <c s="12" r="H8"/>
-      <c s="12" r="I8"/>
-      <c s="12" r="J8"/>
-      <c s="12" r="K8"/>
-      <c s="12" r="L8"/>
-      <c s="12" r="M8"/>
-      <c s="12" r="N8"/>
-      <c s="12" r="O8"/>
-      <c s="12" r="P8"/>
+      <c s="15" r="A8"/>
+      <c s="15" r="B8"/>
+      <c s="15" r="C8"/>
+      <c s="15" r="D8"/>
+      <c s="15" r="E8"/>
+      <c s="15" r="F8"/>
+      <c s="15" r="G8"/>
+      <c s="15" r="H8"/>
+      <c s="15" r="I8"/>
+      <c s="15" r="J8"/>
+      <c s="15" r="K8"/>
+      <c s="15" r="L8"/>
+      <c s="15" r="M8"/>
+      <c s="15" r="N8"/>
+      <c s="15" r="O8"/>
+      <c s="15" r="P8"/>
     </row>
     <row customHeight="1" r="9" ht="15.75">
-      <c s="12" r="A9"/>
-      <c s="12" r="B9"/>
-      <c s="12" r="C9"/>
-      <c s="12" r="D9"/>
-      <c s="12" r="E9"/>
-      <c s="12" r="F9"/>
-      <c s="12" r="G9"/>
-      <c s="12" r="H9"/>
-      <c s="12" r="I9"/>
-      <c s="12" r="J9"/>
-      <c s="12" r="K9"/>
-      <c s="12" r="L9"/>
-      <c s="12" r="M9"/>
-      <c s="12" r="N9"/>
-      <c s="12" r="O9"/>
-      <c s="12" r="P9"/>
+      <c s="15" r="A9"/>
+      <c s="15" r="B9"/>
+      <c s="15" r="C9"/>
+      <c s="15" r="D9"/>
+      <c s="15" r="E9"/>
+      <c s="15" r="F9"/>
+      <c s="15" r="G9"/>
+      <c s="15" r="H9"/>
+      <c s="15" r="I9"/>
+      <c s="15" r="J9"/>
+      <c s="15" r="K9"/>
+      <c s="15" r="L9"/>
+      <c s="15" r="M9"/>
+      <c s="15" r="N9"/>
+      <c s="15" r="O9"/>
+      <c s="15" r="P9"/>
     </row>
     <row customHeight="1" r="10" ht="15.75">
-      <c s="12" r="A10"/>
-      <c s="12" r="B10"/>
-      <c s="12" r="C10"/>
-      <c s="12" r="D10"/>
-      <c s="12" r="E10"/>
-      <c s="12" r="F10"/>
-      <c s="12" r="G10"/>
-      <c s="12" r="H10"/>
-      <c s="12" r="I10"/>
-      <c s="12" r="J10"/>
-      <c s="12" r="K10"/>
-      <c s="12" r="L10"/>
-      <c s="12" r="M10"/>
-      <c s="12" r="N10"/>
-      <c s="12" r="O10"/>
-      <c s="12" r="P10"/>
+      <c s="15" r="A10"/>
+      <c s="15" r="B10"/>
+      <c s="15" r="C10"/>
+      <c s="15" r="D10"/>
+      <c s="15" r="E10"/>
+      <c s="15" r="F10"/>
+      <c s="15" r="G10"/>
+      <c s="15" r="H10"/>
+      <c s="15" r="I10"/>
+      <c s="15" r="J10"/>
+      <c s="15" r="K10"/>
+      <c s="15" r="L10"/>
+      <c s="15" r="M10"/>
+      <c s="15" r="N10"/>
+      <c s="15" r="O10"/>
+      <c s="15" r="P10"/>
     </row>
     <row customHeight="1" r="11" ht="15.75">
-      <c s="12" r="A11"/>
-      <c s="12" r="B11"/>
-      <c s="12" r="C11"/>
-      <c s="12" r="D11"/>
-      <c s="12" r="E11"/>
-      <c s="12" r="F11"/>
-      <c s="12" r="G11"/>
-      <c s="12" r="H11"/>
-      <c s="12" r="I11"/>
-      <c s="12" r="J11"/>
-      <c s="12" r="K11"/>
-      <c s="12" r="L11"/>
-      <c s="12" r="M11"/>
-      <c s="12" r="N11"/>
-      <c s="12" r="O11"/>
-      <c s="12" r="P11"/>
+      <c s="15" r="A11"/>
+      <c s="15" r="B11"/>
+      <c s="15" r="C11"/>
+      <c s="15" r="D11"/>
+      <c s="15" r="E11"/>
+      <c s="15" r="F11"/>
+      <c s="15" r="G11"/>
+      <c s="15" r="H11"/>
+      <c s="15" r="I11"/>
+      <c s="15" r="J11"/>
+      <c s="15" r="K11"/>
+      <c s="15" r="L11"/>
+      <c s="15" r="M11"/>
+      <c s="15" r="N11"/>
+      <c s="15" r="O11"/>
+      <c s="15" r="P11"/>
     </row>
     <row customHeight="1" r="12" ht="15.75">
-      <c s="12" r="A12"/>
-      <c s="12" r="B12"/>
-      <c s="12" r="C12"/>
-      <c s="12" r="D12"/>
-      <c s="12" r="E12"/>
-      <c s="12" r="F12"/>
-      <c s="12" r="G12"/>
-      <c s="12" r="H12"/>
-      <c s="12" r="I12"/>
-      <c s="12" r="J12"/>
-      <c s="12" r="K12"/>
-      <c s="12" r="L12"/>
-      <c s="12" r="M12"/>
-      <c s="12" r="N12"/>
-      <c s="12" r="O12"/>
-      <c s="12" r="P12"/>
+      <c s="15" r="A12"/>
+      <c s="15" r="B12"/>
+      <c s="15" r="C12"/>
+      <c s="15" r="D12"/>
+      <c s="15" r="E12"/>
+      <c s="15" r="F12"/>
+      <c s="15" r="G12"/>
+      <c s="15" r="H12"/>
+      <c s="15" r="I12"/>
+      <c s="15" r="J12"/>
+      <c s="15" r="K12"/>
+      <c s="15" r="L12"/>
+      <c s="15" r="M12"/>
+      <c s="15" r="N12"/>
+      <c s="15" r="O12"/>
+      <c s="15" r="P12"/>
     </row>
     <row customHeight="1" r="13" ht="15.75">
-      <c s="12" r="A13"/>
-      <c s="12" r="B13"/>
-      <c s="12" r="C13"/>
-      <c s="12" r="D13"/>
-      <c s="12" r="E13"/>
-      <c s="12" r="F13"/>
-      <c s="12" r="G13"/>
-      <c s="12" r="H13"/>
-      <c s="12" r="I13"/>
-      <c s="12" r="J13"/>
-      <c s="12" r="K13"/>
-      <c s="12" r="L13"/>
-      <c s="12" r="M13"/>
-      <c s="12" r="N13"/>
-      <c s="12" r="O13"/>
-      <c s="12" r="P13"/>
+      <c s="15" r="A13"/>
+      <c s="15" r="B13"/>
+      <c s="15" r="C13"/>
+      <c s="15" r="D13"/>
+      <c s="15" r="E13"/>
+      <c s="15" r="F13"/>
+      <c s="15" r="G13"/>
+      <c s="15" r="H13"/>
+      <c s="15" r="I13"/>
+      <c s="15" r="J13"/>
+      <c s="15" r="K13"/>
+      <c s="15" r="L13"/>
+      <c s="15" r="M13"/>
+      <c s="15" r="N13"/>
+      <c s="15" r="O13"/>
+      <c s="15" r="P13"/>
     </row>
     <row customHeight="1" r="14" ht="15.75">
-      <c s="12" r="A14"/>
-      <c s="12" r="B14"/>
-      <c s="12" r="C14"/>
-      <c s="12" r="D14"/>
-      <c s="12" r="E14"/>
-      <c s="12" r="F14"/>
-      <c s="12" r="G14"/>
-      <c s="12" r="H14"/>
-      <c s="12" r="I14"/>
-      <c s="12" r="J14"/>
-      <c s="12" r="K14"/>
-      <c s="12" r="L14"/>
-      <c s="12" r="M14"/>
-      <c s="12" r="N14"/>
-      <c s="12" r="O14"/>
-      <c s="12" r="P14"/>
+      <c s="15" r="A14"/>
+      <c s="15" r="B14"/>
+      <c s="15" r="C14"/>
+      <c s="15" r="D14"/>
+      <c s="15" r="E14"/>
+      <c s="15" r="F14"/>
+      <c s="15" r="G14"/>
+      <c s="15" r="H14"/>
+      <c s="15" r="I14"/>
+      <c s="15" r="J14"/>
+      <c s="15" r="K14"/>
+      <c s="15" r="L14"/>
+      <c s="15" r="M14"/>
+      <c s="15" r="N14"/>
+      <c s="15" r="O14"/>
+      <c s="15" r="P14"/>
     </row>
     <row customHeight="1" r="15" ht="15.75">
-      <c s="12" r="A15"/>
-      <c s="12" r="B15"/>
-      <c s="12" r="C15"/>
-      <c s="12" r="D15"/>
-      <c s="12" r="E15"/>
-      <c s="12" r="F15"/>
-      <c s="12" r="G15"/>
-      <c s="12" r="H15"/>
-      <c s="12" r="I15"/>
-      <c s="12" r="J15"/>
-      <c s="12" r="K15"/>
-      <c s="12" r="L15"/>
-      <c s="12" r="M15"/>
-      <c s="12" r="N15"/>
-      <c s="12" r="O15"/>
-      <c s="12" r="P15"/>
+      <c s="15" r="A15"/>
+      <c s="15" r="B15"/>
+      <c s="15" r="C15"/>
+      <c s="15" r="D15"/>
+      <c s="15" r="E15"/>
+      <c s="15" r="F15"/>
+      <c s="15" r="G15"/>
+      <c s="15" r="H15"/>
+      <c s="15" r="I15"/>
+      <c s="15" r="J15"/>
+      <c s="15" r="K15"/>
+      <c s="15" r="L15"/>
+      <c s="15" r="M15"/>
+      <c s="15" r="N15"/>
+      <c s="15" r="O15"/>
+      <c s="15" r="P15"/>
     </row>
     <row customHeight="1" r="16" ht="15.75">
-      <c s="12" r="A16"/>
-      <c s="12" r="B16"/>
-      <c s="12" r="C16"/>
-      <c s="12" r="D16"/>
-      <c s="12" r="E16"/>
-      <c s="12" r="F16"/>
-      <c s="12" r="G16"/>
-      <c s="12" r="H16"/>
-      <c s="12" r="I16"/>
-      <c s="12" r="J16"/>
-      <c s="12" r="K16"/>
-      <c s="12" r="L16"/>
-      <c s="12" r="M16"/>
-      <c s="12" r="N16"/>
-      <c s="12" r="O16"/>
-      <c s="12" r="P16"/>
+      <c s="15" r="A16"/>
+      <c s="15" r="B16"/>
+      <c s="15" r="C16"/>
+      <c s="15" r="D16"/>
+      <c s="15" r="E16"/>
+      <c s="15" r="F16"/>
+      <c s="15" r="G16"/>
+      <c s="15" r="H16"/>
+      <c s="15" r="I16"/>
+      <c s="15" r="J16"/>
+      <c s="15" r="K16"/>
+      <c s="15" r="L16"/>
+      <c s="15" r="M16"/>
+      <c s="15" r="N16"/>
+      <c s="15" r="O16"/>
+      <c s="15" r="P16"/>
     </row>
     <row customHeight="1" r="17" ht="15.75">
-      <c s="12" r="A17"/>
-      <c s="12" r="B17"/>
-      <c s="12" r="C17"/>
-      <c s="12" r="D17"/>
-      <c s="12" r="E17"/>
-      <c s="12" r="F17"/>
-      <c s="12" r="G17"/>
-      <c s="12" r="H17"/>
-      <c s="12" r="I17"/>
-      <c s="12" r="J17"/>
-      <c s="12" r="K17"/>
-      <c s="12" r="L17"/>
-      <c s="12" r="M17"/>
-      <c s="12" r="N17"/>
-      <c s="12" r="O17"/>
-      <c s="12" r="P17"/>
+      <c s="15" r="A17"/>
+      <c s="15" r="B17"/>
+      <c s="15" r="C17"/>
+      <c s="15" r="D17"/>
+      <c s="15" r="E17"/>
+      <c s="15" r="F17"/>
+      <c s="15" r="G17"/>
+      <c s="15" r="H17"/>
+      <c s="15" r="I17"/>
+      <c s="15" r="J17"/>
+      <c s="15" r="K17"/>
+      <c s="15" r="L17"/>
+      <c s="15" r="M17"/>
+      <c s="15" r="N17"/>
+      <c s="15" r="O17"/>
+      <c s="15" r="P17"/>
     </row>
     <row customHeight="1" r="18" ht="15.75">
-      <c s="12" r="A18"/>
-      <c s="12" r="B18"/>
-      <c s="12" r="C18"/>
-      <c s="12" r="D18"/>
-      <c s="12" r="E18"/>
-      <c s="12" r="F18"/>
-      <c s="12" r="G18"/>
-      <c s="12" r="H18"/>
-      <c s="12" r="I18"/>
-      <c s="12" r="J18"/>
-      <c s="12" r="K18"/>
-      <c s="12" r="L18"/>
-      <c s="12" r="M18"/>
-      <c s="12" r="N18"/>
-      <c s="12" r="O18"/>
-      <c s="12" r="P18"/>
+      <c s="15" r="A18"/>
+      <c s="15" r="B18"/>
+      <c s="15" r="C18"/>
+      <c s="15" r="D18"/>
+      <c s="15" r="E18"/>
+      <c s="15" r="F18"/>
+      <c s="15" r="G18"/>
+      <c s="15" r="H18"/>
+      <c s="15" r="I18"/>
+      <c s="15" r="J18"/>
+      <c s="15" r="K18"/>
+      <c s="15" r="L18"/>
+      <c s="15" r="M18"/>
+      <c s="15" r="N18"/>
+      <c s="15" r="O18"/>
+      <c s="15" r="P18"/>
     </row>
     <row customHeight="1" r="19" ht="15.75">
-      <c s="12" r="A19"/>
-      <c s="12" r="B19"/>
-      <c s="12" r="C19"/>
-      <c s="12" r="D19"/>
-      <c s="12" r="E19"/>
-      <c s="12" r="F19"/>
-      <c s="12" r="G19"/>
-      <c s="12" r="H19"/>
-      <c s="12" r="I19"/>
-      <c s="12" r="J19"/>
-      <c s="12" r="K19"/>
-      <c s="12" r="L19"/>
-      <c s="12" r="M19"/>
-      <c s="12" r="N19"/>
-      <c s="12" r="O19"/>
-      <c s="12" r="P19"/>
+      <c s="15" r="A19"/>
+      <c s="15" r="B19"/>
+      <c s="15" r="C19"/>
+      <c s="15" r="D19"/>
+      <c s="15" r="E19"/>
+      <c s="15" r="F19"/>
+      <c s="15" r="G19"/>
+      <c s="15" r="H19"/>
+      <c s="15" r="I19"/>
+      <c s="15" r="J19"/>
+      <c s="15" r="K19"/>
+      <c s="15" r="L19"/>
+      <c s="15" r="M19"/>
+      <c s="15" r="N19"/>
+      <c s="15" r="O19"/>
+      <c s="15" r="P19"/>
     </row>
     <row customHeight="1" r="20" ht="15.75">
-      <c s="12" r="A20"/>
-      <c s="12" r="B20"/>
-      <c s="12" r="C20"/>
-      <c s="12" r="D20"/>
-      <c s="12" r="E20"/>
-      <c s="12" r="F20"/>
-      <c s="12" r="G20"/>
-      <c s="12" r="H20"/>
-      <c s="12" r="I20"/>
-      <c s="12" r="J20"/>
-      <c s="12" r="K20"/>
-      <c s="12" r="L20"/>
-      <c s="12" r="M20"/>
-      <c s="12" r="N20"/>
-      <c s="12" r="O20"/>
-      <c s="12" r="P20"/>
+      <c s="15" r="A20"/>
+      <c s="15" r="B20"/>
+      <c s="15" r="C20"/>
+      <c s="15" r="D20"/>
+      <c s="15" r="E20"/>
+      <c s="15" r="F20"/>
+      <c s="15" r="G20"/>
+      <c s="15" r="H20"/>
+      <c s="15" r="I20"/>
+      <c s="15" r="J20"/>
+      <c s="15" r="K20"/>
+      <c s="15" r="L20"/>
+      <c s="15" r="M20"/>
+      <c s="15" r="N20"/>
+      <c s="15" r="O20"/>
+      <c s="15" r="P20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3891,6 +3891,103 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="6" r="A1">
+        <v>19</v>
+      </c>
+      <c t="s" s="6" r="B1">
+        <v>104</v>
+      </c>
+      <c t="s" s="6" r="C1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="6" r="A2">
+        <v>107</v>
+      </c>
+      <c t="s" s="6" r="B2">
+        <v>109</v>
+      </c>
+      <c t="s" s="11" r="C2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="6" r="A3">
+        <v>111</v>
+      </c>
+      <c t="s" s="6" r="B3">
+        <v>112</v>
+      </c>
+      <c t="s" s="11" r="C3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="6" r="A4">
+        <v>115</v>
+      </c>
+      <c t="s" s="6" r="B4">
+        <v>116</v>
+      </c>
+      <c t="s" s="11" r="C4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="6" r="A5">
+        <v>119</v>
+      </c>
+      <c t="s" s="6" r="B5">
+        <v>120</v>
+      </c>
+      <c t="s" s="11" r="C5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="6" r="A6">
+        <v>122</v>
+      </c>
+      <c t="s" s="6" r="B6">
+        <v>120</v>
+      </c>
+      <c t="s" s="11" r="C6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="6" r="A7">
+        <v>128</v>
+      </c>
+      <c t="s" s="6" r="B7">
+        <v>116</v>
+      </c>
+      <c t="s" s="11" r="C7">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+  </hyperlinks>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
     <sheetView workbookViewId="0">
       <pane topLeftCell="B2" ySplit="1.0" xSplit="1.0" activePane="bottomRight" state="frozen"/>
       <selection sqref="B1" activeCell="B1" pane="topRight"/>
@@ -3905,288 +4002,288 @@
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="15.75">
-      <c t="s" s="3" r="A1">
+      <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="5" r="B1">
+      <c t="s" s="2" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="2" r="C1">
         <v>2</v>
       </c>
-      <c t="s" s="5" r="C1">
+      <c t="s" s="2" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="5" r="D1">
+      <c t="s" s="2" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="2" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="2" r="G1">
         <v>6</v>
       </c>
-      <c t="s" s="5" r="E1">
+      <c t="s" s="2" r="H1">
         <v>7</v>
       </c>
-      <c t="s" s="5" r="F1">
+      <c t="s" s="2" r="I1">
         <v>8</v>
       </c>
-      <c t="s" s="5" r="G1">
+      <c t="s" s="2" r="J1">
         <v>9</v>
       </c>
-      <c t="s" s="5" r="H1">
+      <c t="s" s="2" r="K1">
         <v>10</v>
       </c>
-      <c t="s" s="5" r="I1">
+      <c t="s" s="2" r="L1">
         <v>11</v>
       </c>
-      <c t="s" s="5" r="J1">
+      <c t="s" s="2" r="M1">
         <v>12</v>
       </c>
-      <c t="s" s="5" r="K1">
+      <c t="s" s="2" r="N1">
         <v>13</v>
       </c>
-      <c t="s" s="5" r="L1">
+      <c t="s" s="2" r="O1">
         <v>14</v>
       </c>
-      <c t="s" s="5" r="M1">
+      <c t="s" s="1" r="P1">
         <v>15</v>
       </c>
-      <c t="s" s="5" r="N1">
+      <c t="s" s="3" r="Q1">
         <v>16</v>
       </c>
-      <c t="s" s="5" r="O1">
+      <c t="s" s="3" r="R1">
         <v>17</v>
       </c>
-      <c t="s" s="3" r="P1">
+      <c t="s" s="8" r="S1">
         <v>18</v>
       </c>
-      <c t="s" s="8" r="Q1">
-        <v>24</v>
-      </c>
-      <c t="s" s="8" r="R1">
+      <c t="s" s="8" r="T1">
+        <v>33</v>
+      </c>
+      <c t="s" s="8" r="U1">
         <v>34</v>
       </c>
-      <c t="s" s="19" r="S1">
+      <c t="s" s="8" r="V1">
         <v>35</v>
       </c>
-      <c t="s" s="19" r="T1">
-        <v>99</v>
-      </c>
-      <c t="s" s="19" r="U1">
-        <v>101</v>
-      </c>
-      <c t="s" s="19" r="V1">
-        <v>102</v>
-      </c>
-      <c t="s" s="19" r="W1">
-        <v>103</v>
-      </c>
-      <c t="s" s="19" r="X1">
-        <v>104</v>
-      </c>
-      <c s="3" r="Y1"/>
-      <c s="3" r="Z1"/>
+      <c t="s" s="8" r="W1">
+        <v>36</v>
+      </c>
+      <c t="s" s="8" r="X1">
+        <v>37</v>
+      </c>
+      <c s="1" r="Y1"/>
+      <c s="1" r="Z1"/>
     </row>
     <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="14" r="A2">
-        <v>106</v>
-      </c>
-      <c s="14" r="B2">
+      <c t="s" s="10" r="A2">
+        <v>38</v>
+      </c>
+      <c s="10" r="B2">
         <v>1.0</v>
       </c>
-      <c t="s" s="21" r="C2">
-        <v>107</v>
-      </c>
-      <c s="22" r="D2"/>
+      <c t="s" s="12" r="C2">
+        <v>41</v>
+      </c>
+      <c s="13" r="D2"/>
       <c t="s" s="24" r="E2">
-        <v>112</v>
-      </c>
-      <c t="s" s="14" r="F2">
-        <v>120</v>
-      </c>
-      <c t="s" s="14" r="G2">
-        <v>121</v>
-      </c>
-      <c t="s" s="14" r="H2">
+        <v>51</v>
+      </c>
+      <c t="s" s="10" r="F2">
         <v>123</v>
       </c>
-      <c t="s" s="14" r="I2">
+      <c t="s" s="10" r="G2">
         <v>124</v>
       </c>
-      <c t="s" s="14" r="J2">
+      <c t="s" s="10" r="H2">
         <v>126</v>
       </c>
-      <c t="s" s="18" r="K2">
-        <v>128</v>
+      <c t="s" s="10" r="I2">
+        <v>127</v>
+      </c>
+      <c t="s" s="10" r="J2">
+        <v>132</v>
+      </c>
+      <c t="s" s="22" r="K2">
+        <v>133</v>
       </c>
       <c t="s" s="24" r="L2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c t="s" s="24" r="M2">
-        <v>132</v>
-      </c>
-      <c t="s" s="28" r="N2">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c t="s" s="26" r="N2">
+        <v>140</v>
       </c>
       <c t="s" s="24" r="O2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c t="s" s="24" r="P2">
-        <v>141</v>
-      </c>
-      <c s="22" r="Q2"/>
-      <c s="22" r="R2"/>
-      <c s="22" r="S2"/>
-      <c s="22" r="T2"/>
-      <c s="22" r="U2"/>
-      <c s="22" r="V2"/>
-      <c s="22" r="W2"/>
-      <c s="22" r="X2"/>
-      <c s="22" r="Y2"/>
-      <c s="22" r="Z2"/>
+        <v>147</v>
+      </c>
+      <c s="13" r="Q2"/>
+      <c s="13" r="R2"/>
+      <c s="13" r="S2"/>
+      <c s="13" r="T2"/>
+      <c s="13" r="U2"/>
+      <c s="13" r="V2"/>
+      <c s="13" r="W2"/>
+      <c s="13" r="X2"/>
+      <c s="13" r="Y2"/>
+      <c s="13" r="Z2"/>
     </row>
     <row customHeight="1" r="3" ht="15.75">
-      <c t="s" s="14" r="A3">
+      <c t="s" s="10" r="A3">
         <v>148</v>
       </c>
-      <c s="14" r="B3">
+      <c s="10" r="B3">
         <v>1.0</v>
       </c>
-      <c t="s" s="21" r="C3">
-        <v>107</v>
-      </c>
-      <c s="22" r="D3"/>
+      <c t="s" s="12" r="C3">
+        <v>41</v>
+      </c>
+      <c s="13" r="D3"/>
       <c t="s" s="24" r="E3">
         <v>149</v>
       </c>
-      <c t="s" s="14" r="F3">
-        <v>120</v>
-      </c>
-      <c t="s" s="14" r="G3">
-        <v>121</v>
-      </c>
-      <c t="s" s="14" r="H3">
+      <c t="s" s="10" r="F3">
+        <v>123</v>
+      </c>
+      <c t="s" s="10" r="G3">
+        <v>124</v>
+      </c>
+      <c t="s" s="10" r="H3">
+        <v>151</v>
+      </c>
+      <c t="s" s="10" r="I3">
+        <v>152</v>
+      </c>
+      <c t="s" s="10" r="J3">
         <v>154</v>
       </c>
-      <c t="s" s="14" r="I3">
+      <c s="22" r="K3"/>
+      <c s="13" r="L3"/>
+      <c s="13" r="M3"/>
+      <c t="s" s="26" r="N3">
+        <v>140</v>
+      </c>
+      <c t="s" s="24" r="O3">
+        <v>145</v>
+      </c>
+      <c t="s" s="24" r="P3">
         <v>155</v>
       </c>
-      <c t="s" s="14" r="J3">
-        <v>159</v>
-      </c>
-      <c s="18" r="K3"/>
-      <c s="22" r="L3"/>
-      <c s="22" r="M3"/>
-      <c t="s" s="28" r="N3">
-        <v>135</v>
-      </c>
-      <c t="s" s="24" r="O3">
-        <v>138</v>
-      </c>
-      <c t="s" s="24" r="P3">
-        <v>162</v>
-      </c>
-      <c s="22" r="Q3"/>
-      <c s="22" r="R3"/>
-      <c s="22" r="S3"/>
-      <c s="22" r="T3"/>
-      <c s="22" r="U3"/>
-      <c s="22" r="V3"/>
-      <c s="22" r="W3"/>
-      <c s="22" r="X3"/>
-      <c s="22" r="Y3"/>
-      <c s="22" r="Z3"/>
+      <c s="13" r="Q3"/>
+      <c s="13" r="R3"/>
+      <c s="13" r="S3"/>
+      <c s="13" r="T3"/>
+      <c s="13" r="U3"/>
+      <c s="13" r="V3"/>
+      <c s="13" r="W3"/>
+      <c s="13" r="X3"/>
+      <c s="13" r="Y3"/>
+      <c s="13" r="Z3"/>
     </row>
     <row customHeight="1" r="4" ht="15.75">
-      <c t="s" s="14" r="A4">
+      <c t="s" s="10" r="A4">
+        <v>157</v>
+      </c>
+      <c s="10" r="B4">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="12" r="C4">
+        <v>41</v>
+      </c>
+      <c s="13" r="D4"/>
+      <c t="s" s="24" r="E4">
+        <v>158</v>
+      </c>
+      <c t="s" s="10" r="F4">
+        <v>123</v>
+      </c>
+      <c t="s" s="10" r="G4">
+        <v>124</v>
+      </c>
+      <c t="s" s="10" r="H4">
+        <v>160</v>
+      </c>
+      <c t="s" s="10" r="I4">
+        <v>161</v>
+      </c>
+      <c t="s" s="10" r="J4">
         <v>165</v>
       </c>
-      <c s="14" r="B4">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="21" r="C4">
-        <v>107</v>
-      </c>
-      <c s="22" r="D4"/>
-      <c t="s" s="24" r="E4">
-        <v>166</v>
-      </c>
-      <c t="s" s="14" r="F4">
-        <v>120</v>
-      </c>
-      <c t="s" s="14" r="G4">
-        <v>121</v>
-      </c>
-      <c t="s" s="14" r="H4">
-        <v>169</v>
-      </c>
-      <c t="s" s="14" r="I4">
+      <c t="s" s="12" r="K4">
+        <v>168</v>
+      </c>
+      <c s="13" r="L4"/>
+      <c t="s" s="24" r="M4">
         <v>170</v>
       </c>
-      <c t="s" s="14" r="J4">
-        <v>171</v>
-      </c>
-      <c t="s" s="21" r="K4">
-        <v>172</v>
-      </c>
-      <c s="22" r="L4"/>
-      <c t="s" s="24" r="M4">
+      <c t="s" s="26" r="N4">
+        <v>140</v>
+      </c>
+      <c t="s" s="24" r="O4">
+        <v>145</v>
+      </c>
+      <c t="s" s="24" r="P4">
         <v>173</v>
       </c>
-      <c t="s" s="28" r="N4">
-        <v>135</v>
-      </c>
-      <c t="s" s="24" r="O4">
-        <v>138</v>
-      </c>
-      <c t="s" s="24" r="P4">
-        <v>177</v>
-      </c>
-      <c s="22" r="Q4"/>
-      <c s="22" r="R4"/>
-      <c s="22" r="S4"/>
-      <c s="22" r="T4"/>
-      <c s="22" r="U4"/>
-      <c s="22" r="V4"/>
-      <c s="22" r="W4"/>
-      <c s="22" r="X4"/>
-      <c s="22" r="Y4"/>
-      <c s="22" r="Z4"/>
+      <c s="13" r="Q4"/>
+      <c s="13" r="R4"/>
+      <c s="13" r="S4"/>
+      <c s="13" r="T4"/>
+      <c s="13" r="U4"/>
+      <c s="13" r="V4"/>
+      <c s="13" r="W4"/>
+      <c s="13" r="X4"/>
+      <c s="13" r="Y4"/>
+      <c s="13" r="Z4"/>
     </row>
     <row customHeight="1" r="5" ht="15.75">
       <c t="s" s="30" r="A5">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c s="31" r="B5">
         <v>1.0</v>
       </c>
-      <c t="s" s="21" r="C5">
-        <v>107</v>
+      <c t="s" s="12" r="C5">
+        <v>41</v>
       </c>
       <c s="32" r="D5"/>
       <c t="s" s="33" r="E5">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" s="34" r="F5">
-        <v>120</v>
-      </c>
-      <c t="s" s="21" r="G5">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c t="s" s="12" r="G5">
+        <v>124</v>
       </c>
       <c t="s" s="35" r="H5">
         <v>187</v>
       </c>
-      <c t="s" s="21" r="I5">
-        <v>170</v>
+      <c t="s" s="12" r="I5">
+        <v>161</v>
       </c>
       <c t="s" s="36" r="J5">
         <v>188</v>
       </c>
-      <c s="21" r="K5"/>
+      <c s="12" r="K5"/>
       <c t="s" s="37" r="L5">
         <v>189</v>
       </c>
       <c t="s" s="38" r="M5">
         <v>190</v>
       </c>
-      <c t="s" s="28" r="N5">
-        <v>135</v>
+      <c t="s" s="26" r="N5">
+        <v>140</v>
       </c>
       <c t="s" s="33" r="O5">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c t="s" s="33" r="P5">
         <v>191</v>
@@ -4203,43 +4300,43 @@
       <c s="32" r="Z5"/>
     </row>
     <row customHeight="1" r="6" ht="15.75">
-      <c t="s" s="14" r="A6">
+      <c t="s" s="10" r="A6">
         <v>192</v>
       </c>
-      <c s="14" r="B6">
+      <c s="10" r="B6">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C6">
+      <c t="s" s="10" r="C6">
         <v>193</v>
       </c>
-      <c s="14" r="D6"/>
+      <c s="10" r="D6"/>
       <c t="s" s="24" r="E6">
         <v>194</v>
       </c>
-      <c t="s" s="14" r="F6">
+      <c t="s" s="10" r="F6">
         <v>195</v>
       </c>
-      <c t="s" s="14" r="G6">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H6">
+      <c t="s" s="10" r="G6">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H6">
         <v>196</v>
       </c>
-      <c t="s" s="14" r="I6">
-        <v>32</v>
-      </c>
-      <c t="s" s="10" r="J6">
+      <c t="s" s="10" r="I6">
+        <v>45</v>
+      </c>
+      <c t="s" s="9" r="J6">
         <v>197</v>
       </c>
-      <c t="s" s="14" r="K6">
+      <c t="s" s="10" r="K6">
         <v>198</v>
       </c>
-      <c s="22" r="L6"/>
+      <c s="13" r="L6"/>
       <c t="s" s="39" r="M6">
         <v>199</v>
       </c>
-      <c s="22" r="N6"/>
-      <c s="22" r="O6"/>
+      <c s="13" r="N6"/>
+      <c s="13" r="O6"/>
       <c t="s" s="24" r="P6">
         <v>200</v>
       </c>
@@ -4265,8 +4362,8 @@
       <c t="s" s="41" r="X6">
         <v>207</v>
       </c>
-      <c s="22" r="Y6"/>
-      <c s="22" r="Z6"/>
+      <c s="13" r="Y6"/>
+      <c s="13" r="Z6"/>
     </row>
     <row customHeight="1" r="7" ht="15.75">
       <c t="s" s="42" r="A7">
@@ -4275,7 +4372,7 @@
       <c s="43" r="B7">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C7">
+      <c t="s" s="10" r="C7">
         <v>193</v>
       </c>
       <c s="44" r="D7"/>
@@ -4286,13 +4383,13 @@
         <v>195</v>
       </c>
       <c t="s" s="46" r="G7">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c t="s" s="44" r="H7">
         <v>210</v>
       </c>
       <c t="s" s="44" r="I7">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c t="s" s="46" r="J7">
         <v>211</v>
@@ -4337,43 +4434,43 @@
       <c s="47" r="Z7"/>
     </row>
     <row customHeight="1" r="8" ht="15.75">
-      <c t="s" s="14" r="A8">
+      <c t="s" s="10" r="A8">
         <v>223</v>
       </c>
-      <c s="14" r="B8">
+      <c s="10" r="B8">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C8">
+      <c t="s" s="10" r="C8">
         <v>193</v>
       </c>
-      <c s="22" r="D8"/>
+      <c s="13" r="D8"/>
       <c t="s" s="24" r="E8">
         <v>224</v>
       </c>
-      <c t="s" s="14" r="F8">
+      <c t="s" s="10" r="F8">
         <v>195</v>
       </c>
-      <c t="s" s="14" r="G8">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H8">
+      <c t="s" s="10" r="G8">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H8">
         <v>225</v>
       </c>
-      <c t="s" s="14" r="I8">
-        <v>73</v>
-      </c>
-      <c t="s" s="10" r="J8">
+      <c t="s" s="10" r="I8">
+        <v>85</v>
+      </c>
+      <c t="s" s="9" r="J8">
         <v>226</v>
       </c>
-      <c t="s" s="18" r="K8">
+      <c t="s" s="22" r="K8">
         <v>227</v>
       </c>
-      <c s="22" r="L8"/>
+      <c s="13" r="L8"/>
       <c t="s" s="24" r="M8">
         <v>228</v>
       </c>
-      <c s="22" r="N8"/>
-      <c s="22" r="O8"/>
+      <c s="13" r="N8"/>
+      <c s="13" r="O8"/>
       <c t="s" s="24" r="P8">
         <v>229</v>
       </c>
@@ -4399,47 +4496,47 @@
       <c t="s" s="41" r="X8">
         <v>236</v>
       </c>
-      <c s="22" r="Y8"/>
-      <c s="22" r="Z8"/>
+      <c s="13" r="Y8"/>
+      <c s="13" r="Z8"/>
     </row>
     <row customHeight="1" r="9" ht="15.75">
-      <c t="s" s="14" r="A9">
+      <c t="s" s="10" r="A9">
         <v>237</v>
       </c>
-      <c s="14" r="B9">
+      <c s="10" r="B9">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C9">
+      <c t="s" s="10" r="C9">
         <v>193</v>
       </c>
-      <c s="22" r="D9"/>
+      <c s="13" r="D9"/>
       <c t="s" s="24" r="E9">
         <v>238</v>
       </c>
-      <c t="s" s="14" r="F9">
+      <c t="s" s="10" r="F9">
         <v>195</v>
       </c>
-      <c t="s" s="14" r="G9">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H9">
+      <c t="s" s="10" r="G9">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H9">
         <v>239</v>
       </c>
-      <c t="s" s="14" r="I9">
-        <v>62</v>
-      </c>
-      <c t="s" s="14" r="J9">
+      <c t="s" s="10" r="I9">
+        <v>56</v>
+      </c>
+      <c t="s" s="10" r="J9">
         <v>240</v>
       </c>
-      <c t="s" s="18" r="K9">
+      <c t="s" s="22" r="K9">
         <v>241</v>
       </c>
-      <c s="22" r="L9"/>
+      <c s="13" r="L9"/>
       <c t="s" s="24" r="M9">
         <v>242</v>
       </c>
-      <c s="22" r="N9"/>
-      <c s="22" r="O9"/>
+      <c s="13" r="N9"/>
+      <c s="13" r="O9"/>
       <c t="s" s="24" r="P9">
         <v>243</v>
       </c>
@@ -4465,45 +4562,45 @@
       <c t="s" s="41" r="X9">
         <v>250</v>
       </c>
-      <c s="22" r="Y9"/>
-      <c s="22" r="Z9"/>
+      <c s="13" r="Y9"/>
+      <c s="13" r="Z9"/>
     </row>
     <row customHeight="1" r="10" ht="15.75">
-      <c t="s" s="14" r="A10">
+      <c t="s" s="10" r="A10">
         <v>251</v>
       </c>
-      <c s="14" r="B10">
+      <c s="10" r="B10">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C10">
+      <c t="s" s="10" r="C10">
         <v>193</v>
       </c>
-      <c s="22" r="D10"/>
+      <c s="13" r="D10"/>
       <c t="s" s="24" r="E10">
         <v>252</v>
       </c>
-      <c t="s" s="14" r="F10">
+      <c t="s" s="10" r="F10">
         <v>195</v>
       </c>
-      <c t="s" s="14" r="G10">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H10">
+      <c t="s" s="10" r="G10">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H10">
         <v>253</v>
       </c>
-      <c t="s" s="14" r="I10">
-        <v>32</v>
-      </c>
-      <c t="s" s="14" r="J10">
+      <c t="s" s="10" r="I10">
+        <v>45</v>
+      </c>
+      <c t="s" s="10" r="J10">
         <v>254</v>
       </c>
-      <c s="18" r="K10"/>
-      <c s="22" r="L10"/>
+      <c s="22" r="K10"/>
+      <c s="13" r="L10"/>
       <c t="s" s="48" r="M10">
         <v>255</v>
       </c>
-      <c s="22" r="N10"/>
-      <c s="22" r="O10"/>
+      <c s="13" r="N10"/>
+      <c s="13" r="O10"/>
       <c t="s" s="24" r="P10">
         <v>256</v>
       </c>
@@ -4529,87 +4626,87 @@
       <c t="s" s="41" r="X10">
         <v>263</v>
       </c>
-      <c s="22" r="Y10"/>
-      <c s="22" r="Z10"/>
+      <c s="13" r="Y10"/>
+      <c s="13" r="Z10"/>
     </row>
     <row customHeight="1" r="11" ht="15.75">
-      <c t="s" s="14" r="A11">
+      <c t="s" s="10" r="A11">
         <v>264</v>
       </c>
-      <c s="14" r="B11">
+      <c s="10" r="B11">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C11">
+      <c t="s" s="10" r="C11">
         <v>193</v>
       </c>
-      <c s="22" r="D11"/>
-      <c s="22" r="E11"/>
-      <c t="s" s="14" r="F11">
+      <c s="13" r="D11"/>
+      <c s="13" r="E11"/>
+      <c t="s" s="10" r="F11">
         <v>195</v>
       </c>
-      <c s="22" r="G11"/>
-      <c t="s" s="14" r="H11">
-        <v>30</v>
-      </c>
-      <c t="s" s="14" r="I11">
-        <v>62</v>
-      </c>
-      <c t="s" s="14" r="J11">
+      <c s="13" r="G11"/>
+      <c t="s" s="10" r="H11">
+        <v>44</v>
+      </c>
+      <c t="s" s="10" r="I11">
+        <v>56</v>
+      </c>
+      <c t="s" s="10" r="J11">
         <v>265</v>
       </c>
-      <c s="18" r="K11"/>
-      <c s="22" r="L11"/>
-      <c s="14" r="M11"/>
-      <c s="22" r="N11"/>
-      <c s="22" r="O11"/>
-      <c s="22" r="P11"/>
-      <c s="22" r="Q11"/>
-      <c s="22" r="R11"/>
-      <c s="22" r="S11"/>
-      <c s="22" r="T11"/>
-      <c s="22" r="U11"/>
-      <c s="22" r="V11"/>
-      <c s="22" r="W11"/>
-      <c s="22" r="X11"/>
-      <c s="22" r="Y11"/>
-      <c s="22" r="Z11"/>
+      <c s="22" r="K11"/>
+      <c s="13" r="L11"/>
+      <c s="10" r="M11"/>
+      <c s="13" r="N11"/>
+      <c s="13" r="O11"/>
+      <c s="13" r="P11"/>
+      <c s="13" r="Q11"/>
+      <c s="13" r="R11"/>
+      <c s="13" r="S11"/>
+      <c s="13" r="T11"/>
+      <c s="13" r="U11"/>
+      <c s="13" r="V11"/>
+      <c s="13" r="W11"/>
+      <c s="13" r="X11"/>
+      <c s="13" r="Y11"/>
+      <c s="13" r="Z11"/>
     </row>
     <row customHeight="1" r="12" ht="15.75">
-      <c t="s" s="14" r="A12">
+      <c t="s" s="10" r="A12">
         <v>266</v>
       </c>
-      <c s="14" r="B12">
+      <c s="10" r="B12">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C12">
+      <c t="s" s="10" r="C12">
         <v>193</v>
       </c>
-      <c s="14" r="D12"/>
+      <c s="10" r="D12"/>
       <c t="s" s="24" r="E12">
         <v>267</v>
       </c>
-      <c t="s" s="14" r="F12">
+      <c t="s" s="10" r="F12">
         <v>268</v>
       </c>
-      <c t="s" s="14" r="G12">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H12">
+      <c t="s" s="10" r="G12">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H12">
         <v>269</v>
       </c>
-      <c t="s" s="14" r="I12">
-        <v>32</v>
-      </c>
-      <c t="s" s="10" r="J12">
+      <c t="s" s="10" r="I12">
+        <v>45</v>
+      </c>
+      <c t="s" s="9" r="J12">
         <v>270</v>
       </c>
-      <c t="s" s="14" r="K12">
+      <c t="s" s="10" r="K12">
         <v>271</v>
       </c>
-      <c s="22" r="L12"/>
-      <c s="22" r="M12"/>
-      <c s="22" r="N12"/>
-      <c s="22" r="O12"/>
+      <c s="13" r="L12"/>
+      <c s="13" r="M12"/>
+      <c s="13" r="N12"/>
+      <c s="13" r="O12"/>
       <c t="s" s="24" r="P12">
         <v>272</v>
       </c>
@@ -4635,95 +4732,95 @@
       <c t="s" s="41" r="X12">
         <v>279</v>
       </c>
-      <c s="22" r="Y12"/>
-      <c s="22" r="Z12"/>
+      <c s="13" r="Y12"/>
+      <c s="13" r="Z12"/>
     </row>
     <row customHeight="1" r="13" ht="15.75">
-      <c t="s" s="14" r="A13">
+      <c t="s" s="10" r="A13">
         <v>280</v>
       </c>
-      <c s="14" r="B13">
+      <c s="10" r="B13">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C13">
+      <c t="s" s="10" r="C13">
         <v>193</v>
       </c>
-      <c s="22" r="D13"/>
+      <c s="13" r="D13"/>
       <c t="s" s="24" r="E13">
         <v>281</v>
       </c>
-      <c t="s" s="14" r="F13">
+      <c t="s" s="10" r="F13">
         <v>195</v>
       </c>
-      <c t="s" s="14" r="G13">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H13">
+      <c t="s" s="10" r="G13">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H13">
         <v>282</v>
       </c>
-      <c t="s" s="14" r="I13">
+      <c t="s" s="10" r="I13">
         <v>283</v>
       </c>
-      <c t="s" s="14" r="J13">
+      <c t="s" s="10" r="J13">
         <v>284</v>
       </c>
-      <c s="22" r="K13"/>
-      <c s="14" r="L13"/>
-      <c s="22" r="M13"/>
-      <c s="22" r="N13"/>
-      <c s="22" r="O13"/>
+      <c s="13" r="K13"/>
+      <c s="10" r="L13"/>
+      <c s="13" r="M13"/>
+      <c s="13" r="N13"/>
+      <c s="13" r="O13"/>
       <c t="s" s="24" r="P13">
         <v>285</v>
       </c>
-      <c s="22" r="Q13"/>
-      <c s="22" r="R13"/>
-      <c s="22" r="S13"/>
-      <c s="22" r="T13"/>
-      <c s="22" r="U13"/>
-      <c s="22" r="V13"/>
-      <c s="22" r="W13"/>
-      <c s="22" r="X13"/>
-      <c s="22" r="Y13"/>
-      <c s="22" r="Z13"/>
+      <c s="13" r="Q13"/>
+      <c s="13" r="R13"/>
+      <c s="13" r="S13"/>
+      <c s="13" r="T13"/>
+      <c s="13" r="U13"/>
+      <c s="13" r="V13"/>
+      <c s="13" r="W13"/>
+      <c s="13" r="X13"/>
+      <c s="13" r="Y13"/>
+      <c s="13" r="Z13"/>
     </row>
     <row customHeight="1" r="14" ht="15.75">
-      <c t="s" s="14" r="A14">
+      <c t="s" s="10" r="A14">
         <v>286</v>
       </c>
-      <c s="14" r="B14">
+      <c s="10" r="B14">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C14">
+      <c t="s" s="10" r="C14">
         <v>193</v>
       </c>
-      <c s="22" r="D14"/>
+      <c s="13" r="D14"/>
       <c t="s" s="24" r="E14">
         <v>287</v>
       </c>
-      <c t="s" s="14" r="F14">
+      <c t="s" s="10" r="F14">
         <v>195</v>
       </c>
-      <c t="s" s="14" r="G14">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H14">
+      <c t="s" s="10" r="G14">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H14">
         <v>288</v>
       </c>
-      <c t="s" s="14" r="I14">
-        <v>73</v>
-      </c>
-      <c t="s" s="14" r="J14">
+      <c t="s" s="10" r="I14">
+        <v>85</v>
+      </c>
+      <c t="s" s="10" r="J14">
         <v>289</v>
       </c>
-      <c t="s" s="18" r="K14">
+      <c t="s" s="22" r="K14">
         <v>290</v>
       </c>
-      <c s="14" r="L14"/>
+      <c s="10" r="L14"/>
       <c t="s" s="17" r="M14">
         <v>291</v>
       </c>
-      <c s="22" r="N14"/>
-      <c s="22" r="O14"/>
+      <c s="13" r="N14"/>
+      <c s="13" r="O14"/>
       <c t="s" s="24" r="P14">
         <v>292</v>
       </c>
@@ -4749,44 +4846,44 @@
       <c t="s" s="41" r="X14">
         <v>299</v>
       </c>
-      <c s="22" r="Y14"/>
-      <c s="22" r="Z14"/>
+      <c s="13" r="Y14"/>
+      <c s="13" r="Z14"/>
     </row>
     <row customHeight="1" r="15" ht="15.0">
-      <c t="s" s="14" r="A15">
+      <c t="s" s="10" r="A15">
         <v>300</v>
       </c>
-      <c s="14" r="B15">
+      <c s="10" r="B15">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C15">
+      <c t="s" s="10" r="C15">
         <v>193</v>
       </c>
-      <c s="22" r="D15"/>
+      <c s="13" r="D15"/>
       <c t="s" s="24" r="E15">
         <v>301</v>
       </c>
-      <c t="s" s="14" r="F15">
+      <c t="s" s="10" r="F15">
         <v>195</v>
       </c>
-      <c t="s" s="14" r="G15">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H15">
+      <c t="s" s="10" r="G15">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H15">
         <v>302</v>
       </c>
-      <c t="s" s="14" r="I15">
-        <v>62</v>
-      </c>
-      <c t="s" s="14" r="J15">
+      <c t="s" s="10" r="I15">
+        <v>56</v>
+      </c>
+      <c t="s" s="10" r="J15">
         <v>303</v>
       </c>
-      <c t="s" s="18" r="K15">
+      <c t="s" s="22" r="K15">
         <v>304</v>
       </c>
-      <c s="22" r="L15"/>
-      <c s="22" r="N15"/>
-      <c s="22" r="O15"/>
+      <c s="13" r="L15"/>
+      <c s="13" r="N15"/>
+      <c s="13" r="O15"/>
       <c t="s" s="24" r="P15">
         <v>305</v>
       </c>
@@ -4812,47 +4909,47 @@
       <c t="s" s="41" r="X15">
         <v>312</v>
       </c>
-      <c s="22" r="Y15"/>
-      <c s="22" r="Z15"/>
+      <c s="13" r="Y15"/>
+      <c s="13" r="Z15"/>
     </row>
     <row customHeight="1" r="16" ht="15.75">
-      <c t="s" s="14" r="A16">
+      <c t="s" s="10" r="A16">
         <v>313</v>
       </c>
-      <c s="14" r="B16">
+      <c s="10" r="B16">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C16">
+      <c t="s" s="10" r="C16">
         <v>193</v>
       </c>
-      <c s="22" r="D16"/>
+      <c s="13" r="D16"/>
       <c t="s" s="17" r="E16">
         <v>314</v>
       </c>
-      <c t="s" s="14" r="F16">
+      <c t="s" s="10" r="F16">
         <v>195</v>
       </c>
-      <c t="s" s="14" r="G16">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H16">
+      <c t="s" s="10" r="G16">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H16">
         <v>315</v>
       </c>
-      <c t="s" s="14" r="I16">
-        <v>62</v>
-      </c>
-      <c t="s" s="14" r="J16">
+      <c t="s" s="10" r="I16">
+        <v>56</v>
+      </c>
+      <c t="s" s="10" r="J16">
         <v>316</v>
       </c>
-      <c t="s" s="18" r="K16">
+      <c t="s" s="22" r="K16">
         <v>317</v>
       </c>
-      <c s="22" r="L16"/>
+      <c s="13" r="L16"/>
       <c t="s" s="17" r="M16">
         <v>318</v>
       </c>
-      <c s="22" r="N16"/>
-      <c s="22" r="O16"/>
+      <c s="13" r="N16"/>
+      <c s="13" r="O16"/>
       <c t="s" s="17" r="P16">
         <v>319</v>
       </c>
@@ -4878,39 +4975,39 @@
       <c t="s" s="41" r="X16">
         <v>326</v>
       </c>
-      <c s="22" r="Y16"/>
-      <c s="22" r="Z16"/>
+      <c s="13" r="Y16"/>
+      <c s="13" r="Z16"/>
     </row>
     <row customHeight="1" r="17" ht="15.75">
-      <c t="s" s="14" r="A17">
+      <c t="s" s="10" r="A17">
         <v>327</v>
       </c>
-      <c s="14" r="B17">
+      <c s="10" r="B17">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C17">
+      <c t="s" s="10" r="C17">
         <v>193</v>
       </c>
-      <c s="22" r="D17"/>
+      <c s="13" r="D17"/>
       <c t="s" s="24" r="E17">
         <v>328</v>
       </c>
-      <c t="s" s="14" r="F17">
+      <c t="s" s="10" r="F17">
         <v>195</v>
       </c>
-      <c t="s" s="14" r="G17">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H17">
+      <c t="s" s="10" r="G17">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H17">
         <v>315</v>
       </c>
-      <c t="s" s="14" r="I17">
-        <v>62</v>
-      </c>
-      <c t="s" s="14" r="J17">
+      <c t="s" s="10" r="I17">
+        <v>56</v>
+      </c>
+      <c t="s" s="10" r="J17">
         <v>329</v>
       </c>
-      <c t="s" s="14" r="K17">
+      <c t="s" s="10" r="K17">
         <v>330</v>
       </c>
       <c t="s" s="24" r="L17">
@@ -4919,8 +5016,8 @@
       <c t="s" s="49" r="M17">
         <v>332</v>
       </c>
-      <c s="22" r="N17"/>
-      <c s="22" r="O17"/>
+      <c s="13" r="N17"/>
+      <c s="13" r="O17"/>
       <c t="s" s="24" r="P17">
         <v>333</v>
       </c>
@@ -4946,47 +5043,47 @@
       <c t="s" s="41" r="X17">
         <v>340</v>
       </c>
-      <c s="22" r="Y17"/>
-      <c s="22" r="Z17"/>
+      <c s="13" r="Y17"/>
+      <c s="13" r="Z17"/>
     </row>
     <row customHeight="1" r="18" ht="15.75">
-      <c t="s" s="14" r="A18">
+      <c t="s" s="10" r="A18">
         <v>341</v>
       </c>
-      <c s="14" r="B18">
+      <c s="10" r="B18">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C18">
+      <c t="s" s="10" r="C18">
         <v>193</v>
       </c>
-      <c s="22" r="D18"/>
+      <c s="13" r="D18"/>
       <c t="s" s="24" r="E18">
         <v>342</v>
       </c>
-      <c t="s" s="14" r="F18">
+      <c t="s" s="10" r="F18">
         <v>195</v>
       </c>
-      <c t="s" s="14" r="G18">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H18">
+      <c t="s" s="10" r="G18">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H18">
         <v>343</v>
       </c>
-      <c t="s" s="14" r="I18">
-        <v>62</v>
+      <c t="s" s="10" r="I18">
+        <v>56</v>
       </c>
       <c t="s" s="50" r="J18">
         <v>344</v>
       </c>
-      <c t="s" s="18" r="K18">
+      <c t="s" s="22" r="K18">
         <v>345</v>
       </c>
-      <c s="22" r="L18"/>
+      <c s="13" r="L18"/>
       <c t="s" s="24" r="M18">
         <v>346</v>
       </c>
-      <c s="22" r="N18"/>
-      <c s="22" r="O18"/>
+      <c s="13" r="N18"/>
+      <c s="13" r="O18"/>
       <c t="s" s="24" r="P18">
         <v>347</v>
       </c>
@@ -5008,39 +5105,39 @@
       <c t="s" s="41" r="X18">
         <v>352</v>
       </c>
-      <c s="22" r="Y18"/>
-      <c s="22" r="Z18"/>
+      <c s="13" r="Y18"/>
+      <c s="13" r="Z18"/>
     </row>
     <row customHeight="1" r="19" ht="15.75">
-      <c t="s" s="14" r="A19">
+      <c t="s" s="10" r="A19">
         <v>353</v>
       </c>
-      <c s="14" r="B19">
+      <c s="10" r="B19">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C19">
+      <c t="s" s="10" r="C19">
         <v>193</v>
       </c>
-      <c s="22" r="D19"/>
+      <c s="13" r="D19"/>
       <c t="s" s="24" r="E19">
         <v>354</v>
       </c>
-      <c t="s" s="14" r="F19">
+      <c t="s" s="10" r="F19">
         <v>195</v>
       </c>
-      <c t="s" s="14" r="G19">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H19">
+      <c t="s" s="10" r="G19">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H19">
         <v>355</v>
       </c>
-      <c t="s" s="14" r="I19">
+      <c t="s" s="10" r="I19">
         <v>283</v>
       </c>
-      <c t="s" s="14" r="J19">
+      <c t="s" s="10" r="J19">
         <v>356</v>
       </c>
-      <c t="s" s="14" r="K19">
+      <c t="s" s="10" r="K19">
         <v>357</v>
       </c>
       <c t="s" s="24" r="L19">
@@ -5049,8 +5146,8 @@
       <c t="s" s="24" r="M19">
         <v>359</v>
       </c>
-      <c s="22" r="N19"/>
-      <c s="22" r="O19"/>
+      <c s="13" r="N19"/>
+      <c s="13" r="O19"/>
       <c t="s" s="24" r="P19">
         <v>360</v>
       </c>
@@ -5076,145 +5173,145 @@
       <c t="s" s="41" r="X19">
         <v>367</v>
       </c>
-      <c s="22" r="Y19"/>
-      <c s="22" r="Z19"/>
+      <c s="13" r="Y19"/>
+      <c s="13" r="Z19"/>
     </row>
     <row customHeight="1" r="20" ht="15.75">
-      <c t="s" s="14" r="A20">
+      <c t="s" s="10" r="A20">
         <v>368</v>
       </c>
-      <c s="14" r="B20">
+      <c s="10" r="B20">
         <v>8.0</v>
       </c>
-      <c t="s" s="14" r="C20">
+      <c t="s" s="10" r="C20">
         <v>193</v>
       </c>
-      <c s="14" r="D20"/>
-      <c s="22" r="E20"/>
+      <c s="10" r="D20"/>
+      <c s="13" r="E20"/>
       <c t="s" s="42" r="F20">
         <v>195</v>
       </c>
-      <c s="22" r="G20"/>
-      <c t="s" s="14" r="H20">
-        <v>30</v>
-      </c>
-      <c t="s" s="14" r="I20">
-        <v>62</v>
-      </c>
-      <c t="s" s="14" r="J20">
+      <c s="13" r="G20"/>
+      <c t="s" s="10" r="H20">
+        <v>44</v>
+      </c>
+      <c t="s" s="10" r="I20">
+        <v>56</v>
+      </c>
+      <c t="s" s="10" r="J20">
         <v>369</v>
       </c>
-      <c t="s" s="14" r="K20">
+      <c t="s" s="10" r="K20">
         <v>370</v>
       </c>
-      <c s="22" r="L20"/>
+      <c s="13" r="L20"/>
       <c t="s" s="17" r="M20">
         <v>371</v>
       </c>
-      <c s="22" r="N20"/>
-      <c s="22" r="O20"/>
-      <c s="22" r="P20"/>
-      <c s="22" r="Q20"/>
-      <c s="22" r="R20"/>
-      <c s="22" r="S20"/>
-      <c s="22" r="T20"/>
-      <c s="22" r="U20"/>
-      <c s="22" r="V20"/>
-      <c s="22" r="W20"/>
-      <c s="22" r="X20"/>
-      <c s="22" r="Y20"/>
-      <c s="22" r="Z20"/>
+      <c s="13" r="N20"/>
+      <c s="13" r="O20"/>
+      <c s="13" r="P20"/>
+      <c s="13" r="Q20"/>
+      <c s="13" r="R20"/>
+      <c s="13" r="S20"/>
+      <c s="13" r="T20"/>
+      <c s="13" r="U20"/>
+      <c s="13" r="V20"/>
+      <c s="13" r="W20"/>
+      <c s="13" r="X20"/>
+      <c s="13" r="Y20"/>
+      <c s="13" r="Z20"/>
     </row>
     <row customHeight="1" r="21" ht="15.75">
-      <c t="s" s="14" r="A21">
+      <c t="s" s="10" r="A21">
         <v>372</v>
       </c>
-      <c s="14" r="B21">
+      <c s="10" r="B21">
         <v>1.0</v>
       </c>
-      <c t="s" s="14" r="C21">
+      <c t="s" s="10" r="C21">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D21">
+      <c t="s" s="10" r="D21">
         <v>374</v>
       </c>
       <c t="s" s="24" r="E21">
         <v>375</v>
       </c>
-      <c t="s" s="14" r="F21">
+      <c t="s" s="10" r="F21">
         <v>376</v>
       </c>
-      <c t="s" s="14" r="G21">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H21">
+      <c t="s" s="10" r="G21">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H21">
         <v>377</v>
       </c>
-      <c t="s" s="14" r="I21">
-        <v>32</v>
-      </c>
-      <c t="s" s="14" r="J21">
+      <c t="s" s="10" r="I21">
+        <v>45</v>
+      </c>
+      <c t="s" s="10" r="J21">
         <v>378</v>
       </c>
-      <c t="s" s="14" r="K21">
+      <c t="s" s="10" r="K21">
         <v>379</v>
       </c>
-      <c s="22" r="L21"/>
-      <c s="22" r="M21"/>
-      <c s="22" r="N21"/>
-      <c s="22" r="O21"/>
+      <c s="13" r="L21"/>
+      <c s="13" r="M21"/>
+      <c s="13" r="N21"/>
+      <c s="13" r="O21"/>
       <c t="s" s="24" r="P21">
         <v>380</v>
       </c>
-      <c s="22" r="Q21"/>
-      <c s="22" r="R21"/>
-      <c s="22" r="S21"/>
-      <c s="22" r="T21"/>
-      <c s="22" r="U21"/>
-      <c s="22" r="V21"/>
-      <c s="22" r="W21"/>
-      <c s="22" r="X21"/>
-      <c s="22" r="Y21"/>
-      <c s="22" r="Z21"/>
+      <c s="13" r="Q21"/>
+      <c s="13" r="R21"/>
+      <c s="13" r="S21"/>
+      <c s="13" r="T21"/>
+      <c s="13" r="U21"/>
+      <c s="13" r="V21"/>
+      <c s="13" r="W21"/>
+      <c s="13" r="X21"/>
+      <c s="13" r="Y21"/>
+      <c s="13" r="Z21"/>
     </row>
     <row customHeight="1" r="22" ht="15.75">
-      <c t="s" s="14" r="A22">
+      <c t="s" s="10" r="A22">
         <v>381</v>
       </c>
-      <c s="14" r="B22">
+      <c s="10" r="B22">
         <v>3.0</v>
       </c>
-      <c t="s" s="14" r="C22">
+      <c t="s" s="10" r="C22">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D22">
+      <c t="s" s="10" r="D22">
         <v>382</v>
       </c>
       <c t="s" s="24" r="E22">
         <v>383</v>
       </c>
-      <c t="s" s="14" r="F22">
+      <c t="s" s="10" r="F22">
         <v>384</v>
       </c>
-      <c t="s" s="14" r="G22">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H22">
+      <c t="s" s="10" r="G22">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H22">
         <v>385</v>
       </c>
-      <c t="s" s="14" r="I22">
-        <v>32</v>
-      </c>
-      <c t="s" s="10" r="J22">
+      <c t="s" s="10" r="I22">
+        <v>45</v>
+      </c>
+      <c t="s" s="9" r="J22">
         <v>386</v>
       </c>
-      <c t="s" s="14" r="K22">
+      <c t="s" s="10" r="K22">
         <v>387</v>
       </c>
-      <c s="14" r="L22"/>
-      <c s="22" r="M22"/>
-      <c s="22" r="N22"/>
-      <c s="22" r="O22"/>
+      <c s="10" r="L22"/>
+      <c s="13" r="M22"/>
+      <c s="13" r="N22"/>
+      <c s="13" r="O22"/>
       <c t="s" s="24" r="P22">
         <v>388</v>
       </c>
@@ -5240,47 +5337,47 @@
       <c t="s" s="41" r="X22">
         <v>395</v>
       </c>
-      <c s="22" r="Y22"/>
-      <c s="22" r="Z22"/>
+      <c s="13" r="Y22"/>
+      <c s="13" r="Z22"/>
     </row>
     <row customHeight="1" r="23" ht="15.75">
-      <c t="s" s="14" r="A23">
+      <c t="s" s="10" r="A23">
         <v>396</v>
       </c>
-      <c s="14" r="B23">
+      <c s="10" r="B23">
         <v>3.0</v>
       </c>
-      <c t="s" s="14" r="C23">
+      <c t="s" s="10" r="C23">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D23">
+      <c t="s" s="10" r="D23">
         <v>382</v>
       </c>
       <c t="s" s="24" r="E23">
         <v>397</v>
       </c>
-      <c t="s" s="14" r="F23">
+      <c t="s" s="10" r="F23">
         <v>384</v>
       </c>
-      <c t="s" s="14" r="G23">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H23">
+      <c t="s" s="10" r="G23">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H23">
         <v>385</v>
       </c>
-      <c t="s" s="14" r="I23">
-        <v>62</v>
-      </c>
-      <c t="s" s="14" r="J23">
+      <c t="s" s="10" r="I23">
+        <v>56</v>
+      </c>
+      <c t="s" s="10" r="J23">
         <v>398</v>
       </c>
-      <c t="s" s="14" r="K23">
+      <c t="s" s="10" r="K23">
         <v>399</v>
       </c>
-      <c s="14" r="L23"/>
-      <c s="22" r="M23"/>
-      <c s="22" r="N23"/>
-      <c s="22" r="O23"/>
+      <c s="10" r="L23"/>
+      <c s="13" r="M23"/>
+      <c s="13" r="N23"/>
+      <c s="13" r="O23"/>
       <c t="s" s="24" r="P23">
         <v>400</v>
       </c>
@@ -5306,47 +5403,47 @@
       <c t="s" s="41" r="X23">
         <v>407</v>
       </c>
-      <c s="22" r="Y23"/>
-      <c s="22" r="Z23"/>
+      <c s="13" r="Y23"/>
+      <c s="13" r="Z23"/>
     </row>
     <row customHeight="1" r="24" ht="15.75">
-      <c t="s" s="14" r="A24">
+      <c t="s" s="10" r="A24">
         <v>408</v>
       </c>
-      <c s="14" r="B24">
+      <c s="10" r="B24">
         <v>3.0</v>
       </c>
-      <c t="s" s="14" r="C24">
+      <c t="s" s="10" r="C24">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D24">
+      <c t="s" s="10" r="D24">
         <v>382</v>
       </c>
       <c t="s" s="24" r="E24">
         <v>409</v>
       </c>
-      <c t="s" s="14" r="F24">
+      <c t="s" s="10" r="F24">
         <v>384</v>
       </c>
-      <c t="s" s="14" r="G24">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H24">
+      <c t="s" s="10" r="G24">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H24">
         <v>410</v>
       </c>
-      <c t="s" s="14" r="I24">
+      <c t="s" s="10" r="I24">
         <v>283</v>
       </c>
-      <c t="s" s="10" r="J24">
+      <c t="s" s="9" r="J24">
         <v>411</v>
       </c>
-      <c t="s" s="14" r="K24">
+      <c t="s" s="10" r="K24">
         <v>412</v>
       </c>
-      <c s="14" r="L24"/>
-      <c s="22" r="M24"/>
-      <c s="22" r="N24"/>
-      <c s="22" r="O24"/>
+      <c s="10" r="L24"/>
+      <c s="13" r="M24"/>
+      <c s="13" r="N24"/>
+      <c s="13" r="O24"/>
       <c t="s" s="24" r="P24">
         <v>413</v>
       </c>
@@ -5372,41 +5469,41 @@
       <c t="s" s="41" r="X24">
         <v>420</v>
       </c>
-      <c s="22" r="Y24"/>
-      <c s="22" r="Z24"/>
+      <c s="13" r="Y24"/>
+      <c s="13" r="Z24"/>
     </row>
     <row customHeight="1" r="25" ht="15.75">
-      <c t="s" s="14" r="A25">
+      <c t="s" s="10" r="A25">
         <v>421</v>
       </c>
-      <c s="14" r="B25">
+      <c s="10" r="B25">
         <v>3.0</v>
       </c>
-      <c t="s" s="14" r="C25">
+      <c t="s" s="10" r="C25">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D25">
+      <c t="s" s="10" r="D25">
         <v>382</v>
       </c>
       <c t="s" s="24" r="E25">
         <v>422</v>
       </c>
-      <c t="s" s="14" r="F25">
+      <c t="s" s="10" r="F25">
         <v>384</v>
       </c>
-      <c t="s" s="14" r="G25">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H25">
+      <c t="s" s="10" r="G25">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H25">
         <v>423</v>
       </c>
-      <c t="s" s="14" r="I25">
+      <c t="s" s="10" r="I25">
         <v>283</v>
       </c>
       <c t="s" s="51" r="J25">
         <v>424</v>
       </c>
-      <c t="s" s="14" r="K25">
+      <c t="s" s="10" r="K25">
         <v>425</v>
       </c>
       <c t="s" s="24" r="L25">
@@ -5415,8 +5512,8 @@
       <c t="s" s="24" r="M25">
         <v>427</v>
       </c>
-      <c s="22" r="N25"/>
-      <c s="22" r="O25"/>
+      <c s="13" r="N25"/>
+      <c s="13" r="O25"/>
       <c t="s" s="24" r="P25">
         <v>428</v>
       </c>
@@ -5442,297 +5539,297 @@
       <c t="s" s="41" r="X25">
         <v>435</v>
       </c>
-      <c s="22" r="Y25"/>
-      <c s="22" r="Z25"/>
+      <c s="13" r="Y25"/>
+      <c s="13" r="Z25"/>
     </row>
     <row customHeight="1" r="26" ht="15.75">
-      <c t="s" s="14" r="A26">
+      <c t="s" s="10" r="A26">
         <v>436</v>
       </c>
-      <c s="14" r="B26">
+      <c s="10" r="B26">
         <v>2.0</v>
       </c>
-      <c t="s" s="14" r="C26">
+      <c t="s" s="10" r="C26">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D26">
+      <c t="s" s="10" r="D26">
         <v>437</v>
       </c>
       <c t="s" s="24" r="E26">
         <v>438</v>
       </c>
-      <c t="s" s="14" r="F26">
+      <c t="s" s="10" r="F26">
         <v>439</v>
       </c>
-      <c t="s" s="14" r="G26">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H26">
+      <c t="s" s="10" r="G26">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H26">
         <v>440</v>
       </c>
-      <c t="s" s="14" r="I26">
+      <c t="s" s="10" r="I26">
         <v>283</v>
       </c>
-      <c t="s" s="14" r="J26">
+      <c t="s" s="10" r="J26">
         <v>441</v>
       </c>
-      <c t="s" s="14" r="K26">
+      <c t="s" s="10" r="K26">
         <v>442</v>
       </c>
-      <c s="22" r="L26"/>
-      <c s="22" r="M26"/>
-      <c s="22" r="N26"/>
-      <c s="22" r="O26"/>
+      <c s="13" r="L26"/>
+      <c s="13" r="M26"/>
+      <c s="13" r="N26"/>
+      <c s="13" r="O26"/>
       <c t="s" s="24" r="P26">
         <v>443</v>
       </c>
-      <c s="22" r="Q26"/>
-      <c s="22" r="R26"/>
-      <c s="22" r="S26"/>
-      <c s="22" r="T26"/>
-      <c s="22" r="U26"/>
-      <c s="22" r="V26"/>
-      <c s="22" r="W26"/>
-      <c s="22" r="X26"/>
-      <c s="22" r="Y26"/>
-      <c s="22" r="Z26"/>
+      <c s="13" r="Q26"/>
+      <c s="13" r="R26"/>
+      <c s="13" r="S26"/>
+      <c s="13" r="T26"/>
+      <c s="13" r="U26"/>
+      <c s="13" r="V26"/>
+      <c s="13" r="W26"/>
+      <c s="13" r="X26"/>
+      <c s="13" r="Y26"/>
+      <c s="13" r="Z26"/>
     </row>
     <row customHeight="1" r="27" ht="15.75">
-      <c t="s" s="14" r="A27">
+      <c t="s" s="10" r="A27">
         <v>444</v>
       </c>
-      <c s="14" r="B27">
+      <c s="10" r="B27">
         <v>2.0</v>
       </c>
-      <c t="s" s="14" r="C27">
+      <c t="s" s="10" r="C27">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D27">
+      <c t="s" s="10" r="D27">
         <v>437</v>
       </c>
       <c t="s" s="24" r="E27">
         <v>445</v>
       </c>
-      <c t="s" s="14" r="F27">
+      <c t="s" s="10" r="F27">
         <v>439</v>
       </c>
-      <c t="s" s="14" r="G27">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H27">
+      <c t="s" s="10" r="G27">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H27">
         <v>446</v>
       </c>
-      <c t="s" s="14" r="I27">
-        <v>62</v>
-      </c>
-      <c t="s" s="6" r="J27">
+      <c t="s" s="10" r="I27">
+        <v>56</v>
+      </c>
+      <c t="s" s="7" r="J27">
         <v>447</v>
       </c>
-      <c t="s" s="14" r="K27">
+      <c t="s" s="10" r="K27">
         <v>448</v>
       </c>
-      <c s="14" r="L27"/>
-      <c s="22" r="M27"/>
-      <c s="22" r="N27"/>
-      <c s="22" r="O27"/>
+      <c s="10" r="L27"/>
+      <c s="13" r="M27"/>
+      <c s="13" r="N27"/>
+      <c s="13" r="O27"/>
       <c t="s" s="24" r="P27">
         <v>449</v>
       </c>
-      <c s="22" r="Q27"/>
-      <c s="22" r="R27"/>
-      <c s="22" r="S27"/>
-      <c s="22" r="T27"/>
-      <c s="22" r="U27"/>
-      <c s="22" r="V27"/>
-      <c s="22" r="W27"/>
-      <c s="22" r="X27"/>
-      <c s="22" r="Y27"/>
-      <c s="22" r="Z27"/>
+      <c s="13" r="Q27"/>
+      <c s="13" r="R27"/>
+      <c s="13" r="S27"/>
+      <c s="13" r="T27"/>
+      <c s="13" r="U27"/>
+      <c s="13" r="V27"/>
+      <c s="13" r="W27"/>
+      <c s="13" r="X27"/>
+      <c s="13" r="Y27"/>
+      <c s="13" r="Z27"/>
     </row>
     <row customHeight="1" r="28" ht="15.75">
-      <c t="s" s="14" r="A28">
+      <c t="s" s="10" r="A28">
         <v>450</v>
       </c>
-      <c s="14" r="B28">
+      <c s="10" r="B28">
         <v>1.0</v>
       </c>
-      <c t="s" s="14" r="C28">
+      <c t="s" s="10" r="C28">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D28">
+      <c t="s" s="10" r="D28">
         <v>451</v>
       </c>
       <c t="s" s="24" r="E28">
         <v>452</v>
       </c>
-      <c t="s" s="14" r="F28">
+      <c t="s" s="10" r="F28">
         <v>453</v>
       </c>
-      <c t="s" s="14" r="G28">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H28">
+      <c t="s" s="10" r="G28">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H28">
         <v>454</v>
       </c>
-      <c t="s" s="14" r="I28">
-        <v>32</v>
-      </c>
-      <c t="s" s="14" r="J28">
+      <c t="s" s="10" r="I28">
+        <v>45</v>
+      </c>
+      <c t="s" s="10" r="J28">
         <v>455</v>
       </c>
-      <c s="22" r="K28"/>
-      <c s="22" r="L28"/>
-      <c s="22" r="M28"/>
-      <c s="22" r="N28"/>
-      <c s="22" r="O28"/>
+      <c s="13" r="K28"/>
+      <c s="13" r="L28"/>
+      <c s="13" r="M28"/>
+      <c s="13" r="N28"/>
+      <c s="13" r="O28"/>
       <c t="s" s="24" r="P28">
         <v>456</v>
       </c>
-      <c s="22" r="Q28"/>
-      <c s="22" r="R28"/>
-      <c s="22" r="S28"/>
-      <c s="22" r="T28"/>
-      <c s="22" r="U28"/>
-      <c s="22" r="V28"/>
-      <c s="22" r="W28"/>
-      <c s="22" r="X28"/>
-      <c s="22" r="Y28"/>
-      <c s="22" r="Z28"/>
+      <c s="13" r="Q28"/>
+      <c s="13" r="R28"/>
+      <c s="13" r="S28"/>
+      <c s="13" r="T28"/>
+      <c s="13" r="U28"/>
+      <c s="13" r="V28"/>
+      <c s="13" r="W28"/>
+      <c s="13" r="X28"/>
+      <c s="13" r="Y28"/>
+      <c s="13" r="Z28"/>
     </row>
     <row customHeight="1" r="29" ht="15.75">
-      <c t="s" s="14" r="A29">
+      <c t="s" s="10" r="A29">
         <v>457</v>
       </c>
-      <c s="14" r="B29">
+      <c s="10" r="B29">
         <v>3.0</v>
       </c>
-      <c t="s" s="14" r="C29">
+      <c t="s" s="10" r="C29">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D29">
+      <c t="s" s="10" r="D29">
         <v>458</v>
       </c>
-      <c s="22" r="E29"/>
-      <c t="s" s="14" r="F29">
+      <c s="13" r="E29"/>
+      <c t="s" s="10" r="F29">
         <v>459</v>
       </c>
-      <c s="22" r="G29"/>
-      <c t="s" s="14" r="H29">
+      <c s="13" r="G29"/>
+      <c t="s" s="10" r="H29">
         <v>460</v>
       </c>
-      <c t="s" s="14" r="I29">
-        <v>62</v>
-      </c>
-      <c t="s" s="14" r="J29">
+      <c t="s" s="10" r="I29">
+        <v>56</v>
+      </c>
+      <c t="s" s="10" r="J29">
         <v>461</v>
       </c>
-      <c s="22" r="K29"/>
-      <c s="22" r="L29"/>
-      <c s="22" r="M29"/>
-      <c s="22" r="N29"/>
-      <c s="22" r="O29"/>
-      <c s="22" r="P29"/>
-      <c s="22" r="Q29"/>
-      <c s="22" r="R29"/>
-      <c s="22" r="S29"/>
-      <c s="22" r="T29"/>
-      <c s="22" r="U29"/>
-      <c s="22" r="V29"/>
-      <c s="22" r="W29"/>
-      <c s="22" r="X29"/>
-      <c s="22" r="Y29"/>
-      <c s="22" r="Z29"/>
+      <c s="13" r="K29"/>
+      <c s="13" r="L29"/>
+      <c s="13" r="M29"/>
+      <c s="13" r="N29"/>
+      <c s="13" r="O29"/>
+      <c s="13" r="P29"/>
+      <c s="13" r="Q29"/>
+      <c s="13" r="R29"/>
+      <c s="13" r="S29"/>
+      <c s="13" r="T29"/>
+      <c s="13" r="U29"/>
+      <c s="13" r="V29"/>
+      <c s="13" r="W29"/>
+      <c s="13" r="X29"/>
+      <c s="13" r="Y29"/>
+      <c s="13" r="Z29"/>
     </row>
     <row customHeight="1" r="30" ht="15.75">
-      <c t="s" s="14" r="A30">
+      <c t="s" s="10" r="A30">
         <v>462</v>
       </c>
-      <c s="14" r="B30">
+      <c s="10" r="B30">
         <v>3.0</v>
       </c>
-      <c t="s" s="14" r="C30">
+      <c t="s" s="10" r="C30">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D30">
+      <c t="s" s="10" r="D30">
         <v>458</v>
       </c>
       <c t="s" s="24" r="E30">
         <v>463</v>
       </c>
-      <c t="s" s="14" r="F30">
+      <c t="s" s="10" r="F30">
         <v>459</v>
       </c>
-      <c t="s" s="14" r="G30">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H30">
+      <c t="s" s="10" r="G30">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H30">
         <v>464</v>
       </c>
-      <c t="s" s="14" r="I30">
+      <c t="s" s="10" r="I30">
         <v>283</v>
       </c>
-      <c t="s" s="14" r="J30">
+      <c t="s" s="10" r="J30">
         <v>465</v>
       </c>
-      <c s="22" r="K30"/>
+      <c s="13" r="K30"/>
       <c t="s" s="24" r="L30">
         <v>466</v>
       </c>
-      <c s="14" r="M30"/>
-      <c s="22" r="N30"/>
-      <c s="22" r="O30"/>
+      <c s="10" r="M30"/>
+      <c s="13" r="N30"/>
+      <c s="13" r="O30"/>
       <c t="s" s="24" r="P30">
         <v>467</v>
       </c>
-      <c s="22" r="Q30"/>
-      <c s="22" r="R30"/>
-      <c s="22" r="S30"/>
-      <c s="22" r="T30"/>
-      <c s="22" r="U30"/>
-      <c s="22" r="V30"/>
-      <c s="22" r="W30"/>
-      <c s="22" r="X30"/>
-      <c s="22" r="Y30"/>
-      <c s="22" r="Z30"/>
+      <c s="13" r="Q30"/>
+      <c s="13" r="R30"/>
+      <c s="13" r="S30"/>
+      <c s="13" r="T30"/>
+      <c s="13" r="U30"/>
+      <c s="13" r="V30"/>
+      <c s="13" r="W30"/>
+      <c s="13" r="X30"/>
+      <c s="13" r="Y30"/>
+      <c s="13" r="Z30"/>
     </row>
     <row customHeight="1" r="31" ht="15.75">
-      <c t="s" s="14" r="A31">
+      <c t="s" s="10" r="A31">
         <v>468</v>
       </c>
-      <c s="14" r="B31">
+      <c s="10" r="B31">
         <v>3.0</v>
       </c>
-      <c t="s" s="14" r="C31">
+      <c t="s" s="10" r="C31">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D31">
+      <c t="s" s="10" r="D31">
         <v>458</v>
       </c>
       <c t="s" s="24" r="E31">
         <v>469</v>
       </c>
-      <c t="s" s="14" r="F31">
+      <c t="s" s="10" r="F31">
         <v>459</v>
       </c>
-      <c t="s" s="14" r="G31">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H31">
+      <c t="s" s="10" r="G31">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H31">
         <v>470</v>
       </c>
-      <c t="s" s="14" r="I31">
-        <v>32</v>
-      </c>
-      <c t="s" s="14" r="J31">
+      <c t="s" s="10" r="I31">
+        <v>45</v>
+      </c>
+      <c t="s" s="10" r="J31">
         <v>471</v>
       </c>
-      <c s="22" r="K31"/>
-      <c s="22" r="L31"/>
+      <c s="13" r="K31"/>
+      <c s="13" r="L31"/>
       <c t="s" s="24" r="M31">
         <v>472</v>
       </c>
-      <c s="22" r="N31"/>
-      <c s="22" r="O31"/>
+      <c s="13" r="N31"/>
+      <c s="13" r="O31"/>
       <c t="s" s="24" r="P31">
         <v>473</v>
       </c>
@@ -5758,47 +5855,47 @@
       <c t="s" s="41" r="X31">
         <v>480</v>
       </c>
-      <c s="22" r="Y31"/>
-      <c s="22" r="Z31"/>
+      <c s="13" r="Y31"/>
+      <c s="13" r="Z31"/>
     </row>
     <row customHeight="1" r="32" ht="15.75">
-      <c t="s" s="14" r="A32">
+      <c t="s" s="10" r="A32">
         <v>481</v>
       </c>
-      <c s="14" r="B32">
+      <c s="10" r="B32">
         <v>3.0</v>
       </c>
-      <c t="s" s="14" r="C32">
+      <c t="s" s="10" r="C32">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D32">
+      <c t="s" s="10" r="D32">
         <v>458</v>
       </c>
       <c t="s" s="24" r="E32">
         <v>482</v>
       </c>
-      <c t="s" s="14" r="F32">
+      <c t="s" s="10" r="F32">
         <v>459</v>
       </c>
-      <c t="s" s="14" r="G32">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H32">
+      <c t="s" s="10" r="G32">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H32">
         <v>483</v>
       </c>
-      <c t="s" s="14" r="I32">
-        <v>32</v>
-      </c>
-      <c t="s" s="14" r="J32">
+      <c t="s" s="10" r="I32">
+        <v>45</v>
+      </c>
+      <c t="s" s="10" r="J32">
         <v>484</v>
       </c>
-      <c t="s" s="14" r="K32">
+      <c t="s" s="10" r="K32">
         <v>485</v>
       </c>
-      <c s="14" r="L32"/>
-      <c s="14" r="M32"/>
-      <c s="22" r="N32"/>
-      <c s="22" r="O32"/>
+      <c s="10" r="L32"/>
+      <c s="10" r="M32"/>
+      <c s="13" r="N32"/>
+      <c s="13" r="O32"/>
       <c t="s" s="24" r="P32">
         <v>486</v>
       </c>
@@ -5824,249 +5921,249 @@
       <c t="s" s="41" r="X32">
         <v>493</v>
       </c>
-      <c s="22" r="Y32"/>
-      <c s="22" r="Z32"/>
+      <c s="13" r="Y32"/>
+      <c s="13" r="Z32"/>
     </row>
     <row customHeight="1" r="33" ht="15.75">
-      <c t="s" s="5" r="A33">
+      <c t="s" s="2" r="A33">
         <v>494</v>
       </c>
-      <c s="14" r="B33">
+      <c s="10" r="B33">
         <v>1.0</v>
       </c>
-      <c t="s" s="14" r="C33">
+      <c t="s" s="10" r="C33">
         <v>373</v>
       </c>
-      <c t="s" s="3" r="D33">
+      <c t="s" s="1" r="D33">
         <v>495</v>
       </c>
       <c t="s" s="52" r="E33">
         <v>496</v>
       </c>
-      <c t="s" s="5" r="F33">
+      <c t="s" s="2" r="F33">
         <v>497</v>
       </c>
-      <c t="s" s="14" r="G33">
-        <v>29</v>
-      </c>
-      <c t="s" s="5" r="H33">
+      <c t="s" s="10" r="G33">
+        <v>43</v>
+      </c>
+      <c t="s" s="2" r="H33">
         <v>498</v>
       </c>
-      <c t="s" s="5" r="I33">
-        <v>32</v>
+      <c t="s" s="2" r="I33">
+        <v>45</v>
       </c>
       <c t="s" s="53" r="J33">
         <v>499</v>
       </c>
-      <c s="22" r="K33"/>
-      <c s="22" r="L33"/>
-      <c s="22" r="M33"/>
-      <c s="22" r="N33"/>
-      <c s="22" r="O33"/>
+      <c s="13" r="K33"/>
+      <c s="13" r="L33"/>
+      <c s="13" r="M33"/>
+      <c s="13" r="N33"/>
+      <c s="13" r="O33"/>
       <c t="s" s="24" r="P33">
         <v>500</v>
       </c>
-      <c s="22" r="Q33"/>
-      <c s="22" r="R33"/>
-      <c s="22" r="S33"/>
-      <c s="22" r="T33"/>
-      <c s="22" r="U33"/>
-      <c s="22" r="V33"/>
-      <c s="22" r="W33"/>
-      <c s="22" r="X33"/>
-      <c s="22" r="Y33"/>
-      <c s="22" r="Z33"/>
+      <c s="13" r="Q33"/>
+      <c s="13" r="R33"/>
+      <c s="13" r="S33"/>
+      <c s="13" r="T33"/>
+      <c s="13" r="U33"/>
+      <c s="13" r="V33"/>
+      <c s="13" r="W33"/>
+      <c s="13" r="X33"/>
+      <c s="13" r="Y33"/>
+      <c s="13" r="Z33"/>
     </row>
     <row customHeight="1" r="34" ht="15.75">
-      <c t="s" s="14" r="A34">
+      <c t="s" s="10" r="A34">
         <v>501</v>
       </c>
-      <c s="14" r="B34">
+      <c s="10" r="B34">
         <v>4.0</v>
       </c>
-      <c t="s" s="14" r="C34">
+      <c t="s" s="10" r="C34">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D34">
+      <c t="s" s="10" r="D34">
         <v>502</v>
       </c>
       <c t="s" s="24" r="E34">
         <v>503</v>
       </c>
-      <c t="s" s="14" r="F34">
+      <c t="s" s="10" r="F34">
         <v>504</v>
       </c>
-      <c t="s" s="14" r="G34">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H34">
+      <c t="s" s="10" r="G34">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H34">
         <v>505</v>
       </c>
-      <c t="s" s="14" r="I34">
+      <c t="s" s="10" r="I34">
         <v>506</v>
       </c>
-      <c t="s" s="14" r="J34">
+      <c t="s" s="10" r="J34">
         <v>507</v>
       </c>
-      <c t="s" s="14" r="K34">
+      <c t="s" s="10" r="K34">
         <v>508</v>
       </c>
-      <c s="22" r="L34"/>
-      <c s="22" r="M34"/>
-      <c s="22" r="N34"/>
-      <c s="22" r="O34"/>
+      <c s="13" r="L34"/>
+      <c s="13" r="M34"/>
+      <c s="13" r="N34"/>
+      <c s="13" r="O34"/>
       <c t="s" s="24" r="P34">
         <v>509</v>
       </c>
-      <c s="22" r="Q34"/>
-      <c s="22" r="R34"/>
-      <c s="22" r="S34"/>
-      <c s="22" r="T34"/>
-      <c s="22" r="U34"/>
-      <c s="22" r="V34"/>
-      <c s="22" r="W34"/>
-      <c s="22" r="X34"/>
-      <c s="22" r="Y34"/>
-      <c s="22" r="Z34"/>
+      <c s="13" r="Q34"/>
+      <c s="13" r="R34"/>
+      <c s="13" r="S34"/>
+      <c s="13" r="T34"/>
+      <c s="13" r="U34"/>
+      <c s="13" r="V34"/>
+      <c s="13" r="W34"/>
+      <c s="13" r="X34"/>
+      <c s="13" r="Y34"/>
+      <c s="13" r="Z34"/>
     </row>
     <row customHeight="1" r="35" ht="15.75">
-      <c t="s" s="14" r="A35">
+      <c t="s" s="10" r="A35">
         <v>510</v>
       </c>
-      <c s="14" r="B35">
+      <c s="10" r="B35">
         <v>4.0</v>
       </c>
-      <c t="s" s="14" r="C35">
+      <c t="s" s="10" r="C35">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D35">
+      <c t="s" s="10" r="D35">
         <v>502</v>
       </c>
       <c t="s" s="24" r="E35">
         <v>511</v>
       </c>
-      <c t="s" s="14" r="F35">
+      <c t="s" s="10" r="F35">
         <v>504</v>
       </c>
-      <c t="s" s="14" r="G35">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H35">
+      <c t="s" s="10" r="G35">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H35">
         <v>505</v>
       </c>
-      <c t="s" s="14" r="I35">
+      <c t="s" s="10" r="I35">
         <v>506</v>
       </c>
-      <c t="s" s="14" r="J35">
+      <c t="s" s="10" r="J35">
         <v>512</v>
       </c>
-      <c s="22" r="K35"/>
-      <c s="22" r="L35"/>
-      <c s="22" r="M35"/>
-      <c s="22" r="N35"/>
-      <c s="22" r="O35"/>
+      <c s="13" r="K35"/>
+      <c s="13" r="L35"/>
+      <c s="13" r="M35"/>
+      <c s="13" r="N35"/>
+      <c s="13" r="O35"/>
       <c t="s" s="24" r="P35">
         <v>513</v>
       </c>
-      <c s="22" r="Q35"/>
-      <c s="22" r="R35"/>
-      <c s="22" r="S35"/>
-      <c s="22" r="T35"/>
-      <c s="22" r="U35"/>
-      <c s="22" r="V35"/>
-      <c s="22" r="W35"/>
-      <c s="22" r="X35"/>
-      <c s="22" r="Y35"/>
-      <c s="22" r="Z35"/>
+      <c s="13" r="Q35"/>
+      <c s="13" r="R35"/>
+      <c s="13" r="S35"/>
+      <c s="13" r="T35"/>
+      <c s="13" r="U35"/>
+      <c s="13" r="V35"/>
+      <c s="13" r="W35"/>
+      <c s="13" r="X35"/>
+      <c s="13" r="Y35"/>
+      <c s="13" r="Z35"/>
     </row>
     <row customHeight="1" r="36" ht="15.75">
-      <c t="s" s="14" r="A36">
+      <c t="s" s="10" r="A36">
         <v>514</v>
       </c>
-      <c s="14" r="B36">
+      <c s="10" r="B36">
         <v>4.0</v>
       </c>
-      <c t="s" s="14" r="C36">
+      <c t="s" s="10" r="C36">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D36">
+      <c t="s" s="10" r="D36">
         <v>502</v>
       </c>
       <c t="s" s="24" r="E36">
         <v>515</v>
       </c>
-      <c t="s" s="14" r="F36">
+      <c t="s" s="10" r="F36">
         <v>504</v>
       </c>
-      <c t="s" s="14" r="G36">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H36">
+      <c t="s" s="10" r="G36">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H36">
         <v>516</v>
       </c>
-      <c t="s" s="14" r="I36">
+      <c t="s" s="10" r="I36">
         <v>517</v>
       </c>
-      <c t="s" s="14" r="J36">
+      <c t="s" s="10" r="J36">
         <v>518</v>
       </c>
-      <c t="s" s="14" r="K36">
+      <c t="s" s="10" r="K36">
         <v>519</v>
       </c>
-      <c s="22" r="L36"/>
-      <c s="22" r="M36"/>
-      <c s="22" r="N36"/>
-      <c s="22" r="O36"/>
+      <c s="13" r="L36"/>
+      <c s="13" r="M36"/>
+      <c s="13" r="N36"/>
+      <c s="13" r="O36"/>
       <c t="s" s="24" r="P36">
         <v>520</v>
       </c>
-      <c s="22" r="Q36"/>
-      <c s="22" r="R36"/>
-      <c s="22" r="S36"/>
-      <c s="22" r="T36"/>
-      <c s="22" r="U36"/>
-      <c s="22" r="V36"/>
-      <c s="22" r="W36"/>
-      <c s="22" r="X36"/>
-      <c s="22" r="Y36"/>
-      <c s="22" r="Z36"/>
+      <c s="13" r="Q36"/>
+      <c s="13" r="R36"/>
+      <c s="13" r="S36"/>
+      <c s="13" r="T36"/>
+      <c s="13" r="U36"/>
+      <c s="13" r="V36"/>
+      <c s="13" r="W36"/>
+      <c s="13" r="X36"/>
+      <c s="13" r="Y36"/>
+      <c s="13" r="Z36"/>
     </row>
     <row customHeight="1" r="37" ht="15.75">
-      <c t="s" s="14" r="A37">
+      <c t="s" s="10" r="A37">
         <v>521</v>
       </c>
-      <c s="14" r="B37">
+      <c s="10" r="B37">
         <v>1.0</v>
       </c>
-      <c t="s" s="14" r="C37">
+      <c t="s" s="10" r="C37">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D37">
+      <c t="s" s="10" r="D37">
         <v>522</v>
       </c>
       <c t="s" s="24" r="E37">
         <v>523</v>
       </c>
-      <c t="s" s="14" r="F37">
+      <c t="s" s="10" r="F37">
         <v>524</v>
       </c>
-      <c t="s" s="14" r="G37">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H37">
+      <c t="s" s="10" r="G37">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H37">
         <v>525</v>
       </c>
-      <c t="s" s="14" r="I37">
-        <v>62</v>
-      </c>
-      <c t="s" s="14" r="J37">
+      <c t="s" s="10" r="I37">
+        <v>56</v>
+      </c>
+      <c t="s" s="10" r="J37">
         <v>526</v>
       </c>
-      <c s="22" r="K37"/>
-      <c s="22" r="L37"/>
-      <c s="22" r="M37"/>
-      <c s="22" r="N37"/>
-      <c s="22" r="O37"/>
+      <c s="13" r="K37"/>
+      <c s="13" r="L37"/>
+      <c s="13" r="M37"/>
+      <c s="13" r="N37"/>
+      <c s="13" r="O37"/>
       <c t="s" s="24" r="P37">
         <v>527</v>
       </c>
@@ -6092,99 +6189,99 @@
       <c t="s" s="41" r="X37">
         <v>534</v>
       </c>
-      <c s="22" r="Y37"/>
-      <c s="22" r="Z37"/>
+      <c s="13" r="Y37"/>
+      <c s="13" r="Z37"/>
     </row>
     <row customHeight="1" r="38" ht="15.75">
-      <c t="s" s="14" r="A38">
+      <c t="s" s="10" r="A38">
         <v>535</v>
       </c>
-      <c s="14" r="B38">
+      <c s="10" r="B38">
         <v>1.0</v>
       </c>
-      <c t="s" s="14" r="C38">
+      <c t="s" s="10" r="C38">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D38">
+      <c t="s" s="10" r="D38">
         <v>522</v>
       </c>
       <c t="s" s="24" r="E38">
         <v>536</v>
       </c>
-      <c t="s" s="14" r="F38">
+      <c t="s" s="10" r="F38">
         <v>524</v>
       </c>
-      <c t="s" s="14" r="G38">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H38">
+      <c t="s" s="10" r="G38">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H38">
         <v>525</v>
       </c>
-      <c t="s" s="14" r="I38">
-        <v>32</v>
-      </c>
-      <c t="s" s="14" r="J38">
+      <c t="s" s="10" r="I38">
+        <v>45</v>
+      </c>
+      <c t="s" s="10" r="J38">
         <v>537</v>
       </c>
-      <c t="s" s="14" r="K38">
+      <c t="s" s="10" r="K38">
         <v>538</v>
       </c>
       <c t="s" s="24" r="L38">
         <v>539</v>
       </c>
-      <c s="22" r="M38"/>
-      <c s="22" r="N38"/>
-      <c s="22" r="O38"/>
+      <c s="13" r="M38"/>
+      <c s="13" r="N38"/>
+      <c s="13" r="O38"/>
       <c t="s" s="24" r="P38">
         <v>540</v>
       </c>
-      <c s="22" r="Q38"/>
-      <c s="22" r="R38"/>
-      <c s="22" r="S38"/>
-      <c s="22" r="T38"/>
-      <c s="22" r="U38"/>
-      <c s="22" r="V38"/>
-      <c s="22" r="W38"/>
-      <c s="22" r="X38"/>
-      <c s="22" r="Y38"/>
-      <c s="22" r="Z38"/>
+      <c s="13" r="Q38"/>
+      <c s="13" r="R38"/>
+      <c s="13" r="S38"/>
+      <c s="13" r="T38"/>
+      <c s="13" r="U38"/>
+      <c s="13" r="V38"/>
+      <c s="13" r="W38"/>
+      <c s="13" r="X38"/>
+      <c s="13" r="Y38"/>
+      <c s="13" r="Z38"/>
     </row>
     <row customHeight="1" r="39" ht="15.75">
-      <c t="s" s="14" r="A39">
+      <c t="s" s="10" r="A39">
         <v>541</v>
       </c>
-      <c s="14" r="B39">
+      <c s="10" r="B39">
         <v>1.0</v>
       </c>
-      <c t="s" s="14" r="C39">
+      <c t="s" s="10" r="C39">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D39">
+      <c t="s" s="10" r="D39">
         <v>522</v>
       </c>
       <c t="s" s="24" r="E39">
         <v>542</v>
       </c>
-      <c t="s" s="14" r="F39">
+      <c t="s" s="10" r="F39">
         <v>524</v>
       </c>
-      <c t="s" s="14" r="G39">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H39">
+      <c t="s" s="10" r="G39">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H39">
         <v>525</v>
       </c>
-      <c t="s" s="14" r="I39">
-        <v>62</v>
-      </c>
-      <c t="s" s="14" r="J39">
+      <c t="s" s="10" r="I39">
+        <v>56</v>
+      </c>
+      <c t="s" s="10" r="J39">
         <v>455</v>
       </c>
-      <c s="22" r="K39"/>
-      <c s="22" r="L39"/>
-      <c s="22" r="M39"/>
-      <c s="22" r="N39"/>
-      <c s="22" r="O39"/>
+      <c s="13" r="K39"/>
+      <c s="13" r="L39"/>
+      <c s="13" r="M39"/>
+      <c s="13" r="N39"/>
+      <c s="13" r="O39"/>
       <c t="s" s="24" r="P39">
         <v>543</v>
       </c>
@@ -6210,47 +6307,47 @@
       <c t="s" s="41" r="X39">
         <v>550</v>
       </c>
-      <c s="22" r="Y39"/>
-      <c s="22" r="Z39"/>
+      <c s="13" r="Y39"/>
+      <c s="13" r="Z39"/>
     </row>
     <row customHeight="1" r="40" ht="15.75">
-      <c t="s" s="14" r="A40">
+      <c t="s" s="10" r="A40">
         <v>551</v>
       </c>
-      <c s="14" r="B40">
+      <c s="10" r="B40">
         <v>1.0</v>
       </c>
-      <c t="s" s="14" r="C40">
+      <c t="s" s="10" r="C40">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D40">
+      <c t="s" s="10" r="D40">
         <v>552</v>
       </c>
       <c t="s" s="24" r="E40">
         <v>553</v>
       </c>
-      <c t="s" s="14" r="F40">
+      <c t="s" s="10" r="F40">
         <v>554</v>
       </c>
-      <c t="s" s="14" r="G40">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H40">
+      <c t="s" s="10" r="G40">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H40">
         <v>555</v>
       </c>
-      <c t="s" s="14" r="I40">
+      <c t="s" s="10" r="I40">
         <v>556</v>
       </c>
-      <c t="s" s="14" r="J40">
+      <c t="s" s="10" r="J40">
         <v>557</v>
       </c>
-      <c t="s" s="18" r="K40">
+      <c t="s" s="22" r="K40">
         <v>558</v>
       </c>
-      <c s="22" r="L40"/>
-      <c s="22" r="M40"/>
-      <c s="22" r="N40"/>
-      <c s="22" r="O40"/>
+      <c s="13" r="L40"/>
+      <c s="13" r="M40"/>
+      <c s="13" r="N40"/>
+      <c s="13" r="O40"/>
       <c t="s" s="24" r="P40">
         <v>559</v>
       </c>
@@ -6276,97 +6373,97 @@
       <c t="s" s="41" r="X40">
         <v>565</v>
       </c>
-      <c s="22" r="Y40"/>
-      <c s="22" r="Z40"/>
+      <c s="13" r="Y40"/>
+      <c s="13" r="Z40"/>
     </row>
     <row customHeight="1" r="41" ht="15.75">
-      <c t="s" s="14" r="A41">
+      <c t="s" s="10" r="A41">
         <v>566</v>
       </c>
-      <c s="14" r="B41">
+      <c s="10" r="B41">
         <v>1.0</v>
       </c>
-      <c t="s" s="14" r="C41">
+      <c t="s" s="10" r="C41">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D41">
+      <c t="s" s="10" r="D41">
         <v>552</v>
       </c>
       <c t="s" s="24" r="E41">
         <v>567</v>
       </c>
-      <c t="s" s="14" r="F41">
+      <c t="s" s="10" r="F41">
         <v>554</v>
       </c>
-      <c t="s" s="14" r="G41">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H41">
+      <c t="s" s="10" r="G41">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H41">
         <v>555</v>
       </c>
-      <c t="s" s="14" r="I41">
+      <c t="s" s="10" r="I41">
         <v>556</v>
       </c>
-      <c t="s" s="18" r="J41">
+      <c t="s" s="22" r="J41">
         <v>568</v>
       </c>
-      <c s="22" r="K41"/>
-      <c s="14" r="L41"/>
-      <c s="14" r="M41"/>
-      <c s="22" r="N41"/>
-      <c s="22" r="O41"/>
+      <c s="13" r="K41"/>
+      <c s="10" r="L41"/>
+      <c s="10" r="M41"/>
+      <c s="13" r="N41"/>
+      <c s="13" r="O41"/>
       <c t="s" s="24" r="P41">
         <v>569</v>
       </c>
-      <c s="22" r="Q41"/>
-      <c s="22" r="R41"/>
-      <c s="22" r="S41"/>
-      <c s="22" r="T41"/>
-      <c s="22" r="U41"/>
-      <c s="22" r="V41"/>
-      <c s="22" r="W41"/>
-      <c s="22" r="X41"/>
-      <c s="22" r="Y41"/>
-      <c s="22" r="Z41"/>
+      <c s="13" r="Q41"/>
+      <c s="13" r="R41"/>
+      <c s="13" r="S41"/>
+      <c s="13" r="T41"/>
+      <c s="13" r="U41"/>
+      <c s="13" r="V41"/>
+      <c s="13" r="W41"/>
+      <c s="13" r="X41"/>
+      <c s="13" r="Y41"/>
+      <c s="13" r="Z41"/>
     </row>
     <row customHeight="1" r="42" ht="15.75">
-      <c t="s" s="14" r="A42">
+      <c t="s" s="10" r="A42">
         <v>570</v>
       </c>
-      <c s="14" r="B42">
+      <c s="10" r="B42">
         <v>4.0</v>
       </c>
-      <c t="s" s="14" r="C42">
+      <c t="s" s="10" r="C42">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D42">
+      <c t="s" s="10" r="D42">
         <v>571</v>
       </c>
       <c t="s" s="24" r="E42">
         <v>572</v>
       </c>
-      <c t="s" s="14" r="F42">
+      <c t="s" s="10" r="F42">
         <v>573</v>
       </c>
-      <c t="s" s="14" r="G42">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H42">
+      <c t="s" s="10" r="G42">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H42">
         <v>210</v>
       </c>
-      <c t="s" s="14" r="I42">
-        <v>32</v>
-      </c>
-      <c t="s" s="14" r="J42">
+      <c t="s" s="10" r="I42">
+        <v>45</v>
+      </c>
+      <c t="s" s="10" r="J42">
         <v>574</v>
       </c>
-      <c t="s" s="14" r="K42">
+      <c t="s" s="10" r="K42">
         <v>575</v>
       </c>
-      <c s="22" r="L42"/>
-      <c s="22" r="M42"/>
-      <c s="22" r="N42"/>
-      <c s="22" r="O42"/>
+      <c s="13" r="L42"/>
+      <c s="13" r="M42"/>
+      <c s="13" r="N42"/>
+      <c s="13" r="O42"/>
       <c t="s" s="24" r="P42">
         <v>576</v>
       </c>
@@ -6392,95 +6489,95 @@
       <c t="s" s="41" r="X42">
         <v>583</v>
       </c>
-      <c s="22" r="Y42"/>
-      <c s="22" r="Z42"/>
+      <c s="13" r="Y42"/>
+      <c s="13" r="Z42"/>
     </row>
     <row customHeight="1" r="43" ht="15.75">
-      <c t="s" s="18" r="A43">
+      <c t="s" s="22" r="A43">
         <v>584</v>
       </c>
-      <c s="14" r="B43">
+      <c s="10" r="B43">
         <v>4.0</v>
       </c>
-      <c t="s" s="14" r="C43">
+      <c t="s" s="10" r="C43">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D43">
+      <c t="s" s="10" r="D43">
         <v>571</v>
       </c>
       <c t="s" s="24" r="E43">
         <v>585</v>
       </c>
-      <c t="s" s="14" r="F43">
+      <c t="s" s="10" r="F43">
         <v>573</v>
       </c>
-      <c t="s" s="14" r="G43">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H43">
+      <c t="s" s="10" r="G43">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H43">
         <v>210</v>
       </c>
-      <c t="s" s="14" r="I43">
-        <v>32</v>
-      </c>
-      <c t="s" s="14" r="J43">
+      <c t="s" s="10" r="I43">
+        <v>45</v>
+      </c>
+      <c t="s" s="10" r="J43">
         <v>586</v>
       </c>
-      <c t="s" s="18" r="K43">
+      <c t="s" s="22" r="K43">
         <v>587</v>
       </c>
-      <c s="22" r="L43"/>
+      <c s="13" r="L43"/>
       <c t="s" s="17" r="M43">
         <v>588</v>
       </c>
-      <c s="22" r="N43"/>
-      <c s="22" r="O43"/>
+      <c s="13" r="N43"/>
+      <c s="13" r="O43"/>
       <c t="s" s="24" r="P43">
         <v>589</v>
       </c>
-      <c s="22" r="Q43"/>
-      <c s="22" r="R43"/>
-      <c s="22" r="S43"/>
-      <c s="22" r="T43"/>
-      <c s="22" r="U43"/>
-      <c s="22" r="V43"/>
-      <c s="22" r="W43"/>
-      <c s="22" r="X43"/>
-      <c s="22" r="Y43"/>
-      <c s="22" r="Z43"/>
+      <c s="13" r="Q43"/>
+      <c s="13" r="R43"/>
+      <c s="13" r="S43"/>
+      <c s="13" r="T43"/>
+      <c s="13" r="U43"/>
+      <c s="13" r="V43"/>
+      <c s="13" r="W43"/>
+      <c s="13" r="X43"/>
+      <c s="13" r="Y43"/>
+      <c s="13" r="Z43"/>
     </row>
     <row customHeight="1" r="44" ht="15.75">
-      <c t="s" s="14" r="A44">
+      <c t="s" s="10" r="A44">
         <v>590</v>
       </c>
-      <c s="14" r="B44">
+      <c s="10" r="B44">
         <v>4.0</v>
       </c>
-      <c t="s" s="14" r="C44">
+      <c t="s" s="10" r="C44">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D44">
+      <c t="s" s="10" r="D44">
         <v>571</v>
       </c>
       <c t="s" s="24" r="E44">
         <v>591</v>
       </c>
-      <c t="s" s="14" r="F44">
+      <c t="s" s="10" r="F44">
         <v>573</v>
       </c>
-      <c t="s" s="14" r="G44">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H44">
+      <c t="s" s="10" r="G44">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H44">
         <v>302</v>
       </c>
-      <c t="s" s="14" r="I44">
-        <v>62</v>
-      </c>
-      <c t="s" s="18" r="J44">
+      <c t="s" s="10" r="I44">
+        <v>56</v>
+      </c>
+      <c t="s" s="22" r="J44">
         <v>592</v>
       </c>
-      <c t="s" s="14" r="K44">
+      <c t="s" s="10" r="K44">
         <v>593</v>
       </c>
       <c t="s" s="24" r="L44">
@@ -6489,8 +6586,8 @@
       <c t="s" s="24" r="M44">
         <v>595</v>
       </c>
-      <c s="22" r="N44"/>
-      <c s="22" r="O44"/>
+      <c s="13" r="N44"/>
+      <c s="13" r="O44"/>
       <c t="s" s="24" r="P44">
         <v>596</v>
       </c>
@@ -6516,47 +6613,47 @@
       <c t="s" s="41" r="X44">
         <v>603</v>
       </c>
-      <c s="22" r="Y44"/>
-      <c s="22" r="Z44"/>
+      <c s="13" r="Y44"/>
+      <c s="13" r="Z44"/>
     </row>
     <row customHeight="1" r="45" ht="15.75">
-      <c t="s" s="14" r="A45">
+      <c t="s" s="10" r="A45">
         <v>604</v>
       </c>
-      <c s="14" r="B45">
+      <c s="10" r="B45">
         <v>4.0</v>
       </c>
-      <c t="s" s="14" r="C45">
+      <c t="s" s="10" r="C45">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D45">
+      <c t="s" s="10" r="D45">
         <v>571</v>
       </c>
       <c t="s" s="24" r="E45">
         <v>605</v>
       </c>
-      <c t="s" s="14" r="F45">
+      <c t="s" s="10" r="F45">
         <v>573</v>
       </c>
-      <c t="s" s="14" r="G45">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H45">
+      <c t="s" s="10" r="G45">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H45">
         <v>606</v>
       </c>
-      <c t="s" s="14" r="I45">
-        <v>62</v>
-      </c>
-      <c t="s" s="14" r="J45">
+      <c t="s" s="10" r="I45">
+        <v>56</v>
+      </c>
+      <c t="s" s="10" r="J45">
         <v>607</v>
       </c>
-      <c t="s" s="14" r="K45">
+      <c t="s" s="10" r="K45">
         <v>608</v>
       </c>
-      <c s="22" r="L45"/>
-      <c s="22" r="M45"/>
-      <c s="22" r="N45"/>
-      <c s="22" r="O45"/>
+      <c s="13" r="L45"/>
+      <c s="13" r="M45"/>
+      <c s="13" r="N45"/>
+      <c s="13" r="O45"/>
       <c t="s" s="24" r="P45">
         <v>609</v>
       </c>
@@ -6582,49 +6679,49 @@
       <c t="s" s="41" r="X45">
         <v>616</v>
       </c>
-      <c s="22" r="Y45"/>
-      <c s="22" r="Z45"/>
+      <c s="13" r="Y45"/>
+      <c s="13" r="Z45"/>
     </row>
     <row customHeight="1" r="46" ht="15.75">
-      <c t="s" s="14" r="A46">
+      <c t="s" s="10" r="A46">
         <v>617</v>
       </c>
-      <c s="14" r="B46">
+      <c s="10" r="B46">
         <v>4.0</v>
       </c>
-      <c t="s" s="14" r="C46">
+      <c t="s" s="10" r="C46">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D46">
+      <c t="s" s="10" r="D46">
         <v>571</v>
       </c>
       <c t="s" s="24" r="E46">
         <v>618</v>
       </c>
-      <c t="s" s="14" r="F46">
+      <c t="s" s="10" r="F46">
         <v>573</v>
       </c>
-      <c t="s" s="14" r="G46">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H46">
+      <c t="s" s="10" r="G46">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H46">
         <v>619</v>
       </c>
-      <c t="s" s="14" r="I46">
-        <v>32</v>
-      </c>
-      <c t="s" s="10" r="J46">
+      <c t="s" s="10" r="I46">
+        <v>45</v>
+      </c>
+      <c t="s" s="9" r="J46">
         <v>620</v>
       </c>
-      <c s="14" r="K46"/>
+      <c s="10" r="K46"/>
       <c t="s" s="24" r="L46">
         <v>621</v>
       </c>
       <c t="s" s="24" r="M46">
         <v>622</v>
       </c>
-      <c s="22" r="N46"/>
-      <c s="22" r="O46"/>
+      <c s="13" r="N46"/>
+      <c s="13" r="O46"/>
       <c t="s" s="24" r="P46">
         <v>623</v>
       </c>
@@ -6650,47 +6747,47 @@
       <c t="s" s="41" r="X46">
         <v>630</v>
       </c>
-      <c s="22" r="Y46"/>
-      <c s="22" r="Z46"/>
+      <c s="13" r="Y46"/>
+      <c s="13" r="Z46"/>
     </row>
     <row customHeight="1" r="47" ht="15.75">
-      <c t="s" s="14" r="A47">
+      <c t="s" s="10" r="A47">
         <v>631</v>
       </c>
-      <c s="14" r="B47">
+      <c s="10" r="B47">
         <v>4.0</v>
       </c>
-      <c t="s" s="14" r="C47">
+      <c t="s" s="10" r="C47">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D47">
+      <c t="s" s="10" r="D47">
         <v>571</v>
       </c>
       <c t="s" s="24" r="E47">
         <v>632</v>
       </c>
-      <c t="s" s="14" r="F47">
+      <c t="s" s="10" r="F47">
         <v>573</v>
       </c>
-      <c t="s" s="14" r="G47">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H47">
+      <c t="s" s="10" r="G47">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H47">
         <v>633</v>
       </c>
-      <c t="s" s="14" r="I47">
+      <c t="s" s="10" r="I47">
         <v>283</v>
       </c>
-      <c t="s" s="14" r="J47">
+      <c t="s" s="10" r="J47">
         <v>634</v>
       </c>
-      <c t="s" s="14" r="K47">
+      <c t="s" s="10" r="K47">
         <v>635</v>
       </c>
-      <c s="22" r="L47"/>
-      <c s="22" r="M47"/>
-      <c s="22" r="N47"/>
-      <c s="22" r="O47"/>
+      <c s="13" r="L47"/>
+      <c s="13" r="M47"/>
+      <c s="13" r="N47"/>
+      <c s="13" r="O47"/>
       <c t="s" s="24" r="P47">
         <v>636</v>
       </c>
@@ -6716,49 +6813,49 @@
       <c t="s" s="41" r="X47">
         <v>643</v>
       </c>
-      <c s="22" r="Y47"/>
-      <c s="22" r="Z47"/>
+      <c s="13" r="Y47"/>
+      <c s="13" r="Z47"/>
     </row>
     <row customHeight="1" r="48" ht="15.75">
-      <c t="s" s="14" r="A48">
+      <c t="s" s="10" r="A48">
         <v>644</v>
       </c>
-      <c s="14" r="B48">
+      <c s="10" r="B48">
         <v>4.0</v>
       </c>
-      <c t="s" s="14" r="C48">
+      <c t="s" s="10" r="C48">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D48">
+      <c t="s" s="10" r="D48">
         <v>571</v>
       </c>
       <c t="s" s="24" r="E48">
         <v>645</v>
       </c>
-      <c t="s" s="14" r="F48">
+      <c t="s" s="10" r="F48">
         <v>573</v>
       </c>
-      <c t="s" s="14" r="G48">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H48">
+      <c t="s" s="10" r="G48">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H48">
         <v>302</v>
       </c>
-      <c t="s" s="14" r="I48">
+      <c t="s" s="10" r="I48">
         <v>283</v>
       </c>
-      <c t="s" s="14" r="J48">
+      <c t="s" s="10" r="J48">
         <v>646</v>
       </c>
-      <c t="s" s="14" r="K48">
+      <c t="s" s="10" r="K48">
         <v>647</v>
       </c>
-      <c s="22" r="L48"/>
+      <c s="13" r="L48"/>
       <c t="s" s="17" r="M48">
         <v>648</v>
       </c>
-      <c s="22" r="N48"/>
-      <c s="22" r="O48"/>
+      <c s="13" r="N48"/>
+      <c s="13" r="O48"/>
       <c t="s" s="24" r="P48">
         <v>649</v>
       </c>
@@ -6784,42 +6881,42 @@
       <c t="s" s="41" r="X48">
         <v>656</v>
       </c>
-      <c s="22" r="Y48"/>
-      <c s="22" r="Z48"/>
+      <c s="13" r="Y48"/>
+      <c s="13" r="Z48"/>
     </row>
     <row customHeight="1" r="49" ht="15.75">
-      <c t="s" s="14" r="A49">
+      <c t="s" s="10" r="A49">
         <v>657</v>
       </c>
-      <c s="14" r="B49">
+      <c s="10" r="B49">
         <v>5.0</v>
       </c>
-      <c t="s" s="14" r="C49">
+      <c t="s" s="10" r="C49">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D49">
+      <c t="s" s="10" r="D49">
         <v>658</v>
       </c>
-      <c s="22" r="E49"/>
-      <c t="s" s="14" r="F49">
+      <c s="13" r="E49"/>
+      <c t="s" s="10" r="F49">
         <v>659</v>
       </c>
-      <c s="22" r="G49"/>
-      <c t="s" s="14" r="H49">
-        <v>30</v>
-      </c>
-      <c t="s" s="14" r="I49">
-        <v>32</v>
-      </c>
-      <c t="s" s="14" r="J49">
+      <c s="13" r="G49"/>
+      <c t="s" s="10" r="H49">
+        <v>44</v>
+      </c>
+      <c t="s" s="10" r="I49">
+        <v>45</v>
+      </c>
+      <c t="s" s="10" r="J49">
         <v>455</v>
       </c>
-      <c s="14" r="K49"/>
-      <c s="22" r="L49"/>
-      <c s="22" r="M49"/>
-      <c s="22" r="N49"/>
-      <c s="22" r="O49"/>
-      <c s="22" r="P49"/>
+      <c s="10" r="K49"/>
+      <c s="13" r="L49"/>
+      <c s="13" r="M49"/>
+      <c s="13" r="N49"/>
+      <c s="13" r="O49"/>
+      <c s="13" r="P49"/>
       <c t="s" s="40" r="Q49">
         <v>660</v>
       </c>
@@ -6842,49 +6939,49 @@
       <c t="s" s="41" r="X49">
         <v>666</v>
       </c>
-      <c s="22" r="Y49"/>
-      <c s="22" r="Z49"/>
+      <c s="13" r="Y49"/>
+      <c s="13" r="Z49"/>
     </row>
     <row customHeight="1" r="50" ht="15.75">
-      <c t="s" s="14" r="A50">
+      <c t="s" s="10" r="A50">
         <v>667</v>
       </c>
-      <c s="6" r="B50">
+      <c s="7" r="B50">
         <v>5.0</v>
       </c>
-      <c t="s" s="14" r="C50">
+      <c t="s" s="10" r="C50">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D50">
+      <c t="s" s="10" r="D50">
         <v>658</v>
       </c>
       <c t="s" s="24" r="E50">
         <v>668</v>
       </c>
-      <c t="s" s="14" r="F50">
+      <c t="s" s="10" r="F50">
         <v>659</v>
       </c>
-      <c t="s" s="14" r="G50">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H50">
-        <v>30</v>
-      </c>
-      <c t="s" s="14" r="I50">
-        <v>73</v>
-      </c>
-      <c t="s" s="14" r="J50">
+      <c t="s" s="10" r="G50">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H50">
+        <v>44</v>
+      </c>
+      <c t="s" s="10" r="I50">
+        <v>85</v>
+      </c>
+      <c t="s" s="10" r="J50">
         <v>669</v>
       </c>
-      <c s="14" r="K50"/>
+      <c s="10" r="K50"/>
       <c t="s" s="24" r="L50">
         <v>670</v>
       </c>
       <c t="s" s="17" r="M50">
         <v>671</v>
       </c>
-      <c s="22" r="N50"/>
-      <c s="22" r="O50"/>
+      <c s="13" r="N50"/>
+      <c s="13" r="O50"/>
       <c t="s" s="24" r="P50">
         <v>672</v>
       </c>
@@ -6910,141 +7007,141 @@
       <c t="s" s="41" r="X50">
         <v>679</v>
       </c>
-      <c s="22" r="Y50"/>
-      <c s="22" r="Z50"/>
+      <c s="13" r="Y50"/>
+      <c s="13" r="Z50"/>
     </row>
     <row customHeight="1" r="51" ht="15.75">
-      <c t="s" s="14" r="A51">
+      <c t="s" s="10" r="A51">
         <v>680</v>
       </c>
-      <c s="14" r="B51">
+      <c s="10" r="B51">
         <v>5.0</v>
       </c>
-      <c t="s" s="14" r="C51">
+      <c t="s" s="10" r="C51">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D51">
+      <c t="s" s="10" r="D51">
         <v>658</v>
       </c>
-      <c s="22" r="E51"/>
-      <c t="s" s="14" r="F51">
+      <c s="13" r="E51"/>
+      <c t="s" s="10" r="F51">
         <v>659</v>
       </c>
-      <c s="22" r="G51"/>
-      <c t="s" s="14" r="H51">
+      <c s="13" r="G51"/>
+      <c t="s" s="10" r="H51">
         <v>681</v>
       </c>
-      <c t="s" s="14" r="I51">
-        <v>62</v>
-      </c>
-      <c t="s" s="14" r="J51">
+      <c t="s" s="10" r="I51">
+        <v>56</v>
+      </c>
+      <c t="s" s="10" r="J51">
         <v>682</v>
       </c>
-      <c s="14" r="K51"/>
-      <c s="22" r="L51"/>
-      <c s="22" r="M51"/>
-      <c s="22" r="N51"/>
-      <c s="22" r="O51"/>
-      <c s="22" r="P51"/>
-      <c s="22" r="Q51"/>
-      <c s="22" r="R51"/>
-      <c s="22" r="S51"/>
-      <c s="22" r="T51"/>
-      <c s="22" r="U51"/>
-      <c s="22" r="V51"/>
-      <c s="22" r="W51"/>
-      <c s="22" r="X51"/>
-      <c s="22" r="Y51"/>
-      <c s="22" r="Z51"/>
+      <c s="10" r="K51"/>
+      <c s="13" r="L51"/>
+      <c s="13" r="M51"/>
+      <c s="13" r="N51"/>
+      <c s="13" r="O51"/>
+      <c s="13" r="P51"/>
+      <c s="13" r="Q51"/>
+      <c s="13" r="R51"/>
+      <c s="13" r="S51"/>
+      <c s="13" r="T51"/>
+      <c s="13" r="U51"/>
+      <c s="13" r="V51"/>
+      <c s="13" r="W51"/>
+      <c s="13" r="X51"/>
+      <c s="13" r="Y51"/>
+      <c s="13" r="Z51"/>
     </row>
     <row customHeight="1" r="52" ht="15.75">
-      <c t="s" s="14" r="A52">
+      <c t="s" s="10" r="A52">
         <v>683</v>
       </c>
-      <c s="14" r="B52">
+      <c s="10" r="B52">
         <v>5.0</v>
       </c>
-      <c t="s" s="14" r="C52">
+      <c t="s" s="10" r="C52">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D52">
+      <c t="s" s="10" r="D52">
         <v>658</v>
       </c>
       <c t="s" s="24" r="E52">
         <v>684</v>
       </c>
-      <c t="s" s="14" r="F52">
+      <c t="s" s="10" r="F52">
         <v>659</v>
       </c>
-      <c t="s" s="14" r="G52">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H52">
+      <c t="s" s="10" r="G52">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H52">
         <v>685</v>
       </c>
-      <c t="s" s="14" r="I52">
-        <v>73</v>
-      </c>
-      <c t="s" s="14" r="J52">
+      <c t="s" s="10" r="I52">
+        <v>85</v>
+      </c>
+      <c t="s" s="10" r="J52">
         <v>686</v>
       </c>
-      <c s="14" r="K52"/>
-      <c s="22" r="L52"/>
-      <c s="22" r="M52"/>
-      <c s="22" r="N52"/>
-      <c s="22" r="O52"/>
+      <c s="10" r="K52"/>
+      <c s="13" r="L52"/>
+      <c s="13" r="M52"/>
+      <c s="13" r="N52"/>
+      <c s="13" r="O52"/>
       <c t="s" s="24" r="P52">
         <v>687</v>
       </c>
-      <c s="22" r="Q52"/>
-      <c s="22" r="R52"/>
-      <c s="22" r="S52"/>
-      <c s="22" r="T52"/>
-      <c s="22" r="U52"/>
-      <c s="22" r="V52"/>
-      <c s="22" r="W52"/>
-      <c s="22" r="X52"/>
-      <c s="22" r="Y52"/>
-      <c s="22" r="Z52"/>
+      <c s="13" r="Q52"/>
+      <c s="13" r="R52"/>
+      <c s="13" r="S52"/>
+      <c s="13" r="T52"/>
+      <c s="13" r="U52"/>
+      <c s="13" r="V52"/>
+      <c s="13" r="W52"/>
+      <c s="13" r="X52"/>
+      <c s="13" r="Y52"/>
+      <c s="13" r="Z52"/>
     </row>
     <row customHeight="1" r="53" ht="15.75">
-      <c t="s" s="14" r="A53">
+      <c t="s" s="10" r="A53">
         <v>688</v>
       </c>
-      <c s="14" r="B53">
+      <c s="10" r="B53">
         <v>5.0</v>
       </c>
-      <c t="s" s="14" r="C53">
+      <c t="s" s="10" r="C53">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D53">
+      <c t="s" s="10" r="D53">
         <v>658</v>
       </c>
       <c t="s" s="24" r="E53">
         <v>689</v>
       </c>
-      <c t="s" s="14" r="F53">
+      <c t="s" s="10" r="F53">
         <v>659</v>
       </c>
-      <c t="s" s="14" r="G53">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H53">
+      <c t="s" s="10" r="G53">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H53">
         <v>685</v>
       </c>
-      <c t="s" s="14" r="I53">
+      <c t="s" s="10" r="I53">
         <v>283</v>
       </c>
-      <c t="s" s="14" r="J53">
+      <c t="s" s="10" r="J53">
         <v>690</v>
       </c>
-      <c t="s" s="14" r="K53">
+      <c t="s" s="10" r="K53">
         <v>691</v>
       </c>
-      <c s="22" r="L53"/>
-      <c s="22" r="M53"/>
-      <c s="22" r="N53"/>
-      <c s="22" r="O53"/>
+      <c s="13" r="L53"/>
+      <c s="13" r="M53"/>
+      <c s="13" r="N53"/>
+      <c s="13" r="O53"/>
       <c t="s" s="24" r="P53">
         <v>692</v>
       </c>
@@ -7070,47 +7167,47 @@
       <c t="s" s="41" r="X53">
         <v>699</v>
       </c>
-      <c s="22" r="Y53"/>
-      <c s="22" r="Z53"/>
+      <c s="13" r="Y53"/>
+      <c s="13" r="Z53"/>
     </row>
     <row customHeight="1" r="54" ht="15.75">
-      <c t="s" s="14" r="A54">
+      <c t="s" s="10" r="A54">
         <v>700</v>
       </c>
-      <c s="14" r="B54">
+      <c s="10" r="B54">
         <v>5.0</v>
       </c>
-      <c t="s" s="14" r="C54">
+      <c t="s" s="10" r="C54">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D54">
+      <c t="s" s="10" r="D54">
         <v>658</v>
       </c>
       <c t="s" s="24" r="E54">
         <v>701</v>
       </c>
-      <c t="s" s="14" r="F54">
+      <c t="s" s="10" r="F54">
         <v>659</v>
       </c>
-      <c t="s" s="14" r="G54">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H54">
+      <c t="s" s="10" r="G54">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H54">
         <v>685</v>
       </c>
-      <c t="s" s="14" r="I54">
-        <v>73</v>
-      </c>
-      <c t="s" s="14" r="J54">
+      <c t="s" s="10" r="I54">
+        <v>85</v>
+      </c>
+      <c t="s" s="10" r="J54">
         <v>702</v>
       </c>
-      <c t="s" s="14" r="K54">
+      <c t="s" s="10" r="K54">
         <v>703</v>
       </c>
-      <c s="22" r="L54"/>
-      <c s="22" r="M54"/>
-      <c s="22" r="N54"/>
-      <c s="22" r="O54"/>
+      <c s="13" r="L54"/>
+      <c s="13" r="M54"/>
+      <c s="13" r="N54"/>
+      <c s="13" r="O54"/>
       <c t="s" s="24" r="P54">
         <v>704</v>
       </c>
@@ -7136,45 +7233,45 @@
       <c t="s" s="41" r="X54">
         <v>711</v>
       </c>
-      <c s="22" r="Y54"/>
-      <c s="22" r="Z54"/>
+      <c s="13" r="Y54"/>
+      <c s="13" r="Z54"/>
     </row>
     <row customHeight="1" r="55" ht="15.75">
-      <c t="s" s="14" r="A55">
+      <c t="s" s="10" r="A55">
         <v>712</v>
       </c>
-      <c s="14" r="B55">
+      <c s="10" r="B55">
         <v>5.0</v>
       </c>
-      <c t="s" s="14" r="C55">
+      <c t="s" s="10" r="C55">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D55">
+      <c t="s" s="10" r="D55">
         <v>658</v>
       </c>
       <c t="s" s="24" r="E55">
         <v>713</v>
       </c>
-      <c t="s" s="14" r="F55">
+      <c t="s" s="10" r="F55">
         <v>659</v>
       </c>
-      <c t="s" s="14" r="G55">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H55">
+      <c t="s" s="10" r="G55">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H55">
         <v>714</v>
       </c>
-      <c t="s" s="14" r="I55">
+      <c t="s" s="10" r="I55">
         <v>283</v>
       </c>
-      <c t="s" s="10" r="J55">
+      <c t="s" s="9" r="J55">
         <v>715</v>
       </c>
-      <c s="14" r="K55"/>
-      <c s="22" r="L55"/>
-      <c s="22" r="M55"/>
-      <c s="22" r="N55"/>
-      <c s="22" r="O55"/>
+      <c s="10" r="K55"/>
+      <c s="13" r="L55"/>
+      <c s="13" r="M55"/>
+      <c s="13" r="N55"/>
+      <c s="13" r="O55"/>
       <c t="s" s="24" r="P55">
         <v>716</v>
       </c>
@@ -7198,41 +7295,41 @@
       <c t="s" s="41" r="X55">
         <v>722</v>
       </c>
-      <c s="22" r="Y55"/>
-      <c s="22" r="Z55"/>
+      <c s="13" r="Y55"/>
+      <c s="13" r="Z55"/>
     </row>
     <row customHeight="1" r="56" ht="15.75">
-      <c t="s" s="14" r="A56">
+      <c t="s" s="10" r="A56">
         <v>723</v>
       </c>
-      <c s="14" r="B56">
+      <c s="10" r="B56">
         <v>5.0</v>
       </c>
-      <c t="s" s="14" r="C56">
+      <c t="s" s="10" r="C56">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D56">
+      <c t="s" s="10" r="D56">
         <v>658</v>
       </c>
       <c t="s" s="24" r="E56">
         <v>724</v>
       </c>
-      <c t="s" s="14" r="F56">
+      <c t="s" s="10" r="F56">
         <v>659</v>
       </c>
-      <c t="s" s="14" r="G56">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H56">
+      <c t="s" s="10" r="G56">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H56">
         <v>725</v>
       </c>
-      <c t="s" s="14" r="I56">
-        <v>32</v>
-      </c>
-      <c t="s" s="14" r="J56">
+      <c t="s" s="10" r="I56">
+        <v>45</v>
+      </c>
+      <c t="s" s="10" r="J56">
         <v>726</v>
       </c>
-      <c t="s" s="14" r="K56">
+      <c t="s" s="10" r="K56">
         <v>727</v>
       </c>
       <c t="s" s="24" r="L56">
@@ -7241,8 +7338,8 @@
       <c t="s" s="54" r="M56">
         <v>729</v>
       </c>
-      <c s="22" r="N56"/>
-      <c s="22" r="O56"/>
+      <c s="13" r="N56"/>
+      <c s="13" r="O56"/>
       <c t="s" s="24" r="P56">
         <v>730</v>
       </c>
@@ -7268,1040 +7365,1040 @@
       <c t="s" s="41" r="X56">
         <v>737</v>
       </c>
-      <c s="22" r="Y56"/>
-      <c s="22" r="Z56"/>
+      <c s="13" r="Y56"/>
+      <c s="13" r="Z56"/>
     </row>
     <row customHeight="1" r="57" ht="15.75">
-      <c t="s" s="14" r="A57">
+      <c t="s" s="10" r="A57">
         <v>738</v>
       </c>
-      <c s="14" r="B57">
+      <c s="10" r="B57">
         <v>1.0</v>
       </c>
-      <c t="s" s="14" r="C57">
+      <c t="s" s="10" r="C57">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="D57">
+      <c t="s" s="10" r="D57">
         <v>739</v>
       </c>
       <c t="s" s="24" r="E57">
         <v>740</v>
       </c>
-      <c t="s" s="14" r="F57">
+      <c t="s" s="10" r="F57">
         <v>741</v>
       </c>
-      <c t="s" s="14" r="G57">
-        <v>29</v>
-      </c>
-      <c t="s" s="14" r="H57">
+      <c t="s" s="10" r="G57">
+        <v>43</v>
+      </c>
+      <c t="s" s="10" r="H57">
         <v>742</v>
       </c>
-      <c t="s" s="14" r="I57">
+      <c t="s" s="10" r="I57">
         <v>283</v>
       </c>
-      <c t="s" s="14" r="J57">
+      <c t="s" s="10" r="J57">
         <v>743</v>
       </c>
-      <c t="s" s="14" r="K57">
+      <c t="s" s="10" r="K57">
         <v>744</v>
       </c>
-      <c s="22" r="L57"/>
-      <c s="22" r="M57"/>
-      <c s="22" r="N57"/>
-      <c s="22" r="O57"/>
+      <c s="13" r="L57"/>
+      <c s="13" r="M57"/>
+      <c s="13" r="N57"/>
+      <c s="13" r="O57"/>
       <c t="s" s="24" r="P57">
         <v>745</v>
       </c>
-      <c s="22" r="Q57"/>
-      <c s="22" r="R57"/>
-      <c s="22" r="S57"/>
-      <c s="22" r="T57"/>
-      <c s="22" r="U57"/>
-      <c s="22" r="V57"/>
-      <c s="22" r="W57"/>
-      <c s="22" r="X57"/>
-      <c s="22" r="Y57"/>
-      <c s="22" r="Z57"/>
+      <c s="13" r="Q57"/>
+      <c s="13" r="R57"/>
+      <c s="13" r="S57"/>
+      <c s="13" r="T57"/>
+      <c s="13" r="U57"/>
+      <c s="13" r="V57"/>
+      <c s="13" r="W57"/>
+      <c s="13" r="X57"/>
+      <c s="13" r="Y57"/>
+      <c s="13" r="Z57"/>
     </row>
     <row customHeight="1" r="58" ht="15.75">
-      <c s="14" r="A58"/>
-      <c s="22" r="B58"/>
-      <c s="22" r="C58"/>
-      <c s="22" r="D58"/>
-      <c s="22" r="E58"/>
-      <c s="14" r="F58"/>
-      <c s="22" r="G58"/>
-      <c s="22" r="H58"/>
-      <c s="22" r="I58"/>
-      <c s="22" r="J58"/>
-      <c s="14" r="K58"/>
-      <c s="22" r="L58"/>
-      <c s="22" r="M58"/>
-      <c s="22" r="N58"/>
-      <c s="22" r="O58"/>
-      <c s="22" r="P58"/>
-      <c s="22" r="Q58"/>
-      <c s="22" r="R58"/>
-      <c s="22" r="S58"/>
-      <c s="22" r="T58"/>
-      <c s="22" r="U58"/>
-      <c s="22" r="V58"/>
-      <c s="22" r="W58"/>
-      <c s="22" r="X58"/>
-      <c s="22" r="Y58"/>
-      <c s="22" r="Z58"/>
+      <c s="10" r="A58"/>
+      <c s="13" r="B58"/>
+      <c s="13" r="C58"/>
+      <c s="13" r="D58"/>
+      <c s="13" r="E58"/>
+      <c s="10" r="F58"/>
+      <c s="13" r="G58"/>
+      <c s="13" r="H58"/>
+      <c s="13" r="I58"/>
+      <c s="13" r="J58"/>
+      <c s="10" r="K58"/>
+      <c s="13" r="L58"/>
+      <c s="13" r="M58"/>
+      <c s="13" r="N58"/>
+      <c s="13" r="O58"/>
+      <c s="13" r="P58"/>
+      <c s="13" r="Q58"/>
+      <c s="13" r="R58"/>
+      <c s="13" r="S58"/>
+      <c s="13" r="T58"/>
+      <c s="13" r="U58"/>
+      <c s="13" r="V58"/>
+      <c s="13" r="W58"/>
+      <c s="13" r="X58"/>
+      <c s="13" r="Y58"/>
+      <c s="13" r="Z58"/>
     </row>
     <row customHeight="1" r="59" ht="15.75">
-      <c s="14" r="A59"/>
-      <c s="22" r="B59"/>
-      <c s="22" r="C59"/>
-      <c s="22" r="D59"/>
-      <c s="22" r="E59"/>
-      <c s="14" r="F59"/>
-      <c s="22" r="G59"/>
-      <c s="22" r="H59"/>
-      <c s="22" r="I59"/>
-      <c s="22" r="J59"/>
-      <c s="22" r="K59"/>
-      <c s="22" r="L59"/>
-      <c s="22" r="M59"/>
-      <c s="22" r="N59"/>
-      <c s="22" r="O59"/>
-      <c s="22" r="P59"/>
-      <c s="22" r="Q59"/>
-      <c s="22" r="R59"/>
-      <c s="22" r="S59"/>
-      <c s="22" r="T59"/>
-      <c s="22" r="U59"/>
-      <c s="22" r="V59"/>
-      <c s="22" r="W59"/>
-      <c s="22" r="X59"/>
-      <c s="22" r="Y59"/>
-      <c s="22" r="Z59"/>
+      <c s="10" r="A59"/>
+      <c s="13" r="B59"/>
+      <c s="13" r="C59"/>
+      <c s="13" r="D59"/>
+      <c s="13" r="E59"/>
+      <c s="10" r="F59"/>
+      <c s="13" r="G59"/>
+      <c s="13" r="H59"/>
+      <c s="13" r="I59"/>
+      <c s="13" r="J59"/>
+      <c s="13" r="K59"/>
+      <c s="13" r="L59"/>
+      <c s="13" r="M59"/>
+      <c s="13" r="N59"/>
+      <c s="13" r="O59"/>
+      <c s="13" r="P59"/>
+      <c s="13" r="Q59"/>
+      <c s="13" r="R59"/>
+      <c s="13" r="S59"/>
+      <c s="13" r="T59"/>
+      <c s="13" r="U59"/>
+      <c s="13" r="V59"/>
+      <c s="13" r="W59"/>
+      <c s="13" r="X59"/>
+      <c s="13" r="Y59"/>
+      <c s="13" r="Z59"/>
     </row>
     <row customHeight="1" r="60" ht="15.75">
-      <c s="14" r="A60"/>
-      <c s="22" r="B60"/>
-      <c s="22" r="C60"/>
-      <c s="22" r="D60"/>
-      <c s="22" r="E60"/>
-      <c s="14" r="F60"/>
-      <c s="22" r="G60"/>
-      <c s="22" r="H60"/>
-      <c s="22" r="I60"/>
-      <c s="22" r="J60"/>
-      <c s="14" r="K60"/>
-      <c s="22" r="L60"/>
-      <c s="22" r="M60"/>
-      <c s="22" r="N60"/>
-      <c s="22" r="O60"/>
-      <c s="22" r="P60"/>
-      <c s="22" r="Q60"/>
-      <c s="22" r="R60"/>
-      <c s="22" r="S60"/>
-      <c s="22" r="T60"/>
-      <c s="22" r="U60"/>
-      <c s="22" r="V60"/>
-      <c s="22" r="W60"/>
-      <c s="22" r="X60"/>
-      <c s="22" r="Y60"/>
-      <c s="22" r="Z60"/>
+      <c s="10" r="A60"/>
+      <c s="13" r="B60"/>
+      <c s="13" r="C60"/>
+      <c s="13" r="D60"/>
+      <c s="13" r="E60"/>
+      <c s="10" r="F60"/>
+      <c s="13" r="G60"/>
+      <c s="13" r="H60"/>
+      <c s="13" r="I60"/>
+      <c s="13" r="J60"/>
+      <c s="10" r="K60"/>
+      <c s="13" r="L60"/>
+      <c s="13" r="M60"/>
+      <c s="13" r="N60"/>
+      <c s="13" r="O60"/>
+      <c s="13" r="P60"/>
+      <c s="13" r="Q60"/>
+      <c s="13" r="R60"/>
+      <c s="13" r="S60"/>
+      <c s="13" r="T60"/>
+      <c s="13" r="U60"/>
+      <c s="13" r="V60"/>
+      <c s="13" r="W60"/>
+      <c s="13" r="X60"/>
+      <c s="13" r="Y60"/>
+      <c s="13" r="Z60"/>
     </row>
     <row customHeight="1" r="61" ht="15.75">
-      <c s="14" r="A61"/>
-      <c s="22" r="B61"/>
-      <c s="22" r="C61"/>
-      <c s="22" r="D61"/>
-      <c s="22" r="E61"/>
-      <c s="14" r="F61"/>
-      <c s="22" r="G61"/>
-      <c s="22" r="H61"/>
-      <c s="22" r="I61"/>
-      <c s="22" r="J61"/>
-      <c s="22" r="K61"/>
-      <c s="22" r="L61"/>
-      <c s="22" r="M61"/>
-      <c s="22" r="N61"/>
-      <c s="22" r="O61"/>
-      <c s="22" r="P61"/>
-      <c s="22" r="Q61"/>
-      <c s="22" r="R61"/>
-      <c s="22" r="S61"/>
-      <c s="22" r="T61"/>
-      <c s="22" r="U61"/>
-      <c s="22" r="V61"/>
-      <c s="22" r="W61"/>
-      <c s="22" r="X61"/>
-      <c s="22" r="Y61"/>
-      <c s="22" r="Z61"/>
+      <c s="10" r="A61"/>
+      <c s="13" r="B61"/>
+      <c s="13" r="C61"/>
+      <c s="13" r="D61"/>
+      <c s="13" r="E61"/>
+      <c s="10" r="F61"/>
+      <c s="13" r="G61"/>
+      <c s="13" r="H61"/>
+      <c s="13" r="I61"/>
+      <c s="13" r="J61"/>
+      <c s="13" r="K61"/>
+      <c s="13" r="L61"/>
+      <c s="13" r="M61"/>
+      <c s="13" r="N61"/>
+      <c s="13" r="O61"/>
+      <c s="13" r="P61"/>
+      <c s="13" r="Q61"/>
+      <c s="13" r="R61"/>
+      <c s="13" r="S61"/>
+      <c s="13" r="T61"/>
+      <c s="13" r="U61"/>
+      <c s="13" r="V61"/>
+      <c s="13" r="W61"/>
+      <c s="13" r="X61"/>
+      <c s="13" r="Y61"/>
+      <c s="13" r="Z61"/>
     </row>
     <row customHeight="1" r="62" ht="15.75">
-      <c s="14" r="A62"/>
-      <c s="22" r="B62"/>
-      <c s="22" r="C62"/>
-      <c s="22" r="D62"/>
-      <c s="22" r="E62"/>
-      <c s="14" r="F62"/>
-      <c s="22" r="G62"/>
-      <c s="22" r="H62"/>
-      <c s="22" r="I62"/>
-      <c s="22" r="J62"/>
-      <c s="22" r="K62"/>
-      <c s="22" r="L62"/>
-      <c s="22" r="M62"/>
-      <c s="22" r="N62"/>
-      <c s="22" r="O62"/>
-      <c s="22" r="P62"/>
-      <c s="22" r="Q62"/>
-      <c s="22" r="R62"/>
-      <c s="22" r="S62"/>
-      <c s="22" r="T62"/>
-      <c s="22" r="U62"/>
-      <c s="22" r="V62"/>
-      <c s="22" r="W62"/>
-      <c s="22" r="X62"/>
-      <c s="22" r="Y62"/>
-      <c s="22" r="Z62"/>
+      <c s="10" r="A62"/>
+      <c s="13" r="B62"/>
+      <c s="13" r="C62"/>
+      <c s="13" r="D62"/>
+      <c s="13" r="E62"/>
+      <c s="10" r="F62"/>
+      <c s="13" r="G62"/>
+      <c s="13" r="H62"/>
+      <c s="13" r="I62"/>
+      <c s="13" r="J62"/>
+      <c s="13" r="K62"/>
+      <c s="13" r="L62"/>
+      <c s="13" r="M62"/>
+      <c s="13" r="N62"/>
+      <c s="13" r="O62"/>
+      <c s="13" r="P62"/>
+      <c s="13" r="Q62"/>
+      <c s="13" r="R62"/>
+      <c s="13" r="S62"/>
+      <c s="13" r="T62"/>
+      <c s="13" r="U62"/>
+      <c s="13" r="V62"/>
+      <c s="13" r="W62"/>
+      <c s="13" r="X62"/>
+      <c s="13" r="Y62"/>
+      <c s="13" r="Z62"/>
     </row>
     <row customHeight="1" r="63" ht="15.75">
-      <c s="14" r="A63"/>
-      <c s="22" r="B63"/>
-      <c s="22" r="C63"/>
-      <c s="22" r="D63"/>
-      <c s="22" r="E63"/>
-      <c s="14" r="F63"/>
-      <c s="22" r="G63"/>
-      <c s="22" r="H63"/>
-      <c s="22" r="I63"/>
-      <c s="22" r="J63"/>
-      <c s="22" r="K63"/>
-      <c s="22" r="L63"/>
-      <c s="22" r="M63"/>
-      <c s="22" r="N63"/>
-      <c s="22" r="O63"/>
-      <c s="22" r="P63"/>
-      <c s="22" r="Q63"/>
-      <c s="22" r="R63"/>
-      <c s="22" r="S63"/>
-      <c s="22" r="T63"/>
-      <c s="22" r="U63"/>
-      <c s="22" r="V63"/>
-      <c s="22" r="W63"/>
-      <c s="22" r="X63"/>
-      <c s="22" r="Y63"/>
-      <c s="22" r="Z63"/>
+      <c s="10" r="A63"/>
+      <c s="13" r="B63"/>
+      <c s="13" r="C63"/>
+      <c s="13" r="D63"/>
+      <c s="13" r="E63"/>
+      <c s="10" r="F63"/>
+      <c s="13" r="G63"/>
+      <c s="13" r="H63"/>
+      <c s="13" r="I63"/>
+      <c s="13" r="J63"/>
+      <c s="13" r="K63"/>
+      <c s="13" r="L63"/>
+      <c s="13" r="M63"/>
+      <c s="13" r="N63"/>
+      <c s="13" r="O63"/>
+      <c s="13" r="P63"/>
+      <c s="13" r="Q63"/>
+      <c s="13" r="R63"/>
+      <c s="13" r="S63"/>
+      <c s="13" r="T63"/>
+      <c s="13" r="U63"/>
+      <c s="13" r="V63"/>
+      <c s="13" r="W63"/>
+      <c s="13" r="X63"/>
+      <c s="13" r="Y63"/>
+      <c s="13" r="Z63"/>
     </row>
     <row customHeight="1" r="64" ht="15.75">
-      <c s="14" r="A64"/>
-      <c s="22" r="B64"/>
-      <c s="22" r="C64"/>
-      <c s="22" r="D64"/>
-      <c s="22" r="E64"/>
-      <c s="14" r="F64"/>
-      <c s="22" r="G64"/>
-      <c s="22" r="H64"/>
-      <c s="22" r="I64"/>
-      <c s="22" r="J64"/>
-      <c s="22" r="K64"/>
-      <c s="22" r="L64"/>
-      <c s="22" r="M64"/>
-      <c s="22" r="N64"/>
-      <c s="22" r="O64"/>
-      <c s="22" r="P64"/>
-      <c s="22" r="Q64"/>
-      <c s="22" r="R64"/>
-      <c s="22" r="S64"/>
-      <c s="22" r="T64"/>
-      <c s="22" r="U64"/>
-      <c s="22" r="V64"/>
-      <c s="22" r="W64"/>
-      <c s="22" r="X64"/>
-      <c s="22" r="Y64"/>
-      <c s="22" r="Z64"/>
+      <c s="10" r="A64"/>
+      <c s="13" r="B64"/>
+      <c s="13" r="C64"/>
+      <c s="13" r="D64"/>
+      <c s="13" r="E64"/>
+      <c s="10" r="F64"/>
+      <c s="13" r="G64"/>
+      <c s="13" r="H64"/>
+      <c s="13" r="I64"/>
+      <c s="13" r="J64"/>
+      <c s="13" r="K64"/>
+      <c s="13" r="L64"/>
+      <c s="13" r="M64"/>
+      <c s="13" r="N64"/>
+      <c s="13" r="O64"/>
+      <c s="13" r="P64"/>
+      <c s="13" r="Q64"/>
+      <c s="13" r="R64"/>
+      <c s="13" r="S64"/>
+      <c s="13" r="T64"/>
+      <c s="13" r="U64"/>
+      <c s="13" r="V64"/>
+      <c s="13" r="W64"/>
+      <c s="13" r="X64"/>
+      <c s="13" r="Y64"/>
+      <c s="13" r="Z64"/>
     </row>
     <row customHeight="1" r="65" ht="15.75">
-      <c s="14" r="A65"/>
-      <c s="22" r="B65"/>
-      <c s="22" r="C65"/>
-      <c s="22" r="D65"/>
-      <c s="22" r="E65"/>
-      <c s="14" r="F65"/>
-      <c s="22" r="G65"/>
-      <c s="22" r="H65"/>
-      <c s="22" r="I65"/>
-      <c s="22" r="J65"/>
-      <c s="22" r="K65"/>
-      <c s="22" r="L65"/>
-      <c s="22" r="M65"/>
-      <c s="22" r="N65"/>
-      <c s="22" r="O65"/>
-      <c s="22" r="P65"/>
-      <c s="22" r="Q65"/>
-      <c s="22" r="R65"/>
-      <c s="22" r="S65"/>
-      <c s="22" r="T65"/>
-      <c s="22" r="U65"/>
-      <c s="22" r="V65"/>
-      <c s="22" r="W65"/>
-      <c s="22" r="X65"/>
-      <c s="22" r="Y65"/>
-      <c s="22" r="Z65"/>
+      <c s="10" r="A65"/>
+      <c s="13" r="B65"/>
+      <c s="13" r="C65"/>
+      <c s="13" r="D65"/>
+      <c s="13" r="E65"/>
+      <c s="10" r="F65"/>
+      <c s="13" r="G65"/>
+      <c s="13" r="H65"/>
+      <c s="13" r="I65"/>
+      <c s="13" r="J65"/>
+      <c s="13" r="K65"/>
+      <c s="13" r="L65"/>
+      <c s="13" r="M65"/>
+      <c s="13" r="N65"/>
+      <c s="13" r="O65"/>
+      <c s="13" r="P65"/>
+      <c s="13" r="Q65"/>
+      <c s="13" r="R65"/>
+      <c s="13" r="S65"/>
+      <c s="13" r="T65"/>
+      <c s="13" r="U65"/>
+      <c s="13" r="V65"/>
+      <c s="13" r="W65"/>
+      <c s="13" r="X65"/>
+      <c s="13" r="Y65"/>
+      <c s="13" r="Z65"/>
     </row>
     <row customHeight="1" r="66" ht="15.75">
-      <c s="14" r="A66"/>
-      <c s="22" r="B66"/>
-      <c s="22" r="C66"/>
-      <c s="22" r="D66"/>
-      <c s="22" r="E66"/>
-      <c s="14" r="F66"/>
-      <c s="22" r="G66"/>
-      <c s="22" r="H66"/>
-      <c s="22" r="I66"/>
-      <c s="22" r="J66"/>
-      <c s="22" r="K66"/>
-      <c s="22" r="L66"/>
-      <c s="22" r="M66"/>
-      <c s="22" r="N66"/>
-      <c s="22" r="O66"/>
-      <c s="22" r="P66"/>
-      <c s="22" r="Q66"/>
-      <c s="22" r="R66"/>
-      <c s="22" r="S66"/>
-      <c s="22" r="T66"/>
-      <c s="22" r="U66"/>
-      <c s="22" r="V66"/>
-      <c s="22" r="W66"/>
-      <c s="22" r="X66"/>
-      <c s="22" r="Y66"/>
-      <c s="22" r="Z66"/>
+      <c s="10" r="A66"/>
+      <c s="13" r="B66"/>
+      <c s="13" r="C66"/>
+      <c s="13" r="D66"/>
+      <c s="13" r="E66"/>
+      <c s="10" r="F66"/>
+      <c s="13" r="G66"/>
+      <c s="13" r="H66"/>
+      <c s="13" r="I66"/>
+      <c s="13" r="J66"/>
+      <c s="13" r="K66"/>
+      <c s="13" r="L66"/>
+      <c s="13" r="M66"/>
+      <c s="13" r="N66"/>
+      <c s="13" r="O66"/>
+      <c s="13" r="P66"/>
+      <c s="13" r="Q66"/>
+      <c s="13" r="R66"/>
+      <c s="13" r="S66"/>
+      <c s="13" r="T66"/>
+      <c s="13" r="U66"/>
+      <c s="13" r="V66"/>
+      <c s="13" r="W66"/>
+      <c s="13" r="X66"/>
+      <c s="13" r="Y66"/>
+      <c s="13" r="Z66"/>
     </row>
     <row customHeight="1" r="67" ht="15.75">
-      <c s="14" r="A67"/>
-      <c s="22" r="B67"/>
-      <c s="22" r="C67"/>
-      <c s="22" r="D67"/>
-      <c s="22" r="E67"/>
-      <c s="14" r="F67"/>
-      <c s="22" r="G67"/>
-      <c s="22" r="H67"/>
-      <c s="22" r="I67"/>
-      <c s="22" r="J67"/>
-      <c s="22" r="K67"/>
-      <c s="22" r="L67"/>
-      <c s="22" r="M67"/>
-      <c s="22" r="N67"/>
-      <c s="22" r="O67"/>
-      <c s="22" r="P67"/>
-      <c s="22" r="Q67"/>
-      <c s="22" r="R67"/>
-      <c s="22" r="S67"/>
-      <c s="22" r="T67"/>
-      <c s="22" r="U67"/>
-      <c s="22" r="V67"/>
-      <c s="22" r="W67"/>
-      <c s="22" r="X67"/>
-      <c s="22" r="Y67"/>
-      <c s="22" r="Z67"/>
+      <c s="10" r="A67"/>
+      <c s="13" r="B67"/>
+      <c s="13" r="C67"/>
+      <c s="13" r="D67"/>
+      <c s="13" r="E67"/>
+      <c s="10" r="F67"/>
+      <c s="13" r="G67"/>
+      <c s="13" r="H67"/>
+      <c s="13" r="I67"/>
+      <c s="13" r="J67"/>
+      <c s="13" r="K67"/>
+      <c s="13" r="L67"/>
+      <c s="13" r="M67"/>
+      <c s="13" r="N67"/>
+      <c s="13" r="O67"/>
+      <c s="13" r="P67"/>
+      <c s="13" r="Q67"/>
+      <c s="13" r="R67"/>
+      <c s="13" r="S67"/>
+      <c s="13" r="T67"/>
+      <c s="13" r="U67"/>
+      <c s="13" r="V67"/>
+      <c s="13" r="W67"/>
+      <c s="13" r="X67"/>
+      <c s="13" r="Y67"/>
+      <c s="13" r="Z67"/>
     </row>
     <row customHeight="1" r="68" ht="15.75">
-      <c s="14" r="A68"/>
-      <c s="22" r="B68"/>
-      <c s="22" r="C68"/>
-      <c s="22" r="D68"/>
-      <c s="22" r="E68"/>
-      <c s="14" r="F68"/>
-      <c s="22" r="G68"/>
-      <c s="22" r="H68"/>
-      <c s="22" r="I68"/>
-      <c s="22" r="J68"/>
-      <c s="22" r="K68"/>
-      <c s="22" r="L68"/>
-      <c s="22" r="M68"/>
-      <c s="22" r="N68"/>
-      <c s="22" r="O68"/>
-      <c s="22" r="P68"/>
-      <c s="22" r="Q68"/>
-      <c s="22" r="R68"/>
-      <c s="22" r="S68"/>
-      <c s="22" r="T68"/>
-      <c s="22" r="U68"/>
-      <c s="22" r="V68"/>
-      <c s="22" r="W68"/>
-      <c s="22" r="X68"/>
-      <c s="22" r="Y68"/>
-      <c s="22" r="Z68"/>
+      <c s="10" r="A68"/>
+      <c s="13" r="B68"/>
+      <c s="13" r="C68"/>
+      <c s="13" r="D68"/>
+      <c s="13" r="E68"/>
+      <c s="10" r="F68"/>
+      <c s="13" r="G68"/>
+      <c s="13" r="H68"/>
+      <c s="13" r="I68"/>
+      <c s="13" r="J68"/>
+      <c s="13" r="K68"/>
+      <c s="13" r="L68"/>
+      <c s="13" r="M68"/>
+      <c s="13" r="N68"/>
+      <c s="13" r="O68"/>
+      <c s="13" r="P68"/>
+      <c s="13" r="Q68"/>
+      <c s="13" r="R68"/>
+      <c s="13" r="S68"/>
+      <c s="13" r="T68"/>
+      <c s="13" r="U68"/>
+      <c s="13" r="V68"/>
+      <c s="13" r="W68"/>
+      <c s="13" r="X68"/>
+      <c s="13" r="Y68"/>
+      <c s="13" r="Z68"/>
     </row>
     <row customHeight="1" r="69" ht="15.75">
-      <c s="14" r="A69"/>
-      <c s="22" r="B69"/>
-      <c s="22" r="C69"/>
-      <c s="22" r="D69"/>
-      <c s="22" r="E69"/>
-      <c s="14" r="F69"/>
-      <c s="22" r="G69"/>
-      <c s="22" r="H69"/>
-      <c s="22" r="I69"/>
-      <c s="22" r="J69"/>
-      <c s="22" r="K69"/>
-      <c s="22" r="L69"/>
-      <c s="22" r="M69"/>
-      <c s="22" r="N69"/>
-      <c s="22" r="O69"/>
-      <c s="22" r="P69"/>
-      <c s="22" r="Q69"/>
-      <c s="22" r="R69"/>
-      <c s="22" r="S69"/>
-      <c s="22" r="T69"/>
-      <c s="22" r="U69"/>
-      <c s="22" r="V69"/>
-      <c s="22" r="W69"/>
-      <c s="22" r="X69"/>
-      <c s="22" r="Y69"/>
-      <c s="22" r="Z69"/>
+      <c s="10" r="A69"/>
+      <c s="13" r="B69"/>
+      <c s="13" r="C69"/>
+      <c s="13" r="D69"/>
+      <c s="13" r="E69"/>
+      <c s="10" r="F69"/>
+      <c s="13" r="G69"/>
+      <c s="13" r="H69"/>
+      <c s="13" r="I69"/>
+      <c s="13" r="J69"/>
+      <c s="13" r="K69"/>
+      <c s="13" r="L69"/>
+      <c s="13" r="M69"/>
+      <c s="13" r="N69"/>
+      <c s="13" r="O69"/>
+      <c s="13" r="P69"/>
+      <c s="13" r="Q69"/>
+      <c s="13" r="R69"/>
+      <c s="13" r="S69"/>
+      <c s="13" r="T69"/>
+      <c s="13" r="U69"/>
+      <c s="13" r="V69"/>
+      <c s="13" r="W69"/>
+      <c s="13" r="X69"/>
+      <c s="13" r="Y69"/>
+      <c s="13" r="Z69"/>
     </row>
     <row customHeight="1" r="70" ht="15.75">
-      <c s="14" r="A70"/>
-      <c s="22" r="B70"/>
-      <c s="22" r="C70"/>
-      <c s="22" r="D70"/>
-      <c s="22" r="E70"/>
-      <c s="14" r="F70"/>
-      <c s="22" r="G70"/>
-      <c s="22" r="H70"/>
-      <c s="22" r="I70"/>
-      <c s="22" r="J70"/>
-      <c s="22" r="K70"/>
-      <c s="22" r="L70"/>
-      <c s="22" r="M70"/>
-      <c s="22" r="N70"/>
-      <c s="22" r="O70"/>
-      <c s="22" r="P70"/>
-      <c s="22" r="Q70"/>
-      <c s="22" r="R70"/>
-      <c s="22" r="S70"/>
-      <c s="22" r="T70"/>
-      <c s="22" r="U70"/>
-      <c s="22" r="V70"/>
-      <c s="22" r="W70"/>
-      <c s="22" r="X70"/>
-      <c s="22" r="Y70"/>
-      <c s="22" r="Z70"/>
+      <c s="10" r="A70"/>
+      <c s="13" r="B70"/>
+      <c s="13" r="C70"/>
+      <c s="13" r="D70"/>
+      <c s="13" r="E70"/>
+      <c s="10" r="F70"/>
+      <c s="13" r="G70"/>
+      <c s="13" r="H70"/>
+      <c s="13" r="I70"/>
+      <c s="13" r="J70"/>
+      <c s="13" r="K70"/>
+      <c s="13" r="L70"/>
+      <c s="13" r="M70"/>
+      <c s="13" r="N70"/>
+      <c s="13" r="O70"/>
+      <c s="13" r="P70"/>
+      <c s="13" r="Q70"/>
+      <c s="13" r="R70"/>
+      <c s="13" r="S70"/>
+      <c s="13" r="T70"/>
+      <c s="13" r="U70"/>
+      <c s="13" r="V70"/>
+      <c s="13" r="W70"/>
+      <c s="13" r="X70"/>
+      <c s="13" r="Y70"/>
+      <c s="13" r="Z70"/>
     </row>
     <row customHeight="1" r="71" ht="15.75">
-      <c s="14" r="A71"/>
-      <c s="22" r="B71"/>
-      <c s="22" r="C71"/>
-      <c s="22" r="D71"/>
-      <c s="22" r="E71"/>
-      <c s="14" r="F71"/>
-      <c s="22" r="G71"/>
-      <c s="22" r="H71"/>
-      <c s="22" r="I71"/>
-      <c s="22" r="J71"/>
-      <c s="22" r="K71"/>
-      <c s="22" r="L71"/>
-      <c s="22" r="M71"/>
-      <c s="22" r="N71"/>
-      <c s="22" r="O71"/>
-      <c s="22" r="P71"/>
-      <c s="22" r="Q71"/>
-      <c s="22" r="R71"/>
-      <c s="22" r="S71"/>
-      <c s="22" r="T71"/>
-      <c s="22" r="U71"/>
-      <c s="22" r="V71"/>
-      <c s="22" r="W71"/>
-      <c s="22" r="X71"/>
-      <c s="22" r="Y71"/>
-      <c s="22" r="Z71"/>
+      <c s="10" r="A71"/>
+      <c s="13" r="B71"/>
+      <c s="13" r="C71"/>
+      <c s="13" r="D71"/>
+      <c s="13" r="E71"/>
+      <c s="10" r="F71"/>
+      <c s="13" r="G71"/>
+      <c s="13" r="H71"/>
+      <c s="13" r="I71"/>
+      <c s="13" r="J71"/>
+      <c s="13" r="K71"/>
+      <c s="13" r="L71"/>
+      <c s="13" r="M71"/>
+      <c s="13" r="N71"/>
+      <c s="13" r="O71"/>
+      <c s="13" r="P71"/>
+      <c s="13" r="Q71"/>
+      <c s="13" r="R71"/>
+      <c s="13" r="S71"/>
+      <c s="13" r="T71"/>
+      <c s="13" r="U71"/>
+      <c s="13" r="V71"/>
+      <c s="13" r="W71"/>
+      <c s="13" r="X71"/>
+      <c s="13" r="Y71"/>
+      <c s="13" r="Z71"/>
     </row>
     <row customHeight="1" r="72" ht="15.75">
-      <c s="14" r="A72"/>
-      <c s="22" r="B72"/>
-      <c s="22" r="C72"/>
-      <c s="22" r="D72"/>
-      <c s="22" r="E72"/>
-      <c s="14" r="F72"/>
-      <c s="22" r="G72"/>
-      <c s="22" r="H72"/>
-      <c s="22" r="I72"/>
-      <c s="22" r="J72"/>
-      <c s="22" r="K72"/>
-      <c s="22" r="L72"/>
-      <c s="22" r="M72"/>
-      <c s="22" r="N72"/>
-      <c s="22" r="O72"/>
-      <c s="22" r="P72"/>
-      <c s="22" r="Q72"/>
-      <c s="22" r="R72"/>
-      <c s="22" r="S72"/>
-      <c s="22" r="T72"/>
-      <c s="22" r="U72"/>
-      <c s="22" r="V72"/>
-      <c s="22" r="W72"/>
-      <c s="22" r="X72"/>
-      <c s="22" r="Y72"/>
-      <c s="22" r="Z72"/>
+      <c s="10" r="A72"/>
+      <c s="13" r="B72"/>
+      <c s="13" r="C72"/>
+      <c s="13" r="D72"/>
+      <c s="13" r="E72"/>
+      <c s="10" r="F72"/>
+      <c s="13" r="G72"/>
+      <c s="13" r="H72"/>
+      <c s="13" r="I72"/>
+      <c s="13" r="J72"/>
+      <c s="13" r="K72"/>
+      <c s="13" r="L72"/>
+      <c s="13" r="M72"/>
+      <c s="13" r="N72"/>
+      <c s="13" r="O72"/>
+      <c s="13" r="P72"/>
+      <c s="13" r="Q72"/>
+      <c s="13" r="R72"/>
+      <c s="13" r="S72"/>
+      <c s="13" r="T72"/>
+      <c s="13" r="U72"/>
+      <c s="13" r="V72"/>
+      <c s="13" r="W72"/>
+      <c s="13" r="X72"/>
+      <c s="13" r="Y72"/>
+      <c s="13" r="Z72"/>
     </row>
     <row customHeight="1" r="73" ht="15.75">
-      <c s="14" r="A73"/>
-      <c s="22" r="B73"/>
-      <c s="22" r="C73"/>
-      <c s="22" r="D73"/>
-      <c s="22" r="E73"/>
-      <c s="14" r="F73"/>
-      <c s="22" r="G73"/>
-      <c s="22" r="H73"/>
-      <c s="22" r="I73"/>
-      <c s="22" r="J73"/>
-      <c s="22" r="K73"/>
-      <c s="22" r="L73"/>
-      <c s="22" r="M73"/>
-      <c s="22" r="N73"/>
-      <c s="22" r="O73"/>
-      <c s="22" r="P73"/>
-      <c s="22" r="Q73"/>
-      <c s="22" r="R73"/>
-      <c s="22" r="S73"/>
-      <c s="22" r="T73"/>
-      <c s="22" r="U73"/>
-      <c s="22" r="V73"/>
-      <c s="22" r="W73"/>
-      <c s="22" r="X73"/>
-      <c s="22" r="Y73"/>
-      <c s="22" r="Z73"/>
+      <c s="10" r="A73"/>
+      <c s="13" r="B73"/>
+      <c s="13" r="C73"/>
+      <c s="13" r="D73"/>
+      <c s="13" r="E73"/>
+      <c s="10" r="F73"/>
+      <c s="13" r="G73"/>
+      <c s="13" r="H73"/>
+      <c s="13" r="I73"/>
+      <c s="13" r="J73"/>
+      <c s="13" r="K73"/>
+      <c s="13" r="L73"/>
+      <c s="13" r="M73"/>
+      <c s="13" r="N73"/>
+      <c s="13" r="O73"/>
+      <c s="13" r="P73"/>
+      <c s="13" r="Q73"/>
+      <c s="13" r="R73"/>
+      <c s="13" r="S73"/>
+      <c s="13" r="T73"/>
+      <c s="13" r="U73"/>
+      <c s="13" r="V73"/>
+      <c s="13" r="W73"/>
+      <c s="13" r="X73"/>
+      <c s="13" r="Y73"/>
+      <c s="13" r="Z73"/>
     </row>
     <row customHeight="1" r="74" ht="15.75">
-      <c s="14" r="A74"/>
-      <c s="22" r="B74"/>
-      <c s="22" r="C74"/>
-      <c s="22" r="D74"/>
-      <c s="22" r="E74"/>
-      <c s="14" r="F74"/>
-      <c s="22" r="G74"/>
-      <c s="22" r="H74"/>
-      <c s="22" r="I74"/>
-      <c s="22" r="J74"/>
-      <c s="22" r="K74"/>
-      <c s="22" r="L74"/>
-      <c s="22" r="M74"/>
-      <c s="22" r="N74"/>
-      <c s="22" r="O74"/>
-      <c s="22" r="P74"/>
-      <c s="22" r="Q74"/>
-      <c s="22" r="R74"/>
-      <c s="22" r="S74"/>
-      <c s="22" r="T74"/>
-      <c s="22" r="U74"/>
-      <c s="22" r="V74"/>
-      <c s="22" r="W74"/>
-      <c s="22" r="X74"/>
-      <c s="22" r="Y74"/>
-      <c s="22" r="Z74"/>
+      <c s="10" r="A74"/>
+      <c s="13" r="B74"/>
+      <c s="13" r="C74"/>
+      <c s="13" r="D74"/>
+      <c s="13" r="E74"/>
+      <c s="10" r="F74"/>
+      <c s="13" r="G74"/>
+      <c s="13" r="H74"/>
+      <c s="13" r="I74"/>
+      <c s="13" r="J74"/>
+      <c s="13" r="K74"/>
+      <c s="13" r="L74"/>
+      <c s="13" r="M74"/>
+      <c s="13" r="N74"/>
+      <c s="13" r="O74"/>
+      <c s="13" r="P74"/>
+      <c s="13" r="Q74"/>
+      <c s="13" r="R74"/>
+      <c s="13" r="S74"/>
+      <c s="13" r="T74"/>
+      <c s="13" r="U74"/>
+      <c s="13" r="V74"/>
+      <c s="13" r="W74"/>
+      <c s="13" r="X74"/>
+      <c s="13" r="Y74"/>
+      <c s="13" r="Z74"/>
     </row>
     <row customHeight="1" r="75" ht="15.75">
-      <c s="14" r="A75"/>
-      <c s="22" r="B75"/>
-      <c s="22" r="C75"/>
-      <c s="22" r="D75"/>
-      <c s="22" r="E75"/>
-      <c s="14" r="F75"/>
-      <c s="22" r="G75"/>
-      <c s="22" r="H75"/>
-      <c s="22" r="I75"/>
-      <c s="22" r="J75"/>
-      <c s="22" r="K75"/>
-      <c s="22" r="L75"/>
-      <c s="22" r="M75"/>
-      <c s="22" r="N75"/>
-      <c s="22" r="O75"/>
-      <c s="22" r="P75"/>
-      <c s="22" r="Q75"/>
-      <c s="22" r="R75"/>
-      <c s="22" r="S75"/>
-      <c s="22" r="T75"/>
-      <c s="22" r="U75"/>
-      <c s="22" r="V75"/>
-      <c s="22" r="W75"/>
-      <c s="22" r="X75"/>
-      <c s="22" r="Y75"/>
-      <c s="22" r="Z75"/>
+      <c s="10" r="A75"/>
+      <c s="13" r="B75"/>
+      <c s="13" r="C75"/>
+      <c s="13" r="D75"/>
+      <c s="13" r="E75"/>
+      <c s="10" r="F75"/>
+      <c s="13" r="G75"/>
+      <c s="13" r="H75"/>
+      <c s="13" r="I75"/>
+      <c s="13" r="J75"/>
+      <c s="13" r="K75"/>
+      <c s="13" r="L75"/>
+      <c s="13" r="M75"/>
+      <c s="13" r="N75"/>
+      <c s="13" r="O75"/>
+      <c s="13" r="P75"/>
+      <c s="13" r="Q75"/>
+      <c s="13" r="R75"/>
+      <c s="13" r="S75"/>
+      <c s="13" r="T75"/>
+      <c s="13" r="U75"/>
+      <c s="13" r="V75"/>
+      <c s="13" r="W75"/>
+      <c s="13" r="X75"/>
+      <c s="13" r="Y75"/>
+      <c s="13" r="Z75"/>
     </row>
     <row customHeight="1" r="76" ht="15.75">
-      <c s="14" r="A76"/>
-      <c s="22" r="B76"/>
-      <c s="22" r="C76"/>
-      <c s="22" r="D76"/>
-      <c s="22" r="E76"/>
-      <c s="14" r="F76"/>
-      <c s="22" r="G76"/>
-      <c s="22" r="H76"/>
-      <c s="22" r="I76"/>
-      <c s="22" r="J76"/>
-      <c s="22" r="K76"/>
-      <c s="22" r="L76"/>
-      <c s="22" r="M76"/>
-      <c s="22" r="N76"/>
-      <c s="22" r="O76"/>
-      <c s="22" r="P76"/>
-      <c s="22" r="Q76"/>
-      <c s="22" r="R76"/>
-      <c s="22" r="S76"/>
-      <c s="22" r="T76"/>
-      <c s="22" r="U76"/>
-      <c s="22" r="V76"/>
-      <c s="22" r="W76"/>
-      <c s="22" r="X76"/>
-      <c s="22" r="Y76"/>
-      <c s="22" r="Z76"/>
+      <c s="10" r="A76"/>
+      <c s="13" r="B76"/>
+      <c s="13" r="C76"/>
+      <c s="13" r="D76"/>
+      <c s="13" r="E76"/>
+      <c s="10" r="F76"/>
+      <c s="13" r="G76"/>
+      <c s="13" r="H76"/>
+      <c s="13" r="I76"/>
+      <c s="13" r="J76"/>
+      <c s="13" r="K76"/>
+      <c s="13" r="L76"/>
+      <c s="13" r="M76"/>
+      <c s="13" r="N76"/>
+      <c s="13" r="O76"/>
+      <c s="13" r="P76"/>
+      <c s="13" r="Q76"/>
+      <c s="13" r="R76"/>
+      <c s="13" r="S76"/>
+      <c s="13" r="T76"/>
+      <c s="13" r="U76"/>
+      <c s="13" r="V76"/>
+      <c s="13" r="W76"/>
+      <c s="13" r="X76"/>
+      <c s="13" r="Y76"/>
+      <c s="13" r="Z76"/>
     </row>
     <row customHeight="1" r="77" ht="15.75">
-      <c s="14" r="A77"/>
-      <c s="22" r="B77"/>
-      <c s="22" r="C77"/>
-      <c s="22" r="D77"/>
-      <c s="22" r="E77"/>
-      <c s="14" r="F77"/>
-      <c s="22" r="G77"/>
-      <c s="22" r="H77"/>
-      <c s="22" r="I77"/>
-      <c s="22" r="J77"/>
-      <c s="22" r="K77"/>
-      <c s="22" r="L77"/>
-      <c s="22" r="M77"/>
-      <c s="22" r="N77"/>
-      <c s="22" r="O77"/>
-      <c s="22" r="P77"/>
-      <c s="22" r="Q77"/>
-      <c s="22" r="R77"/>
-      <c s="22" r="S77"/>
-      <c s="22" r="T77"/>
-      <c s="22" r="U77"/>
-      <c s="22" r="V77"/>
-      <c s="22" r="W77"/>
-      <c s="22" r="X77"/>
-      <c s="22" r="Y77"/>
-      <c s="22" r="Z77"/>
+      <c s="10" r="A77"/>
+      <c s="13" r="B77"/>
+      <c s="13" r="C77"/>
+      <c s="13" r="D77"/>
+      <c s="13" r="E77"/>
+      <c s="10" r="F77"/>
+      <c s="13" r="G77"/>
+      <c s="13" r="H77"/>
+      <c s="13" r="I77"/>
+      <c s="13" r="J77"/>
+      <c s="13" r="K77"/>
+      <c s="13" r="L77"/>
+      <c s="13" r="M77"/>
+      <c s="13" r="N77"/>
+      <c s="13" r="O77"/>
+      <c s="13" r="P77"/>
+      <c s="13" r="Q77"/>
+      <c s="13" r="R77"/>
+      <c s="13" r="S77"/>
+      <c s="13" r="T77"/>
+      <c s="13" r="U77"/>
+      <c s="13" r="V77"/>
+      <c s="13" r="W77"/>
+      <c s="13" r="X77"/>
+      <c s="13" r="Y77"/>
+      <c s="13" r="Z77"/>
     </row>
     <row customHeight="1" r="78" ht="15.75">
-      <c s="14" r="A78"/>
-      <c s="22" r="B78"/>
-      <c s="22" r="C78"/>
-      <c s="22" r="D78"/>
-      <c s="22" r="E78"/>
-      <c s="14" r="F78"/>
-      <c s="22" r="G78"/>
-      <c s="22" r="H78"/>
-      <c s="22" r="I78"/>
-      <c s="22" r="J78"/>
-      <c s="22" r="K78"/>
-      <c s="22" r="L78"/>
-      <c s="22" r="M78"/>
-      <c s="22" r="N78"/>
-      <c s="22" r="O78"/>
-      <c s="22" r="P78"/>
-      <c s="22" r="Q78"/>
-      <c s="22" r="R78"/>
-      <c s="22" r="S78"/>
-      <c s="22" r="T78"/>
-      <c s="22" r="U78"/>
-      <c s="22" r="V78"/>
-      <c s="22" r="W78"/>
-      <c s="22" r="X78"/>
-      <c s="22" r="Y78"/>
-      <c s="22" r="Z78"/>
+      <c s="10" r="A78"/>
+      <c s="13" r="B78"/>
+      <c s="13" r="C78"/>
+      <c s="13" r="D78"/>
+      <c s="13" r="E78"/>
+      <c s="10" r="F78"/>
+      <c s="13" r="G78"/>
+      <c s="13" r="H78"/>
+      <c s="13" r="I78"/>
+      <c s="13" r="J78"/>
+      <c s="13" r="K78"/>
+      <c s="13" r="L78"/>
+      <c s="13" r="M78"/>
+      <c s="13" r="N78"/>
+      <c s="13" r="O78"/>
+      <c s="13" r="P78"/>
+      <c s="13" r="Q78"/>
+      <c s="13" r="R78"/>
+      <c s="13" r="S78"/>
+      <c s="13" r="T78"/>
+      <c s="13" r="U78"/>
+      <c s="13" r="V78"/>
+      <c s="13" r="W78"/>
+      <c s="13" r="X78"/>
+      <c s="13" r="Y78"/>
+      <c s="13" r="Z78"/>
     </row>
     <row customHeight="1" r="79" ht="15.75">
-      <c s="14" r="A79"/>
-      <c s="22" r="B79"/>
-      <c s="22" r="C79"/>
-      <c s="22" r="D79"/>
-      <c s="22" r="E79"/>
-      <c s="14" r="F79"/>
-      <c s="22" r="G79"/>
-      <c s="22" r="H79"/>
-      <c s="22" r="I79"/>
-      <c s="22" r="J79"/>
-      <c s="22" r="K79"/>
-      <c s="22" r="L79"/>
-      <c s="22" r="M79"/>
-      <c s="22" r="N79"/>
-      <c s="22" r="O79"/>
-      <c s="22" r="P79"/>
-      <c s="22" r="Q79"/>
-      <c s="22" r="R79"/>
-      <c s="22" r="S79"/>
-      <c s="22" r="T79"/>
-      <c s="22" r="U79"/>
-      <c s="22" r="V79"/>
-      <c s="22" r="W79"/>
-      <c s="22" r="X79"/>
-      <c s="22" r="Y79"/>
-      <c s="22" r="Z79"/>
+      <c s="10" r="A79"/>
+      <c s="13" r="B79"/>
+      <c s="13" r="C79"/>
+      <c s="13" r="D79"/>
+      <c s="13" r="E79"/>
+      <c s="10" r="F79"/>
+      <c s="13" r="G79"/>
+      <c s="13" r="H79"/>
+      <c s="13" r="I79"/>
+      <c s="13" r="J79"/>
+      <c s="13" r="K79"/>
+      <c s="13" r="L79"/>
+      <c s="13" r="M79"/>
+      <c s="13" r="N79"/>
+      <c s="13" r="O79"/>
+      <c s="13" r="P79"/>
+      <c s="13" r="Q79"/>
+      <c s="13" r="R79"/>
+      <c s="13" r="S79"/>
+      <c s="13" r="T79"/>
+      <c s="13" r="U79"/>
+      <c s="13" r="V79"/>
+      <c s="13" r="W79"/>
+      <c s="13" r="X79"/>
+      <c s="13" r="Y79"/>
+      <c s="13" r="Z79"/>
     </row>
     <row customHeight="1" r="80" ht="15.75">
-      <c s="14" r="A80"/>
-      <c s="22" r="B80"/>
-      <c s="22" r="C80"/>
-      <c s="22" r="D80"/>
-      <c s="22" r="E80"/>
-      <c s="14" r="F80"/>
-      <c s="22" r="G80"/>
-      <c s="22" r="H80"/>
-      <c s="22" r="I80"/>
-      <c s="22" r="J80"/>
-      <c s="22" r="K80"/>
-      <c s="22" r="L80"/>
-      <c s="22" r="M80"/>
-      <c s="22" r="N80"/>
-      <c s="22" r="O80"/>
-      <c s="22" r="P80"/>
-      <c s="22" r="Q80"/>
-      <c s="22" r="R80"/>
-      <c s="22" r="S80"/>
-      <c s="22" r="T80"/>
-      <c s="22" r="U80"/>
-      <c s="22" r="V80"/>
-      <c s="22" r="W80"/>
-      <c s="22" r="X80"/>
-      <c s="22" r="Y80"/>
-      <c s="22" r="Z80"/>
+      <c s="10" r="A80"/>
+      <c s="13" r="B80"/>
+      <c s="13" r="C80"/>
+      <c s="13" r="D80"/>
+      <c s="13" r="E80"/>
+      <c s="10" r="F80"/>
+      <c s="13" r="G80"/>
+      <c s="13" r="H80"/>
+      <c s="13" r="I80"/>
+      <c s="13" r="J80"/>
+      <c s="13" r="K80"/>
+      <c s="13" r="L80"/>
+      <c s="13" r="M80"/>
+      <c s="13" r="N80"/>
+      <c s="13" r="O80"/>
+      <c s="13" r="P80"/>
+      <c s="13" r="Q80"/>
+      <c s="13" r="R80"/>
+      <c s="13" r="S80"/>
+      <c s="13" r="T80"/>
+      <c s="13" r="U80"/>
+      <c s="13" r="V80"/>
+      <c s="13" r="W80"/>
+      <c s="13" r="X80"/>
+      <c s="13" r="Y80"/>
+      <c s="13" r="Z80"/>
     </row>
     <row customHeight="1" r="81" ht="15.75">
-      <c s="14" r="A81"/>
-      <c s="22" r="B81"/>
-      <c s="22" r="C81"/>
-      <c s="22" r="D81"/>
-      <c s="22" r="E81"/>
-      <c s="14" r="F81"/>
-      <c s="22" r="G81"/>
-      <c s="22" r="H81"/>
-      <c s="22" r="I81"/>
-      <c s="22" r="J81"/>
-      <c s="22" r="K81"/>
-      <c s="22" r="L81"/>
-      <c s="22" r="M81"/>
-      <c s="22" r="N81"/>
-      <c s="22" r="O81"/>
-      <c s="22" r="P81"/>
-      <c s="22" r="Q81"/>
-      <c s="22" r="R81"/>
-      <c s="22" r="S81"/>
-      <c s="22" r="T81"/>
-      <c s="22" r="U81"/>
-      <c s="22" r="V81"/>
-      <c s="22" r="W81"/>
-      <c s="22" r="X81"/>
-      <c s="22" r="Y81"/>
-      <c s="22" r="Z81"/>
+      <c s="10" r="A81"/>
+      <c s="13" r="B81"/>
+      <c s="13" r="C81"/>
+      <c s="13" r="D81"/>
+      <c s="13" r="E81"/>
+      <c s="10" r="F81"/>
+      <c s="13" r="G81"/>
+      <c s="13" r="H81"/>
+      <c s="13" r="I81"/>
+      <c s="13" r="J81"/>
+      <c s="13" r="K81"/>
+      <c s="13" r="L81"/>
+      <c s="13" r="M81"/>
+      <c s="13" r="N81"/>
+      <c s="13" r="O81"/>
+      <c s="13" r="P81"/>
+      <c s="13" r="Q81"/>
+      <c s="13" r="R81"/>
+      <c s="13" r="S81"/>
+      <c s="13" r="T81"/>
+      <c s="13" r="U81"/>
+      <c s="13" r="V81"/>
+      <c s="13" r="W81"/>
+      <c s="13" r="X81"/>
+      <c s="13" r="Y81"/>
+      <c s="13" r="Z81"/>
     </row>
     <row customHeight="1" r="82" ht="15.75">
-      <c s="14" r="A82"/>
-      <c s="22" r="B82"/>
-      <c s="22" r="C82"/>
-      <c s="22" r="D82"/>
-      <c s="22" r="E82"/>
-      <c s="14" r="F82"/>
-      <c s="22" r="G82"/>
-      <c s="22" r="H82"/>
-      <c s="22" r="I82"/>
-      <c s="22" r="J82"/>
-      <c s="22" r="K82"/>
-      <c s="22" r="L82"/>
-      <c s="22" r="M82"/>
-      <c s="22" r="N82"/>
-      <c s="22" r="O82"/>
-      <c s="22" r="P82"/>
-      <c s="22" r="Q82"/>
-      <c s="22" r="R82"/>
-      <c s="22" r="S82"/>
-      <c s="22" r="T82"/>
-      <c s="22" r="U82"/>
-      <c s="22" r="V82"/>
-      <c s="22" r="W82"/>
-      <c s="22" r="X82"/>
-      <c s="22" r="Y82"/>
-      <c s="22" r="Z82"/>
+      <c s="10" r="A82"/>
+      <c s="13" r="B82"/>
+      <c s="13" r="C82"/>
+      <c s="13" r="D82"/>
+      <c s="13" r="E82"/>
+      <c s="10" r="F82"/>
+      <c s="13" r="G82"/>
+      <c s="13" r="H82"/>
+      <c s="13" r="I82"/>
+      <c s="13" r="J82"/>
+      <c s="13" r="K82"/>
+      <c s="13" r="L82"/>
+      <c s="13" r="M82"/>
+      <c s="13" r="N82"/>
+      <c s="13" r="O82"/>
+      <c s="13" r="P82"/>
+      <c s="13" r="Q82"/>
+      <c s="13" r="R82"/>
+      <c s="13" r="S82"/>
+      <c s="13" r="T82"/>
+      <c s="13" r="U82"/>
+      <c s="13" r="V82"/>
+      <c s="13" r="W82"/>
+      <c s="13" r="X82"/>
+      <c s="13" r="Y82"/>
+      <c s="13" r="Z82"/>
     </row>
     <row customHeight="1" r="83" ht="15.75">
-      <c s="14" r="A83"/>
-      <c s="22" r="B83"/>
-      <c s="22" r="C83"/>
-      <c s="22" r="D83"/>
-      <c s="22" r="E83"/>
-      <c s="14" r="F83"/>
-      <c s="22" r="G83"/>
-      <c s="22" r="H83"/>
-      <c s="22" r="I83"/>
-      <c s="22" r="J83"/>
-      <c s="22" r="K83"/>
-      <c s="22" r="L83"/>
-      <c s="22" r="M83"/>
-      <c s="22" r="N83"/>
-      <c s="22" r="O83"/>
-      <c s="22" r="P83"/>
-      <c s="22" r="Q83"/>
-      <c s="22" r="R83"/>
-      <c s="22" r="S83"/>
-      <c s="22" r="T83"/>
-      <c s="22" r="U83"/>
-      <c s="22" r="V83"/>
-      <c s="22" r="W83"/>
-      <c s="22" r="X83"/>
-      <c s="22" r="Y83"/>
-      <c s="22" r="Z83"/>
+      <c s="10" r="A83"/>
+      <c s="13" r="B83"/>
+      <c s="13" r="C83"/>
+      <c s="13" r="D83"/>
+      <c s="13" r="E83"/>
+      <c s="10" r="F83"/>
+      <c s="13" r="G83"/>
+      <c s="13" r="H83"/>
+      <c s="13" r="I83"/>
+      <c s="13" r="J83"/>
+      <c s="13" r="K83"/>
+      <c s="13" r="L83"/>
+      <c s="13" r="M83"/>
+      <c s="13" r="N83"/>
+      <c s="13" r="O83"/>
+      <c s="13" r="P83"/>
+      <c s="13" r="Q83"/>
+      <c s="13" r="R83"/>
+      <c s="13" r="S83"/>
+      <c s="13" r="T83"/>
+      <c s="13" r="U83"/>
+      <c s="13" r="V83"/>
+      <c s="13" r="W83"/>
+      <c s="13" r="X83"/>
+      <c s="13" r="Y83"/>
+      <c s="13" r="Z83"/>
     </row>
     <row customHeight="1" r="84" ht="15.75">
-      <c s="14" r="A84"/>
-      <c s="22" r="B84"/>
-      <c s="22" r="C84"/>
-      <c s="22" r="D84"/>
-      <c s="22" r="E84"/>
-      <c s="14" r="F84"/>
-      <c s="22" r="G84"/>
-      <c s="22" r="H84"/>
-      <c s="22" r="I84"/>
-      <c s="22" r="J84"/>
-      <c s="22" r="K84"/>
-      <c s="22" r="L84"/>
-      <c s="22" r="M84"/>
-      <c s="22" r="N84"/>
-      <c s="22" r="O84"/>
-      <c s="22" r="P84"/>
-      <c s="22" r="Q84"/>
-      <c s="22" r="R84"/>
-      <c s="22" r="S84"/>
-      <c s="22" r="T84"/>
-      <c s="22" r="U84"/>
-      <c s="22" r="V84"/>
-      <c s="22" r="W84"/>
-      <c s="22" r="X84"/>
-      <c s="22" r="Y84"/>
-      <c s="22" r="Z84"/>
+      <c s="10" r="A84"/>
+      <c s="13" r="B84"/>
+      <c s="13" r="C84"/>
+      <c s="13" r="D84"/>
+      <c s="13" r="E84"/>
+      <c s="10" r="F84"/>
+      <c s="13" r="G84"/>
+      <c s="13" r="H84"/>
+      <c s="13" r="I84"/>
+      <c s="13" r="J84"/>
+      <c s="13" r="K84"/>
+      <c s="13" r="L84"/>
+      <c s="13" r="M84"/>
+      <c s="13" r="N84"/>
+      <c s="13" r="O84"/>
+      <c s="13" r="P84"/>
+      <c s="13" r="Q84"/>
+      <c s="13" r="R84"/>
+      <c s="13" r="S84"/>
+      <c s="13" r="T84"/>
+      <c s="13" r="U84"/>
+      <c s="13" r="V84"/>
+      <c s="13" r="W84"/>
+      <c s="13" r="X84"/>
+      <c s="13" r="Y84"/>
+      <c s="13" r="Z84"/>
     </row>
     <row customHeight="1" r="85" ht="15.75">
-      <c s="14" r="A85"/>
-      <c s="22" r="B85"/>
-      <c s="22" r="C85"/>
-      <c s="22" r="D85"/>
-      <c s="22" r="E85"/>
-      <c s="14" r="F85"/>
-      <c s="22" r="G85"/>
-      <c s="22" r="H85"/>
-      <c s="22" r="I85"/>
-      <c s="22" r="J85"/>
-      <c s="22" r="K85"/>
-      <c s="22" r="L85"/>
-      <c s="22" r="M85"/>
-      <c s="22" r="N85"/>
-      <c s="22" r="O85"/>
-      <c s="22" r="P85"/>
-      <c s="22" r="Q85"/>
-      <c s="22" r="R85"/>
-      <c s="22" r="S85"/>
-      <c s="22" r="T85"/>
-      <c s="22" r="U85"/>
-      <c s="22" r="V85"/>
-      <c s="22" r="W85"/>
-      <c s="22" r="X85"/>
-      <c s="22" r="Y85"/>
-      <c s="22" r="Z85"/>
+      <c s="10" r="A85"/>
+      <c s="13" r="B85"/>
+      <c s="13" r="C85"/>
+      <c s="13" r="D85"/>
+      <c s="13" r="E85"/>
+      <c s="10" r="F85"/>
+      <c s="13" r="G85"/>
+      <c s="13" r="H85"/>
+      <c s="13" r="I85"/>
+      <c s="13" r="J85"/>
+      <c s="13" r="K85"/>
+      <c s="13" r="L85"/>
+      <c s="13" r="M85"/>
+      <c s="13" r="N85"/>
+      <c s="13" r="O85"/>
+      <c s="13" r="P85"/>
+      <c s="13" r="Q85"/>
+      <c s="13" r="R85"/>
+      <c s="13" r="S85"/>
+      <c s="13" r="T85"/>
+      <c s="13" r="U85"/>
+      <c s="13" r="V85"/>
+      <c s="13" r="W85"/>
+      <c s="13" r="X85"/>
+      <c s="13" r="Y85"/>
+      <c s="13" r="Z85"/>
     </row>
     <row customHeight="1" r="86" ht="15.75">
-      <c s="14" r="A86"/>
-      <c s="22" r="B86"/>
-      <c s="22" r="C86"/>
-      <c s="22" r="D86"/>
-      <c s="22" r="E86"/>
-      <c s="14" r="F86"/>
-      <c s="22" r="G86"/>
-      <c s="22" r="H86"/>
-      <c s="22" r="I86"/>
-      <c s="22" r="J86"/>
-      <c s="22" r="K86"/>
-      <c s="22" r="L86"/>
-      <c s="22" r="M86"/>
-      <c s="22" r="N86"/>
-      <c s="22" r="O86"/>
-      <c s="22" r="P86"/>
-      <c s="22" r="Q86"/>
-      <c s="22" r="R86"/>
-      <c s="22" r="S86"/>
-      <c s="22" r="T86"/>
-      <c s="22" r="U86"/>
-      <c s="22" r="V86"/>
-      <c s="22" r="W86"/>
-      <c s="22" r="X86"/>
-      <c s="22" r="Y86"/>
-      <c s="22" r="Z86"/>
+      <c s="10" r="A86"/>
+      <c s="13" r="B86"/>
+      <c s="13" r="C86"/>
+      <c s="13" r="D86"/>
+      <c s="13" r="E86"/>
+      <c s="10" r="F86"/>
+      <c s="13" r="G86"/>
+      <c s="13" r="H86"/>
+      <c s="13" r="I86"/>
+      <c s="13" r="J86"/>
+      <c s="13" r="K86"/>
+      <c s="13" r="L86"/>
+      <c s="13" r="M86"/>
+      <c s="13" r="N86"/>
+      <c s="13" r="O86"/>
+      <c s="13" r="P86"/>
+      <c s="13" r="Q86"/>
+      <c s="13" r="R86"/>
+      <c s="13" r="S86"/>
+      <c s="13" r="T86"/>
+      <c s="13" r="U86"/>
+      <c s="13" r="V86"/>
+      <c s="13" r="W86"/>
+      <c s="13" r="X86"/>
+      <c s="13" r="Y86"/>
+      <c s="13" r="Z86"/>
     </row>
     <row customHeight="1" r="87" ht="15.75">
-      <c s="14" r="A87"/>
-      <c s="22" r="B87"/>
-      <c s="22" r="C87"/>
-      <c s="22" r="D87"/>
-      <c s="22" r="E87"/>
-      <c s="14" r="F87"/>
-      <c s="22" r="G87"/>
-      <c s="22" r="H87"/>
-      <c s="22" r="I87"/>
-      <c s="22" r="J87"/>
-      <c s="22" r="K87"/>
-      <c s="22" r="L87"/>
-      <c s="22" r="M87"/>
-      <c s="22" r="N87"/>
-      <c s="22" r="O87"/>
-      <c s="22" r="P87"/>
-      <c s="22" r="Q87"/>
-      <c s="22" r="R87"/>
-      <c s="22" r="S87"/>
-      <c s="22" r="T87"/>
-      <c s="22" r="U87"/>
-      <c s="22" r="V87"/>
-      <c s="22" r="W87"/>
-      <c s="22" r="X87"/>
-      <c s="22" r="Y87"/>
-      <c s="22" r="Z87"/>
+      <c s="10" r="A87"/>
+      <c s="13" r="B87"/>
+      <c s="13" r="C87"/>
+      <c s="13" r="D87"/>
+      <c s="13" r="E87"/>
+      <c s="10" r="F87"/>
+      <c s="13" r="G87"/>
+      <c s="13" r="H87"/>
+      <c s="13" r="I87"/>
+      <c s="13" r="J87"/>
+      <c s="13" r="K87"/>
+      <c s="13" r="L87"/>
+      <c s="13" r="M87"/>
+      <c s="13" r="N87"/>
+      <c s="13" r="O87"/>
+      <c s="13" r="P87"/>
+      <c s="13" r="Q87"/>
+      <c s="13" r="R87"/>
+      <c s="13" r="S87"/>
+      <c s="13" r="T87"/>
+      <c s="13" r="U87"/>
+      <c s="13" r="V87"/>
+      <c s="13" r="W87"/>
+      <c s="13" r="X87"/>
+      <c s="13" r="Y87"/>
+      <c s="13" r="Z87"/>
     </row>
     <row customHeight="1" r="88" ht="15.75">
-      <c s="14" r="A88"/>
-      <c s="22" r="B88"/>
-      <c s="22" r="C88"/>
-      <c s="22" r="D88"/>
-      <c s="22" r="E88"/>
-      <c s="14" r="F88"/>
-      <c s="22" r="G88"/>
-      <c s="22" r="H88"/>
-      <c s="22" r="I88"/>
-      <c s="22" r="J88"/>
-      <c s="22" r="K88"/>
-      <c s="22" r="L88"/>
-      <c s="22" r="M88"/>
-      <c s="22" r="N88"/>
-      <c s="22" r="O88"/>
-      <c s="22" r="P88"/>
-      <c s="22" r="Q88"/>
-      <c s="22" r="R88"/>
-      <c s="22" r="S88"/>
-      <c s="22" r="T88"/>
-      <c s="22" r="U88"/>
-      <c s="22" r="V88"/>
-      <c s="22" r="W88"/>
-      <c s="22" r="X88"/>
-      <c s="22" r="Y88"/>
-      <c s="22" r="Z88"/>
+      <c s="10" r="A88"/>
+      <c s="13" r="B88"/>
+      <c s="13" r="C88"/>
+      <c s="13" r="D88"/>
+      <c s="13" r="E88"/>
+      <c s="10" r="F88"/>
+      <c s="13" r="G88"/>
+      <c s="13" r="H88"/>
+      <c s="13" r="I88"/>
+      <c s="13" r="J88"/>
+      <c s="13" r="K88"/>
+      <c s="13" r="L88"/>
+      <c s="13" r="M88"/>
+      <c s="13" r="N88"/>
+      <c s="13" r="O88"/>
+      <c s="13" r="P88"/>
+      <c s="13" r="Q88"/>
+      <c s="13" r="R88"/>
+      <c s="13" r="S88"/>
+      <c s="13" r="T88"/>
+      <c s="13" r="U88"/>
+      <c s="13" r="V88"/>
+      <c s="13" r="W88"/>
+      <c s="13" r="X88"/>
+      <c s="13" r="Y88"/>
+      <c s="13" r="Z88"/>
     </row>
     <row customHeight="1" r="89" ht="15.75">
-      <c s="14" r="A89"/>
-      <c s="22" r="B89"/>
-      <c s="22" r="C89"/>
-      <c s="22" r="D89"/>
-      <c s="22" r="E89"/>
-      <c s="14" r="F89"/>
-      <c s="22" r="G89"/>
-      <c s="22" r="H89"/>
-      <c s="22" r="I89"/>
-      <c s="22" r="J89"/>
-      <c s="22" r="K89"/>
-      <c s="22" r="L89"/>
-      <c s="22" r="M89"/>
-      <c s="22" r="N89"/>
-      <c s="22" r="O89"/>
-      <c s="22" r="P89"/>
-      <c s="22" r="Q89"/>
-      <c s="22" r="R89"/>
-      <c s="22" r="S89"/>
-      <c s="22" r="T89"/>
-      <c s="22" r="U89"/>
-      <c s="22" r="V89"/>
-      <c s="22" r="W89"/>
-      <c s="22" r="X89"/>
-      <c s="22" r="Y89"/>
-      <c s="22" r="Z89"/>
+      <c s="10" r="A89"/>
+      <c s="13" r="B89"/>
+      <c s="13" r="C89"/>
+      <c s="13" r="D89"/>
+      <c s="13" r="E89"/>
+      <c s="10" r="F89"/>
+      <c s="13" r="G89"/>
+      <c s="13" r="H89"/>
+      <c s="13" r="I89"/>
+      <c s="13" r="J89"/>
+      <c s="13" r="K89"/>
+      <c s="13" r="L89"/>
+      <c s="13" r="M89"/>
+      <c s="13" r="N89"/>
+      <c s="13" r="O89"/>
+      <c s="13" r="P89"/>
+      <c s="13" r="Q89"/>
+      <c s="13" r="R89"/>
+      <c s="13" r="S89"/>
+      <c s="13" r="T89"/>
+      <c s="13" r="U89"/>
+      <c s="13" r="V89"/>
+      <c s="13" r="W89"/>
+      <c s="13" r="X89"/>
+      <c s="13" r="Y89"/>
+      <c s="13" r="Z89"/>
     </row>
     <row customHeight="1" r="90" ht="15.75">
-      <c s="14" r="A90"/>
-      <c s="22" r="B90"/>
-      <c s="22" r="C90"/>
-      <c s="22" r="D90"/>
-      <c s="22" r="E90"/>
-      <c s="14" r="F90"/>
-      <c s="22" r="G90"/>
-      <c s="22" r="H90"/>
-      <c s="22" r="I90"/>
-      <c s="22" r="J90"/>
-      <c s="22" r="K90"/>
-      <c s="22" r="L90"/>
-      <c s="22" r="M90"/>
-      <c s="22" r="N90"/>
-      <c s="22" r="O90"/>
-      <c s="22" r="P90"/>
-      <c s="22" r="Q90"/>
-      <c s="22" r="R90"/>
-      <c s="22" r="S90"/>
-      <c s="22" r="T90"/>
-      <c s="22" r="U90"/>
-      <c s="22" r="V90"/>
-      <c s="22" r="W90"/>
-      <c s="22" r="X90"/>
-      <c s="22" r="Y90"/>
-      <c s="22" r="Z90"/>
+      <c s="10" r="A90"/>
+      <c s="13" r="B90"/>
+      <c s="13" r="C90"/>
+      <c s="13" r="D90"/>
+      <c s="13" r="E90"/>
+      <c s="10" r="F90"/>
+      <c s="13" r="G90"/>
+      <c s="13" r="H90"/>
+      <c s="13" r="I90"/>
+      <c s="13" r="J90"/>
+      <c s="13" r="K90"/>
+      <c s="13" r="L90"/>
+      <c s="13" r="M90"/>
+      <c s="13" r="N90"/>
+      <c s="13" r="O90"/>
+      <c s="13" r="P90"/>
+      <c s="13" r="Q90"/>
+      <c s="13" r="R90"/>
+      <c s="13" r="S90"/>
+      <c s="13" r="T90"/>
+      <c s="13" r="U90"/>
+      <c s="13" r="V90"/>
+      <c s="13" r="W90"/>
+      <c s="13" r="X90"/>
+      <c s="13" r="Y90"/>
+      <c s="13" r="Z90"/>
     </row>
     <row customHeight="1" r="91" ht="15.75">
-      <c s="14" r="A91"/>
-      <c s="22" r="B91"/>
-      <c s="22" r="C91"/>
-      <c s="22" r="D91"/>
-      <c s="22" r="E91"/>
-      <c s="14" r="F91"/>
-      <c s="22" r="G91"/>
-      <c s="22" r="H91"/>
-      <c s="22" r="I91"/>
-      <c s="22" r="J91"/>
-      <c s="22" r="K91"/>
-      <c s="22" r="L91"/>
-      <c s="22" r="M91"/>
-      <c s="22" r="N91"/>
-      <c s="22" r="O91"/>
-      <c s="22" r="P91"/>
-      <c s="22" r="Q91"/>
-      <c s="22" r="R91"/>
-      <c s="22" r="S91"/>
-      <c s="22" r="T91"/>
-      <c s="22" r="U91"/>
-      <c s="22" r="V91"/>
-      <c s="22" r="W91"/>
-      <c s="22" r="X91"/>
-      <c s="22" r="Y91"/>
-      <c s="22" r="Z91"/>
+      <c s="10" r="A91"/>
+      <c s="13" r="B91"/>
+      <c s="13" r="C91"/>
+      <c s="13" r="D91"/>
+      <c s="13" r="E91"/>
+      <c s="10" r="F91"/>
+      <c s="13" r="G91"/>
+      <c s="13" r="H91"/>
+      <c s="13" r="I91"/>
+      <c s="13" r="J91"/>
+      <c s="13" r="K91"/>
+      <c s="13" r="L91"/>
+      <c s="13" r="M91"/>
+      <c s="13" r="N91"/>
+      <c s="13" r="O91"/>
+      <c s="13" r="P91"/>
+      <c s="13" r="Q91"/>
+      <c s="13" r="R91"/>
+      <c s="13" r="S91"/>
+      <c s="13" r="T91"/>
+      <c s="13" r="U91"/>
+      <c s="13" r="V91"/>
+      <c s="13" r="W91"/>
+      <c s="13" r="X91"/>
+      <c s="13" r="Y91"/>
+      <c s="13" r="Z91"/>
     </row>
     <row customHeight="1" r="92" ht="15.75">
-      <c s="14" r="A92"/>
-      <c s="22" r="B92"/>
-      <c s="22" r="C92"/>
-      <c s="22" r="D92"/>
-      <c s="22" r="E92"/>
-      <c s="14" r="F92"/>
-      <c s="22" r="G92"/>
-      <c s="22" r="H92"/>
-      <c s="22" r="I92"/>
-      <c s="22" r="J92"/>
-      <c s="22" r="K92"/>
-      <c s="22" r="L92"/>
-      <c s="22" r="M92"/>
-      <c s="22" r="N92"/>
-      <c s="22" r="O92"/>
-      <c s="22" r="P92"/>
-      <c s="22" r="Q92"/>
-      <c s="22" r="R92"/>
-      <c s="22" r="S92"/>
-      <c s="22" r="T92"/>
-      <c s="22" r="U92"/>
-      <c s="22" r="V92"/>
-      <c s="22" r="W92"/>
-      <c s="22" r="X92"/>
-      <c s="22" r="Y92"/>
-      <c s="22" r="Z92"/>
+      <c s="10" r="A92"/>
+      <c s="13" r="B92"/>
+      <c s="13" r="C92"/>
+      <c s="13" r="D92"/>
+      <c s="13" r="E92"/>
+      <c s="10" r="F92"/>
+      <c s="13" r="G92"/>
+      <c s="13" r="H92"/>
+      <c s="13" r="I92"/>
+      <c s="13" r="J92"/>
+      <c s="13" r="K92"/>
+      <c s="13" r="L92"/>
+      <c s="13" r="M92"/>
+      <c s="13" r="N92"/>
+      <c s="13" r="O92"/>
+      <c s="13" r="P92"/>
+      <c s="13" r="Q92"/>
+      <c s="13" r="R92"/>
+      <c s="13" r="S92"/>
+      <c s="13" r="T92"/>
+      <c s="13" r="U92"/>
+      <c s="13" r="V92"/>
+      <c s="13" r="W92"/>
+      <c s="13" r="X92"/>
+      <c s="13" r="Y92"/>
+      <c s="13" r="Z92"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8449,101 +8546,4 @@
   <drawing r:id="rId142"/>
   <legacyDrawing r:id="rId143"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c t="s" s="4" r="A1">
-        <v>4</v>
-      </c>
-      <c t="s" s="4" r="B1">
-        <v>43</v>
-      </c>
-      <c t="s" s="4" r="C1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2">
-      <c t="s" s="4" r="A2">
-        <v>47</v>
-      </c>
-      <c t="s" s="4" r="B2">
-        <v>48</v>
-      </c>
-      <c t="s" s="7" r="C2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="4" r="A3">
-        <v>54</v>
-      </c>
-      <c t="s" s="4" r="B3">
-        <v>55</v>
-      </c>
-      <c t="s" s="7" r="C3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="4" r="A4">
-        <v>63</v>
-      </c>
-      <c t="s" s="4" r="B4">
-        <v>67</v>
-      </c>
-      <c t="s" s="7" r="C4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="4" r="A5">
-        <v>74</v>
-      </c>
-      <c t="s" s="4" r="B5">
-        <v>76</v>
-      </c>
-      <c t="s" s="7" r="C5">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="4" r="A6">
-        <v>86</v>
-      </c>
-      <c t="s" s="4" r="B6">
-        <v>76</v>
-      </c>
-      <c t="s" s="7" r="C6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="4" r="A7">
-        <v>94</v>
-      </c>
-      <c t="s" s="4" r="B7">
-        <v>67</v>
-      </c>
-      <c t="s" s="7" r="C7">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-  </hyperlinks>
-  <drawing r:id="rId7"/>
-</worksheet>
 </file>